--- a/evaluator/report.xlsx
+++ b/evaluator/report.xlsx
@@ -442,10 +442,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>0.4144728520186618</v>
+        <v>0.2982643869472668</v>
       </c>
       <c r="E2" s="2">
-        <v>1854.493142254918</v>
+        <v>1880.435550857422</v>
       </c>
       <c r="F2" s="2">
         <v>1880.435550857423</v>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>0.3645620659808628</v>
+        <v>0.2794465470360592</v>
       </c>
       <c r="E3" s="2">
         <v>2209.789164589809</v>
@@ -504,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>0.2985916940378956</v>
+        <v>0.3614194119581953</v>
       </c>
       <c r="E4" s="2">
         <v>2215.856901222008</v>
@@ -535,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>0.3024935150169767</v>
+        <v>0.2828152339789085</v>
       </c>
       <c r="E5" s="2">
         <v>2361.023448273613</v>
@@ -559,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>0.3684487009886652</v>
+        <v>0.2799429059959948</v>
       </c>
       <c r="E6" s="2">
         <v>2482.994690262762</v>
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="2">
-        <v>0.3356621729908511</v>
+        <v>0.2776640229858458</v>
       </c>
       <c r="E7" s="2">
         <v>1854.185027252189</v>
@@ -621,7 +621,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="2">
-        <v>0.4006916530197486</v>
+        <v>0.2766694360179827</v>
       </c>
       <c r="E8" s="2">
         <v>1654.772496609385</v>
@@ -652,7 +652,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="2">
-        <v>0.2929748020251282</v>
+        <v>0.3790494269924238</v>
       </c>
       <c r="E9" s="2">
         <v>2566.452713978309</v>
@@ -676,10 +676,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>0.2989523790311068</v>
+        <v>0.344419741013553</v>
       </c>
       <c r="E10" s="2">
-        <v>1784.057441485816</v>
+        <v>1824.123270611746</v>
       </c>
       <c r="F10" s="2">
         <v>1824.123270611746</v>
@@ -700,10 +700,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="2">
-        <v>0.308243197039701</v>
+        <v>0.2921217550174333</v>
       </c>
       <c r="E11" s="2">
-        <v>2461.819799417576</v>
+        <v>2461.819799417577</v>
       </c>
       <c r="F11" s="2">
         <v>2461.819799417578</v>
@@ -724,7 +724,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="2">
-        <v>0.2920151389553212</v>
+        <v>0.321605539007578</v>
       </c>
       <c r="E12" s="2">
         <v>1679.463243794904</v>
@@ -748,10 +748,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="2">
-        <v>0.3010723660117947</v>
+        <v>0.3280204809852876</v>
       </c>
       <c r="E13" s="2">
-        <v>2212.756646290207</v>
+        <v>2288.763946670267</v>
       </c>
       <c r="F13" s="2">
         <v>2288.763946670267</v>
@@ -772,10 +772,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="2">
-        <v>0.2856642350088805</v>
+        <v>0.3682147570070811</v>
       </c>
       <c r="E14" s="2">
-        <v>1779.880426643231</v>
+        <v>1862.346206733525</v>
       </c>
       <c r="F14" s="2">
         <v>1862.346206733525</v>
@@ -796,7 +796,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="2">
-        <v>0.314431302016601</v>
+        <v>0.3117113029584289</v>
       </c>
       <c r="E15" s="2">
         <v>2216.287921935182</v>
@@ -820,7 +820,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="2">
-        <v>0.2918842939543538</v>
+        <v>0.2943215880077332</v>
       </c>
       <c r="E16" s="2">
         <v>2136.604240860625</v>
@@ -844,10 +844,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="2">
-        <v>0.3135919300257228</v>
+        <v>0.4024470099830069</v>
       </c>
       <c r="E17" s="2">
-        <v>2132.791895435753</v>
+        <v>2254.897660776275</v>
       </c>
       <c r="F17" s="2">
         <v>2254.897660776274</v>
@@ -868,10 +868,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="2">
-        <v>0.3613468079711311</v>
+        <v>0.3103241660282947</v>
       </c>
       <c r="E18" s="2">
-        <v>1785.831502949717</v>
+        <v>1868.345382948391</v>
       </c>
       <c r="F18" s="2">
         <v>1917.131395886052</v>
@@ -892,7 +892,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="2">
-        <v>0.3116753870272078</v>
+        <v>0.3956686420133337</v>
       </c>
       <c r="E19" s="2">
         <v>1526.430456155588</v>
@@ -916,7 +916,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="2">
-        <v>0.3533137189806439</v>
+        <v>0.3155576200224459</v>
       </c>
       <c r="E20" s="2">
         <v>2121.347531146519</v>
@@ -940,7 +940,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="2">
-        <v>0.3472680830163881</v>
+        <v>0.3020210950053297</v>
       </c>
       <c r="E21" s="2">
         <v>2146.2195250027</v>
@@ -964,10 +964,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="2">
-        <v>0.3649300039978698</v>
+        <v>0.4169941039872356</v>
       </c>
       <c r="E22" s="2">
-        <v>2166.794207494001</v>
+        <v>2291.843329263005</v>
       </c>
       <c r="F22" s="2">
         <v>2291.843329263006</v>
@@ -988,7 +988,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="2">
-        <v>0.2774928840226494</v>
+        <v>0.4087047189823352</v>
       </c>
       <c r="E23" s="2">
         <v>2332.901090260365</v>
@@ -1012,10 +1012,10 @@
         <v>23</v>
       </c>
       <c r="D24" s="2">
-        <v>0.281757368997205</v>
+        <v>0.4423752000438981</v>
       </c>
       <c r="E24" s="2">
-        <v>1735.85590664635</v>
+        <v>1847.758802812501</v>
       </c>
       <c r="F24" s="2">
         <v>1847.7588028125</v>
@@ -1036,7 +1036,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="2">
-        <v>0.2802315780427307</v>
+        <v>0.4221418829984032</v>
       </c>
       <c r="E25" s="2">
         <v>2171.401305366864</v>
@@ -1060,7 +1060,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="2">
-        <v>0.3839401669683866</v>
+        <v>0.4022896849783137</v>
       </c>
       <c r="E26" s="2">
         <v>1882.822391520744</v>
@@ -1084,7 +1084,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="2">
-        <v>0.3261210049968213</v>
+        <v>0.4035649899742566</v>
       </c>
       <c r="E27" s="2">
         <v>1648.979333412594</v>
@@ -1108,7 +1108,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="2">
-        <v>0.3007308570086025</v>
+        <v>0.3576804490294307</v>
       </c>
       <c r="E28" s="2">
         <v>2354.854187493614</v>
@@ -1132,7 +1132,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="2">
-        <v>0.3322975430055521</v>
+        <v>0.3666009370354004</v>
       </c>
       <c r="E29" s="2">
         <v>2423.001308698957</v>
@@ -1156,7 +1156,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="2">
-        <v>0.3520018989802338</v>
+        <v>0.3265246640075929</v>
       </c>
       <c r="E30" s="2">
         <v>1881.938471915356</v>
@@ -1180,10 +1180,10 @@
         <v>30</v>
       </c>
       <c r="D31" s="2">
-        <v>0.2851444029947743</v>
+        <v>0.3898871070123278</v>
       </c>
       <c r="E31" s="2">
-        <v>1912.600917758119</v>
+        <v>2065.167075666091</v>
       </c>
       <c r="F31" s="2">
         <v>2065.167075666091</v>
@@ -1204,7 +1204,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="2">
-        <v>0.3649493960547261</v>
+        <v>0.3929995950311422</v>
       </c>
       <c r="E32" s="2">
         <v>2419.164138974197</v>
@@ -1228,10 +1228,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="2">
-        <v>0.3207938109990209</v>
+        <v>0.4228442329913378</v>
       </c>
       <c r="E33" s="2">
-        <v>1636.305996898954</v>
+        <v>1711.470662080815</v>
       </c>
       <c r="F33" s="2">
         <v>1711.470662080815</v>
@@ -1252,10 +1252,10 @@
         <v>2</v>
       </c>
       <c r="D34" s="2">
-        <v>0.3036490470403805</v>
+        <v>0.2974419929669239</v>
       </c>
       <c r="E34" s="2">
-        <v>2118.422882043288</v>
+        <v>2118.422882043289</v>
       </c>
       <c r="F34" s="2">
         <v>2136.193681454619</v>
@@ -1276,7 +1276,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.2873544880421832</v>
+        <v>0.3181873870198615</v>
       </c>
       <c r="E35" s="2">
         <v>2102.189835901266</v>
@@ -1300,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="2">
-        <v>0.3362488260027021</v>
+        <v>0.2880348250037059</v>
       </c>
       <c r="E36" s="2">
         <v>2203.501973267502</v>
@@ -1324,7 +1324,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="2">
-        <v>0.2996980330208316</v>
+        <v>0.3215664210147224</v>
       </c>
       <c r="E37" s="2">
         <v>2714.150611497831</v>
@@ -1348,10 +1348,10 @@
         <v>6</v>
       </c>
       <c r="D38" s="2">
-        <v>0.2800212139845826</v>
+        <v>0.3896229050005786</v>
       </c>
       <c r="E38" s="2">
-        <v>2055.633653835127</v>
+        <v>2133.933967373171</v>
       </c>
       <c r="F38" s="2">
         <v>2133.933967373171</v>
@@ -1372,7 +1372,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="2">
-        <v>0.332877610984724</v>
+        <v>0.3479800769709982</v>
       </c>
       <c r="E39" s="2">
         <v>2489.33801808722</v>
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D40" s="2">
-        <v>0.3204797289799899</v>
+        <v>0.3755813589668833</v>
       </c>
       <c r="E40" s="2">
-        <v>2430.78491114327</v>
+        <v>2474.073909637841</v>
       </c>
       <c r="F40" s="2">
         <v>2474.073909637841</v>
@@ -1420,10 +1420,10 @@
         <v>9</v>
       </c>
       <c r="D41" s="2">
-        <v>0.3046731320209801</v>
+        <v>0.3900115739670582</v>
       </c>
       <c r="E41" s="2">
-        <v>2253.203725207771</v>
+        <v>2297.538032944231</v>
       </c>
       <c r="F41" s="2">
         <v>2297.538032944231</v>
@@ -1444,10 +1444,10 @@
         <v>10</v>
       </c>
       <c r="D42" s="2">
-        <v>0.284720130963251</v>
+        <v>0.4139050379744731</v>
       </c>
       <c r="E42" s="2">
-        <v>2013.645902661611</v>
+        <v>2058.897258688759</v>
       </c>
       <c r="F42" s="2">
         <v>2058.897258688759</v>
@@ -1468,7 +1468,7 @@
         <v>11</v>
       </c>
       <c r="D43" s="2">
-        <v>0.3498312570154667</v>
+        <v>0.377311379997991</v>
       </c>
       <c r="E43" s="2">
         <v>2188.519720405294</v>
@@ -1492,7 +1492,7 @@
         <v>12</v>
       </c>
       <c r="D44" s="2">
-        <v>0.3265332540031523</v>
+        <v>0.3335470140445977</v>
       </c>
       <c r="E44" s="2">
         <v>3050.04982739275</v>
@@ -1516,10 +1516,10 @@
         <v>13</v>
       </c>
       <c r="D45" s="2">
-        <v>0.3934685689746402</v>
+        <v>0.4181929909973405</v>
       </c>
       <c r="E45" s="2">
-        <v>2360.176935457174</v>
+        <v>2443.454107267583</v>
       </c>
       <c r="F45" s="2">
         <v>2443.454107267583</v>
@@ -1540,10 +1540,10 @@
         <v>14</v>
       </c>
       <c r="D46" s="2">
-        <v>0.3146255539613776</v>
+        <v>0.4312384449876845</v>
       </c>
       <c r="E46" s="2">
-        <v>2062.295120240359</v>
+        <v>2042.556942739235</v>
       </c>
       <c r="F46" s="2">
         <v>2103.347035641124</v>
@@ -1564,7 +1564,7 @@
         <v>15</v>
       </c>
       <c r="D47" s="2">
-        <v>0.317527066974435</v>
+        <v>0.3816296639852226</v>
       </c>
       <c r="E47" s="2">
         <v>3050.793778149115</v>
@@ -1588,7 +1588,7 @@
         <v>16</v>
       </c>
       <c r="D48" s="2">
-        <v>0.2739342470304109</v>
+        <v>0.3972797770402394</v>
       </c>
       <c r="E48" s="2">
         <v>2444.094014359898</v>
@@ -1612,7 +1612,7 @@
         <v>17</v>
       </c>
       <c r="D49" s="2">
-        <v>0.2943009149748832</v>
+        <v>0.3724232759559527</v>
       </c>
       <c r="E49" s="2">
         <v>1998.027313893678</v>
@@ -1636,7 +1636,7 @@
         <v>18</v>
       </c>
       <c r="D50" s="2">
-        <v>0.3592131009791046</v>
+        <v>0.32971409894526</v>
       </c>
       <c r="E50" s="2">
         <v>2410.892457577988</v>
@@ -1660,7 +1660,7 @@
         <v>19</v>
       </c>
       <c r="D51" s="2">
-        <v>0.3462705260026269</v>
+        <v>0.3192070020013489</v>
       </c>
       <c r="E51" s="2">
         <v>2101.961259957808</v>
@@ -1684,7 +1684,7 @@
         <v>20</v>
       </c>
       <c r="D52" s="2">
-        <v>0.2821214279974811</v>
+        <v>0.2920809279894456</v>
       </c>
       <c r="E52" s="2">
         <v>2390.705024767527</v>
@@ -1708,7 +1708,7 @@
         <v>21</v>
       </c>
       <c r="D53" s="2">
-        <v>0.2826537740183994</v>
+        <v>0.3295203309971839</v>
       </c>
       <c r="E53" s="2">
         <v>2319.585150823171</v>
@@ -1732,10 +1732,10 @@
         <v>22</v>
       </c>
       <c r="D54" s="2">
-        <v>0.289257284021005</v>
+        <v>0.4032715040375479</v>
       </c>
       <c r="E54" s="2">
-        <v>2005.741366144908</v>
+        <v>2024.522265184489</v>
       </c>
       <c r="F54" s="2">
         <v>2024.522265184489</v>
@@ -1756,7 +1756,7 @@
         <v>23</v>
       </c>
       <c r="D55" s="2">
-        <v>0.3077416409505531</v>
+        <v>0.4246261030202731</v>
       </c>
       <c r="E55" s="2">
         <v>2099.786323386943</v>
@@ -1780,7 +1780,7 @@
         <v>24</v>
       </c>
       <c r="D56" s="2">
-        <v>0.3208344680024311</v>
+        <v>0.3559690829715692</v>
       </c>
       <c r="E56" s="2">
         <v>2428.836695640346</v>
@@ -1804,10 +1804,10 @@
         <v>25</v>
       </c>
       <c r="D57" s="2">
-        <v>0.2639917299966328</v>
+        <v>0.32653720601229</v>
       </c>
       <c r="E57" s="2">
-        <v>1913.042680415427</v>
+        <v>1926.581528593573</v>
       </c>
       <c r="F57" s="2">
         <v>1936.958929914982</v>
@@ -1828,7 +1828,7 @@
         <v>26</v>
       </c>
       <c r="D58" s="2">
-        <v>0.2800018360139802</v>
+        <v>0.3405769320088439</v>
       </c>
       <c r="E58" s="2">
         <v>2807.576551111727</v>
@@ -1852,10 +1852,10 @@
         <v>27</v>
       </c>
       <c r="D59" s="2">
-        <v>0.3976697369944304</v>
+        <v>0.277533297019545</v>
       </c>
       <c r="E59" s="2">
-        <v>2139.833725368945</v>
+        <v>2173.794976383858</v>
       </c>
       <c r="F59" s="2">
         <v>2173.794976383857</v>
@@ -1876,7 +1876,7 @@
         <v>28</v>
       </c>
       <c r="D60" s="2">
-        <v>0.3540582830319181</v>
+        <v>0.3290812429622747</v>
       </c>
       <c r="E60" s="2">
         <v>2218.270608169488</v>
@@ -1900,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="2">
-        <v>0.2789784340420738</v>
+        <v>0.3717547770356759</v>
       </c>
       <c r="E61" s="2">
         <v>1902.305006827193</v>
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="2">
-        <v>0.2863826149841771</v>
+        <v>0.3288540710345842</v>
       </c>
       <c r="E62" s="2">
         <v>2012.707361204144</v>
@@ -1948,10 +1948,10 @@
         <v>3</v>
       </c>
       <c r="D63" s="2">
-        <v>0.4221899000112899</v>
+        <v>0.4033884910168126</v>
       </c>
       <c r="E63" s="2">
-        <v>1978.191189555695</v>
+        <v>2088.818006118528</v>
       </c>
       <c r="F63" s="2">
         <v>2177.07886467898</v>
@@ -1972,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="D64" s="2">
-        <v>0.3386960400384851</v>
+        <v>0.3477554469718598</v>
       </c>
       <c r="E64" s="2">
         <v>2665.347329348983</v>
@@ -1996,7 +1996,7 @@
         <v>5</v>
       </c>
       <c r="D65" s="2">
-        <v>0.3005654610460624</v>
+        <v>0.334277817979455</v>
       </c>
       <c r="E65" s="2">
         <v>1792.582924883985</v>
@@ -2020,7 +2020,7 @@
         <v>6</v>
       </c>
       <c r="D66" s="2">
-        <v>0.3624169640243053</v>
+        <v>0.3144629030139185</v>
       </c>
       <c r="E66" s="2">
         <v>2558.155264972005</v>
@@ -2044,7 +2044,7 @@
         <v>7</v>
       </c>
       <c r="D67" s="2">
-        <v>0.3487437459989451</v>
+        <v>0.2992191800149158</v>
       </c>
       <c r="E67" s="2">
         <v>2279.502128405958</v>
@@ -2068,7 +2068,7 @@
         <v>8</v>
       </c>
       <c r="D68" s="2">
-        <v>0.2892734059714712</v>
+        <v>0.2995958529645577</v>
       </c>
       <c r="E68" s="2">
         <v>1998.080267334324</v>
@@ -2092,10 +2092,10 @@
         <v>9</v>
       </c>
       <c r="D69" s="2">
-        <v>0.3000029770191759</v>
+        <v>0.3489796299836598</v>
       </c>
       <c r="E69" s="2">
-        <v>1848.238843202812</v>
+        <v>1877.620855618634</v>
       </c>
       <c r="F69" s="2">
         <v>1877.620855618634</v>
@@ -2116,7 +2116,7 @@
         <v>10</v>
       </c>
       <c r="D70" s="2">
-        <v>0.2829860569909215</v>
+        <v>0.2734162719571032</v>
       </c>
       <c r="E70" s="2">
         <v>2098.222583572444</v>
@@ -2140,10 +2140,10 @@
         <v>11</v>
       </c>
       <c r="D71" s="2">
-        <v>0.2731862550135702</v>
+        <v>0.3372361470246688</v>
       </c>
       <c r="E71" s="2">
-        <v>2060.39571208837</v>
+        <v>2106.175016203057</v>
       </c>
       <c r="F71" s="2">
         <v>2106.175016203057</v>
@@ -2164,7 +2164,7 @@
         <v>12</v>
       </c>
       <c r="D72" s="2">
-        <v>0.2853061140049249</v>
+        <v>0.3461195620475337</v>
       </c>
       <c r="E72" s="2">
         <v>1914.962486149352</v>
@@ -2188,10 +2188,10 @@
         <v>13</v>
       </c>
       <c r="D73" s="2">
-        <v>0.2820137139642611</v>
+        <v>0.3427026129793376</v>
       </c>
       <c r="E73" s="2">
-        <v>1886.101155083351</v>
+        <v>1887.246353673753</v>
       </c>
       <c r="F73" s="2">
         <v>1887.246353673753</v>
@@ -2212,7 +2212,7 @@
         <v>14</v>
       </c>
       <c r="D74" s="2">
-        <v>0.2892023950116709</v>
+        <v>0.3635548509773798</v>
       </c>
       <c r="E74" s="2">
         <v>2230.013381063998</v>
@@ -2236,7 +2236,7 @@
         <v>15</v>
       </c>
       <c r="D75" s="2">
-        <v>0.4087033899850212</v>
+        <v>0.3363425289862789</v>
       </c>
       <c r="E75" s="2">
         <v>1970.128335140141</v>
@@ -2260,7 +2260,7 @@
         <v>16</v>
       </c>
       <c r="D76" s="2">
-        <v>0.3549163779825903</v>
+        <v>0.3166305680060759</v>
       </c>
       <c r="E76" s="2">
         <v>2264.133558128131</v>
@@ -2284,10 +2284,10 @@
         <v>17</v>
       </c>
       <c r="D77" s="2">
-        <v>0.3080497459741309</v>
+        <v>0.3537713930127211</v>
       </c>
       <c r="E77" s="2">
-        <v>2254.919981389972</v>
+        <v>2266.682273977592</v>
       </c>
       <c r="F77" s="2">
         <v>2266.682273977592</v>
@@ -2308,7 +2308,7 @@
         <v>18</v>
       </c>
       <c r="D78" s="2">
-        <v>0.3645508280023932</v>
+        <v>0.2960162080125883</v>
       </c>
       <c r="E78" s="2">
         <v>2063.525757721984</v>
@@ -2332,7 +2332,7 @@
         <v>19</v>
       </c>
       <c r="D79" s="2">
-        <v>0.3426594070042484</v>
+        <v>0.3836526710074395</v>
       </c>
       <c r="E79" s="2">
         <v>2240.622699550351</v>
@@ -2356,10 +2356,10 @@
         <v>20</v>
       </c>
       <c r="D80" s="2">
-        <v>0.2755053549772128</v>
+        <v>0.2807527919649146</v>
       </c>
       <c r="E80" s="2">
-        <v>2122.64664123993</v>
+        <v>2138.034329629542</v>
       </c>
       <c r="F80" s="2">
         <v>2141.589678787966</v>
@@ -2380,7 +2380,7 @@
         <v>21</v>
       </c>
       <c r="D81" s="2">
-        <v>0.3516619119909592</v>
+        <v>0.3361633330350742</v>
       </c>
       <c r="E81" s="2">
         <v>1716.756435372441</v>
@@ -2404,10 +2404,10 @@
         <v>22</v>
       </c>
       <c r="D82" s="2">
-        <v>0.3022794129792601</v>
+        <v>0.3373293180484325</v>
       </c>
       <c r="E82" s="2">
-        <v>2487.708930965034</v>
+        <v>2496.082027805238</v>
       </c>
       <c r="F82" s="2">
         <v>2496.082027805238</v>
@@ -2428,10 +2428,10 @@
         <v>23</v>
       </c>
       <c r="D83" s="2">
-        <v>0.3150296660023741</v>
+        <v>0.3073506929795258</v>
       </c>
       <c r="E83" s="2">
-        <v>1737.622415578098</v>
+        <v>1841.750556708411</v>
       </c>
       <c r="F83" s="2">
         <v>1884.280234180581</v>
@@ -2452,7 +2452,7 @@
         <v>24</v>
       </c>
       <c r="D84" s="2">
-        <v>0.2948833939735778</v>
+        <v>0.2790773580200039</v>
       </c>
       <c r="E84" s="2">
         <v>2388.319351679737</v>
@@ -2476,7 +2476,7 @@
         <v>25</v>
       </c>
       <c r="D85" s="2">
-        <v>0.2871060989564285</v>
+        <v>0.2850429069949314</v>
       </c>
       <c r="E85" s="2">
         <v>1948.509152029312</v>
@@ -2500,7 +2500,7 @@
         <v>26</v>
       </c>
       <c r="D86" s="2">
-        <v>0.3519923419808038</v>
+        <v>0.3238266489934176</v>
       </c>
       <c r="E86" s="2">
         <v>2414.001948554051</v>
@@ -2524,7 +2524,7 @@
         <v>27</v>
       </c>
       <c r="D87" s="2">
-        <v>0.3700417969957925</v>
+        <v>0.3111484560067765</v>
       </c>
       <c r="E87" s="2">
         <v>1583.721417268121</v>
@@ -2548,10 +2548,10 @@
         <v>28</v>
       </c>
       <c r="D88" s="2">
-        <v>0.3001747310045175</v>
+        <v>0.3171507429797202</v>
       </c>
       <c r="E88" s="2">
-        <v>1943.709391696468</v>
+        <v>2071.664874776551</v>
       </c>
       <c r="F88" s="2">
         <v>2071.66487477655</v>
@@ -2572,10 +2572,10 @@
         <v>29</v>
       </c>
       <c r="D89" s="2">
-        <v>0.3018862109747715</v>
+        <v>0.2987769159954041</v>
       </c>
       <c r="E89" s="2">
-        <v>1873.970426934445</v>
+        <v>1912.792967357863</v>
       </c>
       <c r="F89" s="2">
         <v>1920.681444017422</v>
@@ -2596,7 +2596,7 @@
         <v>30</v>
       </c>
       <c r="D90" s="2">
-        <v>0.3327748579904437</v>
+        <v>0.2726751979789697</v>
       </c>
       <c r="E90" s="2">
         <v>2533.411179993872</v>
@@ -2620,10 +2620,10 @@
         <v>31</v>
       </c>
       <c r="D91" s="2">
-        <v>0.295324858976528</v>
+        <v>0.2788505959906615</v>
       </c>
       <c r="E91" s="2">
-        <v>2046.692147860953</v>
+        <v>2147.713192533203</v>
       </c>
       <c r="F91" s="2">
         <v>2147.713192533204</v>
@@ -2644,10 +2644,10 @@
         <v>1</v>
       </c>
       <c r="D92" s="2">
-        <v>0.3477876310353167</v>
+        <v>0.2975417550187558</v>
       </c>
       <c r="E92" s="2">
-        <v>2356.280019572775</v>
+        <v>2433.830881494296</v>
       </c>
       <c r="F92" s="2">
         <v>2433.830881494296</v>
@@ -2668,7 +2668,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="2">
-        <v>0.296001086011529</v>
+        <v>0.2954994169995189</v>
       </c>
       <c r="E93" s="2">
         <v>2407.312547262954</v>
@@ -2692,10 +2692,10 @@
         <v>3</v>
       </c>
       <c r="D94" s="2">
-        <v>0.2966307150200009</v>
+        <v>0.3180155360023491</v>
       </c>
       <c r="E94" s="2">
-        <v>2067.562941083955</v>
+        <v>2161.049146836328</v>
       </c>
       <c r="F94" s="2">
         <v>2161.049146836329</v>
@@ -2716,10 +2716,10 @@
         <v>4</v>
       </c>
       <c r="D95" s="2">
-        <v>0.278948628983926</v>
+        <v>0.2737586550065316</v>
       </c>
       <c r="E95" s="2">
-        <v>2211.69394866326</v>
+        <v>2274.810720700574</v>
       </c>
       <c r="F95" s="2">
         <v>2274.810720700574</v>
@@ -2740,7 +2740,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="2">
-        <v>0.2975154209998436</v>
+        <v>0.3972520700190216</v>
       </c>
       <c r="E96" s="2">
         <v>2607.343398394959</v>
@@ -2764,10 +2764,10 @@
         <v>6</v>
       </c>
       <c r="D97" s="2">
-        <v>0.2938135210424662</v>
+        <v>0.4384485009941272</v>
       </c>
       <c r="E97" s="2">
-        <v>2662.432866922632</v>
+        <v>2672.076539446277</v>
       </c>
       <c r="F97" s="2">
         <v>2672.076539446278</v>
@@ -2788,7 +2788,7 @@
         <v>7</v>
       </c>
       <c r="D98" s="2">
-        <v>1.262450086011086</v>
+        <v>0.3921564529882744</v>
       </c>
       <c r="E98" s="2">
         <v>2286.307121135007</v>
@@ -2812,7 +2812,7 @@
         <v>8</v>
       </c>
       <c r="D99" s="2">
-        <v>0.994683058001101</v>
+        <v>0.3848939589806832</v>
       </c>
       <c r="E99" s="2">
         <v>2052.676109092337</v>
@@ -2836,7 +2836,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2">
-        <v>0.2939952649758197</v>
+        <v>0.3047072360059246</v>
       </c>
       <c r="E100" s="2">
         <v>2042.369788350777</v>
@@ -2860,7 +2860,7 @@
         <v>10</v>
       </c>
       <c r="D101" s="2">
-        <v>0.3564637459930964</v>
+        <v>0.3995406400063075</v>
       </c>
       <c r="E101" s="2">
         <v>2716.566971935454</v>
@@ -2884,7 +2884,7 @@
         <v>11</v>
       </c>
       <c r="D102" s="2">
-        <v>0.2852955800481141</v>
+        <v>0.3602861849940382</v>
       </c>
       <c r="E102" s="2">
         <v>2085.687588938484</v>
@@ -2908,7 +2908,7 @@
         <v>12</v>
       </c>
       <c r="D103" s="2">
-        <v>0.2834544400102459</v>
+        <v>0.3475445299991407</v>
       </c>
       <c r="E103" s="2">
         <v>2429.627918202867</v>
@@ -2932,10 +2932,10 @@
         <v>13</v>
       </c>
       <c r="D104" s="2">
-        <v>0.3480865070014261</v>
+        <v>0.3721591489738785</v>
       </c>
       <c r="E104" s="2">
-        <v>1883.115492603739</v>
+        <v>1992.452481926058</v>
       </c>
       <c r="F104" s="2">
         <v>1992.452481926058</v>
@@ -2956,10 +2956,10 @@
         <v>14</v>
       </c>
       <c r="D105" s="2">
-        <v>0.355977856030222</v>
+        <v>0.2741278870380484</v>
       </c>
       <c r="E105" s="2">
-        <v>1714.415597914258</v>
+        <v>1775.377912513383</v>
       </c>
       <c r="F105" s="2">
         <v>1784.958332873223</v>
@@ -2980,7 +2980,7 @@
         <v>15</v>
       </c>
       <c r="D106" s="2">
-        <v>0.3105260519660078</v>
+        <v>0.3099565450102091</v>
       </c>
       <c r="E106" s="2">
         <v>2113.64998752209</v>
@@ -3004,10 +3004,10 @@
         <v>16</v>
       </c>
       <c r="D107" s="2">
-        <v>0.2952657169662416</v>
+        <v>0.285577426024247</v>
       </c>
       <c r="E107" s="2">
-        <v>2808.681134793905</v>
+        <v>2834.04264805631</v>
       </c>
       <c r="F107" s="2">
         <v>2834.04264805631</v>
@@ -3028,7 +3028,7 @@
         <v>17</v>
       </c>
       <c r="D108" s="2">
-        <v>0.2835468179546297</v>
+        <v>0.3719226969988085</v>
       </c>
       <c r="E108" s="2">
         <v>2203.992252756309</v>
@@ -3052,10 +3052,10 @@
         <v>18</v>
       </c>
       <c r="D109" s="2">
-        <v>0.2847878219909035</v>
+        <v>0.3509082400123589</v>
       </c>
       <c r="E109" s="2">
-        <v>2581.823198086151</v>
+        <v>2620.539885587585</v>
       </c>
       <c r="F109" s="2">
         <v>2646.171754674239</v>
@@ -3076,7 +3076,7 @@
         <v>19</v>
       </c>
       <c r="D110" s="2">
-        <v>0.2988536509801634</v>
+        <v>0.3257922580232844</v>
       </c>
       <c r="E110" s="2">
         <v>2461.999712234548</v>
@@ -3100,7 +3100,7 @@
         <v>20</v>
       </c>
       <c r="D111" s="2">
-        <v>0.3056015939801</v>
+        <v>0.3159277269733138</v>
       </c>
       <c r="E111" s="2">
         <v>1916.83243327673</v>
@@ -3124,10 +3124,10 @@
         <v>21</v>
       </c>
       <c r="D112" s="2">
-        <v>0.289290334971156</v>
+        <v>0.3610993090551347</v>
       </c>
       <c r="E112" s="2">
-        <v>2089.056917442983</v>
+        <v>2241.296260354189</v>
       </c>
       <c r="F112" s="2">
         <v>2310.970542376887</v>
@@ -3148,7 +3148,7 @@
         <v>22</v>
       </c>
       <c r="D113" s="2">
-        <v>0.3934451959794387</v>
+        <v>0.4002143659745343</v>
       </c>
       <c r="E113" s="2">
         <v>2244.904959705802</v>
@@ -3172,7 +3172,7 @@
         <v>23</v>
       </c>
       <c r="D114" s="2">
-        <v>0.3010655830148607</v>
+        <v>0.2880810610367917</v>
       </c>
       <c r="E114" s="2">
         <v>2133.542564063142</v>
@@ -3196,7 +3196,7 @@
         <v>24</v>
       </c>
       <c r="D115" s="2">
-        <v>0.3061970709823072</v>
+        <v>0.3676324849948287</v>
       </c>
       <c r="E115" s="2">
         <v>2257.42201103168</v>
@@ -3220,7 +3220,7 @@
         <v>25</v>
       </c>
       <c r="D116" s="2">
-        <v>0.3340555799659342</v>
+        <v>0.2744974870001897</v>
       </c>
       <c r="E116" s="2">
         <v>2015.924923223921</v>
@@ -3244,7 +3244,7 @@
         <v>26</v>
       </c>
       <c r="D117" s="2">
-        <v>0.2755022670025937</v>
+        <v>0.3811821310082451</v>
       </c>
       <c r="E117" s="2">
         <v>1996.43952347533</v>
@@ -3268,10 +3268,10 @@
         <v>27</v>
       </c>
       <c r="D118" s="2">
-        <v>0.2745380870182998</v>
+        <v>0.2860900409868918</v>
       </c>
       <c r="E118" s="2">
-        <v>2382.842362158665</v>
+        <v>2444.065364822866</v>
       </c>
       <c r="F118" s="2">
         <v>2444.065364822865</v>
@@ -3292,10 +3292,10 @@
         <v>28</v>
       </c>
       <c r="D119" s="2">
-        <v>0.2991492649889551</v>
+        <v>0.3107573000015691</v>
       </c>
       <c r="E119" s="2">
-        <v>2222.672090610316</v>
+        <v>2381.746515335734</v>
       </c>
       <c r="F119" s="2">
         <v>2381.746515335734</v>
@@ -3316,7 +3316,7 @@
         <v>29</v>
       </c>
       <c r="D120" s="2">
-        <v>0.3143610179540701</v>
+        <v>0.3240835290052928</v>
       </c>
       <c r="E120" s="2">
         <v>2123.649022426199</v>
@@ -3340,10 +3340,10 @@
         <v>30</v>
       </c>
       <c r="D121" s="2">
-        <v>0.3575729659642093</v>
+        <v>0.2836987699847668</v>
       </c>
       <c r="E121" s="2">
-        <v>2305.145567493783</v>
+        <v>2314.478339520134</v>
       </c>
       <c r="F121" s="2">
         <v>2318.198043567214</v>
@@ -3364,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="2">
-        <v>0.3692990040290169</v>
+        <v>0.2679695709957741</v>
       </c>
       <c r="E122" s="2">
         <v>2075.800766680406</v>
@@ -3388,7 +3388,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="2">
-        <v>0.2882872699992731</v>
+        <v>0.2752547489944845</v>
       </c>
       <c r="E123" s="2">
         <v>2637.105224516816</v>
@@ -3412,7 +3412,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="2">
-        <v>0.3371781620080583</v>
+        <v>0.3419693899923004</v>
       </c>
       <c r="E124" s="2">
         <v>1932.816488470707</v>
@@ -3436,7 +3436,7 @@
         <v>4</v>
       </c>
       <c r="D125" s="2">
-        <v>0.3869719530339353</v>
+        <v>0.2956724170362577</v>
       </c>
       <c r="E125" s="2">
         <v>2038.670599571131</v>
@@ -3460,7 +3460,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="2">
-        <v>0.3254532809951343</v>
+        <v>0.3762431089999154</v>
       </c>
       <c r="E126" s="2">
         <v>1855.674250348549</v>
@@ -3484,7 +3484,7 @@
         <v>6</v>
       </c>
       <c r="D127" s="2">
-        <v>0.2874356700340286</v>
+        <v>0.2963626450509764</v>
       </c>
       <c r="E127" s="2">
         <v>1880.899116023982</v>
@@ -3508,10 +3508,10 @@
         <v>7</v>
       </c>
       <c r="D128" s="2">
-        <v>0.2789804080384783</v>
+        <v>0.3642317180056125</v>
       </c>
       <c r="E128" s="2">
-        <v>2722.891451723046</v>
+        <v>2736.651241663402</v>
       </c>
       <c r="F128" s="2">
         <v>2736.651241663401</v>
@@ -3532,10 +3532,10 @@
         <v>8</v>
       </c>
       <c r="D129" s="2">
-        <v>0.3254116190364584</v>
+        <v>0.2726394810015336</v>
       </c>
       <c r="E129" s="2">
-        <v>2552.620344063048</v>
+        <v>2554.67561455142</v>
       </c>
       <c r="F129" s="2">
         <v>2554.675614551421</v>
@@ -3556,10 +3556,10 @@
         <v>9</v>
       </c>
       <c r="D130" s="2">
-        <v>0.313912593992427</v>
+        <v>0.3303597340127453</v>
       </c>
       <c r="E130" s="2">
-        <v>2105.092439492815</v>
+        <v>2105.092439492814</v>
       </c>
       <c r="F130" s="2">
         <v>2105.092439492814</v>
@@ -3580,7 +3580,7 @@
         <v>10</v>
       </c>
       <c r="D131" s="2">
-        <v>0.3131796279922128</v>
+        <v>0.3177534340065904</v>
       </c>
       <c r="E131" s="2">
         <v>2570.365951124642</v>
@@ -3604,7 +3604,7 @@
         <v>11</v>
       </c>
       <c r="D132" s="2">
-        <v>0.3651911249617115</v>
+        <v>0.3081763890222646</v>
       </c>
       <c r="E132" s="2">
         <v>2409.85761794789</v>
@@ -3628,10 +3628,10 @@
         <v>12</v>
       </c>
       <c r="D133" s="2">
-        <v>0.3042711770394817</v>
+        <v>0.2780181959969923</v>
       </c>
       <c r="E133" s="2">
-        <v>1923.865934896993</v>
+        <v>1934.38381936655</v>
       </c>
       <c r="F133" s="2">
         <v>1934.38381936655</v>
@@ -3652,7 +3652,7 @@
         <v>13</v>
       </c>
       <c r="D134" s="2">
-        <v>0.2923805280006491</v>
+        <v>0.3245418360456824</v>
       </c>
       <c r="E134" s="2">
         <v>1850.504623548576</v>
@@ -3676,7 +3676,7 @@
         <v>14</v>
       </c>
       <c r="D135" s="2">
-        <v>0.3023630329989828</v>
+        <v>0.2963319080299698</v>
       </c>
       <c r="E135" s="2">
         <v>1722.693213533703</v>
@@ -3700,7 +3700,7 @@
         <v>15</v>
       </c>
       <c r="D136" s="2">
-        <v>0.2801216029911302</v>
+        <v>0.3137755710049532</v>
       </c>
       <c r="E136" s="2">
         <v>1586.41210042568</v>
@@ -3724,10 +3724,10 @@
         <v>16</v>
       </c>
       <c r="D137" s="2">
-        <v>0.3463644220028073</v>
+        <v>0.2910759339574724</v>
       </c>
       <c r="E137" s="2">
-        <v>2333.275702236809</v>
+        <v>2377.936871718181</v>
       </c>
       <c r="F137" s="2">
         <v>2377.936871718181</v>
@@ -3748,7 +3748,7 @@
         <v>17</v>
       </c>
       <c r="D138" s="2">
-        <v>0.2841918679769151</v>
+        <v>0.3098454740247689</v>
       </c>
       <c r="E138" s="2">
         <v>1987.889713887698</v>
@@ -3772,10 +3772,10 @@
         <v>18</v>
       </c>
       <c r="D139" s="2">
-        <v>0.3258828319958411</v>
+        <v>0.2954110599821433</v>
       </c>
       <c r="E139" s="2">
-        <v>2096.271815268202</v>
+        <v>2174.201807454974</v>
       </c>
       <c r="F139" s="2">
         <v>2174.201807454974</v>
@@ -3796,7 +3796,7 @@
         <v>19</v>
       </c>
       <c r="D140" s="2">
-        <v>0.2991404439671896</v>
+        <v>0.3063577690045349</v>
       </c>
       <c r="E140" s="2">
         <v>1792.325560238323</v>
@@ -3820,10 +3820,10 @@
         <v>20</v>
       </c>
       <c r="D141" s="2">
-        <v>0.2783367439988069</v>
+        <v>0.3054191709961742</v>
       </c>
       <c r="E141" s="2">
-        <v>2077.191336228531</v>
+        <v>2137.947358172481</v>
       </c>
       <c r="F141" s="2">
         <v>2137.947358172481</v>
@@ -3844,7 +3844,7 @@
         <v>21</v>
       </c>
       <c r="D142" s="2">
-        <v>0.3271262809867039</v>
+        <v>0.3810175789985806</v>
       </c>
       <c r="E142" s="2">
         <v>2387.941141580944</v>
@@ -3868,7 +3868,7 @@
         <v>22</v>
       </c>
       <c r="D143" s="2">
-        <v>0.3099222210003063</v>
+        <v>0.3104291560011916</v>
       </c>
       <c r="E143" s="2">
         <v>2425.501270226095</v>
@@ -3892,10 +3892,10 @@
         <v>23</v>
       </c>
       <c r="D144" s="2">
-        <v>0.4251962570124306</v>
+        <v>0.367364575038664</v>
       </c>
       <c r="E144" s="2">
-        <v>2218.048507177856</v>
+        <v>2241.764530155728</v>
       </c>
       <c r="F144" s="2">
         <v>2241.764530155729</v>
@@ -3916,7 +3916,7 @@
         <v>24</v>
       </c>
       <c r="D145" s="2">
-        <v>0.3071235480019823</v>
+        <v>0.3626995619852096</v>
       </c>
       <c r="E145" s="2">
         <v>2350.55363672152</v>
@@ -3940,7 +3940,7 @@
         <v>25</v>
       </c>
       <c r="D146" s="2">
-        <v>0.3438779999851249</v>
+        <v>0.3013882579980418</v>
       </c>
       <c r="E146" s="2">
         <v>2391.948266752825</v>
@@ -3964,10 +3964,10 @@
         <v>26</v>
       </c>
       <c r="D147" s="2">
-        <v>0.3103174120187759</v>
+        <v>0.3949102949700318</v>
       </c>
       <c r="E147" s="2">
-        <v>1813.87100519453</v>
+        <v>1933.589051501662</v>
       </c>
       <c r="F147" s="2">
         <v>1959.570186195936</v>
@@ -3988,7 +3988,7 @@
         <v>27</v>
       </c>
       <c r="D148" s="2">
-        <v>0.2895833990187384</v>
+        <v>0.4963620590278879</v>
       </c>
       <c r="E148" s="2">
         <v>2135.565239146403</v>
@@ -4012,7 +4012,7 @@
         <v>28</v>
       </c>
       <c r="D149" s="2">
-        <v>0.3407304449938238</v>
+        <v>0.3550093690282665</v>
       </c>
       <c r="E149" s="2">
         <v>2163.008743013525</v>
@@ -4036,7 +4036,7 @@
         <v>29</v>
       </c>
       <c r="D150" s="2">
-        <v>0.2788382950238883</v>
+        <v>0.3269899829756469</v>
       </c>
       <c r="E150" s="2">
         <v>2072.340714304084</v>
@@ -4060,7 +4060,7 @@
         <v>30</v>
       </c>
       <c r="D151" s="2">
-        <v>0.285140017978847</v>
+        <v>0.3288404479972087</v>
       </c>
       <c r="E151" s="2">
         <v>1799.972058205954</v>
@@ -4084,10 +4084,10 @@
         <v>31</v>
       </c>
       <c r="D152" s="2">
-        <v>0.3495939670247026</v>
+        <v>0.3094386250013486</v>
       </c>
       <c r="E152" s="2">
-        <v>2107.451040978477</v>
+        <v>2159.411837019392</v>
       </c>
       <c r="F152" s="2">
         <v>2159.411837019393</v>
@@ -4108,7 +4108,7 @@
         <v>1</v>
       </c>
       <c r="D153" s="2">
-        <v>0.2943577440455556</v>
+        <v>0.2863977370434441</v>
       </c>
       <c r="E153" s="2">
         <v>2138.319176076757</v>
@@ -4132,7 +4132,7 @@
         <v>2</v>
       </c>
       <c r="D154" s="2">
-        <v>0.3428722209646367</v>
+        <v>0.3314970430219546</v>
       </c>
       <c r="E154" s="2">
         <v>2376.84427476599</v>
@@ -4156,7 +4156,7 @@
         <v>3</v>
       </c>
       <c r="D155" s="2">
-        <v>0.2964783349889331</v>
+        <v>0.3238883219892159</v>
       </c>
       <c r="E155" s="2">
         <v>2457.771117190254</v>
@@ -4180,7 +4180,7 @@
         <v>4</v>
       </c>
       <c r="D156" s="2">
-        <v>0.3053396810428239</v>
+        <v>0.2827005379949696</v>
       </c>
       <c r="E156" s="2">
         <v>2206.876930859468</v>
@@ -4204,7 +4204,7 @@
         <v>5</v>
       </c>
       <c r="D157" s="2">
-        <v>0.2946870370069519</v>
+        <v>0.3388537490391172</v>
       </c>
       <c r="E157" s="2">
         <v>2436.457284345337</v>
@@ -4228,7 +4228,7 @@
         <v>6</v>
       </c>
       <c r="D158" s="2">
-        <v>0.3695872449898161</v>
+        <v>0.2804353520041332</v>
       </c>
       <c r="E158" s="2">
         <v>2137.46344823318</v>
@@ -4252,10 +4252,10 @@
         <v>7</v>
       </c>
       <c r="D159" s="2">
-        <v>0.3554343130090274</v>
+        <v>0.2691082929959521</v>
       </c>
       <c r="E159" s="2">
-        <v>1893.256361414269</v>
+        <v>1919.79486473125</v>
       </c>
       <c r="F159" s="2">
         <v>1972.499336598052</v>
@@ -4276,7 +4276,7 @@
         <v>8</v>
       </c>
       <c r="D160" s="2">
-        <v>0.3024126329692081</v>
+        <v>0.2827619959716685</v>
       </c>
       <c r="E160" s="2">
         <v>1705.502565319909</v>
@@ -4300,7 +4300,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2">
-        <v>0.3292871929588728</v>
+        <v>0.2753763730288483</v>
       </c>
       <c r="E161" s="2">
         <v>1520.384695761918</v>
@@ -4324,10 +4324,10 @@
         <v>10</v>
       </c>
       <c r="D162" s="2">
-        <v>0.293044648016803</v>
+        <v>0.3182796620531008</v>
       </c>
       <c r="E162" s="2">
-        <v>2078.636941796078</v>
+        <v>2160.627030422103</v>
       </c>
       <c r="F162" s="2">
         <v>2160.627030422103</v>
@@ -4348,10 +4348,10 @@
         <v>11</v>
       </c>
       <c r="D163" s="2">
-        <v>0.2861877200193703</v>
+        <v>0.2847093259915709</v>
       </c>
       <c r="E163" s="2">
-        <v>1735.41458021124</v>
+        <v>1762.466503610988</v>
       </c>
       <c r="F163" s="2">
         <v>1762.466503610988</v>
@@ -4372,10 +4372,10 @@
         <v>12</v>
       </c>
       <c r="D164" s="2">
-        <v>0.2809010790078901</v>
+        <v>0.3287871280335821</v>
       </c>
       <c r="E164" s="2">
-        <v>2027.430449873253</v>
+        <v>2095.111235755412</v>
       </c>
       <c r="F164" s="2">
         <v>2095.111235755412</v>
@@ -4396,10 +4396,10 @@
         <v>13</v>
       </c>
       <c r="D165" s="2">
-        <v>0.2999981140019372</v>
+        <v>0.3179939119727351</v>
       </c>
       <c r="E165" s="2">
-        <v>2271.320801982703</v>
+        <v>2324.254658553122</v>
       </c>
       <c r="F165" s="2">
         <v>2324.254658553122</v>
@@ -4420,7 +4420,7 @@
         <v>14</v>
       </c>
       <c r="D166" s="2">
-        <v>0.3487124879611656</v>
+        <v>0.3068738870206289</v>
       </c>
       <c r="E166" s="2">
         <v>2032.404754212011</v>
@@ -4444,7 +4444,7 @@
         <v>15</v>
       </c>
       <c r="D167" s="2">
-        <v>0.3727732989937067</v>
+        <v>0.2832242649747059</v>
       </c>
       <c r="E167" s="2">
         <v>2464.826064673589</v>
@@ -4468,10 +4468,10 @@
         <v>16</v>
       </c>
       <c r="D168" s="2">
-        <v>0.2876227549859323</v>
+        <v>0.2785938890301622</v>
       </c>
       <c r="E168" s="2">
-        <v>2030.962773610918</v>
+        <v>2110.779571279063</v>
       </c>
       <c r="F168" s="2">
         <v>2110.779571279063</v>
@@ -4492,7 +4492,7 @@
         <v>17</v>
       </c>
       <c r="D169" s="2">
-        <v>0.2753784169908613</v>
+        <v>0.3432250040350482</v>
       </c>
       <c r="E169" s="2">
         <v>2489.381128654545</v>
@@ -4516,10 +4516,10 @@
         <v>18</v>
       </c>
       <c r="D170" s="2">
-        <v>0.3031525049591437</v>
+        <v>0.3032391280285083</v>
       </c>
       <c r="E170" s="2">
-        <v>1590.606345997689</v>
+        <v>1596.753946162265</v>
       </c>
       <c r="F170" s="2">
         <v>1647.533158928937</v>
@@ -4540,10 +4540,10 @@
         <v>19</v>
       </c>
       <c r="D171" s="2">
-        <v>0.3362991830217652</v>
+        <v>0.2923197159543633</v>
       </c>
       <c r="E171" s="2">
-        <v>1852.014921111792</v>
+        <v>1974.428105712782</v>
       </c>
       <c r="F171" s="2">
         <v>1974.428105712782</v>
@@ -4564,10 +4564,10 @@
         <v>20</v>
       </c>
       <c r="D172" s="2">
-        <v>0.2831895290291868</v>
+        <v>0.2953613739809953</v>
       </c>
       <c r="E172" s="2">
-        <v>2490.220706399445</v>
+        <v>2503.538339939416</v>
       </c>
       <c r="F172" s="2">
         <v>2513.991454597158</v>
@@ -4588,7 +4588,7 @@
         <v>21</v>
       </c>
       <c r="D173" s="2">
-        <v>0.3514051510137506</v>
+        <v>0.3642143059987575</v>
       </c>
       <c r="E173" s="2">
         <v>1780.737717395451</v>
@@ -4612,7 +4612,7 @@
         <v>22</v>
       </c>
       <c r="D174" s="2">
-        <v>0.2877465559868142</v>
+        <v>0.378117258020211</v>
       </c>
       <c r="E174" s="2">
         <v>2255.587486466789</v>
@@ -4636,10 +4636,10 @@
         <v>23</v>
       </c>
       <c r="D175" s="2">
-        <v>0.2931384550174698</v>
+        <v>0.4271835060208105</v>
       </c>
       <c r="E175" s="2">
-        <v>2451.340074282331</v>
+        <v>2538.307473397972</v>
       </c>
       <c r="F175" s="2">
         <v>2538.307473397972</v>
@@ -4660,10 +4660,10 @@
         <v>24</v>
       </c>
       <c r="D176" s="2">
-        <v>0.4023995840107091</v>
+        <v>0.4152391569805332</v>
       </c>
       <c r="E176" s="2">
-        <v>1901.486425314554</v>
+        <v>1987.876164911103</v>
       </c>
       <c r="F176" s="2">
         <v>2087.974854691426</v>
@@ -4684,10 +4684,10 @@
         <v>25</v>
       </c>
       <c r="D177" s="2">
-        <v>0.3621316979988478</v>
+        <v>0.2901818910031579</v>
       </c>
       <c r="E177" s="2">
-        <v>2071.096520054416</v>
+        <v>2127.990181402628</v>
       </c>
       <c r="F177" s="2">
         <v>2127.990181402628</v>
@@ -4708,10 +4708,10 @@
         <v>26</v>
       </c>
       <c r="D178" s="2">
-        <v>0.2817865369725041</v>
+        <v>0.295165546995122</v>
       </c>
       <c r="E178" s="2">
-        <v>2037.810985217972</v>
+        <v>2134.647587018294</v>
       </c>
       <c r="F178" s="2">
         <v>2134.647587018294</v>
@@ -4732,10 +4732,10 @@
         <v>27</v>
       </c>
       <c r="D179" s="2">
-        <v>0.2980090719647706</v>
+        <v>0.2647569369873963</v>
       </c>
       <c r="E179" s="2">
-        <v>2278.845315164878</v>
+        <v>2337.026321713145</v>
       </c>
       <c r="F179" s="2">
         <v>2337.026321713145</v>
@@ -4756,7 +4756,7 @@
         <v>28</v>
       </c>
       <c r="D180" s="2">
-        <v>0.2913158939918503</v>
+        <v>0.2806211650022306</v>
       </c>
       <c r="E180" s="2">
         <v>2200.329760590347</v>
@@ -4780,7 +4780,7 @@
         <v>29</v>
       </c>
       <c r="D181" s="2">
-        <v>0.3185373150045052</v>
+        <v>0.3192010589991696</v>
       </c>
       <c r="E181" s="2">
         <v>2431.022020553432</v>
@@ -4804,7 +4804,7 @@
         <v>30</v>
       </c>
       <c r="D182" s="2">
-        <v>0.3510747930267826</v>
+        <v>0.2696484460029751</v>
       </c>
       <c r="E182" s="2">
         <v>2294.756854658639</v>
@@ -4828,10 +4828,10 @@
         <v>1</v>
       </c>
       <c r="D183" s="2">
-        <v>0.2814847459667362</v>
+        <v>0.2766264080419205</v>
       </c>
       <c r="E183" s="2">
-        <v>1582.069057377005</v>
+        <v>1718.570281232002</v>
       </c>
       <c r="F183" s="2">
         <v>1879.802659042442</v>
@@ -4852,7 +4852,7 @@
         <v>2</v>
       </c>
       <c r="D184" s="2">
-        <v>0.2788499970338307</v>
+        <v>0.3111776569858193</v>
       </c>
       <c r="E184" s="2">
         <v>2133.493504467813</v>
@@ -4876,7 +4876,7 @@
         <v>3</v>
       </c>
       <c r="D185" s="2">
-        <v>0.3230001319898292</v>
+        <v>0.3982718070037663</v>
       </c>
       <c r="E185" s="2">
         <v>2369.15855112158</v>
@@ -4900,7 +4900,7 @@
         <v>4</v>
       </c>
       <c r="D186" s="2">
-        <v>0.3546065739938058</v>
+        <v>0.3341113139758818</v>
       </c>
       <c r="E186" s="2">
         <v>2201.091230166294</v>
@@ -4924,10 +4924,10 @@
         <v>5</v>
       </c>
       <c r="D187" s="2">
-        <v>0.2957076050224714</v>
+        <v>0.3732549530104734</v>
       </c>
       <c r="E187" s="2">
-        <v>2078.633552157174</v>
+        <v>2123.412352935886</v>
       </c>
       <c r="F187" s="2">
         <v>2123.412352935887</v>
@@ -4948,7 +4948,7 @@
         <v>6</v>
       </c>
       <c r="D188" s="2">
-        <v>0.3111831229762174</v>
+        <v>0.3405669089988805</v>
       </c>
       <c r="E188" s="2">
         <v>1862.349367521303</v>
@@ -4972,10 +4972,10 @@
         <v>7</v>
       </c>
       <c r="D189" s="2">
-        <v>0.308050922001712</v>
+        <v>0.3273928919807076</v>
       </c>
       <c r="E189" s="2">
-        <v>1902.053146172419</v>
+        <v>1903.874646814641</v>
       </c>
       <c r="F189" s="2">
         <v>1903.874646814641</v>
@@ -4996,7 +4996,7 @@
         <v>8</v>
       </c>
       <c r="D190" s="2">
-        <v>0.351211818982847</v>
+        <v>0.3012206180137582</v>
       </c>
       <c r="E190" s="2">
         <v>1550.682658295898</v>
@@ -5020,10 +5020,10 @@
         <v>9</v>
       </c>
       <c r="D191" s="2">
-        <v>0.3083465700037777</v>
+        <v>0.3103814189671539</v>
       </c>
       <c r="E191" s="2">
-        <v>2267.62343574037</v>
+        <v>2314.796501523785</v>
       </c>
       <c r="F191" s="2">
         <v>2314.796501523784</v>
@@ -5044,7 +5044,7 @@
         <v>10</v>
       </c>
       <c r="D192" s="2">
-        <v>0.4470643649692647</v>
+        <v>0.3108763769851066</v>
       </c>
       <c r="E192" s="2">
         <v>2147.28958296368</v>
@@ -5068,7 +5068,7 @@
         <v>11</v>
       </c>
       <c r="D193" s="2">
-        <v>0.3332748900284059</v>
+        <v>0.2724682750413194</v>
       </c>
       <c r="E193" s="2">
         <v>2346.301850815037</v>
@@ -5092,7 +5092,7 @@
         <v>12</v>
       </c>
       <c r="D194" s="2">
-        <v>0.4627669350011274</v>
+        <v>0.3016128090093844</v>
       </c>
       <c r="E194" s="2">
         <v>2330.275608498885</v>
@@ -5116,7 +5116,7 @@
         <v>13</v>
       </c>
       <c r="D195" s="2">
-        <v>0.3400871499907225</v>
+        <v>0.3382515950361267</v>
       </c>
       <c r="E195" s="2">
         <v>2281.67401390062</v>
@@ -5140,7 +5140,7 @@
         <v>14</v>
       </c>
       <c r="D196" s="2">
-        <v>0.3283668460207991</v>
+        <v>0.2896721559809521</v>
       </c>
       <c r="E196" s="2">
         <v>2142.059190417069</v>
@@ -5164,7 +5164,7 @@
         <v>15</v>
       </c>
       <c r="D197" s="2">
-        <v>0.2674708730191924</v>
+        <v>0.2932781460112892</v>
       </c>
       <c r="E197" s="2">
         <v>2154.851187413764</v>
@@ -5188,7 +5188,7 @@
         <v>16</v>
       </c>
       <c r="D198" s="2">
-        <v>0.28808226500405</v>
+        <v>0.3479077600059099</v>
       </c>
       <c r="E198" s="2">
         <v>1827.555546047547</v>
@@ -5212,10 +5212,10 @@
         <v>17</v>
       </c>
       <c r="D199" s="2">
-        <v>0.2977025790023617</v>
+        <v>0.2964944660197943</v>
       </c>
       <c r="E199" s="2">
-        <v>2312.592172520148</v>
+        <v>2364.207375170693</v>
       </c>
       <c r="F199" s="2">
         <v>2364.207375170694</v>
@@ -5236,10 +5236,10 @@
         <v>18</v>
       </c>
       <c r="D200" s="2">
-        <v>0.3319714830140583</v>
+        <v>0.3660276929731481</v>
       </c>
       <c r="E200" s="2">
-        <v>2639.728077774702</v>
+        <v>2656.026767061549</v>
       </c>
       <c r="F200" s="2">
         <v>2656.026767061548</v>
@@ -5260,10 +5260,10 @@
         <v>19</v>
       </c>
       <c r="D201" s="2">
-        <v>0.2711191370035522</v>
+        <v>0.3916133370366879</v>
       </c>
       <c r="E201" s="2">
-        <v>1809.317100259165</v>
+        <v>1871.5725112719</v>
       </c>
       <c r="F201" s="2">
         <v>1871.572511271901</v>
@@ -5284,7 +5284,7 @@
         <v>20</v>
       </c>
       <c r="D202" s="2">
-        <v>0.3378522819839418</v>
+        <v>0.2878650780185126</v>
       </c>
       <c r="E202" s="2">
         <v>1949.670656151689</v>
@@ -5308,10 +5308,10 @@
         <v>21</v>
       </c>
       <c r="D203" s="2">
-        <v>0.2789542520185933</v>
+        <v>0.343940430029761</v>
       </c>
       <c r="E203" s="2">
-        <v>1715.43914106112</v>
+        <v>1790.536782384726</v>
       </c>
       <c r="F203" s="2">
         <v>1846.004003310091</v>
@@ -5332,10 +5332,10 @@
         <v>22</v>
       </c>
       <c r="D204" s="2">
-        <v>0.3017725999816321</v>
+        <v>0.3279270500061102</v>
       </c>
       <c r="E204" s="2">
-        <v>1656.485197339657</v>
+        <v>1700.471375710124</v>
       </c>
       <c r="F204" s="2">
         <v>1700.471375710124</v>
@@ -5356,7 +5356,7 @@
         <v>23</v>
       </c>
       <c r="D205" s="2">
-        <v>0.3867994950269349</v>
+        <v>0.3286045670392923</v>
       </c>
       <c r="E205" s="2">
         <v>2429.157421160867</v>
@@ -5380,7 +5380,7 @@
         <v>24</v>
       </c>
       <c r="D206" s="2">
-        <v>0.2849398170365021</v>
+        <v>0.3716873030061834</v>
       </c>
       <c r="E206" s="2">
         <v>2124.84529359882</v>
@@ -5404,7 +5404,7 @@
         <v>25</v>
       </c>
       <c r="D207" s="2">
-        <v>0.3310007340041921</v>
+        <v>0.3559154359973036</v>
       </c>
       <c r="E207" s="2">
         <v>2004.519444757482</v>
@@ -5428,7 +5428,7 @@
         <v>26</v>
       </c>
       <c r="D208" s="2">
-        <v>0.3195240119821392</v>
+        <v>0.2794550459948368</v>
       </c>
       <c r="E208" s="2">
         <v>1774.494386696628</v>
@@ -5452,7 +5452,7 @@
         <v>27</v>
       </c>
       <c r="D209" s="2">
-        <v>0.3550059130066074</v>
+        <v>0.2848606220213696</v>
       </c>
       <c r="E209" s="2">
         <v>1920.719001820786</v>
@@ -5476,10 +5476,10 @@
         <v>28</v>
       </c>
       <c r="D210" s="2">
-        <v>0.2840013679815456</v>
+        <v>0.3540542990085669</v>
       </c>
       <c r="E210" s="2">
-        <v>2564.088061292243</v>
+        <v>2608.829716344009</v>
       </c>
       <c r="F210" s="2">
         <v>2608.829716344008</v>
@@ -5500,7 +5500,7 @@
         <v>29</v>
       </c>
       <c r="D211" s="2">
-        <v>0.3164890769985504</v>
+        <v>0.3243534810026176</v>
       </c>
       <c r="E211" s="2">
         <v>2182.404121155074</v>
@@ -5524,7 +5524,7 @@
         <v>30</v>
       </c>
       <c r="D212" s="2">
-        <v>0.2694642010028474</v>
+        <v>0.3057497700210661</v>
       </c>
       <c r="E212" s="2">
         <v>2386.18139303373</v>
@@ -5548,7 +5548,7 @@
         <v>31</v>
       </c>
       <c r="D213" s="2">
-        <v>0.2594758360064588</v>
+        <v>0.2707934040226974</v>
       </c>
       <c r="E213" s="2">
         <v>2058.593491977226</v>
@@ -5572,10 +5572,10 @@
         <v>1</v>
       </c>
       <c r="D214" s="2">
-        <v>0.3683899770257995</v>
+        <v>0.3380231719929725</v>
       </c>
       <c r="E214" s="2">
-        <v>2108.505612097169</v>
+        <v>2179.389073061388</v>
       </c>
       <c r="F214" s="2">
         <v>2179.389073061388</v>
@@ -5596,10 +5596,10 @@
         <v>2</v>
       </c>
       <c r="D215" s="2">
-        <v>0.3041018340154551</v>
+        <v>0.387264814984519</v>
       </c>
       <c r="E215" s="2">
-        <v>2202.70112241282</v>
+        <v>2282.683308507831</v>
       </c>
       <c r="F215" s="2">
         <v>2282.683308507831</v>
@@ -5620,10 +5620,10 @@
         <v>3</v>
       </c>
       <c r="D216" s="2">
-        <v>0.3422985939541832</v>
+        <v>0.4719852340058424</v>
       </c>
       <c r="E216" s="2">
-        <v>2261.651604441291</v>
+        <v>2284.914482011153</v>
       </c>
       <c r="F216" s="2">
         <v>2284.914482011152</v>
@@ -5644,7 +5644,7 @@
         <v>4</v>
       </c>
       <c r="D217" s="2">
-        <v>0.3612459179712459</v>
+        <v>0.3888296019867994</v>
       </c>
       <c r="E217" s="2">
         <v>2225.114000818968</v>
@@ -5668,10 +5668,10 @@
         <v>5</v>
       </c>
       <c r="D218" s="2">
-        <v>0.2794240299845114</v>
+        <v>0.4016662299982272</v>
       </c>
       <c r="E218" s="2">
-        <v>2387.097322077035</v>
+        <v>2411.26348618545</v>
       </c>
       <c r="F218" s="2">
         <v>2443.696214528952</v>
@@ -5692,7 +5692,7 @@
         <v>6</v>
       </c>
       <c r="D219" s="2">
-        <v>0.3100520899752155</v>
+        <v>0.2687738569802605</v>
       </c>
       <c r="E219" s="2">
         <v>2214.382170322354</v>
@@ -5716,10 +5716,10 @@
         <v>7</v>
       </c>
       <c r="D220" s="2">
-        <v>0.3164599380106665</v>
+        <v>0.2878955859923735</v>
       </c>
       <c r="E220" s="2">
-        <v>2002.180321910151</v>
+        <v>1945.942901061507</v>
       </c>
       <c r="F220" s="2">
         <v>2032.18984196933</v>
@@ -5740,7 +5740,7 @@
         <v>8</v>
       </c>
       <c r="D221" s="2">
-        <v>0.2575289249652997</v>
+        <v>0.3265033939969726</v>
       </c>
       <c r="E221" s="2">
         <v>1815.785994386207</v>
@@ -5764,10 +5764,10 @@
         <v>9</v>
       </c>
       <c r="D222" s="2">
-        <v>0.2706121760420501</v>
+        <v>0.4008422130136751</v>
       </c>
       <c r="E222" s="2">
-        <v>1631.64512708036</v>
+        <v>1622.362157672732</v>
       </c>
       <c r="F222" s="2">
         <v>1666.365689989193</v>
@@ -5788,10 +5788,10 @@
         <v>10</v>
       </c>
       <c r="D223" s="2">
-        <v>0.3078826399869286</v>
+        <v>0.3624981819884852</v>
       </c>
       <c r="E223" s="2">
-        <v>2552.235315155479</v>
+        <v>2611.700374025417</v>
       </c>
       <c r="F223" s="2">
         <v>2611.700374025416</v>
@@ -5812,10 +5812,10 @@
         <v>11</v>
       </c>
       <c r="D224" s="2">
-        <v>0.2725853440351784</v>
+        <v>0.3428828570176847</v>
       </c>
       <c r="E224" s="2">
-        <v>2300.512298396646</v>
+        <v>2519.408808503995</v>
       </c>
       <c r="F224" s="2">
         <v>2519.408808503995</v>
@@ -5836,10 +5836,10 @@
         <v>12</v>
       </c>
       <c r="D225" s="2">
-        <v>0.3026979219866917</v>
+        <v>0.2772707639960572</v>
       </c>
       <c r="E225" s="2">
-        <v>2284.54242551724</v>
+        <v>2330.803973208133</v>
       </c>
       <c r="F225" s="2">
         <v>2330.803973208132</v>
@@ -5860,7 +5860,7 @@
         <v>13</v>
       </c>
       <c r="D226" s="2">
-        <v>0.2676096649956889</v>
+        <v>0.3542145100072958</v>
       </c>
       <c r="E226" s="2">
         <v>2644.608815788594</v>
@@ -5884,7 +5884,7 @@
         <v>14</v>
       </c>
       <c r="D227" s="2">
-        <v>0.2833649090025574</v>
+        <v>0.3065731829847209</v>
       </c>
       <c r="E227" s="2">
         <v>1712.162199308163</v>
@@ -5908,10 +5908,10 @@
         <v>15</v>
       </c>
       <c r="D228" s="2">
-        <v>0.3447263299603947</v>
+        <v>0.3048595410073176</v>
       </c>
       <c r="E228" s="2">
-        <v>1731.713472780337</v>
+        <v>1779.929572513537</v>
       </c>
       <c r="F228" s="2">
         <v>1779.929572513537</v>
@@ -5932,7 +5932,7 @@
         <v>16</v>
       </c>
       <c r="D229" s="2">
-        <v>0.3068030889844522</v>
+        <v>0.3028376700240187</v>
       </c>
       <c r="E229" s="2">
         <v>1798.549946528332</v>
@@ -5956,10 +5956,10 @@
         <v>17</v>
       </c>
       <c r="D230" s="2">
-        <v>0.2799725590157323</v>
+        <v>0.3675132000353187</v>
       </c>
       <c r="E230" s="2">
-        <v>2435.26857154144</v>
+        <v>2535.381656937598</v>
       </c>
       <c r="F230" s="2">
         <v>2535.381656937598</v>
@@ -5980,7 +5980,7 @@
         <v>18</v>
       </c>
       <c r="D231" s="2">
-        <v>0.3150432329857722</v>
+        <v>0.3881293560261838</v>
       </c>
       <c r="E231" s="2">
         <v>2204.477399209422</v>
@@ -6004,10 +6004,10 @@
         <v>19</v>
       </c>
       <c r="D232" s="2">
-        <v>0.2735700779594481</v>
+        <v>0.3137452140217647</v>
       </c>
       <c r="E232" s="2">
-        <v>1791.453667750091</v>
+        <v>1836.120126813968</v>
       </c>
       <c r="F232" s="2">
         <v>1836.120126813968</v>
@@ -6028,10 +6028,10 @@
         <v>20</v>
       </c>
       <c r="D233" s="2">
-        <v>0.3202958760084584</v>
+        <v>0.294321316992864</v>
       </c>
       <c r="E233" s="2">
-        <v>2197.745099400883</v>
+        <v>2293.287501067518</v>
       </c>
       <c r="F233" s="2">
         <v>2293.287501067518</v>
@@ -6052,10 +6052,10 @@
         <v>21</v>
       </c>
       <c r="D234" s="2">
-        <v>0.2718318229890428</v>
+        <v>0.3777687880210578</v>
       </c>
       <c r="E234" s="2">
-        <v>2196.387835018965</v>
+        <v>2310.80608107311</v>
       </c>
       <c r="F234" s="2">
         <v>2310.80608107311</v>
@@ -6076,7 +6076,7 @@
         <v>22</v>
       </c>
       <c r="D235" s="2">
-        <v>0.2767558610066772</v>
+        <v>0.2974117069970816</v>
       </c>
       <c r="E235" s="2">
         <v>2546.014669910183</v>
@@ -6100,7 +6100,7 @@
         <v>23</v>
       </c>
       <c r="D236" s="2">
-        <v>0.2768821299541742</v>
+        <v>0.3667740680393763</v>
       </c>
       <c r="E236" s="2">
         <v>2470.904710041427</v>
@@ -6124,7 +6124,7 @@
         <v>24</v>
       </c>
       <c r="D237" s="2">
-        <v>0.2936887379619293</v>
+        <v>0.2844069169950671</v>
       </c>
       <c r="E237" s="2">
         <v>2017.228708030254</v>
@@ -6148,7 +6148,7 @@
         <v>25</v>
       </c>
       <c r="D238" s="2">
-        <v>0.2954361040028743</v>
+        <v>0.3563060169690289</v>
       </c>
       <c r="E238" s="2">
         <v>1703.31074315255</v>
@@ -6172,7 +6172,7 @@
         <v>26</v>
       </c>
       <c r="D239" s="2">
-        <v>0.282728063990362</v>
+        <v>0.4578526580007747</v>
       </c>
       <c r="E239" s="2">
         <v>2266.342076156299</v>
@@ -6196,7 +6196,7 @@
         <v>27</v>
       </c>
       <c r="D240" s="2">
-        <v>0.2704738270258531</v>
+        <v>0.3218538610381074</v>
       </c>
       <c r="E240" s="2">
         <v>2511.023189743128</v>
@@ -6220,7 +6220,7 @@
         <v>28</v>
       </c>
       <c r="D241" s="2">
-        <v>0.3253475989913568</v>
+        <v>0.3121779090142809</v>
       </c>
       <c r="E241" s="2">
         <v>2313.875495316014</v>
@@ -6244,7 +6244,7 @@
         <v>29</v>
       </c>
       <c r="D242" s="2">
-        <v>0.2706052649882622</v>
+        <v>0.3573831269750372</v>
       </c>
       <c r="E242" s="2">
         <v>2360.045776833543</v>
@@ -6268,10 +6268,10 @@
         <v>30</v>
       </c>
       <c r="D243" s="2">
-        <v>0.2789900010102428</v>
+        <v>0.3311568460194394</v>
       </c>
       <c r="E243" s="2">
-        <v>2186.202086518578</v>
+        <v>2186.202086518579</v>
       </c>
       <c r="F243" s="2">
         <v>2186.202086518579</v>
@@ -6292,10 +6292,10 @@
         <v>31</v>
       </c>
       <c r="D244" s="2">
-        <v>0.2600416169734672</v>
+        <v>0.390717661997769</v>
       </c>
       <c r="E244" s="2">
-        <v>2241.733350204849</v>
+        <v>2245.4597768131</v>
       </c>
       <c r="F244" s="2">
         <v>2245.4597768131</v>
@@ -6316,7 +6316,7 @@
         <v>1</v>
       </c>
       <c r="D245" s="2">
-        <v>0.2910314009641297</v>
+        <v>0.3720364129985683</v>
       </c>
       <c r="E245" s="2">
         <v>2887.107827908604</v>
@@ -6340,10 +6340,10 @@
         <v>2</v>
       </c>
       <c r="D246" s="2">
-        <v>0.3353620530106127</v>
+        <v>0.3256428049644455</v>
       </c>
       <c r="E246" s="2">
-        <v>1953.601813178169</v>
+        <v>2013.835153074207</v>
       </c>
       <c r="F246" s="2">
         <v>2013.835153074207</v>
@@ -6364,7 +6364,7 @@
         <v>3</v>
       </c>
       <c r="D247" s="2">
-        <v>0.2815245520323515</v>
+        <v>0.2866030959994532</v>
       </c>
       <c r="E247" s="2">
         <v>2406.895924405407</v>
@@ -6388,10 +6388,10 @@
         <v>4</v>
       </c>
       <c r="D248" s="2">
-        <v>0.3287408989854157</v>
+        <v>0.3113512549898587</v>
       </c>
       <c r="E248" s="2">
-        <v>2277.049034515883</v>
+        <v>2364.461307498643</v>
       </c>
       <c r="F248" s="2">
         <v>2394.214099020252</v>
@@ -6412,10 +6412,10 @@
         <v>5</v>
       </c>
       <c r="D249" s="2">
-        <v>0.3437800370156765</v>
+        <v>0.3289594340021722</v>
       </c>
       <c r="E249" s="2">
-        <v>2507.222879045036</v>
+        <v>2519.34717945573</v>
       </c>
       <c r="F249" s="2">
         <v>2591.284879766416</v>
@@ -6436,7 +6436,7 @@
         <v>6</v>
       </c>
       <c r="D250" s="2">
-        <v>0.2766398260137066</v>
+        <v>0.335356518975459</v>
       </c>
       <c r="E250" s="2">
         <v>1785.192611763049</v>
@@ -6460,10 +6460,10 @@
         <v>7</v>
       </c>
       <c r="D251" s="2">
-        <v>0.3086814900161698</v>
+        <v>0.3112479220144451</v>
       </c>
       <c r="E251" s="2">
-        <v>2502.558377766262</v>
+        <v>2547.822082559145</v>
       </c>
       <c r="F251" s="2">
         <v>2547.822082559145</v>
@@ -6484,7 +6484,7 @@
         <v>8</v>
       </c>
       <c r="D252" s="2">
-        <v>0.2925301849609241</v>
+        <v>0.3028287179768085</v>
       </c>
       <c r="E252" s="2">
         <v>2334.630106037041</v>
@@ -6508,7 +6508,7 @@
         <v>9</v>
       </c>
       <c r="D253" s="2">
-        <v>0.323029907012824</v>
+        <v>0.2805973020149395</v>
       </c>
       <c r="E253" s="2">
         <v>1773.970615814834</v>
@@ -6532,7 +6532,7 @@
         <v>10</v>
       </c>
       <c r="D254" s="2">
-        <v>0.3112932490184903</v>
+        <v>0.2790695590083487</v>
       </c>
       <c r="E254" s="2">
         <v>1356.403336857777</v>
@@ -6556,10 +6556,10 @@
         <v>11</v>
       </c>
       <c r="D255" s="2">
-        <v>0.3023349610157311</v>
+        <v>0.3557160759810358</v>
       </c>
       <c r="E255" s="2">
-        <v>1959.292537165183</v>
+        <v>2039.585725477654</v>
       </c>
       <c r="F255" s="2">
         <v>2039.585725477654</v>
@@ -6580,10 +6580,10 @@
         <v>12</v>
       </c>
       <c r="D256" s="2">
-        <v>0.3139226459898055</v>
+        <v>0.2683632079861127</v>
       </c>
       <c r="E256" s="2">
-        <v>2329.654003045938</v>
+        <v>2340.709516232931</v>
       </c>
       <c r="F256" s="2">
         <v>2340.70951623293</v>
@@ -6604,7 +6604,7 @@
         <v>13</v>
       </c>
       <c r="D257" s="2">
-        <v>0.3025824969517998</v>
+        <v>0.329809752991423</v>
       </c>
       <c r="E257" s="2">
         <v>1916.751607545592</v>
@@ -6628,7 +6628,7 @@
         <v>14</v>
       </c>
       <c r="D258" s="2">
-        <v>0.293877603020519</v>
+        <v>0.3273218490066938</v>
       </c>
       <c r="E258" s="2">
         <v>1905.224578206205</v>
@@ -6652,10 +6652,10 @@
         <v>15</v>
       </c>
       <c r="D259" s="2">
-        <v>0.2801003819913603</v>
+        <v>0.3132719340501353</v>
       </c>
       <c r="E259" s="2">
-        <v>1747.658749414789</v>
+        <v>1756.007477462088</v>
       </c>
       <c r="F259" s="2">
         <v>1756.007477462087</v>
@@ -6676,7 +6676,7 @@
         <v>16</v>
       </c>
       <c r="D260" s="2">
-        <v>0.269197549961973</v>
+        <v>0.3244858980178833</v>
       </c>
       <c r="E260" s="2">
         <v>2271.327177602541</v>
@@ -6700,7 +6700,7 @@
         <v>17</v>
       </c>
       <c r="D261" s="2">
-        <v>0.2891593130188994</v>
+        <v>0.3693941250094213</v>
       </c>
       <c r="E261" s="2">
         <v>2137.867484809064</v>
@@ -6724,7 +6724,7 @@
         <v>18</v>
       </c>
       <c r="D262" s="2">
-        <v>0.2935299620148726</v>
+        <v>0.3064926399965771</v>
       </c>
       <c r="E262" s="2">
         <v>1874.000301052681</v>
@@ -6748,7 +6748,7 @@
         <v>19</v>
       </c>
       <c r="D263" s="2">
-        <v>0.2698747999966145</v>
+        <v>0.3306904480559751</v>
       </c>
       <c r="E263" s="2">
         <v>1936.641943992453</v>
@@ -6772,7 +6772,7 @@
         <v>20</v>
       </c>
       <c r="D264" s="2">
-        <v>0.3218157520168461</v>
+        <v>0.2794626930262893</v>
       </c>
       <c r="E264" s="2">
         <v>1661.106237777533</v>
@@ -6796,7 +6796,7 @@
         <v>21</v>
       </c>
       <c r="D265" s="2">
-        <v>0.2728699099970981</v>
+        <v>0.3341324499924667</v>
       </c>
       <c r="E265" s="2">
         <v>2058.297166045912</v>
@@ -6820,7 +6820,7 @@
         <v>22</v>
       </c>
       <c r="D266" s="2">
-        <v>0.3198001019773073</v>
+        <v>0.3085637540207244</v>
       </c>
       <c r="E266" s="2">
         <v>2517.582538207954</v>
@@ -6844,7 +6844,7 @@
         <v>23</v>
       </c>
       <c r="D267" s="2">
-        <v>0.2668765319976956</v>
+        <v>0.3282609959715046</v>
       </c>
       <c r="E267" s="2">
         <v>1756.548310997544</v>
@@ -6868,7 +6868,7 @@
         <v>24</v>
       </c>
       <c r="D268" s="2">
-        <v>0.2753990800119936</v>
+        <v>0.316415045002941</v>
       </c>
       <c r="E268" s="2">
         <v>2504.314441513868</v>
@@ -6892,10 +6892,10 @@
         <v>25</v>
       </c>
       <c r="D269" s="2">
-        <v>0.3381628460483626</v>
+        <v>0.3163825129740871</v>
       </c>
       <c r="E269" s="2">
-        <v>1674.16680673762</v>
+        <v>1913.677933301945</v>
       </c>
       <c r="F269" s="2">
         <v>1913.677933301946</v>
@@ -6916,7 +6916,7 @@
         <v>26</v>
       </c>
       <c r="D270" s="2">
-        <v>0.323684367001988</v>
+        <v>0.3965676509542391</v>
       </c>
       <c r="E270" s="2">
         <v>1849.163631989038</v>
@@ -6940,10 +6940,10 @@
         <v>27</v>
       </c>
       <c r="D271" s="2">
-        <v>0.3088965129572898</v>
+        <v>0.307259063993115</v>
       </c>
       <c r="E271" s="2">
-        <v>2146.034588347135</v>
+        <v>2148.065827749961</v>
       </c>
       <c r="F271" s="2">
         <v>2148.065827749961</v>
@@ -6964,10 +6964,10 @@
         <v>28</v>
       </c>
       <c r="D272" s="2">
-        <v>0.3213260300108232</v>
+        <v>0.3023663519998081</v>
       </c>
       <c r="E272" s="2">
-        <v>2350.799715458495</v>
+        <v>2451.56938988846</v>
       </c>
       <c r="F272" s="2">
         <v>2468.356661599367</v>
@@ -6988,7 +6988,7 @@
         <v>29</v>
       </c>
       <c r="D273" s="2">
-        <v>0.3153518899925984</v>
+        <v>0.4080490680062212</v>
       </c>
       <c r="E273" s="2">
         <v>2417.630198451922</v>
@@ -7012,7 +7012,7 @@
         <v>30</v>
       </c>
       <c r="D274" s="2">
-        <v>0.277582723996602</v>
+        <v>0.2959447170142084</v>
       </c>
       <c r="E274" s="2">
         <v>2464.656098903341</v>
@@ -7036,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="D275" s="2">
-        <v>0.2981034819968045</v>
+        <v>0.2865063000353985</v>
       </c>
       <c r="E275" s="2">
         <v>1745.773051017158</v>
@@ -7060,7 +7060,7 @@
         <v>2</v>
       </c>
       <c r="D276" s="2">
-        <v>0.3494637559633702</v>
+        <v>0.336116322025191</v>
       </c>
       <c r="E276" s="2">
         <v>2246.5846782403</v>
@@ -7084,10 +7084,10 @@
         <v>3</v>
       </c>
       <c r="D277" s="2">
-        <v>0.2902339449501596</v>
+        <v>0.2976294019608758</v>
       </c>
       <c r="E277" s="2">
-        <v>2247.684144044212</v>
+        <v>2249.253543116756</v>
       </c>
       <c r="F277" s="2">
         <v>2325.843339537811</v>
@@ -7108,10 +7108,10 @@
         <v>4</v>
       </c>
       <c r="D278" s="2">
-        <v>0.2810980610083789</v>
+        <v>0.2895477780257352</v>
       </c>
       <c r="E278" s="2">
-        <v>1852.732122115897</v>
+        <v>1926.783785231637</v>
       </c>
       <c r="F278" s="2">
         <v>1926.783785231637</v>
@@ -7132,10 +7132,10 @@
         <v>5</v>
       </c>
       <c r="D279" s="2">
-        <v>0.2892006780020893</v>
+        <v>0.3008573569823056</v>
       </c>
       <c r="E279" s="2">
-        <v>1910.809907861124</v>
+        <v>1937.615442270606</v>
       </c>
       <c r="F279" s="2">
         <v>1937.615442270605</v>
@@ -7156,10 +7156,10 @@
         <v>6</v>
       </c>
       <c r="D280" s="2">
-        <v>0.2686647779773921</v>
+        <v>0.306561851000879</v>
       </c>
       <c r="E280" s="2">
-        <v>2575.707410746781</v>
+        <v>2610.80447379722</v>
       </c>
       <c r="F280" s="2">
         <v>2610.804473797219</v>
@@ -7180,7 +7180,7 @@
         <v>7</v>
       </c>
       <c r="D281" s="2">
-        <v>0.2870407910086215</v>
+        <v>0.3106121519813314</v>
       </c>
       <c r="E281" s="2">
         <v>2355.186850688548</v>
@@ -7204,7 +7204,7 @@
         <v>8</v>
       </c>
       <c r="D282" s="2">
-        <v>0.3257466219947673</v>
+        <v>0.3600340400007553</v>
       </c>
       <c r="E282" s="2">
         <v>2298.833648777947</v>
@@ -7228,10 +7228,10 @@
         <v>9</v>
       </c>
       <c r="D283" s="2">
-        <v>0.3349149849964306</v>
+        <v>0.2693856339901686</v>
       </c>
       <c r="E283" s="2">
-        <v>2053.482514246279</v>
+        <v>2169.154944538894</v>
       </c>
       <c r="F283" s="2">
         <v>2169.154944538893</v>
@@ -7252,7 +7252,7 @@
         <v>10</v>
       </c>
       <c r="D284" s="2">
-        <v>0.2841029900009744</v>
+        <v>0.2915016320184804</v>
       </c>
       <c r="E284" s="2">
         <v>2301.377884614211</v>
@@ -7276,7 +7276,7 @@
         <v>11</v>
       </c>
       <c r="D285" s="2">
-        <v>0.278352057968732</v>
+        <v>0.3169889000128023</v>
       </c>
       <c r="E285" s="2">
         <v>2125.907481037008</v>
@@ -7300,10 +7300,10 @@
         <v>12</v>
       </c>
       <c r="D286" s="2">
-        <v>0.284991992986761</v>
+        <v>0.3011456240201369</v>
       </c>
       <c r="E286" s="2">
-        <v>2198.473011118123</v>
+        <v>2215.168984016766</v>
       </c>
       <c r="F286" s="2">
         <v>2215.168984016766</v>
@@ -7324,7 +7324,7 @@
         <v>13</v>
       </c>
       <c r="D287" s="2">
-        <v>0.3172936210175976</v>
+        <v>0.3470381849911064</v>
       </c>
       <c r="E287" s="2">
         <v>2643.624993531228</v>
@@ -7348,10 +7348,10 @@
         <v>14</v>
       </c>
       <c r="D288" s="2">
-        <v>0.2916150139644742</v>
+        <v>0.2989851820166223</v>
       </c>
       <c r="E288" s="2">
-        <v>1943.977426692217</v>
+        <v>2038.14769899266</v>
       </c>
       <c r="F288" s="2">
         <v>2038.147698992659</v>
@@ -7372,7 +7372,7 @@
         <v>15</v>
       </c>
       <c r="D289" s="2">
-        <v>0.2755750470096245</v>
+        <v>0.3075909309554845</v>
       </c>
       <c r="E289" s="2">
         <v>1994.871724011731</v>
@@ -7396,7 +7396,7 @@
         <v>16</v>
       </c>
       <c r="D290" s="2">
-        <v>0.3150035470025614</v>
+        <v>0.2980851199827157</v>
       </c>
       <c r="E290" s="2">
         <v>2088.631535475274</v>
@@ -7420,10 +7420,10 @@
         <v>17</v>
       </c>
       <c r="D291" s="2">
-        <v>0.2784921780112199</v>
+        <v>0.3335775439627469</v>
       </c>
       <c r="E291" s="2">
-        <v>2263.595297155437</v>
+        <v>2348.204411172897</v>
       </c>
       <c r="F291" s="2">
         <v>2348.204411172897</v>
@@ -7444,7 +7444,7 @@
         <v>18</v>
       </c>
       <c r="D292" s="2">
-        <v>0.3048629249678925</v>
+        <v>0.3279428799869493</v>
       </c>
       <c r="E292" s="2">
         <v>1954.88074961617</v>
@@ -7468,7 +7468,7 @@
         <v>19</v>
       </c>
       <c r="D293" s="2">
-        <v>0.2739753790083341</v>
+        <v>0.3062836520257406</v>
       </c>
       <c r="E293" s="2">
         <v>2034.093970895243</v>
@@ -7492,10 +7492,10 @@
         <v>20</v>
       </c>
       <c r="D294" s="2">
-        <v>0.3433207930065691</v>
+        <v>0.3631833890103735</v>
       </c>
       <c r="E294" s="2">
-        <v>2028.01960013249</v>
+        <v>2042.646494310696</v>
       </c>
       <c r="F294" s="2">
         <v>2042.646494310696</v>
@@ -7516,10 +7516,10 @@
         <v>21</v>
       </c>
       <c r="D295" s="2">
-        <v>0.2835624339641072</v>
+        <v>0.313871466962155</v>
       </c>
       <c r="E295" s="2">
-        <v>2776.316939986276</v>
+        <v>2788.593757216037</v>
       </c>
       <c r="F295" s="2">
         <v>2846.44275821082</v>
@@ -7540,7 +7540,7 @@
         <v>22</v>
       </c>
       <c r="D296" s="2">
-        <v>0.2832111280295067</v>
+        <v>0.276842217950616</v>
       </c>
       <c r="E296" s="2">
         <v>2711.915654643821</v>
@@ -7564,7 +7564,7 @@
         <v>23</v>
       </c>
       <c r="D297" s="2">
-        <v>0.3364407170447521</v>
+        <v>0.315294731000904</v>
       </c>
       <c r="E297" s="2">
         <v>2008.15841961807</v>
@@ -7588,10 +7588,10 @@
         <v>24</v>
       </c>
       <c r="D298" s="2">
-        <v>0.3061685700085945</v>
+        <v>0.3486432950012386</v>
       </c>
       <c r="E298" s="2">
-        <v>2415.663320261749</v>
+        <v>2539.530994316101</v>
       </c>
       <c r="F298" s="2">
         <v>2539.5309943161</v>
@@ -7612,7 +7612,7 @@
         <v>25</v>
       </c>
       <c r="D299" s="2">
-        <v>0.285850256041158</v>
+        <v>0.3286465260316618</v>
       </c>
       <c r="E299" s="2">
         <v>2334.072808296767</v>
@@ -7636,7 +7636,7 @@
         <v>26</v>
       </c>
       <c r="D300" s="2">
-        <v>0.304708348994609</v>
+        <v>0.3249016830231994</v>
       </c>
       <c r="E300" s="2">
         <v>2868.548968321962</v>
@@ -7660,10 +7660,10 @@
         <v>27</v>
       </c>
       <c r="D301" s="2">
-        <v>0.2910244039958343</v>
+        <v>0.2833768659620546</v>
       </c>
       <c r="E301" s="2">
-        <v>1986.335329439147</v>
+        <v>2026.035889570156</v>
       </c>
       <c r="F301" s="2">
         <v>2093.176123176865</v>
@@ -7684,7 +7684,7 @@
         <v>28</v>
       </c>
       <c r="D302" s="2">
-        <v>0.2722871560254134</v>
+        <v>0.3539877430303022</v>
       </c>
       <c r="E302" s="2">
         <v>2380.143323163162</v>
@@ -7708,7 +7708,7 @@
         <v>29</v>
       </c>
       <c r="D303" s="2">
-        <v>0.3301382419886068</v>
+        <v>0.3585602079983801</v>
       </c>
       <c r="E303" s="2">
         <v>2697.802819118508</v>
@@ -7732,7 +7732,7 @@
         <v>30</v>
       </c>
       <c r="D304" s="2">
-        <v>0.2855616449960507</v>
+        <v>0.4790155910304748</v>
       </c>
       <c r="E304" s="2">
         <v>2394.455876793117</v>
@@ -7756,7 +7756,7 @@
         <v>31</v>
       </c>
       <c r="D305" s="2">
-        <v>0.3519778340123594</v>
+        <v>0.3331911580171436</v>
       </c>
       <c r="E305" s="2">
         <v>2413.544248832942</v>
@@ -7780,7 +7780,7 @@
         <v>1</v>
       </c>
       <c r="D306" s="2">
-        <v>0.2890190780162811</v>
+        <v>0.3503740469459444</v>
       </c>
       <c r="E306" s="2">
         <v>2478.513246107261</v>
@@ -7804,7 +7804,7 @@
         <v>2</v>
       </c>
       <c r="D307" s="2">
-        <v>0.3714659209945239</v>
+        <v>0.3087544820155017</v>
       </c>
       <c r="E307" s="2">
         <v>2803.568025817259</v>
@@ -7828,7 +7828,7 @@
         <v>3</v>
       </c>
       <c r="D308" s="2">
-        <v>0.286502186965663</v>
+        <v>0.2839208749937825</v>
       </c>
       <c r="E308" s="2">
         <v>2073.297524583329</v>
@@ -7852,10 +7852,10 @@
         <v>4</v>
       </c>
       <c r="D309" s="2">
-        <v>0.3545145479729399</v>
+        <v>0.2733514010324143</v>
       </c>
       <c r="E309" s="2">
-        <v>2049.086423598723</v>
+        <v>2049.086423598724</v>
       </c>
       <c r="F309" s="2">
         <v>2133.790139593566</v>
@@ -7876,10 +7876,10 @@
         <v>5</v>
       </c>
       <c r="D310" s="2">
-        <v>0.3245224029524252</v>
+        <v>0.2988061560317874</v>
       </c>
       <c r="E310" s="2">
-        <v>2126.955482229831</v>
+        <v>2148.287884216187</v>
       </c>
       <c r="F310" s="2">
         <v>2148.287884216187</v>
@@ -7900,7 +7900,7 @@
         <v>6</v>
       </c>
       <c r="D311" s="2">
-        <v>0.2763329180306755</v>
+        <v>0.3049927859683521</v>
       </c>
       <c r="E311" s="2">
         <v>1420.527062325168</v>
@@ -7924,10 +7924,10 @@
         <v>7</v>
       </c>
       <c r="D312" s="2">
-        <v>0.2822908919770271</v>
+        <v>0.2690096469596028</v>
       </c>
       <c r="E312" s="2">
-        <v>2064.978468564288</v>
+        <v>2103.994111258194</v>
       </c>
       <c r="F312" s="2">
         <v>2103.994111258194</v>
@@ -7948,7 +7948,7 @@
         <v>8</v>
       </c>
       <c r="D313" s="2">
-        <v>0.3206280619488098</v>
+        <v>0.2912967260344885</v>
       </c>
       <c r="E313" s="2">
         <v>2174.235817792049</v>
@@ -7972,10 +7972,10 @@
         <v>9</v>
       </c>
       <c r="D314" s="2">
-        <v>0.2681663039838895</v>
+        <v>0.2800815380178392</v>
       </c>
       <c r="E314" s="2">
-        <v>2043.86681784406</v>
+        <v>2174.726369959499</v>
       </c>
       <c r="F314" s="2">
         <v>2174.726369959499</v>
@@ -7996,10 +7996,10 @@
         <v>10</v>
       </c>
       <c r="D315" s="2">
-        <v>0.3195794419734739</v>
+        <v>0.2672088500112295</v>
       </c>
       <c r="E315" s="2">
-        <v>1792.51868593383</v>
+        <v>1824.587854972267</v>
       </c>
       <c r="F315" s="2">
         <v>1866.454949582234</v>
@@ -8020,7 +8020,7 @@
         <v>11</v>
       </c>
       <c r="D316" s="2">
-        <v>0.3287853599758819</v>
+        <v>0.2730157789774239</v>
       </c>
       <c r="E316" s="2">
         <v>1939.510869190896</v>
@@ -8044,7 +8044,7 @@
         <v>12</v>
       </c>
       <c r="D317" s="2">
-        <v>0.2806834490038455</v>
+        <v>0.3166144450078718</v>
       </c>
       <c r="E317" s="2">
         <v>1982.5924691358</v>
@@ -8068,7 +8068,7 @@
         <v>13</v>
       </c>
       <c r="D318" s="2">
-        <v>0.2746804539929144</v>
+        <v>0.2945599569939077</v>
       </c>
       <c r="E318" s="2">
         <v>3116.188234106301</v>
@@ -8092,10 +8092,10 @@
         <v>14</v>
       </c>
       <c r="D319" s="2">
-        <v>0.3268883900018409</v>
+        <v>0.2828213259926997</v>
       </c>
       <c r="E319" s="2">
-        <v>2452.285327868096</v>
+        <v>2513.791558419536</v>
       </c>
       <c r="F319" s="2">
         <v>2513.791558419535</v>
@@ -8116,10 +8116,10 @@
         <v>15</v>
       </c>
       <c r="D320" s="2">
-        <v>0.2728005009703338</v>
+        <v>0.3093555839732289</v>
       </c>
       <c r="E320" s="2">
-        <v>2347.607374977627</v>
+        <v>2440.988470388635</v>
       </c>
       <c r="F320" s="2">
         <v>2487.313343165431</v>
@@ -8140,10 +8140,10 @@
         <v>16</v>
       </c>
       <c r="D321" s="2">
-        <v>0.2864427110180259</v>
+        <v>0.286466343968641</v>
       </c>
       <c r="E321" s="2">
-        <v>2126.876171144358</v>
+        <v>2155.62492037158</v>
       </c>
       <c r="F321" s="2">
         <v>2155.624920371579</v>
@@ -8164,7 +8164,7 @@
         <v>17</v>
       </c>
       <c r="D322" s="2">
-        <v>0.3153286679880694</v>
+        <v>0.3107770819915459</v>
       </c>
       <c r="E322" s="2">
         <v>1956.598980337665</v>
@@ -8188,7 +8188,7 @@
         <v>18</v>
       </c>
       <c r="D323" s="2">
-        <v>0.3096827110275626</v>
+        <v>0.3554547419771552</v>
       </c>
       <c r="E323" s="2">
         <v>2033.762385808418</v>
@@ -8212,7 +8212,7 @@
         <v>19</v>
       </c>
       <c r="D324" s="2">
-        <v>0.2787316390313208</v>
+        <v>0.2805603360175155</v>
       </c>
       <c r="E324" s="2">
         <v>1790.692173145077</v>
@@ -8236,7 +8236,7 @@
         <v>20</v>
       </c>
       <c r="D325" s="2">
-        <v>0.2809286899864674</v>
+        <v>0.3558035410242155</v>
       </c>
       <c r="E325" s="2">
         <v>2528.124222885362</v>
@@ -8260,10 +8260,10 @@
         <v>21</v>
       </c>
       <c r="D326" s="2">
-        <v>0.3226989580434747</v>
+        <v>0.2826953679905273</v>
       </c>
       <c r="E326" s="2">
-        <v>2259.080033882705</v>
+        <v>2195.835517280987</v>
       </c>
       <c r="F326" s="2">
         <v>2288.211181279053</v>
@@ -8284,7 +8284,7 @@
         <v>22</v>
       </c>
       <c r="D327" s="2">
-        <v>0.2840324040153064</v>
+        <v>0.3087005480192602</v>
       </c>
       <c r="E327" s="2">
         <v>2139.448375543241</v>
@@ -8308,10 +8308,10 @@
         <v>23</v>
       </c>
       <c r="D328" s="2">
-        <v>0.2609178600250743</v>
+        <v>0.3348854980431497</v>
       </c>
       <c r="E328" s="2">
-        <v>2051.1917047678</v>
+        <v>2102.99014299587</v>
       </c>
       <c r="F328" s="2">
         <v>2143.470854204716</v>
@@ -8332,10 +8332,10 @@
         <v>24</v>
       </c>
       <c r="D329" s="2">
-        <v>0.2803620950435288</v>
+        <v>0.307377433986403</v>
       </c>
       <c r="E329" s="2">
-        <v>2340.753552910886</v>
+        <v>2346.560229424262</v>
       </c>
       <c r="F329" s="2">
         <v>2346.560229424262</v>
@@ -8356,10 +8356,10 @@
         <v>25</v>
       </c>
       <c r="D330" s="2">
-        <v>0.3139297899906524</v>
+        <v>0.2765291029936634</v>
       </c>
       <c r="E330" s="2">
-        <v>2449.557657100994</v>
+        <v>2540.4801004565</v>
       </c>
       <c r="F330" s="2">
         <v>2540.480100456502</v>
@@ -8380,7 +8380,7 @@
         <v>26</v>
       </c>
       <c r="D331" s="2">
-        <v>0.2808085170108825</v>
+        <v>0.3070982360513881</v>
       </c>
       <c r="E331" s="2">
         <v>2642.413305597452</v>
@@ -8404,7 +8404,7 @@
         <v>27</v>
       </c>
       <c r="D332" s="2">
-        <v>0.3067397510167211</v>
+        <v>0.2790412519825622</v>
       </c>
       <c r="E332" s="2">
         <v>1658.302505119404</v>
@@ -8428,7 +8428,7 @@
         <v>28</v>
       </c>
       <c r="D333" s="2">
-        <v>0.2783522920217365</v>
+        <v>0.3403656539740041</v>
       </c>
       <c r="E333" s="2">
         <v>2746.67888380407</v>
@@ -8452,10 +8452,10 @@
         <v>29</v>
       </c>
       <c r="D334" s="2">
-        <v>0.3560625690151937</v>
+        <v>0.3274023850099184</v>
       </c>
       <c r="E334" s="2">
-        <v>2520.968368639324</v>
+        <v>2520.968368639323</v>
       </c>
       <c r="F334" s="2">
         <v>2520.968368639324</v>
@@ -8476,7 +8476,7 @@
         <v>30</v>
       </c>
       <c r="D335" s="2">
-        <v>0.2675473149865866</v>
+        <v>0.3411562540568411</v>
       </c>
       <c r="E335" s="2">
         <v>2764.156789100399</v>
@@ -8500,10 +8500,10 @@
         <v>1</v>
       </c>
       <c r="D336" s="2">
-        <v>0.294045057031326</v>
+        <v>0.3458721239585429</v>
       </c>
       <c r="E336" s="2">
-        <v>2291.656236397386</v>
+        <v>2292.151148569029</v>
       </c>
       <c r="F336" s="2">
         <v>2292.151148569029</v>
@@ -8524,7 +8524,7 @@
         <v>2</v>
       </c>
       <c r="D337" s="2">
-        <v>0.271751525986474</v>
+        <v>0.3046573030296713</v>
       </c>
       <c r="E337" s="2">
         <v>2070.184153163144</v>
@@ -8548,7 +8548,7 @@
         <v>3</v>
       </c>
       <c r="D338" s="2">
-        <v>0.3041321099735796</v>
+        <v>0.2986336770118214</v>
       </c>
       <c r="E338" s="2">
         <v>2101.533017466671</v>
@@ -8572,10 +8572,10 @@
         <v>4</v>
       </c>
       <c r="D339" s="2">
-        <v>0.2689974730019458</v>
+        <v>0.3208363180165179</v>
       </c>
       <c r="E339" s="2">
-        <v>2733.529655240611</v>
+        <v>2775.48311906452</v>
       </c>
       <c r="F339" s="2">
         <v>2775.483119064521</v>
@@ -8596,7 +8596,7 @@
         <v>5</v>
       </c>
       <c r="D340" s="2">
-        <v>0.3363232759875245</v>
+        <v>0.309020972053986</v>
       </c>
       <c r="E340" s="2">
         <v>1567.818246447065</v>
@@ -8620,7 +8620,7 @@
         <v>6</v>
       </c>
       <c r="D341" s="2">
-        <v>0.2744431999744847</v>
+        <v>0.2956760699744336</v>
       </c>
       <c r="E341" s="2">
         <v>2859.278216211675</v>
@@ -8644,7 +8644,7 @@
         <v>7</v>
       </c>
       <c r="D342" s="2">
-        <v>0.3254224670235999</v>
+        <v>0.3500592669588514</v>
       </c>
       <c r="E342" s="2">
         <v>2120.579599003091</v>
@@ -8668,10 +8668,10 @@
         <v>8</v>
       </c>
       <c r="D343" s="2">
-        <v>0.2845514279906638</v>
+        <v>0.3483056210097857</v>
       </c>
       <c r="E343" s="2">
-        <v>2037.647433762984</v>
+        <v>2046.001031995618</v>
       </c>
       <c r="F343" s="2">
         <v>2046.001031995618</v>
@@ -8692,7 +8692,7 @@
         <v>9</v>
       </c>
       <c r="D344" s="2">
-        <v>0.2719279539887793</v>
+        <v>0.4151044029858895</v>
       </c>
       <c r="E344" s="2">
         <v>2478.759343790518</v>
@@ -8716,7 +8716,7 @@
         <v>10</v>
       </c>
       <c r="D345" s="2">
-        <v>0.3315688230213709</v>
+        <v>0.3894695169874467</v>
       </c>
       <c r="E345" s="2">
         <v>2022.565606640634</v>
@@ -8740,7 +8740,7 @@
         <v>11</v>
       </c>
       <c r="D346" s="2">
-        <v>0.3003937429748476</v>
+        <v>0.3213619989692234</v>
       </c>
       <c r="E346" s="2">
         <v>2594.355465694332</v>
@@ -8764,7 +8764,7 @@
         <v>12</v>
       </c>
       <c r="D347" s="2">
-        <v>0.2790458190138452</v>
+        <v>0.3495855780201964</v>
       </c>
       <c r="E347" s="2">
         <v>2492.088328115245</v>
@@ -8788,7 +8788,7 @@
         <v>13</v>
       </c>
       <c r="D348" s="2">
-        <v>0.3310444179805927</v>
+        <v>0.3282589830341749</v>
       </c>
       <c r="E348" s="2">
         <v>2768.855354466221</v>
@@ -8812,7 +8812,7 @@
         <v>14</v>
       </c>
       <c r="D349" s="2">
-        <v>0.3319551949971355</v>
+        <v>0.3094288489664905</v>
       </c>
       <c r="E349" s="2">
         <v>2457.131096596207</v>
@@ -8836,7 +8836,7 @@
         <v>15</v>
       </c>
       <c r="D350" s="2">
-        <v>0.3080975679913536</v>
+        <v>0.3826358640217222</v>
       </c>
       <c r="E350" s="2">
         <v>2917.600163431559</v>
@@ -8860,7 +8860,7 @@
         <v>16</v>
       </c>
       <c r="D351" s="2">
-        <v>0.3502363220322877</v>
+        <v>0.304185553046409</v>
       </c>
       <c r="E351" s="2">
         <v>2465.529689350901</v>
@@ -8884,10 +8884,10 @@
         <v>17</v>
       </c>
       <c r="D352" s="2">
-        <v>0.3192099340376444</v>
+        <v>0.3582513930159621</v>
       </c>
       <c r="E352" s="2">
-        <v>2036.185306951199</v>
+        <v>2036.974169322242</v>
       </c>
       <c r="F352" s="2">
         <v>2036.974169322242</v>
@@ -8908,7 +8908,7 @@
         <v>18</v>
       </c>
       <c r="D353" s="2">
-        <v>0.2824690549750812</v>
+        <v>0.3781720240367576</v>
       </c>
       <c r="E353" s="2">
         <v>2101.488835819664</v>
@@ -8932,10 +8932,10 @@
         <v>19</v>
       </c>
       <c r="D354" s="2">
-        <v>0.3324743509874679</v>
+        <v>0.3243621459696442</v>
       </c>
       <c r="E354" s="2">
-        <v>2174.995748982462</v>
+        <v>2233.961218290029</v>
       </c>
       <c r="F354" s="2">
         <v>2233.961218290028</v>
@@ -8956,7 +8956,7 @@
         <v>20</v>
       </c>
       <c r="D355" s="2">
-        <v>0.3227531950105913</v>
+        <v>0.366477488016244</v>
       </c>
       <c r="E355" s="2">
         <v>2422.65477233582</v>
@@ -8980,10 +8980,10 @@
         <v>21</v>
       </c>
       <c r="D356" s="2">
-        <v>0.2728561779949814</v>
+        <v>0.3894886540365405</v>
       </c>
       <c r="E356" s="2">
-        <v>2596.707052476312</v>
+        <v>2695.900780095736</v>
       </c>
       <c r="F356" s="2">
         <v>2695.900780095736</v>
@@ -9004,7 +9004,7 @@
         <v>22</v>
       </c>
       <c r="D357" s="2">
-        <v>0.3544294820167124</v>
+        <v>0.3456331359921023</v>
       </c>
       <c r="E357" s="2">
         <v>2120.598037190501</v>
@@ -9028,10 +9028,10 @@
         <v>23</v>
       </c>
       <c r="D358" s="2">
-        <v>0.2879800490336493</v>
+        <v>0.3370399990235455</v>
       </c>
       <c r="E358" s="2">
-        <v>1930.530013679022</v>
+        <v>1950.011238065563</v>
       </c>
       <c r="F358" s="2">
         <v>1975.400320893314</v>
@@ -9052,10 +9052,10 @@
         <v>24</v>
       </c>
       <c r="D359" s="2">
-        <v>0.325622980017215</v>
+        <v>0.3071930840378627</v>
       </c>
       <c r="E359" s="2">
-        <v>2185.884946243963</v>
+        <v>2196.411681006276</v>
       </c>
       <c r="F359" s="2">
         <v>2196.411681006276</v>
@@ -9076,7 +9076,7 @@
         <v>25</v>
       </c>
       <c r="D360" s="2">
-        <v>0.2733801690046676</v>
+        <v>0.3703713310533203</v>
       </c>
       <c r="E360" s="2">
         <v>1956.798884366392</v>
@@ -9100,7 +9100,7 @@
         <v>26</v>
       </c>
       <c r="D361" s="2">
-        <v>0.2887394910212606</v>
+        <v>0.3000293230288662</v>
       </c>
       <c r="E361" s="2">
         <v>2288.167940638722</v>
@@ -9124,7 +9124,7 @@
         <v>27</v>
       </c>
       <c r="D362" s="2">
-        <v>0.2791658379719593</v>
+        <v>0.30835805402603</v>
       </c>
       <c r="E362" s="2">
         <v>2278.652685951822</v>
@@ -9148,10 +9148,10 @@
         <v>28</v>
       </c>
       <c r="D363" s="2">
-        <v>0.3311347530107014</v>
+        <v>0.3187055390444584</v>
       </c>
       <c r="E363" s="2">
-        <v>2189.204349788713</v>
+        <v>2218.712860994154</v>
       </c>
       <c r="F363" s="2">
         <v>2218.712860994154</v>
@@ -9172,10 +9172,10 @@
         <v>29</v>
       </c>
       <c r="D364" s="2">
-        <v>0.2899165780399926</v>
+        <v>0.330562196963001</v>
       </c>
       <c r="E364" s="2">
-        <v>2029.910040043668</v>
+        <v>2049.503825583163</v>
       </c>
       <c r="F364" s="2">
         <v>2099.477696045723</v>
@@ -9196,10 +9196,10 @@
         <v>30</v>
       </c>
       <c r="D365" s="2">
-        <v>0.2776096029556356</v>
+        <v>0.2684448750223964</v>
       </c>
       <c r="E365" s="2">
-        <v>1808.863041214179</v>
+        <v>1825.298323391743</v>
       </c>
       <c r="F365" s="2">
         <v>1825.298323391744</v>
@@ -9220,10 +9220,10 @@
         <v>1</v>
       </c>
       <c r="D366" s="2">
-        <v>0.311844801006373</v>
+        <v>0.3284733109758236</v>
       </c>
       <c r="E366" s="2">
-        <v>2124.530066671819</v>
+        <v>2141.096714178388</v>
       </c>
       <c r="F366" s="2">
         <v>2141.096714178389</v>
@@ -9244,7 +9244,7 @@
         <v>2</v>
       </c>
       <c r="D367" s="2">
-        <v>0.3195193490246311</v>
+        <v>0.4746143000083975</v>
       </c>
       <c r="E367" s="2">
         <v>2084.623492333883</v>
@@ -9268,7 +9268,7 @@
         <v>3</v>
       </c>
       <c r="D368" s="2">
-        <v>0.3132606120198034</v>
+        <v>0.301450066966936</v>
       </c>
       <c r="E368" s="2">
         <v>2604.148407168685</v>
@@ -9292,10 +9292,10 @@
         <v>4</v>
       </c>
       <c r="D369" s="2">
-        <v>0.3140487560303882</v>
+        <v>0.374441915017087</v>
       </c>
       <c r="E369" s="2">
-        <v>1912.64263986687</v>
+        <v>1957.393301951262</v>
       </c>
       <c r="F369" s="2">
         <v>1957.393301951262</v>
@@ -9316,7 +9316,7 @@
         <v>5</v>
       </c>
       <c r="D370" s="2">
-        <v>0.2790528549812734</v>
+        <v>0.3102637509582564</v>
       </c>
       <c r="E370" s="2">
         <v>1929.049679722269</v>
@@ -9340,10 +9340,10 @@
         <v>6</v>
       </c>
       <c r="D371" s="2">
-        <v>0.3318046059575863</v>
+        <v>0.2846757899969816</v>
       </c>
       <c r="E371" s="2">
-        <v>1884.162376823227</v>
+        <v>1891.847522102674</v>
       </c>
       <c r="F371" s="2">
         <v>1891.847522102674</v>
@@ -9364,10 +9364,10 @@
         <v>7</v>
       </c>
       <c r="D372" s="2">
-        <v>0.2890088040148839</v>
+        <v>0.2815248559927568</v>
       </c>
       <c r="E372" s="2">
-        <v>2728.092377635351</v>
+        <v>2794.33940233296</v>
       </c>
       <c r="F372" s="2">
         <v>2794.33940233296</v>
@@ -9388,7 +9388,7 @@
         <v>8</v>
       </c>
       <c r="D373" s="2">
-        <v>0.2743537619826384</v>
+        <v>0.3728289020364173</v>
       </c>
       <c r="E373" s="2">
         <v>2602.451760576937</v>
@@ -9412,7 +9412,7 @@
         <v>9</v>
       </c>
       <c r="D374" s="2">
-        <v>0.3353163829888217</v>
+        <v>0.3136314669973217</v>
       </c>
       <c r="E374" s="2">
         <v>2052.879496798337</v>
@@ -9436,7 +9436,7 @@
         <v>10</v>
       </c>
       <c r="D375" s="2">
-        <v>0.3374421810149215</v>
+        <v>0.3571155230165459</v>
       </c>
       <c r="E375" s="2">
         <v>1811.772602192692</v>
@@ -9460,7 +9460,7 @@
         <v>11</v>
       </c>
       <c r="D376" s="2">
-        <v>0.3046699580154382</v>
+        <v>0.3176542309811339</v>
       </c>
       <c r="E376" s="2">
         <v>2363.221894467341</v>
@@ -9484,7 +9484,7 @@
         <v>12</v>
       </c>
       <c r="D377" s="2">
-        <v>0.2952071120380424</v>
+        <v>0.2917447119834833</v>
       </c>
       <c r="E377" s="2">
         <v>2447.535162410311</v>
@@ -9508,7 +9508,7 @@
         <v>13</v>
       </c>
       <c r="D378" s="2">
-        <v>0.297997391957324</v>
+        <v>0.3008875860250555</v>
       </c>
       <c r="E378" s="2">
         <v>1974.532148995889</v>
@@ -9532,7 +9532,7 @@
         <v>14</v>
       </c>
       <c r="D379" s="2">
-        <v>0.2765165559831075</v>
+        <v>0.2789397219894454</v>
       </c>
       <c r="E379" s="2">
         <v>2220.200507196993</v>
@@ -9556,10 +9556,10 @@
         <v>15</v>
       </c>
       <c r="D380" s="2">
-        <v>0.2759335800074041</v>
+        <v>0.3173177480348386</v>
       </c>
       <c r="E380" s="2">
-        <v>2148.671849330051</v>
+        <v>2208.057351411536</v>
       </c>
       <c r="F380" s="2">
         <v>2208.057351411536</v>
@@ -9580,7 +9580,7 @@
         <v>16</v>
       </c>
       <c r="D381" s="2">
-        <v>0.2797013709787279</v>
+        <v>0.2653015159885399</v>
       </c>
       <c r="E381" s="2">
         <v>2861.241067203724</v>
@@ -9604,10 +9604,10 @@
         <v>17</v>
       </c>
       <c r="D382" s="2">
-        <v>0.2865093760192394</v>
+        <v>0.2734955220366828</v>
       </c>
       <c r="E382" s="2">
-        <v>1887.283744483025</v>
+        <v>1958.120948796095</v>
       </c>
       <c r="F382" s="2">
         <v>1958.120948796095</v>
@@ -9628,10 +9628,10 @@
         <v>18</v>
       </c>
       <c r="D383" s="2">
-        <v>0.2608097969787195</v>
+        <v>0.3001504539861344</v>
       </c>
       <c r="E383" s="2">
-        <v>2028.226436102374</v>
+        <v>2064.014725784071</v>
       </c>
       <c r="F383" s="2">
         <v>2064.01472578407</v>
@@ -9652,7 +9652,7 @@
         <v>19</v>
       </c>
       <c r="D384" s="2">
-        <v>0.3165055009885691</v>
+        <v>0.2801488789846189</v>
       </c>
       <c r="E384" s="2">
         <v>2924.729042821604</v>
@@ -9676,7 +9676,7 @@
         <v>20</v>
       </c>
       <c r="D385" s="2">
-        <v>0.268741414998658</v>
+        <v>0.3198012979701161</v>
       </c>
       <c r="E385" s="2">
         <v>2462.071835767863</v>
@@ -9700,7 +9700,7 @@
         <v>21</v>
       </c>
       <c r="D386" s="2">
-        <v>0.3078905010479502</v>
+        <v>0.398655133030843</v>
       </c>
       <c r="E386" s="2">
         <v>2054.180701308586</v>
@@ -9724,10 +9724,10 @@
         <v>22</v>
       </c>
       <c r="D387" s="2">
-        <v>0.3050897539942525</v>
+        <v>0.3514179660123773</v>
       </c>
       <c r="E387" s="2">
-        <v>2574.156085568825</v>
+        <v>2575.227727061364</v>
       </c>
       <c r="F387" s="2">
         <v>2575.227727061364</v>
@@ -9748,7 +9748,7 @@
         <v>23</v>
       </c>
       <c r="D388" s="2">
-        <v>0.2678876830032095</v>
+        <v>0.3617156079853885</v>
       </c>
       <c r="E388" s="2">
         <v>1646.05363054327</v>
@@ -9772,7 +9772,7 @@
         <v>24</v>
       </c>
       <c r="D389" s="2">
-        <v>0.2696021349984221</v>
+        <v>0.3377331459778361</v>
       </c>
       <c r="E389" s="2">
         <v>2616.950332556245</v>
@@ -9796,7 +9796,7 @@
         <v>25</v>
       </c>
       <c r="D390" s="2">
-        <v>0.2921641599969007</v>
+        <v>0.2894012460019439</v>
       </c>
       <c r="E390" s="2">
         <v>2921.500693814433</v>
@@ -9820,7 +9820,7 @@
         <v>26</v>
       </c>
       <c r="D391" s="2">
-        <v>0.3042279459768906</v>
+        <v>0.2649057999951765</v>
       </c>
       <c r="E391" s="2">
         <v>2449.482774238275</v>
@@ -9844,7 +9844,7 @@
         <v>27</v>
       </c>
       <c r="D392" s="2">
-        <v>0.2784672960406169</v>
+        <v>0.2965851170010865</v>
       </c>
       <c r="E392" s="2">
         <v>2513.635308570147</v>
@@ -9868,7 +9868,7 @@
         <v>28</v>
       </c>
       <c r="D393" s="2">
-        <v>0.3325938670313917</v>
+        <v>0.3175045449752361</v>
       </c>
       <c r="E393" s="2">
         <v>2540.640017250333</v>
@@ -9892,7 +9892,7 @@
         <v>29</v>
       </c>
       <c r="D394" s="2">
-        <v>0.2838387980009429</v>
+        <v>0.3441624859697185</v>
       </c>
       <c r="E394" s="2">
         <v>2045.427175164191</v>
@@ -9916,10 +9916,10 @@
         <v>30</v>
       </c>
       <c r="D395" s="2">
-        <v>0.3166531100287102</v>
+        <v>0.344737965031527</v>
       </c>
       <c r="E395" s="2">
-        <v>2443.576449793577</v>
+        <v>2484.717907188069</v>
       </c>
       <c r="F395" s="2">
         <v>2484.717907188069</v>
@@ -9940,10 +9940,10 @@
         <v>31</v>
       </c>
       <c r="D396" s="2">
-        <v>0.3042028400232084</v>
+        <v>0.3329418560024351</v>
       </c>
       <c r="E396" s="2">
-        <v>2322.649522950237</v>
+        <v>2386.756028005147</v>
       </c>
       <c r="F396" s="2">
         <v>2386.756028005147</v>
@@ -9964,10 +9964,10 @@
         <v>1</v>
       </c>
       <c r="D397" s="2">
-        <v>0.278704276017379</v>
+        <v>0.3054567940416746</v>
       </c>
       <c r="E397" s="2">
-        <v>3102.923014835112</v>
+        <v>3105.278406368192</v>
       </c>
       <c r="F397" s="2">
         <v>3105.278406368193</v>
@@ -9988,7 +9988,7 @@
         <v>2</v>
       </c>
       <c r="D398" s="2">
-        <v>0.3269447220372967</v>
+        <v>0.3170007099979557</v>
       </c>
       <c r="E398" s="2">
         <v>1911.607552698302</v>
@@ -10012,10 +10012,10 @@
         <v>3</v>
       </c>
       <c r="D399" s="2">
-        <v>0.3047558279940858</v>
+        <v>0.3206995450309478</v>
       </c>
       <c r="E399" s="2">
-        <v>1826.430509745961</v>
+        <v>1948.234701615115</v>
       </c>
       <c r="F399" s="2">
         <v>2011.801926986374</v>
@@ -10036,7 +10036,7 @@
         <v>4</v>
       </c>
       <c r="D400" s="2">
-        <v>0.2793872859911062</v>
+        <v>0.312728579971008</v>
       </c>
       <c r="E400" s="2">
         <v>2666.885073440669</v>
@@ -10060,7 +10060,7 @@
         <v>5</v>
       </c>
       <c r="D401" s="2">
-        <v>0.2907784639974125</v>
+        <v>0.2858447300386615</v>
       </c>
       <c r="E401" s="2">
         <v>2070.455959243017</v>
@@ -10084,7 +10084,7 @@
         <v>6</v>
       </c>
       <c r="D402" s="2">
-        <v>0.4104196890257299</v>
+        <v>0.2782621429651044</v>
       </c>
       <c r="E402" s="2">
         <v>2092.148574489012</v>
@@ -10108,7 +10108,7 @@
         <v>7</v>
       </c>
       <c r="D403" s="2">
-        <v>0.3497434110031463</v>
+        <v>0.3954081769916229</v>
       </c>
       <c r="E403" s="2">
         <v>1989.355385964533</v>
@@ -10132,7 +10132,7 @@
         <v>8</v>
       </c>
       <c r="D404" s="2">
-        <v>0.357431671989616</v>
+        <v>0.3473192129749805</v>
       </c>
       <c r="E404" s="2">
         <v>2163.614345411666</v>
@@ -10156,10 +10156,10 @@
         <v>9</v>
       </c>
       <c r="D405" s="2">
-        <v>0.2836743699735962</v>
+        <v>0.3185441140085459</v>
       </c>
       <c r="E405" s="2">
-        <v>1933.33637928397</v>
+        <v>2004.797372912014</v>
       </c>
       <c r="F405" s="2">
         <v>2004.797372912014</v>
@@ -10180,10 +10180,10 @@
         <v>10</v>
       </c>
       <c r="D406" s="2">
-        <v>0.2775460440316238</v>
+        <v>0.3063125979970209</v>
       </c>
       <c r="E406" s="2">
-        <v>1951.813012271679</v>
+        <v>1988.570969542857</v>
       </c>
       <c r="F406" s="2">
         <v>1988.570969542856</v>
@@ -10204,10 +10204,10 @@
         <v>11</v>
       </c>
       <c r="D407" s="2">
-        <v>0.2785826469771564</v>
+        <v>0.3443116809939966</v>
       </c>
       <c r="E407" s="2">
-        <v>1560.484694289747</v>
+        <v>1674.515001150732</v>
       </c>
       <c r="F407" s="2">
         <v>1687.391591314908</v>
@@ -10228,7 +10228,7 @@
         <v>12</v>
       </c>
       <c r="D408" s="2">
-        <v>0.2725857860059477</v>
+        <v>0.3877904069959186</v>
       </c>
       <c r="E408" s="2">
         <v>1812.624549284745</v>
@@ -10252,7 +10252,7 @@
         <v>13</v>
       </c>
       <c r="D409" s="2">
-        <v>0.3460917689953931</v>
+        <v>0.3468187840189785</v>
       </c>
       <c r="E409" s="2">
         <v>1771.24881947355</v>
@@ -10276,7 +10276,7 @@
         <v>14</v>
       </c>
       <c r="D410" s="2">
-        <v>0.3239725900348276</v>
+        <v>0.3106224969960749</v>
       </c>
       <c r="E410" s="2">
         <v>2507.328099342011</v>
@@ -10300,7 +10300,7 @@
         <v>15</v>
       </c>
       <c r="D411" s="2">
-        <v>0.309570231998805</v>
+        <v>0.3024078640155494</v>
       </c>
       <c r="E411" s="2">
         <v>2467.079631139002</v>
@@ -10324,7 +10324,7 @@
         <v>16</v>
       </c>
       <c r="D412" s="2">
-        <v>0.2840412009973079</v>
+        <v>0.3930131570086814</v>
       </c>
       <c r="E412" s="2">
         <v>2454.943913213881</v>
@@ -10348,7 +10348,7 @@
         <v>17</v>
       </c>
       <c r="D413" s="2">
-        <v>0.3271485879668035</v>
+        <v>0.3316975579946302</v>
       </c>
       <c r="E413" s="2">
         <v>2226.189000106105</v>
@@ -10372,10 +10372,10 @@
         <v>18</v>
       </c>
       <c r="D414" s="2">
-        <v>0.2999066490447149</v>
+        <v>0.3175624500145204</v>
       </c>
       <c r="E414" s="2">
-        <v>2051.177073589588</v>
+        <v>2139.271055985825</v>
       </c>
       <c r="F414" s="2">
         <v>2139.271055985824</v>
@@ -10396,10 +10396,10 @@
         <v>19</v>
       </c>
       <c r="D415" s="2">
-        <v>0.2762584859738126</v>
+        <v>0.3595482699456625</v>
       </c>
       <c r="E415" s="2">
-        <v>1953.479664593184</v>
+        <v>1994.319927094142</v>
       </c>
       <c r="F415" s="2">
         <v>1994.319927094142</v>
@@ -10420,10 +10420,10 @@
         <v>20</v>
       </c>
       <c r="D416" s="2">
-        <v>0.3164833129849285</v>
+        <v>0.328389099042397</v>
       </c>
       <c r="E416" s="2">
-        <v>2142.653620400385</v>
+        <v>2224.923101035528</v>
       </c>
       <c r="F416" s="2">
         <v>2224.923101035529</v>
@@ -10444,10 +10444,10 @@
         <v>21</v>
       </c>
       <c r="D417" s="2">
-        <v>0.2898420779965818</v>
+        <v>0.4160595979774371</v>
       </c>
       <c r="E417" s="2">
-        <v>1967.443194537087</v>
+        <v>1990.460749711334</v>
       </c>
       <c r="F417" s="2">
         <v>2038.993921146112</v>
@@ -10468,10 +10468,10 @@
         <v>22</v>
       </c>
       <c r="D418" s="2">
-        <v>0.2726642780471593</v>
+        <v>0.4018165500019677</v>
       </c>
       <c r="E418" s="2">
-        <v>1760.770487844758</v>
+        <v>1792.255481862486</v>
       </c>
       <c r="F418" s="2">
         <v>1792.255481862485</v>
@@ -10492,10 +10492,10 @@
         <v>23</v>
       </c>
       <c r="D419" s="2">
-        <v>0.2857618749840185</v>
+        <v>0.2942579169757664</v>
       </c>
       <c r="E419" s="2">
-        <v>2488.084622944245</v>
+        <v>2527.92633897339</v>
       </c>
       <c r="F419" s="2">
         <v>2527.926338973392</v>
@@ -10516,7 +10516,7 @@
         <v>24</v>
       </c>
       <c r="D420" s="2">
-        <v>0.3130461589898914</v>
+        <v>0.2800194929586723</v>
       </c>
       <c r="E420" s="2">
         <v>1893.856963774813</v>
@@ -10540,7 +10540,7 @@
         <v>25</v>
       </c>
       <c r="D421" s="2">
-        <v>0.2815338239888661</v>
+        <v>0.3089478090405464</v>
       </c>
       <c r="E421" s="2">
         <v>1737.201649272559</v>
@@ -10564,10 +10564,10 @@
         <v>26</v>
       </c>
       <c r="D422" s="2">
-        <v>0.3361837669508532</v>
+        <v>0.3172116709756665</v>
       </c>
       <c r="E422" s="2">
-        <v>2130.566249641748</v>
+        <v>2181.758990259251</v>
       </c>
       <c r="F422" s="2">
         <v>2181.75899025925</v>
@@ -10588,10 +10588,10 @@
         <v>27</v>
       </c>
       <c r="D423" s="2">
-        <v>0.2626667469739914</v>
+        <v>0.3939503529691137</v>
       </c>
       <c r="E423" s="2">
-        <v>2151.682333378267</v>
+        <v>2211.941829674329</v>
       </c>
       <c r="F423" s="2">
         <v>2211.94182967433</v>
@@ -10612,7 +10612,7 @@
         <v>28</v>
       </c>
       <c r="D424" s="2">
-        <v>0.3138118920032866</v>
+        <v>0.3218237470136955</v>
       </c>
       <c r="E424" s="2">
         <v>1682.626120111182</v>
@@ -10636,7 +10636,7 @@
         <v>1</v>
       </c>
       <c r="D425" s="2">
-        <v>0.3206972950138152</v>
+        <v>0.3105458609643392</v>
       </c>
       <c r="E425" s="2">
         <v>1683.217770503193</v>
@@ -10660,7 +10660,7 @@
         <v>2</v>
       </c>
       <c r="D426" s="2">
-        <v>0.2707208030042239</v>
+        <v>0.4317302720155567</v>
       </c>
       <c r="E426" s="2">
         <v>2233.233197864206</v>
@@ -10684,7 +10684,7 @@
         <v>3</v>
       </c>
       <c r="D427" s="2">
-        <v>0.2706407879595645</v>
+        <v>0.3682623640052043</v>
       </c>
       <c r="E427" s="2">
         <v>1960.442864197815</v>
@@ -10708,7 +10708,7 @@
         <v>4</v>
       </c>
       <c r="D428" s="2">
-        <v>0.3191451920429245</v>
+        <v>0.3346878800075501</v>
       </c>
       <c r="E428" s="2">
         <v>1936.512470660004</v>
@@ -10732,10 +10732,10 @@
         <v>5</v>
       </c>
       <c r="D429" s="2">
-        <v>0.2797462979797274</v>
+        <v>0.4231203869567253</v>
       </c>
       <c r="E429" s="2">
-        <v>2473.647391937334</v>
+        <v>2496.493827221376</v>
       </c>
       <c r="F429" s="2">
         <v>2496.493827221376</v>
@@ -10756,10 +10756,10 @@
         <v>6</v>
       </c>
       <c r="D430" s="2">
-        <v>0.3313120999955572</v>
+        <v>0.3133709669928066</v>
       </c>
       <c r="E430" s="2">
-        <v>1843.026088620378</v>
+        <v>1897.539009068802</v>
       </c>
       <c r="F430" s="2">
         <v>1897.539009068802</v>
@@ -10780,10 +10780,10 @@
         <v>7</v>
       </c>
       <c r="D431" s="2">
-        <v>0.3045905290055089</v>
+        <v>0.3567317219567485</v>
       </c>
       <c r="E431" s="2">
-        <v>1723.958152469454</v>
+        <v>1751.859819335068</v>
       </c>
       <c r="F431" s="2">
         <v>1751.859819335068</v>
@@ -10804,7 +10804,7 @@
         <v>8</v>
       </c>
       <c r="D432" s="2">
-        <v>0.3094172010314651</v>
+        <v>0.315769107954111</v>
       </c>
       <c r="E432" s="2">
         <v>2294.192651908067</v>
@@ -10828,10 +10828,10 @@
         <v>9</v>
       </c>
       <c r="D433" s="2">
-        <v>0.3292793590226211</v>
+        <v>0.3864569719880819</v>
       </c>
       <c r="E433" s="2">
-        <v>2441.925294091234</v>
+        <v>2452.406048667821</v>
       </c>
       <c r="F433" s="2">
         <v>2452.40604866782</v>
@@ -10852,7 +10852,7 @@
         <v>10</v>
       </c>
       <c r="D434" s="2">
-        <v>0.2862512599676847</v>
+        <v>0.2977081410354003</v>
       </c>
       <c r="E434" s="2">
         <v>1998.463837148076</v>
@@ -10876,10 +10876,10 @@
         <v>11</v>
       </c>
       <c r="D435" s="2">
-        <v>0.3228100760024972</v>
+        <v>0.2887431250419468</v>
       </c>
       <c r="E435" s="2">
-        <v>2226.762714315748</v>
+        <v>2254.556799926816</v>
       </c>
       <c r="F435" s="2">
         <v>2254.556799926816</v>
@@ -10900,7 +10900,7 @@
         <v>12</v>
       </c>
       <c r="D436" s="2">
-        <v>0.3103391749900766</v>
+        <v>0.348530674003996</v>
       </c>
       <c r="E436" s="2">
         <v>2019.569406096414</v>
@@ -10924,7 +10924,7 @@
         <v>13</v>
       </c>
       <c r="D437" s="2">
-        <v>0.2955101900151931</v>
+        <v>0.3212561499676667</v>
       </c>
       <c r="E437" s="2">
         <v>2562.582975121857</v>
@@ -10948,7 +10948,7 @@
         <v>14</v>
       </c>
       <c r="D438" s="2">
-        <v>0.3065886140102521</v>
+        <v>0.3063012029742822</v>
       </c>
       <c r="E438" s="2">
         <v>2255.359284319739</v>
@@ -10972,7 +10972,7 @@
         <v>15</v>
       </c>
       <c r="D439" s="2">
-        <v>0.2792930270079523</v>
+        <v>0.3127821270027198</v>
       </c>
       <c r="E439" s="2">
         <v>2373.329966842847</v>
@@ -10996,10 +10996,10 @@
         <v>16</v>
       </c>
       <c r="D440" s="2">
-        <v>0.3053147979662754</v>
+        <v>0.3210781380184926</v>
       </c>
       <c r="E440" s="2">
-        <v>2145.04866847493</v>
+        <v>2278.338662123207</v>
       </c>
       <c r="F440" s="2">
         <v>2278.338662123207</v>
@@ -11020,7 +11020,7 @@
         <v>17</v>
       </c>
       <c r="D441" s="2">
-        <v>0.3296956470003352</v>
+        <v>0.3700282729696482</v>
       </c>
       <c r="E441" s="2">
         <v>2621.839627268885</v>
@@ -11044,7 +11044,7 @@
         <v>18</v>
       </c>
       <c r="D442" s="2">
-        <v>0.3520615139859729</v>
+        <v>0.3576723680016585</v>
       </c>
       <c r="E442" s="2">
         <v>2420.639512634204</v>
@@ -11068,10 +11068,10 @@
         <v>19</v>
       </c>
       <c r="D443" s="2">
-        <v>0.2877715519862249</v>
+        <v>0.3003326639882289</v>
       </c>
       <c r="E443" s="2">
-        <v>2125.605167586131</v>
+        <v>2193.358903931784</v>
       </c>
       <c r="F443" s="2">
         <v>2193.358903931784</v>
@@ -11092,10 +11092,10 @@
         <v>20</v>
       </c>
       <c r="D444" s="2">
-        <v>0.3159586889669299</v>
+        <v>0.3895880740019493</v>
       </c>
       <c r="E444" s="2">
-        <v>2103.4257664477</v>
+        <v>2129.343535096184</v>
       </c>
       <c r="F444" s="2">
         <v>2129.343535096184</v>
@@ -11116,7 +11116,7 @@
         <v>21</v>
       </c>
       <c r="D445" s="2">
-        <v>0.2706924079684541</v>
+        <v>0.4269387659733184</v>
       </c>
       <c r="E445" s="2">
         <v>2603.081626913806</v>
@@ -11140,7 +11140,7 @@
         <v>22</v>
       </c>
       <c r="D446" s="2">
-        <v>0.2820363939972594</v>
+        <v>0.3533754100208171</v>
       </c>
       <c r="E446" s="2">
         <v>2878.031504565235</v>
@@ -11164,7 +11164,7 @@
         <v>23</v>
       </c>
       <c r="D447" s="2">
-        <v>0.2718169989529997</v>
+        <v>0.3446948910132051</v>
       </c>
       <c r="E447" s="2">
         <v>2055.277264230926</v>
@@ -11188,7 +11188,7 @@
         <v>24</v>
       </c>
       <c r="D448" s="2">
-        <v>0.3173291110433638</v>
+        <v>0.4352685589692555</v>
       </c>
       <c r="E448" s="2">
         <v>1767.608635181344</v>
@@ -11212,7 +11212,7 @@
         <v>25</v>
       </c>
       <c r="D449" s="2">
-        <v>0.2831433120300062</v>
+        <v>0.5228974619531073</v>
       </c>
       <c r="E449" s="2">
         <v>1964.77961112694</v>
@@ -11236,7 +11236,7 @@
         <v>26</v>
       </c>
       <c r="D450" s="2">
-        <v>0.3391350220190361</v>
+        <v>0.5307285760063678</v>
       </c>
       <c r="E450" s="2">
         <v>2164.595197619156</v>
@@ -11260,10 +11260,10 @@
         <v>27</v>
       </c>
       <c r="D451" s="2">
-        <v>0.3003302969736978</v>
+        <v>0.4341365160071291</v>
       </c>
       <c r="E451" s="2">
-        <v>2026.012385197712</v>
+        <v>2026.0595867637</v>
       </c>
       <c r="F451" s="2">
         <v>2075.906016081974</v>
@@ -11284,10 +11284,10 @@
         <v>28</v>
       </c>
       <c r="D452" s="2">
-        <v>0.3169408550020307</v>
+        <v>0.470271242025774</v>
       </c>
       <c r="E452" s="2">
-        <v>2394.912645486634</v>
+        <v>2400.526589905439</v>
       </c>
       <c r="F452" s="2">
         <v>2400.526589905439</v>
@@ -11308,7 +11308,7 @@
         <v>29</v>
       </c>
       <c r="D453" s="2">
-        <v>0.2805132789653726</v>
+        <v>0.5180170690291561</v>
       </c>
       <c r="E453" s="2">
         <v>2208.330860552655</v>
@@ -11332,7 +11332,7 @@
         <v>30</v>
       </c>
       <c r="D454" s="2">
-        <v>0.297101987991482</v>
+        <v>0.4483436979935504</v>
       </c>
       <c r="E454" s="2">
         <v>1910.151775106232</v>
@@ -11356,10 +11356,10 @@
         <v>31</v>
       </c>
       <c r="D455" s="2">
-        <v>0.2943854290060699</v>
+        <v>0.47246565396199</v>
       </c>
       <c r="E455" s="2">
-        <v>2412.031008138556</v>
+        <v>2473.611835262086</v>
       </c>
       <c r="F455" s="2">
         <v>2473.611835262087</v>
@@ -11380,7 +11380,7 @@
         <v>1</v>
       </c>
       <c r="D456" s="2">
-        <v>0.298215729999356</v>
+        <v>0.4153953740024008</v>
       </c>
       <c r="E456" s="2">
         <v>2680.807814518192</v>
@@ -11404,7 +11404,7 @@
         <v>2</v>
       </c>
       <c r="D457" s="2">
-        <v>0.2770798860001378</v>
+        <v>0.3388146469951607</v>
       </c>
       <c r="E457" s="2">
         <v>2338.627864026719</v>
@@ -11428,7 +11428,7 @@
         <v>3</v>
       </c>
       <c r="D458" s="2">
-        <v>0.3013684140169062</v>
+        <v>0.3309824080206454</v>
       </c>
       <c r="E458" s="2">
         <v>2001.199305827597</v>
@@ -11452,10 +11452,10 @@
         <v>4</v>
       </c>
       <c r="D459" s="2">
-        <v>0.2802326870150864</v>
+        <v>0.3936269179685041</v>
       </c>
       <c r="E459" s="2">
-        <v>2468.562910066729</v>
+        <v>2533.179526462672</v>
       </c>
       <c r="F459" s="2">
         <v>2533.179526462671</v>
@@ -11476,7 +11476,7 @@
         <v>5</v>
       </c>
       <c r="D460" s="2">
-        <v>0.349478384014219</v>
+        <v>0.3918682129587978</v>
       </c>
       <c r="E460" s="2">
         <v>1996.114417993619</v>
@@ -11500,10 +11500,10 @@
         <v>6</v>
       </c>
       <c r="D461" s="2">
-        <v>0.2704260059981607</v>
+        <v>0.4628935700166039</v>
       </c>
       <c r="E461" s="2">
-        <v>2512.209232047109</v>
+        <v>2614.806090076451</v>
       </c>
       <c r="F461" s="2">
         <v>2614.806090076452</v>
@@ -11524,7 +11524,7 @@
         <v>7</v>
       </c>
       <c r="D462" s="2">
-        <v>0.2731870219577104</v>
+        <v>0.3936822050018236</v>
       </c>
       <c r="E462" s="2">
         <v>1788.941936812416</v>
@@ -11548,10 +11548,10 @@
         <v>8</v>
       </c>
       <c r="D463" s="2">
-        <v>0.3365201089764014</v>
+        <v>0.3466096409829333</v>
       </c>
       <c r="E463" s="2">
-        <v>2167.126012715375</v>
+        <v>2177.280871673228</v>
       </c>
       <c r="F463" s="2">
         <v>2177.280871673229</v>
@@ -11572,7 +11572,7 @@
         <v>9</v>
       </c>
       <c r="D464" s="2">
-        <v>0.3179238089942373</v>
+        <v>0.3793505160138011</v>
       </c>
       <c r="E464" s="2">
         <v>2091.413283591552</v>
@@ -11596,7 +11596,7 @@
         <v>10</v>
       </c>
       <c r="D465" s="2">
-        <v>0.3179876180365682</v>
+        <v>0.5024347109720111</v>
       </c>
       <c r="E465" s="2">
         <v>2158.425700044915</v>
@@ -11620,7 +11620,7 @@
         <v>11</v>
       </c>
       <c r="D466" s="2">
-        <v>0.2765774909639731</v>
+        <v>0.3905290260445327</v>
       </c>
       <c r="E466" s="2">
         <v>1597.656225652491</v>
@@ -11644,7 +11644,7 @@
         <v>12</v>
       </c>
       <c r="D467" s="2">
-        <v>0.2957302710274234</v>
+        <v>0.3544501419528387</v>
       </c>
       <c r="E467" s="2">
         <v>2740.871312682354</v>
@@ -11668,7 +11668,7 @@
         <v>13</v>
       </c>
       <c r="D468" s="2">
-        <v>0.2815743809915148</v>
+        <v>0.3625546550028957</v>
       </c>
       <c r="E468" s="2">
         <v>1940.188274136187</v>
@@ -11692,7 +11692,7 @@
         <v>14</v>
       </c>
       <c r="D469" s="2">
-        <v>0.2765776989981532</v>
+        <v>0.3527701699640602</v>
       </c>
       <c r="E469" s="2">
         <v>2151.244720333246</v>
@@ -11716,7 +11716,7 @@
         <v>15</v>
       </c>
       <c r="D470" s="2">
-        <v>0.2865536509780213</v>
+        <v>0.3827091599814594</v>
       </c>
       <c r="E470" s="2">
         <v>2126.75095442753</v>
@@ -11740,7 +11740,7 @@
         <v>16</v>
       </c>
       <c r="D471" s="2">
-        <v>0.3210496690007858</v>
+        <v>0.4177673899685033</v>
       </c>
       <c r="E471" s="2">
         <v>2252.405874893001</v>
@@ -11764,10 +11764,10 @@
         <v>17</v>
       </c>
       <c r="D472" s="2">
-        <v>0.2861643210053444</v>
+        <v>0.4893520869663917</v>
       </c>
       <c r="E472" s="2">
-        <v>2220.975184250034</v>
+        <v>2252.424747154174</v>
       </c>
       <c r="F472" s="2">
         <v>2252.424747154173</v>
@@ -11788,7 +11788,7 @@
         <v>18</v>
       </c>
       <c r="D473" s="2">
-        <v>0.3576440250035375</v>
+        <v>0.3781587640405633</v>
       </c>
       <c r="E473" s="2">
         <v>1924.025509475847</v>
@@ -11812,7 +11812,7 @@
         <v>19</v>
       </c>
       <c r="D474" s="2">
-        <v>0.2726913740043528</v>
+        <v>0.3710162669885904</v>
       </c>
       <c r="E474" s="2">
         <v>2371.913813685158</v>
@@ -11836,7 +11836,7 @@
         <v>20</v>
       </c>
       <c r="D475" s="2">
-        <v>0.3094860200071707</v>
+        <v>0.3424890509922989</v>
       </c>
       <c r="E475" s="2">
         <v>1802.72925053143</v>
@@ -11860,7 +11860,7 @@
         <v>21</v>
       </c>
       <c r="D476" s="2">
-        <v>0.2884545249980874</v>
+        <v>0.2864937899867073</v>
       </c>
       <c r="E476" s="2">
         <v>2285.892241229538</v>
@@ -11884,7 +11884,7 @@
         <v>22</v>
       </c>
       <c r="D477" s="2">
-        <v>0.2743185180006549</v>
+        <v>0.406751549046021</v>
       </c>
       <c r="E477" s="2">
         <v>2134.466618597628</v>
@@ -11908,7 +11908,7 @@
         <v>23</v>
       </c>
       <c r="D478" s="2">
-        <v>0.3441544839879498</v>
+        <v>0.3374762659659609</v>
       </c>
       <c r="E478" s="2">
         <v>2326.766275704219</v>
@@ -11932,10 +11932,10 @@
         <v>24</v>
       </c>
       <c r="D479" s="2">
-        <v>0.2906046530115418</v>
+        <v>0.3690747750224546</v>
       </c>
       <c r="E479" s="2">
-        <v>2102.561126059765</v>
+        <v>2124.209472965376</v>
       </c>
       <c r="F479" s="2">
         <v>2155.970088522078</v>
@@ -11956,10 +11956,10 @@
         <v>25</v>
       </c>
       <c r="D480" s="2">
-        <v>0.3319168080342934</v>
+        <v>0.3519221399910748</v>
       </c>
       <c r="E480" s="2">
-        <v>1875.176359456936</v>
+        <v>1908.230490468129</v>
       </c>
       <c r="F480" s="2">
         <v>1908.230490468128</v>
@@ -11980,10 +11980,10 @@
         <v>26</v>
       </c>
       <c r="D481" s="2">
-        <v>0.279666698013898</v>
+        <v>0.386075060989242</v>
       </c>
       <c r="E481" s="2">
-        <v>2232.466104134255</v>
+        <v>2303.597589152269</v>
       </c>
       <c r="F481" s="2">
         <v>2303.597589152269</v>
@@ -12004,7 +12004,7 @@
         <v>27</v>
       </c>
       <c r="D482" s="2">
-        <v>0.2805364890373312</v>
+        <v>0.3337656839867122</v>
       </c>
       <c r="E482" s="2">
         <v>1772.943299203066</v>
@@ -12028,10 +12028,10 @@
         <v>28</v>
       </c>
       <c r="D483" s="2">
-        <v>0.2760576790315099</v>
+        <v>0.3535831060144119</v>
       </c>
       <c r="E483" s="2">
-        <v>2362.832832365592</v>
+        <v>2450.471937773571</v>
       </c>
       <c r="F483" s="2">
         <v>2450.471937773571</v>
@@ -12052,10 +12052,10 @@
         <v>29</v>
       </c>
       <c r="D484" s="2">
-        <v>0.3338414989993908</v>
+        <v>0.2869707409990951</v>
       </c>
       <c r="E484" s="2">
-        <v>2408.784152231424</v>
+        <v>2492.355016418449</v>
       </c>
       <c r="F484" s="2">
         <v>2492.355016418449</v>
@@ -12076,7 +12076,7 @@
         <v>30</v>
       </c>
       <c r="D485" s="2">
-        <v>0.3204300290090032</v>
+        <v>0.2947449270286597</v>
       </c>
       <c r="E485" s="2">
         <v>1940.209507773368</v>
@@ -12100,7 +12100,7 @@
         <v>1</v>
       </c>
       <c r="D486" s="2">
-        <v>0.291361148993019</v>
+        <v>0.3729090470005758</v>
       </c>
       <c r="E486" s="2">
         <v>2005.220081528673</v>
@@ -12124,7 +12124,7 @@
         <v>2</v>
       </c>
       <c r="D487" s="2">
-        <v>0.2737950259470381</v>
+        <v>0.3059275840059854</v>
       </c>
       <c r="E487" s="2">
         <v>2086.203913064406</v>
@@ -12148,10 +12148,10 @@
         <v>3</v>
       </c>
       <c r="D488" s="2">
-        <v>0.2742402809672058</v>
+        <v>0.3095531830331311</v>
       </c>
       <c r="E488" s="2">
-        <v>2436.709827979811</v>
+        <v>2436.70982797981</v>
       </c>
       <c r="F488" s="2">
         <v>2436.709827979811</v>
@@ -12172,10 +12172,10 @@
         <v>4</v>
       </c>
       <c r="D489" s="2">
-        <v>0.2785159379709512</v>
+        <v>0.2942290239734575</v>
       </c>
       <c r="E489" s="2">
-        <v>1752.188770884557</v>
+        <v>1759.56529038474</v>
       </c>
       <c r="F489" s="2">
         <v>1827.062700594338</v>
@@ -12196,10 +12196,10 @@
         <v>5</v>
       </c>
       <c r="D490" s="2">
-        <v>0.3244572730036452</v>
+        <v>0.3665606610011309</v>
       </c>
       <c r="E490" s="2">
-        <v>2121.582582785246</v>
+        <v>2177.75782963047</v>
       </c>
       <c r="F490" s="2">
         <v>2210.373910312375</v>
@@ -12220,10 +12220,10 @@
         <v>6</v>
       </c>
       <c r="D491" s="2">
-        <v>0.3297854360425845</v>
+        <v>0.3268088310142048</v>
       </c>
       <c r="E491" s="2">
-        <v>2116.952531650779</v>
+        <v>2129.431748326385</v>
       </c>
       <c r="F491" s="2">
         <v>2173.342650414028</v>
@@ -12244,10 +12244,10 @@
         <v>7</v>
       </c>
       <c r="D492" s="2">
-        <v>0.3317596749984659</v>
+        <v>0.3302274870220572</v>
       </c>
       <c r="E492" s="2">
-        <v>2298.60843235194</v>
+        <v>2298.608432351939</v>
       </c>
       <c r="F492" s="2">
         <v>2338.313195010187</v>
@@ -12268,10 +12268,10 @@
         <v>8</v>
       </c>
       <c r="D493" s="2">
-        <v>0.4898636539583094</v>
+        <v>0.2815976760466583</v>
       </c>
       <c r="E493" s="2">
-        <v>2244.869432362033</v>
+        <v>2296.350020080604</v>
       </c>
       <c r="F493" s="2">
         <v>2303.12605846785</v>
@@ -12292,7 +12292,7 @@
         <v>9</v>
       </c>
       <c r="D494" s="2">
-        <v>0.2638209039578214</v>
+        <v>0.3595306040369906</v>
       </c>
       <c r="E494" s="2">
         <v>2297.970077634458</v>
@@ -12316,10 +12316,10 @@
         <v>10</v>
       </c>
       <c r="D495" s="2">
-        <v>0.2795213349745609</v>
+        <v>0.3201536560081877</v>
       </c>
       <c r="E495" s="2">
-        <v>2037.589784378937</v>
+        <v>2072.251934614686</v>
       </c>
       <c r="F495" s="2">
         <v>2072.251934614686</v>
@@ -12340,10 +12340,10 @@
         <v>11</v>
       </c>
       <c r="D496" s="2">
-        <v>0.3546727870125324</v>
+        <v>0.38271121395519</v>
       </c>
       <c r="E496" s="2">
-        <v>2030.451533353376</v>
+        <v>2031.349119676611</v>
       </c>
       <c r="F496" s="2">
         <v>2031.349119676611</v>
@@ -12364,7 +12364,7 @@
         <v>12</v>
       </c>
       <c r="D497" s="2">
-        <v>0.3105726179783233</v>
+        <v>0.3387464510160498</v>
       </c>
       <c r="E497" s="2">
         <v>2180.215981158898</v>
@@ -12388,10 +12388,10 @@
         <v>13</v>
       </c>
       <c r="D498" s="2">
-        <v>0.2923904270282947</v>
+        <v>0.3188276599976234</v>
       </c>
       <c r="E498" s="2">
-        <v>1999.365193078704</v>
+        <v>2030.597315723896</v>
       </c>
       <c r="F498" s="2">
         <v>2128.782722806049</v>
@@ -12412,7 +12412,7 @@
         <v>14</v>
       </c>
       <c r="D499" s="2">
-        <v>0.2891914959764108</v>
+        <v>0.3102099830284715</v>
       </c>
       <c r="E499" s="2">
         <v>1677.112754080203</v>
@@ -12436,7 +12436,7 @@
         <v>15</v>
       </c>
       <c r="D500" s="2">
-        <v>0.2778676490415819</v>
+        <v>0.3943092750268988</v>
       </c>
       <c r="E500" s="2">
         <v>2375.313524151718</v>
@@ -12460,7 +12460,7 @@
         <v>16</v>
       </c>
       <c r="D501" s="2">
-        <v>0.3219289589906111</v>
+        <v>0.3050052159815095</v>
       </c>
       <c r="E501" s="2">
         <v>1974.292343636168</v>
@@ -12484,10 +12484,10 @@
         <v>17</v>
       </c>
       <c r="D502" s="2">
-        <v>0.3333256210316904</v>
+        <v>0.2896716299583204</v>
       </c>
       <c r="E502" s="2">
-        <v>2116.739119785283</v>
+        <v>2202.712458943724</v>
       </c>
       <c r="F502" s="2">
         <v>2202.712458943725</v>
@@ -12508,10 +12508,10 @@
         <v>18</v>
       </c>
       <c r="D503" s="2">
-        <v>0.3156325260060839</v>
+        <v>0.3086944759706967</v>
       </c>
       <c r="E503" s="2">
-        <v>1659.503972895061</v>
+        <v>1695.200600415448</v>
       </c>
       <c r="F503" s="2">
         <v>1695.200600415448</v>
@@ -12532,10 +12532,10 @@
         <v>19</v>
       </c>
       <c r="D504" s="2">
-        <v>0.2871252890327014</v>
+        <v>0.3485128270112909</v>
       </c>
       <c r="E504" s="2">
-        <v>2451.927995287888</v>
+        <v>2451.927995287889</v>
       </c>
       <c r="F504" s="2">
         <v>2451.927995287889</v>
@@ -12556,10 +12556,10 @@
         <v>20</v>
       </c>
       <c r="D505" s="2">
-        <v>0.3357946290052496</v>
+        <v>0.4691877309815027</v>
       </c>
       <c r="E505" s="2">
-        <v>2735.550524850756</v>
+        <v>2742.32728672341</v>
       </c>
       <c r="F505" s="2">
         <v>2742.32728672341</v>
@@ -12580,7 +12580,7 @@
         <v>21</v>
       </c>
       <c r="D506" s="2">
-        <v>0.299991906969808</v>
+        <v>0.6321137839695439</v>
       </c>
       <c r="E506" s="2">
         <v>1834.68648411814</v>
@@ -12604,7 +12604,7 @@
         <v>22</v>
       </c>
       <c r="D507" s="2">
-        <v>0.2921349459793419</v>
+        <v>0.4192145760171115</v>
       </c>
       <c r="E507" s="2">
         <v>1982.050202010844</v>
@@ -12628,7 +12628,7 @@
         <v>23</v>
       </c>
       <c r="D508" s="2">
-        <v>0.3591420240118168</v>
+        <v>0.3131920049781911</v>
       </c>
       <c r="E508" s="2">
         <v>2154.38612365002</v>
@@ -12652,7 +12652,7 @@
         <v>24</v>
       </c>
       <c r="D509" s="2">
-        <v>0.3148891720338725</v>
+        <v>0.3325240240083076</v>
       </c>
       <c r="E509" s="2">
         <v>2074.942607263144</v>
@@ -12676,7 +12676,7 @@
         <v>25</v>
       </c>
       <c r="D510" s="2">
-        <v>0.3197157180402428</v>
+        <v>0.3048922849702649</v>
       </c>
       <c r="E510" s="2">
         <v>2018.877417867809</v>
@@ -12700,7 +12700,7 @@
         <v>26</v>
       </c>
       <c r="D511" s="2">
-        <v>0.3982994980178773</v>
+        <v>0.3738499119644985</v>
       </c>
       <c r="E511" s="2">
         <v>2112.080784534498</v>
@@ -12724,7 +12724,7 @@
         <v>27</v>
       </c>
       <c r="D512" s="2">
-        <v>0.4225354990339838</v>
+        <v>0.406738038000185</v>
       </c>
       <c r="E512" s="2">
         <v>1840.198032304611</v>
@@ -12748,10 +12748,10 @@
         <v>28</v>
       </c>
       <c r="D513" s="2">
-        <v>0.2761689320323057</v>
+        <v>0.342790667025838</v>
       </c>
       <c r="E513" s="2">
-        <v>2171.738047798988</v>
+        <v>2101.852385760282</v>
       </c>
       <c r="F513" s="2">
         <v>2173.758086818704</v>
@@ -12772,10 +12772,10 @@
         <v>29</v>
       </c>
       <c r="D514" s="2">
-        <v>0.2758865070063621</v>
+        <v>0.3505451920209453</v>
       </c>
       <c r="E514" s="2">
-        <v>2179.678916494323</v>
+        <v>2216.55834202456</v>
       </c>
       <c r="F514" s="2">
         <v>2216.558342024561</v>
@@ -12796,7 +12796,7 @@
         <v>30</v>
       </c>
       <c r="D515" s="2">
-        <v>0.3262957859551534</v>
+        <v>0.3700307400431484</v>
       </c>
       <c r="E515" s="2">
         <v>2153.715914009702</v>
@@ -12820,7 +12820,7 @@
         <v>31</v>
       </c>
       <c r="D516" s="2">
-        <v>0.2911483980133198</v>
+        <v>0.3290412129717879</v>
       </c>
       <c r="E516" s="2">
         <v>1590.573099008697</v>
@@ -12844,10 +12844,10 @@
         <v>1</v>
       </c>
       <c r="D517" s="2">
-        <v>0.2709021369810216</v>
+        <v>0.3174668269930407</v>
       </c>
       <c r="E517" s="2">
-        <v>2246.881256143698</v>
+        <v>2352.635328713841</v>
       </c>
       <c r="F517" s="2">
         <v>2352.635328713841</v>
@@ -12868,7 +12868,7 @@
         <v>2</v>
       </c>
       <c r="D518" s="2">
-        <v>0.3355604740208946</v>
+        <v>0.2903405189863406</v>
       </c>
       <c r="E518" s="2">
         <v>1772.558504688921</v>
@@ -12892,10 +12892,10 @@
         <v>3</v>
       </c>
       <c r="D519" s="2">
-        <v>0.2815466100000776</v>
+        <v>0.3050540650147013</v>
       </c>
       <c r="E519" s="2">
-        <v>1659.531232374408</v>
+        <v>1820.2916621496</v>
       </c>
       <c r="F519" s="2">
         <v>1820.291662149601</v>
@@ -12916,7 +12916,7 @@
         <v>4</v>
       </c>
       <c r="D520" s="2">
-        <v>0.2748611510032788</v>
+        <v>0.3467124619637616</v>
       </c>
       <c r="E520" s="2">
         <v>2346.860492750367</v>
@@ -12940,10 +12940,10 @@
         <v>5</v>
       </c>
       <c r="D521" s="2">
-        <v>0.2775223829667084</v>
+        <v>0.3367819549748674</v>
       </c>
       <c r="E521" s="2">
-        <v>2490.680098744662</v>
+        <v>2508.311108655002</v>
       </c>
       <c r="F521" s="2">
         <v>2508.311108655002</v>
@@ -12964,10 +12964,10 @@
         <v>6</v>
       </c>
       <c r="D522" s="2">
-        <v>0.3172800739994273</v>
+        <v>0.2792828110395931</v>
       </c>
       <c r="E522" s="2">
-        <v>1796.258256466866</v>
+        <v>1873.710800900977</v>
       </c>
       <c r="F522" s="2">
         <v>1873.710800900978</v>
@@ -12988,7 +12988,7 @@
         <v>7</v>
       </c>
       <c r="D523" s="2">
-        <v>0.2849711249582469</v>
+        <v>0.3417720590368845</v>
       </c>
       <c r="E523" s="2">
         <v>2097.377808237355</v>
@@ -13012,10 +13012,10 @@
         <v>8</v>
       </c>
       <c r="D524" s="2">
-        <v>0.2735602419706993</v>
+        <v>0.338484010018874</v>
       </c>
       <c r="E524" s="2">
-        <v>1841.296156008807</v>
+        <v>1763.690155701324</v>
       </c>
       <c r="F524" s="2">
         <v>1922.852687891714</v>
@@ -13036,7 +13036,7 @@
         <v>9</v>
       </c>
       <c r="D525" s="2">
-        <v>0.3452862160047516</v>
+        <v>0.3667823490104638</v>
       </c>
       <c r="E525" s="2">
         <v>2358.327551728115</v>
@@ -13060,10 +13060,10 @@
         <v>10</v>
       </c>
       <c r="D526" s="2">
-        <v>0.3134840870043263</v>
+        <v>0.3487360010039993</v>
       </c>
       <c r="E526" s="2">
-        <v>2736.54430101651</v>
+        <v>2763.824556972131</v>
       </c>
       <c r="F526" s="2">
         <v>2763.824556972131</v>
@@ -13084,7 +13084,7 @@
         <v>11</v>
       </c>
       <c r="D527" s="2">
-        <v>0.2643904240103438</v>
+        <v>0.2883329190080985</v>
       </c>
       <c r="E527" s="2">
         <v>2515.784781042937</v>
@@ -13108,7 +13108,7 @@
         <v>12</v>
       </c>
       <c r="D528" s="2">
-        <v>0.2824592239921913</v>
+        <v>0.3296204069629312</v>
       </c>
       <c r="E528" s="2">
         <v>2330.883971012534</v>
@@ -13132,7 +13132,7 @@
         <v>13</v>
       </c>
       <c r="D529" s="2">
-        <v>0.2721164490212686</v>
+        <v>0.2918307119980454</v>
       </c>
       <c r="E529" s="2">
         <v>1957.582185071064</v>
@@ -13156,7 +13156,7 @@
         <v>14</v>
       </c>
       <c r="D530" s="2">
-        <v>0.3213557210401632</v>
+        <v>0.2978457249701023</v>
       </c>
       <c r="E530" s="2">
         <v>2214.722256504377</v>
@@ -13180,10 +13180,10 @@
         <v>15</v>
       </c>
       <c r="D531" s="2">
-        <v>0.2928504180163145</v>
+        <v>0.3233838079613633</v>
       </c>
       <c r="E531" s="2">
-        <v>2750.501972105601</v>
+        <v>2761.621244380339</v>
       </c>
       <c r="F531" s="2">
         <v>2761.621244380338</v>
@@ -13204,10 +13204,10 @@
         <v>16</v>
       </c>
       <c r="D532" s="2">
-        <v>0.31014465901535</v>
+        <v>0.3341619740240276</v>
       </c>
       <c r="E532" s="2">
-        <v>1621.144685140208</v>
+        <v>1662.79406743745</v>
       </c>
       <c r="F532" s="2">
         <v>1662.794067437449</v>
@@ -13228,7 +13228,7 @@
         <v>17</v>
       </c>
       <c r="D533" s="2">
-        <v>0.2937180440058</v>
+        <v>0.2867776270140894</v>
       </c>
       <c r="E533" s="2">
         <v>2024.969824455653</v>
@@ -13252,7 +13252,7 @@
         <v>18</v>
       </c>
       <c r="D534" s="2">
-        <v>0.3348568420042284</v>
+        <v>0.3347556399530731</v>
       </c>
       <c r="E534" s="2">
         <v>2528.039085117663</v>
@@ -13276,10 +13276,10 @@
         <v>19</v>
       </c>
       <c r="D535" s="2">
-        <v>0.2739385360036977</v>
+        <v>0.3645227369852364</v>
       </c>
       <c r="E535" s="2">
-        <v>2093.892043318693</v>
+        <v>2133.456259208295</v>
       </c>
       <c r="F535" s="2">
         <v>2133.456259208295</v>
@@ -13300,10 +13300,10 @@
         <v>20</v>
       </c>
       <c r="D536" s="2">
-        <v>0.2875987570150755</v>
+        <v>0.3047345070517622</v>
       </c>
       <c r="E536" s="2">
-        <v>2196.360926231525</v>
+        <v>2196.360926231524</v>
       </c>
       <c r="F536" s="2">
         <v>2196.360926231524</v>
@@ -13324,10 +13324,10 @@
         <v>21</v>
       </c>
       <c r="D537" s="2">
-        <v>0.3539687240263447</v>
+        <v>0.3487342980224639</v>
       </c>
       <c r="E537" s="2">
-        <v>2162.759051585114</v>
+        <v>2286.352332836395</v>
       </c>
       <c r="F537" s="2">
         <v>2286.352332836395</v>
@@ -13348,7 +13348,7 @@
         <v>22</v>
       </c>
       <c r="D538" s="2">
-        <v>0.3391802240512334</v>
+        <v>0.3158686740207486</v>
       </c>
       <c r="E538" s="2">
         <v>2524.321713411052</v>
@@ -13372,10 +13372,10 @@
         <v>23</v>
       </c>
       <c r="D539" s="2">
-        <v>0.2691098779905587</v>
+        <v>0.3464301669737324</v>
       </c>
       <c r="E539" s="2">
-        <v>2210.515585988718</v>
+        <v>2254.841000764881</v>
       </c>
       <c r="F539" s="2">
         <v>2254.841000764882</v>
@@ -13396,7 +13396,7 @@
         <v>24</v>
       </c>
       <c r="D540" s="2">
-        <v>0.2805998109979555</v>
+        <v>0.3485984069993719</v>
       </c>
       <c r="E540" s="2">
         <v>2836.17440653855</v>
@@ -13420,7 +13420,7 @@
         <v>25</v>
       </c>
       <c r="D541" s="2">
-        <v>0.3177537200390361</v>
+        <v>0.3521767840138637</v>
       </c>
       <c r="E541" s="2">
         <v>1494.549115409004</v>
@@ -13444,10 +13444,10 @@
         <v>26</v>
       </c>
       <c r="D542" s="2">
-        <v>0.3431622220086865</v>
+        <v>0.2974178830045275</v>
       </c>
       <c r="E542" s="2">
-        <v>2104.786821072387</v>
+        <v>2108.067650522278</v>
       </c>
       <c r="F542" s="2">
         <v>2108.067650522278</v>
@@ -13468,7 +13468,7 @@
         <v>27</v>
       </c>
       <c r="D543" s="2">
-        <v>0.2738576649571769</v>
+        <v>0.2735232540289871</v>
       </c>
       <c r="E543" s="2">
         <v>2419.177889822883</v>
@@ -13492,7 +13492,7 @@
         <v>28</v>
       </c>
       <c r="D544" s="2">
-        <v>0.2715443469933234</v>
+        <v>0.3165120789781213</v>
       </c>
       <c r="E544" s="2">
         <v>2025.918559833409</v>
@@ -13516,10 +13516,10 @@
         <v>29</v>
       </c>
       <c r="D545" s="2">
-        <v>0.2927313279942609</v>
+        <v>0.3019909749855287</v>
       </c>
       <c r="E545" s="2">
-        <v>1574.036367001499</v>
+        <v>1626.437804311405</v>
       </c>
       <c r="F545" s="2">
         <v>1626.437804311405</v>
@@ -13540,7 +13540,7 @@
         <v>30</v>
       </c>
       <c r="D546" s="2">
-        <v>0.2804323540185578</v>
+        <v>0.3091331579489633</v>
       </c>
       <c r="E546" s="2">
         <v>1977.748380989204</v>
@@ -13564,10 +13564,10 @@
         <v>1</v>
       </c>
       <c r="D547" s="2">
-        <v>0.3263528909883462</v>
+        <v>0.3141715460224077</v>
       </c>
       <c r="E547" s="2">
-        <v>1985.888706752141</v>
+        <v>2046.577425670003</v>
       </c>
       <c r="F547" s="2">
         <v>2046.577425670003</v>
@@ -13588,10 +13588,10 @@
         <v>2</v>
       </c>
       <c r="D548" s="2">
-        <v>0.3416671290178783</v>
+        <v>0.3026707399985753</v>
       </c>
       <c r="E548" s="2">
-        <v>2451.035804508417</v>
+        <v>2489.815935428408</v>
       </c>
       <c r="F548" s="2">
         <v>2489.815935428408</v>
@@ -13612,10 +13612,10 @@
         <v>3</v>
       </c>
       <c r="D549" s="2">
-        <v>0.3287327630096115</v>
+        <v>0.3123016349854879</v>
       </c>
       <c r="E549" s="2">
-        <v>1825.171364112395</v>
+        <v>1978.991100844814</v>
       </c>
       <c r="F549" s="2">
         <v>1978.991100844814</v>
@@ -13636,7 +13636,7 @@
         <v>4</v>
       </c>
       <c r="D550" s="2">
-        <v>0.3267315279808827</v>
+        <v>0.3455832120380364</v>
       </c>
       <c r="E550" s="2">
         <v>1790.399229257609</v>
@@ -13660,7 +13660,7 @@
         <v>5</v>
       </c>
       <c r="D551" s="2">
-        <v>0.3636636970331892</v>
+        <v>0.3027940659667365</v>
       </c>
       <c r="E551" s="2">
         <v>1596.002870457472</v>
@@ -13684,10 +13684,10 @@
         <v>6</v>
       </c>
       <c r="D552" s="2">
-        <v>0.3423404489876702</v>
+        <v>0.2900537980021909</v>
       </c>
       <c r="E552" s="2">
-        <v>2254.018112489832</v>
+        <v>2242.312988230506</v>
       </c>
       <c r="F552" s="2">
         <v>2327.270245252882</v>
@@ -13708,10 +13708,10 @@
         <v>7</v>
       </c>
       <c r="D553" s="2">
-        <v>0.3321156000019982</v>
+        <v>0.2906101770349778</v>
       </c>
       <c r="E553" s="2">
-        <v>2623.775188158925</v>
+        <v>2647.62307345825</v>
       </c>
       <c r="F553" s="2">
         <v>2647.62307345825</v>
@@ -13732,7 +13732,7 @@
         <v>8</v>
       </c>
       <c r="D554" s="2">
-        <v>0.2766113029792905</v>
+        <v>0.3280678250011988</v>
       </c>
       <c r="E554" s="2">
         <v>1957.436792224215</v>
@@ -13756,7 +13756,7 @@
         <v>9</v>
       </c>
       <c r="D555" s="2">
-        <v>0.3088026599725708</v>
+        <v>0.289844260958489</v>
       </c>
       <c r="E555" s="2">
         <v>2404.126746163444</v>
@@ -13780,10 +13780,10 @@
         <v>10</v>
       </c>
       <c r="D556" s="2">
-        <v>0.317319211026188</v>
+        <v>0.3199812119710259</v>
       </c>
       <c r="E556" s="2">
-        <v>2289.827342683344</v>
+        <v>2386.089539968864</v>
       </c>
       <c r="F556" s="2">
         <v>2386.089539968864</v>
@@ -13804,7 +13804,7 @@
         <v>11</v>
       </c>
       <c r="D557" s="2">
-        <v>0.3204077240079641</v>
+        <v>0.3685277260374278</v>
       </c>
       <c r="E557" s="2">
         <v>2115.775053345948</v>
@@ -13828,7 +13828,7 @@
         <v>12</v>
       </c>
       <c r="D558" s="2">
-        <v>0.2761746730539016</v>
+        <v>0.3513057749951258</v>
       </c>
       <c r="E558" s="2">
         <v>2137.228904896951</v>
@@ -13852,7 +13852,7 @@
         <v>13</v>
       </c>
       <c r="D559" s="2">
-        <v>0.3042185779777355</v>
+        <v>0.2685953979962505</v>
       </c>
       <c r="E559" s="2">
         <v>2128.976555804646</v>
@@ -13876,7 +13876,7 @@
         <v>14</v>
       </c>
       <c r="D560" s="2">
-        <v>0.3116837959969416</v>
+        <v>0.2770997969782911</v>
       </c>
       <c r="E560" s="2">
         <v>1864.125737516048</v>
@@ -13900,7 +13900,7 @@
         <v>15</v>
       </c>
       <c r="D561" s="2">
-        <v>0.2905513640143909</v>
+        <v>0.3664258610224351</v>
       </c>
       <c r="E561" s="2">
         <v>2613.432805816005</v>
@@ -13924,10 +13924,10 @@
         <v>16</v>
       </c>
       <c r="D562" s="2">
-        <v>0.3102005220134743</v>
+        <v>0.2749645960284397</v>
       </c>
       <c r="E562" s="2">
-        <v>2462.824001709653</v>
+        <v>2487.502702933234</v>
       </c>
       <c r="F562" s="2">
         <v>2487.502702933234</v>
@@ -13948,10 +13948,10 @@
         <v>17</v>
       </c>
       <c r="D563" s="2">
-        <v>0.2933979359804653</v>
+        <v>0.327851063979324</v>
       </c>
       <c r="E563" s="2">
-        <v>2426.365049967324</v>
+        <v>2489.833542444558</v>
       </c>
       <c r="F563" s="2">
         <v>2489.833542444557</v>
@@ -13972,7 +13972,7 @@
         <v>18</v>
       </c>
       <c r="D564" s="2">
-        <v>0.3203246040502563</v>
+        <v>0.3027004689793102</v>
       </c>
       <c r="E564" s="2">
         <v>2225.029825179466</v>
@@ -13996,10 +13996,10 @@
         <v>19</v>
       </c>
       <c r="D565" s="2">
-        <v>0.2881757920258678</v>
+        <v>0.3063292310107499</v>
       </c>
       <c r="E565" s="2">
-        <v>2147.264629209177</v>
+        <v>2207.99519329207</v>
       </c>
       <c r="F565" s="2">
         <v>2207.99519329207</v>
@@ -14020,7 +14020,7 @@
         <v>20</v>
       </c>
       <c r="D566" s="2">
-        <v>0.4148701939848252</v>
+        <v>0.3675621980219148</v>
       </c>
       <c r="E566" s="2">
         <v>2287.839768785982</v>
@@ -14044,7 +14044,7 @@
         <v>21</v>
       </c>
       <c r="D567" s="2">
-        <v>0.3015224040136673</v>
+        <v>0.3411451479769312</v>
       </c>
       <c r="E567" s="2">
         <v>2590.77446502592</v>
@@ -14068,7 +14068,7 @@
         <v>22</v>
       </c>
       <c r="D568" s="2">
-        <v>0.2799462130060419</v>
+        <v>0.2893274630187079</v>
       </c>
       <c r="E568" s="2">
         <v>2074.067202624127</v>
@@ -14092,10 +14092,10 @@
         <v>23</v>
       </c>
       <c r="D569" s="2">
-        <v>0.2805540109984577</v>
+        <v>0.3227456719614565</v>
       </c>
       <c r="E569" s="2">
-        <v>2458.740364226759</v>
+        <v>2493.48487271669</v>
       </c>
       <c r="F569" s="2">
         <v>2493.48487271669</v>
@@ -14116,10 +14116,10 @@
         <v>24</v>
       </c>
       <c r="D570" s="2">
-        <v>0.3661196230095811</v>
+        <v>0.3102904349798337</v>
       </c>
       <c r="E570" s="2">
-        <v>2400.276437304963</v>
+        <v>2473.270658067451</v>
       </c>
       <c r="F570" s="2">
         <v>2473.270658067452</v>
@@ -14140,7 +14140,7 @@
         <v>25</v>
       </c>
       <c r="D571" s="2">
-        <v>0.3389685310539789</v>
+        <v>0.2921733109978959</v>
       </c>
       <c r="E571" s="2">
         <v>2342.798690523809</v>
@@ -14164,10 +14164,10 @@
         <v>26</v>
       </c>
       <c r="D572" s="2">
-        <v>0.320307818998117</v>
+        <v>0.2995119129773229</v>
       </c>
       <c r="E572" s="2">
-        <v>1933.821215430132</v>
+        <v>1991.072920330166</v>
       </c>
       <c r="F572" s="2">
         <v>1991.072920330166</v>
@@ -14188,10 +14188,10 @@
         <v>27</v>
       </c>
       <c r="D573" s="2">
-        <v>0.2993174960138276</v>
+        <v>0.3199987689731643</v>
       </c>
       <c r="E573" s="2">
-        <v>2578.455041249048</v>
+        <v>2687.229244491341</v>
       </c>
       <c r="F573" s="2">
         <v>2687.229244491341</v>
@@ -14212,10 +14212,10 @@
         <v>28</v>
       </c>
       <c r="D574" s="2">
-        <v>0.2641458520083688</v>
+        <v>0.3154648520285264</v>
       </c>
       <c r="E574" s="2">
-        <v>1849.19544866422</v>
+        <v>1859.092355265138</v>
       </c>
       <c r="F574" s="2">
         <v>1859.092355265138</v>
@@ -14236,10 +14236,10 @@
         <v>29</v>
       </c>
       <c r="D575" s="2">
-        <v>0.2784996739937924</v>
+        <v>0.2761552960146219</v>
       </c>
       <c r="E575" s="2">
-        <v>2210.839073423143</v>
+        <v>2210.839073423142</v>
       </c>
       <c r="F575" s="2">
         <v>2231.450577075297</v>
@@ -14260,7 +14260,7 @@
         <v>30</v>
       </c>
       <c r="D576" s="2">
-        <v>0.3158248200197704</v>
+        <v>0.3031007240060717</v>
       </c>
       <c r="E576" s="2">
         <v>2490.747036568571</v>
@@ -14284,7 +14284,7 @@
         <v>31</v>
       </c>
       <c r="D577" s="2">
-        <v>0.2755296669784002</v>
+        <v>0.2839101490098983</v>
       </c>
       <c r="E577" s="2">
         <v>2474.473297782563</v>
@@ -14308,7 +14308,7 @@
         <v>1</v>
       </c>
       <c r="D578" s="2">
-        <v>0.309588611999061</v>
+        <v>0.2954588700085878</v>
       </c>
       <c r="E578" s="2">
         <v>2301.518643917839</v>
@@ -14332,7 +14332,7 @@
         <v>2</v>
       </c>
       <c r="D579" s="2">
-        <v>0.3277295590378344</v>
+        <v>0.3069855479989201</v>
       </c>
       <c r="E579" s="2">
         <v>2591.066825600689</v>
@@ -14356,10 +14356,10 @@
         <v>3</v>
       </c>
       <c r="D580" s="2">
-        <v>0.3480893860105425</v>
+        <v>0.3007206430193037</v>
       </c>
       <c r="E580" s="2">
-        <v>2105.294190512554</v>
+        <v>2151.984465630095</v>
       </c>
       <c r="F580" s="2">
         <v>2151.984465630095</v>
@@ -14380,7 +14380,7 @@
         <v>4</v>
       </c>
       <c r="D581" s="2">
-        <v>0.3808853169903159</v>
+        <v>0.3036504640476778</v>
       </c>
       <c r="E581" s="2">
         <v>2289.876019554796</v>
@@ -14404,7 +14404,7 @@
         <v>5</v>
       </c>
       <c r="D582" s="2">
-        <v>0.2890093980240636</v>
+        <v>0.309837692999281</v>
       </c>
       <c r="E582" s="2">
         <v>2908.241676124569</v>
@@ -14428,7 +14428,7 @@
         <v>6</v>
       </c>
       <c r="D583" s="2">
-        <v>0.3527690619812347</v>
+        <v>0.3237518629757687</v>
       </c>
       <c r="E583" s="2">
         <v>1977.852055168919</v>
@@ -14452,7 +14452,7 @@
         <v>7</v>
       </c>
       <c r="D584" s="2">
-        <v>0.3228794040041976</v>
+        <v>0.3327753630001098</v>
       </c>
       <c r="E584" s="2">
         <v>3034.304251241752</v>
@@ -14476,7 +14476,7 @@
         <v>8</v>
       </c>
       <c r="D585" s="2">
-        <v>0.3466530650039203</v>
+        <v>0.3558636769885197</v>
       </c>
       <c r="E585" s="2">
         <v>2170.045239559242</v>
@@ -14500,10 +14500,10 @@
         <v>9</v>
       </c>
       <c r="D586" s="2">
-        <v>0.3186528449878097</v>
+        <v>0.3601532499887981</v>
       </c>
       <c r="E586" s="2">
-        <v>2386.868505702014</v>
+        <v>2434.508099127636</v>
       </c>
       <c r="F586" s="2">
         <v>2434.508099127636</v>
@@ -14524,10 +14524,10 @@
         <v>10</v>
       </c>
       <c r="D587" s="2">
-        <v>0.3171589609701186</v>
+        <v>0.2807657920056954</v>
       </c>
       <c r="E587" s="2">
-        <v>1738.732135510938</v>
+        <v>1742.125048717342</v>
       </c>
       <c r="F587" s="2">
         <v>1742.125048717342</v>
@@ -14548,7 +14548,7 @@
         <v>11</v>
       </c>
       <c r="D588" s="2">
-        <v>0.3079889549990185</v>
+        <v>0.3072805830161087</v>
       </c>
       <c r="E588" s="2">
         <v>2262.978982226093</v>
@@ -14572,7 +14572,7 @@
         <v>12</v>
       </c>
       <c r="D589" s="2">
-        <v>0.29450065898709</v>
+        <v>0.3379708590218797</v>
       </c>
       <c r="E589" s="2">
         <v>1827.416755865211</v>
@@ -14596,7 +14596,7 @@
         <v>13</v>
       </c>
       <c r="D590" s="2">
-        <v>0.2830710029811598</v>
+        <v>0.3508347449824214</v>
       </c>
       <c r="E590" s="2">
         <v>2094.541392896308</v>
@@ -14620,7 +14620,7 @@
         <v>14</v>
       </c>
       <c r="D591" s="2">
-        <v>0.2910995950223878</v>
+        <v>0.2747823150129989</v>
       </c>
       <c r="E591" s="2">
         <v>2132.120880115576</v>
@@ -14644,7 +14644,7 @@
         <v>15</v>
       </c>
       <c r="D592" s="2">
-        <v>0.3197734850109555</v>
+        <v>0.2671645330265164</v>
       </c>
       <c r="E592" s="2">
         <v>1706.722863988275</v>
@@ -14668,7 +14668,7 @@
         <v>16</v>
       </c>
       <c r="D593" s="2">
-        <v>0.3677511350251734</v>
+        <v>0.3141962179797702</v>
       </c>
       <c r="E593" s="2">
         <v>1870.033004836691</v>
@@ -14692,10 +14692,10 @@
         <v>17</v>
       </c>
       <c r="D594" s="2">
-        <v>0.358653002011124</v>
+        <v>0.2689533570082858</v>
       </c>
       <c r="E594" s="2">
-        <v>2079.197292777015</v>
+        <v>2079.197292777016</v>
       </c>
       <c r="F594" s="2">
         <v>2136.437030087859</v>
@@ -14716,10 +14716,10 @@
         <v>18</v>
       </c>
       <c r="D595" s="2">
-        <v>0.2788045560009778</v>
+        <v>0.2801261369604617</v>
       </c>
       <c r="E595" s="2">
-        <v>2177.268911975268</v>
+        <v>2291.067374903104</v>
       </c>
       <c r="F595" s="2">
         <v>2291.067374903104</v>
@@ -14740,7 +14740,7 @@
         <v>19</v>
       </c>
       <c r="D596" s="2">
-        <v>0.3410873739630915</v>
+        <v>0.3850021119578741</v>
       </c>
       <c r="E596" s="2">
         <v>1989.855084532628</v>
@@ -14764,10 +14764,10 @@
         <v>20</v>
       </c>
       <c r="D597" s="2">
-        <v>0.3751488649868406</v>
+        <v>0.3119084649952129</v>
       </c>
       <c r="E597" s="2">
-        <v>1781.426258956245</v>
+        <v>1800.42173863686</v>
       </c>
       <c r="F597" s="2">
         <v>1828.895662138804</v>
@@ -14788,7 +14788,7 @@
         <v>21</v>
       </c>
       <c r="D598" s="2">
-        <v>0.3029941960121505</v>
+        <v>0.2970106940483674</v>
       </c>
       <c r="E598" s="2">
         <v>2925.231400437444</v>
@@ -14812,7 +14812,7 @@
         <v>22</v>
       </c>
       <c r="D599" s="2">
-        <v>0.3276400159811601</v>
+        <v>0.3715445849811658</v>
       </c>
       <c r="E599" s="2">
         <v>1470.406479418252</v>
@@ -14836,10 +14836,10 @@
         <v>23</v>
       </c>
       <c r="D600" s="2">
-        <v>0.2782917920267209</v>
+        <v>0.3782161679700948</v>
       </c>
       <c r="E600" s="2">
-        <v>1835.180514629332</v>
+        <v>1957.473766123981</v>
       </c>
       <c r="F600" s="2">
         <v>2026.962023220685</v>
@@ -14860,10 +14860,10 @@
         <v>24</v>
       </c>
       <c r="D601" s="2">
-        <v>0.27682976401411</v>
+        <v>0.2585322679951787</v>
       </c>
       <c r="E601" s="2">
-        <v>2237.320024171473</v>
+        <v>2239.351199817958</v>
       </c>
       <c r="F601" s="2">
         <v>2239.351199817958</v>
@@ -14884,10 +14884,10 @@
         <v>25</v>
       </c>
       <c r="D602" s="2">
-        <v>0.278738502995111</v>
+        <v>0.3009976880275644</v>
       </c>
       <c r="E602" s="2">
-        <v>1988.191295759744</v>
+        <v>2013.204892291386</v>
       </c>
       <c r="F602" s="2">
         <v>2013.204892291386</v>
@@ -14908,10 +14908,10 @@
         <v>26</v>
       </c>
       <c r="D603" s="2">
-        <v>0.3098448379896581</v>
+        <v>0.3107359949499369</v>
       </c>
       <c r="E603" s="2">
-        <v>1557.030575182604</v>
+        <v>1599.809383623278</v>
       </c>
       <c r="F603" s="2">
         <v>1599.809383623278</v>
@@ -14932,10 +14932,10 @@
         <v>27</v>
       </c>
       <c r="D604" s="2">
-        <v>0.2896709520136937</v>
+        <v>0.2716292180120945</v>
       </c>
       <c r="E604" s="2">
-        <v>2298.653793776387</v>
+        <v>2338.223375066059</v>
       </c>
       <c r="F604" s="2">
         <v>2338.223375066059</v>
@@ -14956,10 +14956,10 @@
         <v>28</v>
       </c>
       <c r="D605" s="2">
-        <v>0.2903514780336991</v>
+        <v>0.3307967279688455</v>
       </c>
       <c r="E605" s="2">
-        <v>1692.079605153335</v>
+        <v>1751.431239594558</v>
       </c>
       <c r="F605" s="2">
         <v>1751.431239594559</v>
@@ -14980,10 +14980,10 @@
         <v>29</v>
       </c>
       <c r="D606" s="2">
-        <v>0.3084497040254064</v>
+        <v>0.3193353330134414</v>
       </c>
       <c r="E606" s="2">
-        <v>1989.813777023809</v>
+        <v>2004.246526083771</v>
       </c>
       <c r="F606" s="2">
         <v>2004.246526083771</v>
@@ -15004,10 +15004,10 @@
         <v>30</v>
       </c>
       <c r="D607" s="2">
-        <v>0.3082928680232726</v>
+        <v>0.2596693530213088</v>
       </c>
       <c r="E607" s="2">
-        <v>2112.736745562577</v>
+        <v>2179.412758766166</v>
       </c>
       <c r="F607" s="2">
         <v>2231.749643289461</v>
@@ -15028,7 +15028,7 @@
         <v>31</v>
       </c>
       <c r="D608" s="2">
-        <v>0.2808075250359252</v>
+        <v>0.290522240975406</v>
       </c>
       <c r="E608" s="2">
         <v>2406.821086533568</v>
@@ -15052,7 +15052,7 @@
         <v>1</v>
       </c>
       <c r="D609" s="2">
-        <v>0.2906604460440576</v>
+        <v>0.3583812579745427</v>
       </c>
       <c r="E609" s="2">
         <v>2327.957608823107</v>
@@ -15076,7 +15076,7 @@
         <v>2</v>
       </c>
       <c r="D610" s="2">
-        <v>0.3170972450170666</v>
+        <v>0.3259001889964566</v>
       </c>
       <c r="E610" s="2">
         <v>2121.553268222679</v>
@@ -15100,10 +15100,10 @@
         <v>3</v>
       </c>
       <c r="D611" s="2">
-        <v>0.3008818029775284</v>
+        <v>0.3951217100257054</v>
       </c>
       <c r="E611" s="2">
-        <v>1850.373309532447</v>
+        <v>1906.662052394822</v>
       </c>
       <c r="F611" s="2">
         <v>1906.662052394822</v>
@@ -15124,7 +15124,7 @@
         <v>4</v>
       </c>
       <c r="D612" s="2">
-        <v>0.2713304520002566</v>
+        <v>0.3099808110273443</v>
       </c>
       <c r="E612" s="2">
         <v>2389.329696504104</v>
@@ -15148,7 +15148,7 @@
         <v>5</v>
       </c>
       <c r="D613" s="2">
-        <v>0.3003023279597983</v>
+        <v>0.2888363120146096</v>
       </c>
       <c r="E613" s="2">
         <v>1804.152132028261</v>
@@ -15172,7 +15172,7 @@
         <v>6</v>
       </c>
       <c r="D614" s="2">
-        <v>0.268604111042805</v>
+        <v>0.38511892297538</v>
       </c>
       <c r="E614" s="2">
         <v>1613.41099121259</v>
@@ -15196,7 +15196,7 @@
         <v>7</v>
       </c>
       <c r="D615" s="2">
-        <v>0.2852955400012434</v>
+        <v>0.3494808879913762</v>
       </c>
       <c r="E615" s="2">
         <v>2460.321962390806</v>
@@ -15220,10 +15220,10 @@
         <v>8</v>
       </c>
       <c r="D616" s="2">
-        <v>0.323439942963887</v>
+        <v>0.3124106529867277</v>
       </c>
       <c r="E616" s="2">
-        <v>2076.298659865213</v>
+        <v>2099.104281430786</v>
       </c>
       <c r="F616" s="2">
         <v>2099.104281430785</v>
@@ -15244,7 +15244,7 @@
         <v>9</v>
       </c>
       <c r="D617" s="2">
-        <v>0.3410939439781941</v>
+        <v>0.2889750489848666</v>
       </c>
       <c r="E617" s="2">
         <v>2292.592426568114</v>
@@ -15268,10 +15268,10 @@
         <v>10</v>
       </c>
       <c r="D618" s="2">
-        <v>0.3741295349900611</v>
+        <v>0.344328916980885</v>
       </c>
       <c r="E618" s="2">
-        <v>2299.749652194089</v>
+        <v>2379.813822934559</v>
       </c>
       <c r="F618" s="2">
         <v>2379.813822934559</v>
@@ -15292,10 +15292,10 @@
         <v>11</v>
       </c>
       <c r="D619" s="2">
-        <v>0.2887236109818332</v>
+        <v>0.2882935979869217</v>
       </c>
       <c r="E619" s="2">
-        <v>2161.945381584483</v>
+        <v>2192.39904122184</v>
       </c>
       <c r="F619" s="2">
         <v>2192.399041221841</v>
@@ -15316,10 +15316,10 @@
         <v>12</v>
       </c>
       <c r="D620" s="2">
-        <v>0.3116217839997262</v>
+        <v>0.2804140690132044</v>
       </c>
       <c r="E620" s="2">
-        <v>2334.64533064881</v>
+        <v>2336.315711300591</v>
       </c>
       <c r="F620" s="2">
         <v>2336.315711300592</v>
@@ -15340,7 +15340,7 @@
         <v>13</v>
       </c>
       <c r="D621" s="2">
-        <v>0.2864815500215627</v>
+        <v>0.2956385890138336</v>
       </c>
       <c r="E621" s="2">
         <v>2151.690368448603</v>
@@ -15364,7 +15364,7 @@
         <v>14</v>
       </c>
       <c r="D622" s="2">
-        <v>0.3287217110046186</v>
+        <v>0.3021486109937541</v>
       </c>
       <c r="E622" s="2">
         <v>2540.929347956934</v>
@@ -15388,7 +15388,7 @@
         <v>15</v>
       </c>
       <c r="D623" s="2">
-        <v>0.4064806739916094</v>
+        <v>0.3080487360130064</v>
       </c>
       <c r="E623" s="2">
         <v>2440.225800559597</v>
@@ -15412,7 +15412,7 @@
         <v>16</v>
       </c>
       <c r="D624" s="2">
-        <v>0.3026367219863459</v>
+        <v>0.3437587760272436</v>
       </c>
       <c r="E624" s="2">
         <v>2668.359089606315</v>
@@ -15436,7 +15436,7 @@
         <v>17</v>
       </c>
       <c r="D625" s="2">
-        <v>0.3805359679972753</v>
+        <v>0.3790116509771906</v>
       </c>
       <c r="E625" s="2">
         <v>1838.257110859417</v>
@@ -15460,7 +15460,7 @@
         <v>18</v>
       </c>
       <c r="D626" s="2">
-        <v>0.2818389990134165</v>
+        <v>0.3215135959908366</v>
       </c>
       <c r="E626" s="2">
         <v>2466.669878217763</v>
@@ -15484,10 +15484,10 @@
         <v>19</v>
       </c>
       <c r="D627" s="2">
-        <v>0.3335231160162948</v>
+        <v>0.2847153120092116</v>
       </c>
       <c r="E627" s="2">
-        <v>2100.209367072151</v>
+        <v>2107.773356067431</v>
       </c>
       <c r="F627" s="2">
         <v>2107.77335606743</v>
@@ -15508,7 +15508,7 @@
         <v>20</v>
       </c>
       <c r="D628" s="2">
-        <v>0.3023034569923766</v>
+        <v>0.3927046119933948</v>
       </c>
       <c r="E628" s="2">
         <v>2511.577097266536</v>
@@ -15532,10 +15532,10 @@
         <v>21</v>
       </c>
       <c r="D629" s="2">
-        <v>0.3288405550410971</v>
+        <v>0.2787084499723278</v>
       </c>
       <c r="E629" s="2">
-        <v>2355.298408072443</v>
+        <v>2413.887489673672</v>
       </c>
       <c r="F629" s="2">
         <v>2477.663078582861</v>
@@ -15556,7 +15556,7 @@
         <v>22</v>
       </c>
       <c r="D630" s="2">
-        <v>0.3132768209907226</v>
+        <v>0.3119576659519225</v>
       </c>
       <c r="E630" s="2">
         <v>2356.44793896376</v>
@@ -15580,7 +15580,7 @@
         <v>23</v>
       </c>
       <c r="D631" s="2">
-        <v>0.299820845015347</v>
+        <v>0.3362405799562111</v>
       </c>
       <c r="E631" s="2">
         <v>2355.119620079797</v>
@@ -15604,7 +15604,7 @@
         <v>24</v>
       </c>
       <c r="D632" s="2">
-        <v>0.2764759000274353</v>
+        <v>0.2735319369821809</v>
       </c>
       <c r="E632" s="2">
         <v>2537.324775389103</v>
@@ -15628,10 +15628,10 @@
         <v>25</v>
       </c>
       <c r="D633" s="2">
-        <v>0.3044484829879366</v>
+        <v>0.3256188799859956</v>
       </c>
       <c r="E633" s="2">
-        <v>1848.64065675604</v>
+        <v>1931.908183783254</v>
       </c>
       <c r="F633" s="2">
         <v>1931.908183783255</v>
@@ -15652,10 +15652,10 @@
         <v>26</v>
       </c>
       <c r="D634" s="2">
-        <v>0.3677909789839759</v>
+        <v>0.2873244669754058</v>
       </c>
       <c r="E634" s="2">
-        <v>2380.106266465241</v>
+        <v>2380.10626646524</v>
       </c>
       <c r="F634" s="2">
         <v>2380.106266465241</v>
@@ -15676,10 +15676,10 @@
         <v>27</v>
       </c>
       <c r="D635" s="2">
-        <v>0.2706286630127579</v>
+        <v>0.3020468499744311</v>
       </c>
       <c r="E635" s="2">
-        <v>2073.741258315456</v>
+        <v>2073.741258315457</v>
       </c>
       <c r="F635" s="2">
         <v>2073.741258315456</v>
@@ -15700,10 +15700,10 @@
         <v>28</v>
       </c>
       <c r="D636" s="2">
-        <v>0.2847890359698795</v>
+        <v>0.2992609010543674</v>
       </c>
       <c r="E636" s="2">
-        <v>2236.755144708268</v>
+        <v>2236.755144708267</v>
       </c>
       <c r="F636" s="2">
         <v>2236.755144708268</v>
@@ -15724,7 +15724,7 @@
         <v>29</v>
       </c>
       <c r="D637" s="2">
-        <v>0.3365684620221145</v>
+        <v>0.2782387579791248</v>
       </c>
       <c r="E637" s="2">
         <v>2340.636184569497</v>
@@ -15748,7 +15748,7 @@
         <v>30</v>
       </c>
       <c r="D638" s="2">
-        <v>0.280599597026594</v>
+        <v>0.3164304319652729</v>
       </c>
       <c r="E638" s="2">
         <v>2044.586371035601</v>
@@ -15772,10 +15772,10 @@
         <v>1</v>
       </c>
       <c r="D639" s="2">
-        <v>0.2689614239498042</v>
+        <v>0.3068116179783829</v>
       </c>
       <c r="E639" s="2">
-        <v>2414.071259312243</v>
+        <v>2415.899193643458</v>
       </c>
       <c r="F639" s="2">
         <v>2415.899193643458</v>
@@ -15796,10 +15796,10 @@
         <v>2</v>
       </c>
       <c r="D640" s="2">
-        <v>0.2748980079777539</v>
+        <v>0.3438515770249069</v>
       </c>
       <c r="E640" s="2">
-        <v>1921.909920829998</v>
+        <v>1984.226269238173</v>
       </c>
       <c r="F640" s="2">
         <v>1984.226269238173</v>
@@ -15820,10 +15820,10 @@
         <v>3</v>
       </c>
       <c r="D641" s="2">
-        <v>0.334930406010244</v>
+        <v>0.3371800010208972</v>
       </c>
       <c r="E641" s="2">
-        <v>1863.476040792625</v>
+        <v>1883.701960722468</v>
       </c>
       <c r="F641" s="2">
         <v>1883.701960722468</v>
@@ -15844,10 +15844,10 @@
         <v>4</v>
       </c>
       <c r="D642" s="2">
-        <v>0.2787497849785723</v>
+        <v>0.3656426849775016</v>
       </c>
       <c r="E642" s="2">
-        <v>2066.895931665898</v>
+        <v>2072.330550243818</v>
       </c>
       <c r="F642" s="2">
         <v>2079.253307977041</v>
@@ -15868,7 +15868,7 @@
         <v>5</v>
       </c>
       <c r="D643" s="2">
-        <v>0.2760566470096819</v>
+        <v>0.3162668599979952</v>
       </c>
       <c r="E643" s="2">
         <v>2170.170506875115</v>
@@ -15892,10 +15892,10 @@
         <v>6</v>
       </c>
       <c r="D644" s="2">
-        <v>0.3383722709841095</v>
+        <v>0.3913407090003602</v>
       </c>
       <c r="E644" s="2">
-        <v>2626.934851080131</v>
+        <v>2713.515501535468</v>
       </c>
       <c r="F644" s="2">
         <v>2713.515501535469</v>
@@ -15916,10 +15916,10 @@
         <v>7</v>
       </c>
       <c r="D645" s="2">
-        <v>0.2775286310352385</v>
+        <v>0.2848700220347382</v>
       </c>
       <c r="E645" s="2">
-        <v>1760.287134146847</v>
+        <v>1905.791591851349</v>
       </c>
       <c r="F645" s="2">
         <v>1905.791591851349</v>
@@ -15940,10 +15940,10 @@
         <v>8</v>
       </c>
       <c r="D646" s="2">
-        <v>0.3004173929803073</v>
+        <v>0.2771191209903918</v>
       </c>
       <c r="E646" s="2">
-        <v>1869.375829172083</v>
+        <v>1877.991116075696</v>
       </c>
       <c r="F646" s="2">
         <v>1877.991116075696</v>
@@ -15964,10 +15964,10 @@
         <v>9</v>
       </c>
       <c r="D647" s="2">
-        <v>0.2914759020204656</v>
+        <v>0.295130074955523</v>
       </c>
       <c r="E647" s="2">
-        <v>1921.537708354808</v>
+        <v>2003.903832297094</v>
       </c>
       <c r="F647" s="2">
         <v>2003.903832297094</v>
@@ -15988,10 +15988,10 @@
         <v>10</v>
       </c>
       <c r="D648" s="2">
-        <v>0.2906149309710599</v>
+        <v>0.2654951940057799</v>
       </c>
       <c r="E648" s="2">
-        <v>2110.077199423116</v>
+        <v>2143.159097721894</v>
       </c>
       <c r="F648" s="2">
         <v>2143.159097721895</v>
@@ -16012,10 +16012,10 @@
         <v>11</v>
       </c>
       <c r="D649" s="2">
-        <v>0.2886871439986862</v>
+        <v>0.2800975409918465</v>
       </c>
       <c r="E649" s="2">
-        <v>1987.796134255021</v>
+        <v>2045.998841138761</v>
       </c>
       <c r="F649" s="2">
         <v>2045.998841138761</v>
@@ -16036,10 +16036,10 @@
         <v>12</v>
       </c>
       <c r="D650" s="2">
-        <v>0.3066266480018385</v>
+        <v>0.3431909030186944</v>
       </c>
       <c r="E650" s="2">
-        <v>2192.472881454411</v>
+        <v>2154.860408495772</v>
       </c>
       <c r="F650" s="2">
         <v>2209.573678863542</v>
@@ -16060,10 +16060,10 @@
         <v>13</v>
       </c>
       <c r="D651" s="2">
-        <v>0.2884850790142082</v>
+        <v>0.3489848060416989</v>
       </c>
       <c r="E651" s="2">
-        <v>1864.038793126002</v>
+        <v>1864.038793126003</v>
       </c>
       <c r="F651" s="2">
         <v>1864.038793126003</v>
@@ -16084,7 +16084,7 @@
         <v>14</v>
       </c>
       <c r="D652" s="2">
-        <v>0.2772098869900219</v>
+        <v>0.3637949120020494</v>
       </c>
       <c r="E652" s="2">
         <v>2025.702662038627</v>
@@ -16108,7 +16108,7 @@
         <v>15</v>
       </c>
       <c r="D653" s="2">
-        <v>0.2846077870344743</v>
+        <v>0.2820712419925258</v>
       </c>
       <c r="E653" s="2">
         <v>2070.517908653831</v>
@@ -16132,7 +16132,7 @@
         <v>16</v>
       </c>
       <c r="D654" s="2">
-        <v>0.4935339629882947</v>
+        <v>0.2809611179982312</v>
       </c>
       <c r="E654" s="2">
         <v>1586.113986492692</v>
@@ -16156,7 +16156,7 @@
         <v>17</v>
       </c>
       <c r="D655" s="2">
-        <v>0.3133848689612933</v>
+        <v>0.3503333859844133</v>
       </c>
       <c r="E655" s="2">
         <v>2187.991284142877</v>
@@ -16180,7 +16180,7 @@
         <v>18</v>
       </c>
       <c r="D656" s="2">
-        <v>0.3212091570021585</v>
+        <v>0.3057062479783781</v>
       </c>
       <c r="E656" s="2">
         <v>2216.980195515964</v>
@@ -16204,10 +16204,10 @@
         <v>19</v>
       </c>
       <c r="D657" s="2">
-        <v>0.2931512480136007</v>
+        <v>0.3069405590067618</v>
       </c>
       <c r="E657" s="2">
-        <v>2670.099212776937</v>
+        <v>2670.842628405684</v>
       </c>
       <c r="F657" s="2">
         <v>2670.842628405684</v>
@@ -16228,10 +16228,10 @@
         <v>20</v>
       </c>
       <c r="D658" s="2">
-        <v>0.2787748160189949</v>
+        <v>0.3354560590232722</v>
       </c>
       <c r="E658" s="2">
-        <v>2261.658210632739</v>
+        <v>2300.57551628496</v>
       </c>
       <c r="F658" s="2">
         <v>2300.57551628496</v>
@@ -16252,7 +16252,7 @@
         <v>21</v>
       </c>
       <c r="D659" s="2">
-        <v>0.2790031869662926</v>
+        <v>0.2906522889970802</v>
       </c>
       <c r="E659" s="2">
         <v>1614.671026771617</v>
@@ -16276,10 +16276,10 @@
         <v>22</v>
       </c>
       <c r="D660" s="2">
-        <v>0.3186009759665467</v>
+        <v>0.3284955829731189</v>
       </c>
       <c r="E660" s="2">
-        <v>2097.768776378212</v>
+        <v>2198.599214065036</v>
       </c>
       <c r="F660" s="2">
         <v>2198.599214065036</v>
@@ -16300,7 +16300,7 @@
         <v>23</v>
       </c>
       <c r="D661" s="2">
-        <v>0.2871361749712378</v>
+        <v>0.2820172460051253</v>
       </c>
       <c r="E661" s="2">
         <v>2119.865375415557</v>
@@ -16324,7 +16324,7 @@
         <v>24</v>
       </c>
       <c r="D662" s="2">
-        <v>0.2715776200057007</v>
+        <v>0.31042015098501</v>
       </c>
       <c r="E662" s="2">
         <v>2325.228787745462</v>
@@ -16348,10 +16348,10 @@
         <v>25</v>
       </c>
       <c r="D663" s="2">
-        <v>0.3505790769704618</v>
+        <v>0.3105115849757567</v>
       </c>
       <c r="E663" s="2">
-        <v>2071.324504222522</v>
+        <v>2214.048556601009</v>
       </c>
       <c r="F663" s="2">
         <v>2214.048556601008</v>
@@ -16372,7 +16372,7 @@
         <v>26</v>
       </c>
       <c r="D664" s="2">
-        <v>0.2906132189673372</v>
+        <v>0.3761913449852727</v>
       </c>
       <c r="E664" s="2">
         <v>2080.515674481825</v>
@@ -16396,7 +16396,7 @@
         <v>27</v>
       </c>
       <c r="D665" s="2">
-        <v>0.2826966010034084</v>
+        <v>0.3221762009779923</v>
       </c>
       <c r="E665" s="2">
         <v>1952.913254404624</v>
@@ -16420,10 +16420,10 @@
         <v>28</v>
       </c>
       <c r="D666" s="2">
-        <v>0.3308735659811646</v>
+        <v>0.3932772429543547</v>
       </c>
       <c r="E666" s="2">
-        <v>2292.654352037083</v>
+        <v>2308.777794348332</v>
       </c>
       <c r="F666" s="2">
         <v>2319.894559457852</v>
@@ -16444,10 +16444,10 @@
         <v>29</v>
       </c>
       <c r="D667" s="2">
-        <v>0.2885496700182557</v>
+        <v>0.2772995480336249</v>
       </c>
       <c r="E667" s="2">
-        <v>1783.27443550924</v>
+        <v>1834.099021668695</v>
       </c>
       <c r="F667" s="2">
         <v>1834.099021668695</v>
@@ -16468,10 +16468,10 @@
         <v>30</v>
       </c>
       <c r="D668" s="2">
-        <v>0.3466736850095913</v>
+        <v>0.2881061040097848</v>
       </c>
       <c r="E668" s="2">
-        <v>2564.260583792484</v>
+        <v>2598.882684802517</v>
       </c>
       <c r="F668" s="2">
         <v>2598.882684802517</v>
@@ -16492,10 +16492,10 @@
         <v>31</v>
       </c>
       <c r="D669" s="2">
-        <v>0.4270368089783005</v>
+        <v>0.2761441539623775</v>
       </c>
       <c r="E669" s="2">
-        <v>1888.171336369357</v>
+        <v>1956.44274580333</v>
       </c>
       <c r="F669" s="2">
         <v>1956.44274580333</v>
@@ -16516,7 +16516,7 @@
         <v>1</v>
       </c>
       <c r="D670" s="2">
-        <v>0.3502486820216291</v>
+        <v>0.2889046840136871</v>
       </c>
       <c r="E670" s="2">
         <v>1582.024710486505</v>
@@ -16540,7 +16540,7 @@
         <v>2</v>
       </c>
       <c r="D671" s="2">
-        <v>0.3023232590057887</v>
+        <v>0.3830925060319714</v>
       </c>
       <c r="E671" s="2">
         <v>2812.885011710088</v>
@@ -16564,7 +16564,7 @@
         <v>3</v>
       </c>
       <c r="D672" s="2">
-        <v>0.4942742889979854</v>
+        <v>0.368293508014176</v>
       </c>
       <c r="E672" s="2">
         <v>2010.552464843352</v>
@@ -16588,7 +16588,7 @@
         <v>4</v>
       </c>
       <c r="D673" s="2">
-        <v>0.3479177079861984</v>
+        <v>0.335974900983274</v>
       </c>
       <c r="E673" s="2">
         <v>2132.693124401771</v>
@@ -16612,10 +16612,10 @@
         <v>5</v>
       </c>
       <c r="D674" s="2">
-        <v>0.2833644759957679</v>
+        <v>0.3430594279780053</v>
       </c>
       <c r="E674" s="2">
-        <v>1933.38748141806</v>
+        <v>2027.730663656502</v>
       </c>
       <c r="F674" s="2">
         <v>2027.730663656502</v>
@@ -16636,7 +16636,7 @@
         <v>6</v>
       </c>
       <c r="D675" s="2">
-        <v>0.3181700190179981</v>
+        <v>0.3669509720057249</v>
       </c>
       <c r="E675" s="2">
         <v>2168.662063859995</v>
@@ -16660,7 +16660,7 @@
         <v>7</v>
       </c>
       <c r="D676" s="2">
-        <v>0.3451758439769037</v>
+        <v>0.3856897679506801</v>
       </c>
       <c r="E676" s="2">
         <v>2497.4232548469</v>
@@ -16684,7 +16684,7 @@
         <v>8</v>
       </c>
       <c r="D677" s="2">
-        <v>0.2959208459942602</v>
+        <v>0.2999921480077319</v>
       </c>
       <c r="E677" s="2">
         <v>2184.338792433525</v>
@@ -16708,10 +16708,10 @@
         <v>9</v>
       </c>
       <c r="D678" s="2">
-        <v>0.3618994579883292</v>
+        <v>0.2703763879835606</v>
       </c>
       <c r="E678" s="2">
-        <v>2785.330199913352</v>
+        <v>2812.714786904255</v>
       </c>
       <c r="F678" s="2">
         <v>2812.714786904255</v>
@@ -16732,10 +16732,10 @@
         <v>10</v>
       </c>
       <c r="D679" s="2">
-        <v>0.2816598099889234</v>
+        <v>0.2940163839957677</v>
       </c>
       <c r="E679" s="2">
-        <v>2167.60791005092</v>
+        <v>2212.068073485781</v>
       </c>
       <c r="F679" s="2">
         <v>2212.068073485781</v>
@@ -16756,7 +16756,7 @@
         <v>11</v>
       </c>
       <c r="D680" s="2">
-        <v>0.3326322289649397</v>
+        <v>0.4070195239619352</v>
       </c>
       <c r="E680" s="2">
         <v>2022.196653077407</v>
@@ -16780,7 +16780,7 @@
         <v>12</v>
       </c>
       <c r="D681" s="2">
-        <v>0.2766941700247116</v>
+        <v>0.3370722770341672</v>
       </c>
       <c r="E681" s="2">
         <v>2327.473274297517</v>
@@ -16804,7 +16804,7 @@
         <v>13</v>
       </c>
       <c r="D682" s="2">
-        <v>0.280263944005128</v>
+        <v>0.3353518610238098</v>
       </c>
       <c r="E682" s="2">
         <v>2018.188565122456</v>
@@ -16828,7 +16828,7 @@
         <v>14</v>
       </c>
       <c r="D683" s="2">
-        <v>0.3377036629826762</v>
+        <v>0.3195578870363533</v>
       </c>
       <c r="E683" s="2">
         <v>2145.839979771654</v>
@@ -16852,7 +16852,7 @@
         <v>15</v>
       </c>
       <c r="D684" s="2">
-        <v>0.3139908249722794</v>
+        <v>0.3285694479709491</v>
       </c>
       <c r="E684" s="2">
         <v>2307.072684477458</v>
@@ -16876,7 +16876,7 @@
         <v>16</v>
       </c>
       <c r="D685" s="2">
-        <v>0.2950827740132809</v>
+        <v>0.3469790699891746</v>
       </c>
       <c r="E685" s="2">
         <v>2065.555943045044</v>
@@ -16900,7 +16900,7 @@
         <v>17</v>
       </c>
       <c r="D686" s="2">
-        <v>0.2704892659676261</v>
+        <v>0.3428755510249175</v>
       </c>
       <c r="E686" s="2">
         <v>2111.66450043257</v>
@@ -16924,10 +16924,10 @@
         <v>18</v>
       </c>
       <c r="D687" s="2">
-        <v>0.3127521160058677</v>
+        <v>0.2699052600073628</v>
       </c>
       <c r="E687" s="2">
-        <v>2688.075460158003</v>
+        <v>2764.964965474363</v>
       </c>
       <c r="F687" s="2">
         <v>2764.964965474363</v>
@@ -16948,7 +16948,7 @@
         <v>19</v>
       </c>
       <c r="D688" s="2">
-        <v>0.5111030509578995</v>
+        <v>0.3210184079944156</v>
       </c>
       <c r="E688" s="2">
         <v>2456.751293400081</v>
@@ -16972,7 +16972,7 @@
         <v>20</v>
       </c>
       <c r="D689" s="2">
-        <v>0.3901063220109791</v>
+        <v>0.3422600899939425</v>
       </c>
       <c r="E689" s="2">
         <v>2154.130336081528</v>
@@ -16996,10 +16996,10 @@
         <v>21</v>
       </c>
       <c r="D690" s="2">
-        <v>0.2820983259589411</v>
+        <v>0.2834351339843124</v>
       </c>
       <c r="E690" s="2">
-        <v>1966.466362254305</v>
+        <v>1972.993351422253</v>
       </c>
       <c r="F690" s="2">
         <v>1972.993351422253</v>
@@ -17020,7 +17020,7 @@
         <v>22</v>
       </c>
       <c r="D691" s="2">
-        <v>0.3015088500105776</v>
+        <v>0.2866933040204458</v>
       </c>
       <c r="E691" s="2">
         <v>2403.317186711863</v>
@@ -17044,10 +17044,10 @@
         <v>23</v>
       </c>
       <c r="D692" s="2">
-        <v>0.2878720139851794</v>
+        <v>0.3347390440176241</v>
       </c>
       <c r="E692" s="2">
-        <v>2499.49598649911</v>
+        <v>2581.255010194272</v>
       </c>
       <c r="F692" s="2">
         <v>2581.255010194273</v>
@@ -17068,10 +17068,10 @@
         <v>24</v>
       </c>
       <c r="D693" s="2">
-        <v>0.3474011220387183</v>
+        <v>0.2955845469841734</v>
       </c>
       <c r="E693" s="2">
-        <v>2155.291143622384</v>
+        <v>2155.291143622383</v>
       </c>
       <c r="F693" s="2">
         <v>2155.291143622383</v>
@@ -17092,7 +17092,7 @@
         <v>25</v>
       </c>
       <c r="D694" s="2">
-        <v>0.3364491159445606</v>
+        <v>0.2902617660001852</v>
       </c>
       <c r="E694" s="2">
         <v>1743.698134374437</v>
@@ -17116,7 +17116,7 @@
         <v>26</v>
       </c>
       <c r="D695" s="2">
-        <v>0.287663992960006</v>
+        <v>0.305902625026647</v>
       </c>
       <c r="E695" s="2">
         <v>2089.244998889167</v>
@@ -17140,10 +17140,10 @@
         <v>27</v>
       </c>
       <c r="D696" s="2">
-        <v>0.2725169910117984</v>
+        <v>0.3080948590068147</v>
       </c>
       <c r="E696" s="2">
-        <v>2391.26356498899</v>
+        <v>2491.300557235433</v>
       </c>
       <c r="F696" s="2">
         <v>2491.300557235434</v>
@@ -17164,7 +17164,7 @@
         <v>28</v>
       </c>
       <c r="D697" s="2">
-        <v>0.4285747350077145</v>
+        <v>0.3037971199955791</v>
       </c>
       <c r="E697" s="2">
         <v>2480.77542974682</v>
@@ -17188,10 +17188,10 @@
         <v>29</v>
       </c>
       <c r="D698" s="2">
-        <v>0.2964730800013058</v>
+        <v>0.3302036359673366</v>
       </c>
       <c r="E698" s="2">
-        <v>1873.223628043726</v>
+        <v>1945.692170274769</v>
       </c>
       <c r="F698" s="2">
         <v>1945.692170274769</v>
@@ -17212,10 +17212,10 @@
         <v>30</v>
       </c>
       <c r="D699" s="2">
-        <v>0.2971929869963787</v>
+        <v>0.3627275140024722</v>
       </c>
       <c r="E699" s="2">
-        <v>1665.195450865941</v>
+        <v>1754.746795973851</v>
       </c>
       <c r="F699" s="2">
         <v>1754.746795973851</v>
@@ -17236,10 +17236,10 @@
         <v>1</v>
       </c>
       <c r="D700" s="2">
-        <v>0.2880053219851106</v>
+        <v>0.3081265010405332</v>
       </c>
       <c r="E700" s="2">
-        <v>1933.367958347235</v>
+        <v>2199.741667094658</v>
       </c>
       <c r="F700" s="2">
         <v>2199.741667094658</v>
@@ -17260,7 +17260,7 @@
         <v>2</v>
       </c>
       <c r="D701" s="2">
-        <v>0.349452946044039</v>
+        <v>0.3505726680159569</v>
       </c>
       <c r="E701" s="2">
         <v>2080.169304587154</v>
@@ -17284,7 +17284,7 @@
         <v>3</v>
       </c>
       <c r="D702" s="2">
-        <v>0.2734164890134707</v>
+        <v>0.348441933048889</v>
       </c>
       <c r="E702" s="2">
         <v>2050.441173510816</v>
@@ -17308,7 +17308,7 @@
         <v>4</v>
       </c>
       <c r="D703" s="2">
-        <v>0.2661678460426629</v>
+        <v>0.3039698969805613</v>
       </c>
       <c r="E703" s="2">
         <v>2564.031316512265</v>
@@ -17332,10 +17332,10 @@
         <v>5</v>
       </c>
       <c r="D704" s="2">
-        <v>0.2819074440049008</v>
+        <v>0.3104942470090464</v>
       </c>
       <c r="E704" s="2">
-        <v>2015.21753108723</v>
+        <v>2109.122946990046</v>
       </c>
       <c r="F704" s="2">
         <v>2109.122946990046</v>
@@ -17356,10 +17356,10 @@
         <v>6</v>
       </c>
       <c r="D705" s="2">
-        <v>0.3477501739980653</v>
+        <v>0.2907236350001767</v>
       </c>
       <c r="E705" s="2">
-        <v>2590.979311558053</v>
+        <v>2590.979311558054</v>
       </c>
       <c r="F705" s="2">
         <v>2590.979311558053</v>
@@ -17380,7 +17380,7 @@
         <v>7</v>
       </c>
       <c r="D706" s="2">
-        <v>0.2991335910046473</v>
+        <v>0.2869650530046783</v>
       </c>
       <c r="E706" s="2">
         <v>2119.769952723327</v>
@@ -17404,10 +17404,10 @@
         <v>8</v>
       </c>
       <c r="D707" s="2">
-        <v>0.2795392430271022</v>
+        <v>0.3075655860011466</v>
       </c>
       <c r="E707" s="2">
-        <v>1555.181060570122</v>
+        <v>1694.668386658945</v>
       </c>
       <c r="F707" s="2">
         <v>1694.668386658944</v>
@@ -17428,7 +17428,7 @@
         <v>9</v>
       </c>
       <c r="D708" s="2">
-        <v>0.3447538850014098</v>
+        <v>0.2923917479929514</v>
       </c>
       <c r="E708" s="2">
         <v>2319.480444604332</v>
@@ -17452,7 +17452,7 @@
         <v>10</v>
       </c>
       <c r="D709" s="2">
-        <v>0.3068991860491224</v>
+        <v>0.3406852280022576</v>
       </c>
       <c r="E709" s="2">
         <v>2079.82420819166</v>
@@ -17476,7 +17476,7 @@
         <v>11</v>
       </c>
       <c r="D710" s="2">
-        <v>0.3417731610243209</v>
+        <v>0.2809005390154198</v>
       </c>
       <c r="E710" s="2">
         <v>2090.700046596345</v>
@@ -17500,10 +17500,10 @@
         <v>12</v>
       </c>
       <c r="D711" s="2">
-        <v>0.3160929449950345</v>
+        <v>0.3399011259898543</v>
       </c>
       <c r="E711" s="2">
-        <v>2021.828896387994</v>
+        <v>2098.694639352564</v>
       </c>
       <c r="F711" s="2">
         <v>2098.694639352564</v>
@@ -17524,10 +17524,10 @@
         <v>13</v>
       </c>
       <c r="D712" s="2">
-        <v>0.3503398040193133</v>
+        <v>0.3581426360178739</v>
       </c>
       <c r="E712" s="2">
-        <v>2138.875347521247</v>
+        <v>2162.012203625968</v>
       </c>
       <c r="F712" s="2">
         <v>2162.012203625967</v>
@@ -17548,7 +17548,7 @@
         <v>14</v>
       </c>
       <c r="D713" s="2">
-        <v>0.3276910179993138</v>
+        <v>0.2825641899835318</v>
       </c>
       <c r="E713" s="2">
         <v>1855.99633284212</v>
@@ -17572,10 +17572,10 @@
         <v>15</v>
       </c>
       <c r="D714" s="2">
-        <v>0.302432163967751</v>
+        <v>0.2845489759929478</v>
       </c>
       <c r="E714" s="2">
-        <v>2117.159585583647</v>
+        <v>2152.977546274826</v>
       </c>
       <c r="F714" s="2">
         <v>2152.977546274826</v>
@@ -17596,7 +17596,7 @@
         <v>16</v>
       </c>
       <c r="D715" s="2">
-        <v>0.3377661379636265</v>
+        <v>0.3018991909921169</v>
       </c>
       <c r="E715" s="2">
         <v>2239.217572283548</v>
@@ -17620,7 +17620,7 @@
         <v>17</v>
       </c>
       <c r="D716" s="2">
-        <v>0.2751758840167895</v>
+        <v>0.3443815949722193</v>
       </c>
       <c r="E716" s="2">
         <v>2654.925654383775</v>
@@ -17644,7 +17644,7 @@
         <v>18</v>
       </c>
       <c r="D717" s="2">
-        <v>0.3131547110388055</v>
+        <v>0.3130237529985607</v>
       </c>
       <c r="E717" s="2">
         <v>1916.042287114699</v>
@@ -17668,7 +17668,7 @@
         <v>19</v>
       </c>
       <c r="D718" s="2">
-        <v>0.2739446010091342</v>
+        <v>0.2726671840064228</v>
       </c>
       <c r="E718" s="2">
         <v>2366.344453456522</v>
@@ -17692,7 +17692,7 @@
         <v>20</v>
       </c>
       <c r="D719" s="2">
-        <v>0.3453409429639578</v>
+        <v>0.3523015000391752</v>
       </c>
       <c r="E719" s="2">
         <v>1988.034409057532</v>
@@ -17716,10 +17716,10 @@
         <v>21</v>
       </c>
       <c r="D720" s="2">
-        <v>0.3394709050189704</v>
+        <v>0.2735443530254997</v>
       </c>
       <c r="E720" s="2">
-        <v>2091.674843840036</v>
+        <v>2159.736195700308</v>
       </c>
       <c r="F720" s="2">
         <v>2159.736195700307</v>
@@ -17740,7 +17740,7 @@
         <v>22</v>
       </c>
       <c r="D721" s="2">
-        <v>0.3183750390307978</v>
+        <v>0.3088835040107369</v>
       </c>
       <c r="E721" s="2">
         <v>1957.364604811929</v>
@@ -17764,10 +17764,10 @@
         <v>23</v>
       </c>
       <c r="D722" s="2">
-        <v>0.2996845690067858</v>
+        <v>0.3016665580216795</v>
       </c>
       <c r="E722" s="2">
-        <v>1977.346159493643</v>
+        <v>1984.19566232956</v>
       </c>
       <c r="F722" s="2">
         <v>1999.500988823737</v>
@@ -17788,7 +17788,7 @@
         <v>24</v>
       </c>
       <c r="D723" s="2">
-        <v>0.2576526740449481</v>
+        <v>0.2812869169865735</v>
       </c>
       <c r="E723" s="2">
         <v>1860.216024852007</v>
@@ -17812,7 +17812,7 @@
         <v>25</v>
       </c>
       <c r="D724" s="2">
-        <v>0.2706594549817964</v>
+        <v>0.3215708190109581</v>
       </c>
       <c r="E724" s="2">
         <v>2119.819988570566</v>
@@ -17836,7 +17836,7 @@
         <v>26</v>
       </c>
       <c r="D725" s="2">
-        <v>0.3050439849612303</v>
+        <v>0.313695253978949</v>
       </c>
       <c r="E725" s="2">
         <v>2797.265655451061</v>
@@ -17860,10 +17860,10 @@
         <v>27</v>
       </c>
       <c r="D726" s="2">
-        <v>0.2889426400070079</v>
+        <v>0.2840407029725611</v>
       </c>
       <c r="E726" s="2">
-        <v>2226.145034059944</v>
+        <v>2229.860544574427</v>
       </c>
       <c r="F726" s="2">
         <v>2229.860544574428</v>
@@ -17884,7 +17884,7 @@
         <v>28</v>
       </c>
       <c r="D727" s="2">
-        <v>0.3068033190211281</v>
+        <v>0.3162018040311523</v>
       </c>
       <c r="E727" s="2">
         <v>2351.606247694505</v>
@@ -17908,10 +17908,10 @@
         <v>29</v>
       </c>
       <c r="D728" s="2">
-        <v>0.3211360510322265</v>
+        <v>0.328996864031069</v>
       </c>
       <c r="E728" s="2">
-        <v>1613.23484365243</v>
+        <v>1671.37185218673</v>
       </c>
       <c r="F728" s="2">
         <v>1671.37185218673</v>
@@ -17932,10 +17932,10 @@
         <v>30</v>
       </c>
       <c r="D729" s="2">
-        <v>0.2968998299911618</v>
+        <v>0.3890423579723574</v>
       </c>
       <c r="E729" s="2">
-        <v>2200.607271855089</v>
+        <v>2298.909163551838</v>
       </c>
       <c r="F729" s="2">
         <v>2374.205047790111</v>

--- a/evaluator/report.xlsx
+++ b/evaluator/report.xlsx
@@ -442,7 +442,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>0.2982643869472668</v>
+        <v>0.3871700030285865</v>
       </c>
       <c r="E2" s="2">
         <v>1880.435550857422</v>
@@ -473,10 +473,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>0.2794465470360592</v>
+        <v>0.3227284320164472</v>
       </c>
       <c r="E3" s="2">
-        <v>2209.789164589809</v>
+        <v>2218.500638371392</v>
       </c>
       <c r="F3" s="2">
         <v>2218.500638371392</v>
@@ -504,10 +504,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>0.3614194119581953</v>
+        <v>0.2874018989969045</v>
       </c>
       <c r="E4" s="2">
-        <v>2215.856901222008</v>
+        <v>2215.856901222009</v>
       </c>
       <c r="F4" s="2">
         <v>2215.856901222008</v>
@@ -535,10 +535,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>0.2828152339789085</v>
+        <v>0.2924714230466634</v>
       </c>
       <c r="E5" s="2">
-        <v>2361.023448273613</v>
+        <v>2384.317398222061</v>
       </c>
       <c r="F5" s="2">
         <v>2384.317398222061</v>
@@ -559,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>0.2799429059959948</v>
+        <v>0.2894823449896649</v>
       </c>
       <c r="E6" s="2">
         <v>2482.994690262762</v>
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="2">
-        <v>0.2776640229858458</v>
+        <v>0.3238718759967014</v>
       </c>
       <c r="E7" s="2">
         <v>1854.185027252189</v>
@@ -621,7 +621,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="2">
-        <v>0.2766694360179827</v>
+        <v>0.3087131100473925</v>
       </c>
       <c r="E8" s="2">
         <v>1654.772496609385</v>
@@ -652,7 +652,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="2">
-        <v>0.3790494269924238</v>
+        <v>0.2967052089516073</v>
       </c>
       <c r="E9" s="2">
         <v>2566.452713978309</v>
@@ -676,7 +676,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>0.344419741013553</v>
+        <v>0.3267970370361581</v>
       </c>
       <c r="E10" s="2">
         <v>1824.123270611746</v>
@@ -700,10 +700,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="2">
-        <v>0.2921217550174333</v>
+        <v>0.3087914690840989</v>
       </c>
       <c r="E11" s="2">
-        <v>2461.819799417577</v>
+        <v>2461.819799417578</v>
       </c>
       <c r="F11" s="2">
         <v>2461.819799417578</v>
@@ -724,7 +724,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="2">
-        <v>0.321605539007578</v>
+        <v>0.3052310380153358</v>
       </c>
       <c r="E12" s="2">
         <v>1679.463243794904</v>
@@ -748,7 +748,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="2">
-        <v>0.3280204809852876</v>
+        <v>0.2828474279958755</v>
       </c>
       <c r="E13" s="2">
         <v>2288.763946670267</v>
@@ -772,7 +772,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="2">
-        <v>0.3682147570070811</v>
+        <v>0.2658650079974905</v>
       </c>
       <c r="E14" s="2">
         <v>1862.346206733525</v>
@@ -796,7 +796,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="2">
-        <v>0.3117113029584289</v>
+        <v>0.286002179956995</v>
       </c>
       <c r="E15" s="2">
         <v>2216.287921935182</v>
@@ -820,7 +820,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="2">
-        <v>0.2943215880077332</v>
+        <v>0.3594909940147772</v>
       </c>
       <c r="E16" s="2">
         <v>2136.604240860625</v>
@@ -844,7 +844,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="2">
-        <v>0.4024470099830069</v>
+        <v>0.3549337439471856</v>
       </c>
       <c r="E17" s="2">
         <v>2254.897660776275</v>
@@ -868,10 +868,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="2">
-        <v>0.3103241660282947</v>
+        <v>0.2933063929667696</v>
       </c>
       <c r="E18" s="2">
-        <v>1868.345382948391</v>
+        <v>1917.131395886052</v>
       </c>
       <c r="F18" s="2">
         <v>1917.131395886052</v>
@@ -892,10 +892,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="2">
-        <v>0.3956686420133337</v>
+        <v>0.305344901047647</v>
       </c>
       <c r="E19" s="2">
-        <v>1526.430456155588</v>
+        <v>1616.769684899359</v>
       </c>
       <c r="F19" s="2">
         <v>1616.769684899359</v>
@@ -916,7 +916,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="2">
-        <v>0.3155576200224459</v>
+        <v>0.3075080399867147</v>
       </c>
       <c r="E20" s="2">
         <v>2121.347531146519</v>
@@ -940,7 +940,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="2">
-        <v>0.3020210950053297</v>
+        <v>0.3269201170187443</v>
       </c>
       <c r="E21" s="2">
         <v>2146.2195250027</v>
@@ -964,7 +964,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="2">
-        <v>0.4169941039872356</v>
+        <v>0.296690201968886</v>
       </c>
       <c r="E22" s="2">
         <v>2291.843329263005</v>
@@ -988,7 +988,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="2">
-        <v>0.4087047189823352</v>
+        <v>0.2839818990323693</v>
       </c>
       <c r="E23" s="2">
         <v>2332.901090260365</v>
@@ -1012,7 +1012,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="2">
-        <v>0.4423752000438981</v>
+        <v>0.3186628120020032</v>
       </c>
       <c r="E24" s="2">
         <v>1847.758802812501</v>
@@ -1036,7 +1036,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="2">
-        <v>0.4221418829984032</v>
+        <v>0.2977968760533258</v>
       </c>
       <c r="E25" s="2">
         <v>2171.401305366864</v>
@@ -1060,7 +1060,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="2">
-        <v>0.4022896849783137</v>
+        <v>0.3238413450308144</v>
       </c>
       <c r="E26" s="2">
         <v>1882.822391520744</v>
@@ -1084,7 +1084,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="2">
-        <v>0.4035649899742566</v>
+        <v>0.2844164239941165</v>
       </c>
       <c r="E27" s="2">
         <v>1648.979333412594</v>
@@ -1108,10 +1108,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="2">
-        <v>0.3576804490294307</v>
+        <v>0.2969122530193999</v>
       </c>
       <c r="E28" s="2">
-        <v>2354.854187493614</v>
+        <v>2370.965285848897</v>
       </c>
       <c r="F28" s="2">
         <v>2370.965285848898</v>
@@ -1132,7 +1132,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="2">
-        <v>0.3666009370354004</v>
+        <v>0.3251819149591029</v>
       </c>
       <c r="E29" s="2">
         <v>2423.001308698957</v>
@@ -1156,7 +1156,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="2">
-        <v>0.3265246640075929</v>
+        <v>0.2737511349841952</v>
       </c>
       <c r="E30" s="2">
         <v>1881.938471915356</v>
@@ -1180,7 +1180,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="2">
-        <v>0.3898871070123278</v>
+        <v>0.3596879839897156</v>
       </c>
       <c r="E31" s="2">
         <v>2065.167075666091</v>
@@ -1204,10 +1204,10 @@
         <v>31</v>
       </c>
       <c r="D32" s="2">
-        <v>0.3929995950311422</v>
+        <v>0.3415632229298353</v>
       </c>
       <c r="E32" s="2">
-        <v>2419.164138974197</v>
+        <v>2483.174297421038</v>
       </c>
       <c r="F32" s="2">
         <v>2483.174297421038</v>
@@ -1228,10 +1228,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="2">
-        <v>0.4228442329913378</v>
+        <v>0.3604932039743289</v>
       </c>
       <c r="E33" s="2">
-        <v>1711.470662080815</v>
+        <v>1711.470662080814</v>
       </c>
       <c r="F33" s="2">
         <v>1711.470662080815</v>
@@ -1252,10 +1252,10 @@
         <v>2</v>
       </c>
       <c r="D34" s="2">
-        <v>0.2974419929669239</v>
+        <v>0.4181681959889829</v>
       </c>
       <c r="E34" s="2">
-        <v>2118.422882043289</v>
+        <v>2136.193681454619</v>
       </c>
       <c r="F34" s="2">
         <v>2136.193681454619</v>
@@ -1276,7 +1276,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.3181873870198615</v>
+        <v>0.3571614939719439</v>
       </c>
       <c r="E35" s="2">
         <v>2102.189835901266</v>
@@ -1300,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="2">
-        <v>0.2880348250037059</v>
+        <v>0.3964706909609959</v>
       </c>
       <c r="E36" s="2">
         <v>2203.501973267502</v>
@@ -1324,7 +1324,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="2">
-        <v>0.3215664210147224</v>
+        <v>0.3045557899167761</v>
       </c>
       <c r="E37" s="2">
         <v>2714.150611497831</v>
@@ -1348,7 +1348,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="2">
-        <v>0.3896229050005786</v>
+        <v>0.2881161980330944</v>
       </c>
       <c r="E38" s="2">
         <v>2133.933967373171</v>
@@ -1372,7 +1372,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="2">
-        <v>0.3479800769709982</v>
+        <v>0.3747258529765531</v>
       </c>
       <c r="E39" s="2">
         <v>2489.33801808722</v>
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D40" s="2">
-        <v>0.3755813589668833</v>
+        <v>0.3000095430761576</v>
       </c>
       <c r="E40" s="2">
-        <v>2474.073909637841</v>
+        <v>2474.073909637842</v>
       </c>
       <c r="F40" s="2">
         <v>2474.073909637841</v>
@@ -1420,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2">
-        <v>0.3900115739670582</v>
+        <v>0.3365621820557863</v>
       </c>
       <c r="E41" s="2">
         <v>2297.538032944231</v>
@@ -1444,7 +1444,7 @@
         <v>10</v>
       </c>
       <c r="D42" s="2">
-        <v>0.4139050379744731</v>
+        <v>0.3775725850136951</v>
       </c>
       <c r="E42" s="2">
         <v>2058.897258688759</v>
@@ -1468,10 +1468,10 @@
         <v>11</v>
       </c>
       <c r="D43" s="2">
-        <v>0.377311379997991</v>
+        <v>0.3106993810506538</v>
       </c>
       <c r="E43" s="2">
-        <v>2188.519720405294</v>
+        <v>2188.519720405295</v>
       </c>
       <c r="F43" s="2">
         <v>2188.519720405295</v>
@@ -1492,7 +1492,7 @@
         <v>12</v>
       </c>
       <c r="D44" s="2">
-        <v>0.3335470140445977</v>
+        <v>0.3490398100111634</v>
       </c>
       <c r="E44" s="2">
         <v>3050.04982739275</v>
@@ -1516,7 +1516,7 @@
         <v>13</v>
       </c>
       <c r="D45" s="2">
-        <v>0.4181929909973405</v>
+        <v>0.3965213020564988</v>
       </c>
       <c r="E45" s="2">
         <v>2443.454107267583</v>
@@ -1540,10 +1540,10 @@
         <v>14</v>
       </c>
       <c r="D46" s="2">
-        <v>0.4312384449876845</v>
+        <v>0.3511771680787206</v>
       </c>
       <c r="E46" s="2">
-        <v>2042.556942739235</v>
+        <v>2103.347035641125</v>
       </c>
       <c r="F46" s="2">
         <v>2103.347035641124</v>
@@ -1564,7 +1564,7 @@
         <v>15</v>
       </c>
       <c r="D47" s="2">
-        <v>0.3816296639852226</v>
+        <v>0.5161669419612736</v>
       </c>
       <c r="E47" s="2">
         <v>3050.793778149115</v>
@@ -1588,7 +1588,7 @@
         <v>16</v>
       </c>
       <c r="D48" s="2">
-        <v>0.3972797770402394</v>
+        <v>0.3289577070390806</v>
       </c>
       <c r="E48" s="2">
         <v>2444.094014359898</v>
@@ -1612,10 +1612,10 @@
         <v>17</v>
       </c>
       <c r="D49" s="2">
-        <v>0.3724232759559527</v>
+        <v>0.3852878430625424</v>
       </c>
       <c r="E49" s="2">
-        <v>1998.027313893678</v>
+        <v>2021.316244151838</v>
       </c>
       <c r="F49" s="2">
         <v>2021.316244151838</v>
@@ -1636,10 +1636,10 @@
         <v>18</v>
       </c>
       <c r="D50" s="2">
-        <v>0.32971409894526</v>
+        <v>0.3985864369897172</v>
       </c>
       <c r="E50" s="2">
-        <v>2410.892457577988</v>
+        <v>2412.633415006096</v>
       </c>
       <c r="F50" s="2">
         <v>2412.633415006097</v>
@@ -1660,7 +1660,7 @@
         <v>19</v>
       </c>
       <c r="D51" s="2">
-        <v>0.3192070020013489</v>
+        <v>0.4421636780025437</v>
       </c>
       <c r="E51" s="2">
         <v>2101.961259957808</v>
@@ -1684,7 +1684,7 @@
         <v>20</v>
       </c>
       <c r="D52" s="2">
-        <v>0.2920809279894456</v>
+        <v>0.2967675790423527</v>
       </c>
       <c r="E52" s="2">
         <v>2390.705024767527</v>
@@ -1708,10 +1708,10 @@
         <v>21</v>
       </c>
       <c r="D53" s="2">
-        <v>0.3295203309971839</v>
+        <v>0.3091114140115678</v>
       </c>
       <c r="E53" s="2">
-        <v>2319.585150823171</v>
+        <v>2384.477517002012</v>
       </c>
       <c r="F53" s="2">
         <v>2384.477517002012</v>
@@ -1732,7 +1732,7 @@
         <v>22</v>
       </c>
       <c r="D54" s="2">
-        <v>0.4032715040375479</v>
+        <v>0.3291909210383892</v>
       </c>
       <c r="E54" s="2">
         <v>2024.522265184489</v>
@@ -1756,7 +1756,7 @@
         <v>23</v>
       </c>
       <c r="D55" s="2">
-        <v>0.4246261030202731</v>
+        <v>0.322307977010496</v>
       </c>
       <c r="E55" s="2">
         <v>2099.786323386943</v>
@@ -1780,10 +1780,10 @@
         <v>24</v>
       </c>
       <c r="D56" s="2">
-        <v>0.3559690829715692</v>
+        <v>0.3425603810464963</v>
       </c>
       <c r="E56" s="2">
-        <v>2428.836695640346</v>
+        <v>2428.836695640345</v>
       </c>
       <c r="F56" s="2">
         <v>2428.836695640346</v>
@@ -1804,10 +1804,10 @@
         <v>25</v>
       </c>
       <c r="D57" s="2">
-        <v>0.32653720601229</v>
+        <v>0.3333612920250744</v>
       </c>
       <c r="E57" s="2">
-        <v>1926.581528593573</v>
+        <v>1936.958929914982</v>
       </c>
       <c r="F57" s="2">
         <v>1936.958929914982</v>
@@ -1828,7 +1828,7 @@
         <v>26</v>
       </c>
       <c r="D58" s="2">
-        <v>0.3405769320088439</v>
+        <v>0.354248384013772</v>
       </c>
       <c r="E58" s="2">
         <v>2807.576551111727</v>
@@ -1852,7 +1852,7 @@
         <v>27</v>
       </c>
       <c r="D59" s="2">
-        <v>0.277533297019545</v>
+        <v>0.3655604630475864</v>
       </c>
       <c r="E59" s="2">
         <v>2173.794976383858</v>
@@ -1876,7 +1876,7 @@
         <v>28</v>
       </c>
       <c r="D60" s="2">
-        <v>0.3290812429622747</v>
+        <v>0.3648923890432343</v>
       </c>
       <c r="E60" s="2">
         <v>2218.270608169488</v>
@@ -1900,10 +1900,10 @@
         <v>1</v>
       </c>
       <c r="D61" s="2">
-        <v>0.3717547770356759</v>
+        <v>0.4071388699812815</v>
       </c>
       <c r="E61" s="2">
-        <v>1902.305006827193</v>
+        <v>2012.97839170426</v>
       </c>
       <c r="F61" s="2">
         <v>2012.978391704259</v>
@@ -1924,10 +1924,10 @@
         <v>2</v>
       </c>
       <c r="D62" s="2">
-        <v>0.3288540710345842</v>
+        <v>0.3002203399082646</v>
       </c>
       <c r="E62" s="2">
-        <v>2012.707361204144</v>
+        <v>2051.283450228911</v>
       </c>
       <c r="F62" s="2">
         <v>2051.283450228911</v>
@@ -1948,10 +1948,10 @@
         <v>3</v>
       </c>
       <c r="D63" s="2">
-        <v>0.4033884910168126</v>
+        <v>0.3145470450399444</v>
       </c>
       <c r="E63" s="2">
-        <v>2088.818006118528</v>
+        <v>2177.07886467898</v>
       </c>
       <c r="F63" s="2">
         <v>2177.07886467898</v>
@@ -1972,10 +1972,10 @@
         <v>4</v>
       </c>
       <c r="D64" s="2">
-        <v>0.3477554469718598</v>
+        <v>0.2743825399084017</v>
       </c>
       <c r="E64" s="2">
-        <v>2665.347329348983</v>
+        <v>2665.347329348984</v>
       </c>
       <c r="F64" s="2">
         <v>2665.347329348984</v>
@@ -1996,10 +1996,10 @@
         <v>5</v>
       </c>
       <c r="D65" s="2">
-        <v>0.334277817979455</v>
+        <v>0.3464169129729271</v>
       </c>
       <c r="E65" s="2">
-        <v>1792.582924883985</v>
+        <v>1792.582924883986</v>
       </c>
       <c r="F65" s="2">
         <v>1792.582924883985</v>
@@ -2020,7 +2020,7 @@
         <v>6</v>
       </c>
       <c r="D66" s="2">
-        <v>0.3144629030139185</v>
+        <v>0.2837212079903111</v>
       </c>
       <c r="E66" s="2">
         <v>2558.155264972005</v>
@@ -2044,7 +2044,7 @@
         <v>7</v>
       </c>
       <c r="D67" s="2">
-        <v>0.2992191800149158</v>
+        <v>0.3914859960786998</v>
       </c>
       <c r="E67" s="2">
         <v>2279.502128405958</v>
@@ -2068,10 +2068,10 @@
         <v>8</v>
       </c>
       <c r="D68" s="2">
-        <v>0.2995958529645577</v>
+        <v>0.4281948789721355</v>
       </c>
       <c r="E68" s="2">
-        <v>1998.080267334324</v>
+        <v>1998.080267334325</v>
       </c>
       <c r="F68" s="2">
         <v>1998.080267334325</v>
@@ -2092,7 +2092,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2">
-        <v>0.3489796299836598</v>
+        <v>0.2969673499464989</v>
       </c>
       <c r="E69" s="2">
         <v>1877.620855618634</v>
@@ -2116,7 +2116,7 @@
         <v>10</v>
       </c>
       <c r="D70" s="2">
-        <v>0.2734162719571032</v>
+        <v>0.2917983969673514</v>
       </c>
       <c r="E70" s="2">
         <v>2098.222583572444</v>
@@ -2140,7 +2140,7 @@
         <v>11</v>
       </c>
       <c r="D71" s="2">
-        <v>0.3372361470246688</v>
+        <v>0.3225750830024481</v>
       </c>
       <c r="E71" s="2">
         <v>2106.175016203057</v>
@@ -2164,10 +2164,10 @@
         <v>12</v>
       </c>
       <c r="D72" s="2">
-        <v>0.3461195620475337</v>
+        <v>0.2813948799157515</v>
       </c>
       <c r="E72" s="2">
-        <v>1914.962486149352</v>
+        <v>2031.893076927213</v>
       </c>
       <c r="F72" s="2">
         <v>2031.893076927213</v>
@@ -2188,7 +2188,7 @@
         <v>13</v>
       </c>
       <c r="D73" s="2">
-        <v>0.3427026129793376</v>
+        <v>0.3116446459898725</v>
       </c>
       <c r="E73" s="2">
         <v>1887.246353673753</v>
@@ -2212,10 +2212,10 @@
         <v>14</v>
       </c>
       <c r="D74" s="2">
-        <v>0.3635548509773798</v>
+        <v>0.3013033459428698</v>
       </c>
       <c r="E74" s="2">
-        <v>2230.013381063998</v>
+        <v>2349.957321814068</v>
       </c>
       <c r="F74" s="2">
         <v>2349.957321814068</v>
@@ -2236,10 +2236,10 @@
         <v>15</v>
       </c>
       <c r="D75" s="2">
-        <v>0.3363425289862789</v>
+        <v>0.3529373989440501</v>
       </c>
       <c r="E75" s="2">
-        <v>1970.128335140141</v>
+        <v>1973.582378564819</v>
       </c>
       <c r="F75" s="2">
         <v>1973.582378564819</v>
@@ -2260,7 +2260,7 @@
         <v>16</v>
       </c>
       <c r="D76" s="2">
-        <v>0.3166305680060759</v>
+        <v>0.3696355350548401</v>
       </c>
       <c r="E76" s="2">
         <v>2264.133558128131</v>
@@ -2284,7 +2284,7 @@
         <v>17</v>
       </c>
       <c r="D77" s="2">
-        <v>0.3537713930127211</v>
+        <v>0.3258620159467682</v>
       </c>
       <c r="E77" s="2">
         <v>2266.682273977592</v>
@@ -2308,10 +2308,10 @@
         <v>18</v>
       </c>
       <c r="D78" s="2">
-        <v>0.2960162080125883</v>
+        <v>0.3388261119835079</v>
       </c>
       <c r="E78" s="2">
-        <v>2063.525757721984</v>
+        <v>2071.209564129969</v>
       </c>
       <c r="F78" s="2">
         <v>2071.209564129969</v>
@@ -2332,10 +2332,10 @@
         <v>19</v>
       </c>
       <c r="D79" s="2">
-        <v>0.3836526710074395</v>
+        <v>0.4014118299819529</v>
       </c>
       <c r="E79" s="2">
-        <v>2240.622699550351</v>
+        <v>2272.493067013165</v>
       </c>
       <c r="F79" s="2">
         <v>2272.493067013165</v>
@@ -2356,10 +2356,10 @@
         <v>20</v>
       </c>
       <c r="D80" s="2">
-        <v>0.2807527919649146</v>
+        <v>0.352004932006821</v>
       </c>
       <c r="E80" s="2">
-        <v>2138.034329629542</v>
+        <v>2141.589678787966</v>
       </c>
       <c r="F80" s="2">
         <v>2141.589678787966</v>
@@ -2380,7 +2380,7 @@
         <v>21</v>
       </c>
       <c r="D81" s="2">
-        <v>0.3361633330350742</v>
+        <v>0.3094593220157549</v>
       </c>
       <c r="E81" s="2">
         <v>1716.756435372441</v>
@@ -2404,7 +2404,7 @@
         <v>22</v>
       </c>
       <c r="D82" s="2">
-        <v>0.3373293180484325</v>
+        <v>0.3526541769970208</v>
       </c>
       <c r="E82" s="2">
         <v>2496.082027805238</v>
@@ -2428,10 +2428,10 @@
         <v>23</v>
       </c>
       <c r="D83" s="2">
-        <v>0.3073506929795258</v>
+        <v>0.3146880409913138</v>
       </c>
       <c r="E83" s="2">
-        <v>1841.750556708411</v>
+        <v>1884.280234180581</v>
       </c>
       <c r="F83" s="2">
         <v>1884.280234180581</v>
@@ -2452,7 +2452,7 @@
         <v>24</v>
       </c>
       <c r="D84" s="2">
-        <v>0.2790773580200039</v>
+        <v>0.38500855199527</v>
       </c>
       <c r="E84" s="2">
         <v>2388.319351679737</v>
@@ -2476,7 +2476,7 @@
         <v>25</v>
       </c>
       <c r="D85" s="2">
-        <v>0.2850429069949314</v>
+        <v>0.3858257199171931</v>
       </c>
       <c r="E85" s="2">
         <v>1948.509152029312</v>
@@ -2500,7 +2500,7 @@
         <v>26</v>
       </c>
       <c r="D86" s="2">
-        <v>0.3238266489934176</v>
+        <v>0.4274311769986525</v>
       </c>
       <c r="E86" s="2">
         <v>2414.001948554051</v>
@@ -2524,10 +2524,10 @@
         <v>27</v>
       </c>
       <c r="D87" s="2">
-        <v>0.3111484560067765</v>
+        <v>0.4428363060578704</v>
       </c>
       <c r="E87" s="2">
-        <v>1583.721417268121</v>
+        <v>1734.229765413779</v>
       </c>
       <c r="F87" s="2">
         <v>1734.229765413779</v>
@@ -2548,7 +2548,7 @@
         <v>28</v>
       </c>
       <c r="D88" s="2">
-        <v>0.3171507429797202</v>
+        <v>0.4103653259808198</v>
       </c>
       <c r="E88" s="2">
         <v>2071.664874776551</v>
@@ -2572,10 +2572,10 @@
         <v>29</v>
       </c>
       <c r="D89" s="2">
-        <v>0.2987769159954041</v>
+        <v>0.3245966939721256</v>
       </c>
       <c r="E89" s="2">
-        <v>1912.792967357863</v>
+        <v>1920.681444017423</v>
       </c>
       <c r="F89" s="2">
         <v>1920.681444017422</v>
@@ -2596,10 +2596,10 @@
         <v>30</v>
       </c>
       <c r="D90" s="2">
-        <v>0.2726751979789697</v>
+        <v>0.3027098850579932</v>
       </c>
       <c r="E90" s="2">
-        <v>2533.411179993872</v>
+        <v>2533.411179993873</v>
       </c>
       <c r="F90" s="2">
         <v>2533.411179993873</v>
@@ -2620,7 +2620,7 @@
         <v>31</v>
       </c>
       <c r="D91" s="2">
-        <v>0.2788505959906615</v>
+        <v>0.3829999930458143</v>
       </c>
       <c r="E91" s="2">
         <v>2147.713192533203</v>
@@ -2644,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="2">
-        <v>0.2975417550187558</v>
+        <v>0.420752831036225</v>
       </c>
       <c r="E92" s="2">
         <v>2433.830881494296</v>
@@ -2668,10 +2668,10 @@
         <v>2</v>
       </c>
       <c r="D93" s="2">
-        <v>0.2954994169995189</v>
+        <v>0.4703766870079562</v>
       </c>
       <c r="E93" s="2">
-        <v>2407.312547262954</v>
+        <v>2407.312547262955</v>
       </c>
       <c r="F93" s="2">
         <v>2407.312547262954</v>
@@ -2692,7 +2692,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="2">
-        <v>0.3180155360023491</v>
+        <v>0.4237692909082398</v>
       </c>
       <c r="E94" s="2">
         <v>2161.049146836328</v>
@@ -2716,10 +2716,10 @@
         <v>4</v>
       </c>
       <c r="D95" s="2">
-        <v>0.2737586550065316</v>
+        <v>0.4287210939219221</v>
       </c>
       <c r="E95" s="2">
-        <v>2274.810720700574</v>
+        <v>2274.810720700573</v>
       </c>
       <c r="F95" s="2">
         <v>2274.810720700574</v>
@@ -2740,7 +2740,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="2">
-        <v>0.3972520700190216</v>
+        <v>0.3372850299347192</v>
       </c>
       <c r="E96" s="2">
         <v>2607.343398394959</v>
@@ -2764,7 +2764,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="2">
-        <v>0.4384485009941272</v>
+        <v>0.366325129987672</v>
       </c>
       <c r="E97" s="2">
         <v>2672.076539446277</v>
@@ -2788,10 +2788,10 @@
         <v>7</v>
       </c>
       <c r="D98" s="2">
-        <v>0.3921564529882744</v>
+        <v>0.318239371990785</v>
       </c>
       <c r="E98" s="2">
-        <v>2286.307121135007</v>
+        <v>2311.581861488191</v>
       </c>
       <c r="F98" s="2">
         <v>2311.581861488191</v>
@@ -2812,7 +2812,7 @@
         <v>8</v>
       </c>
       <c r="D99" s="2">
-        <v>0.3848939589806832</v>
+        <v>0.467446374008432</v>
       </c>
       <c r="E99" s="2">
         <v>2052.676109092337</v>
@@ -2836,7 +2836,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2">
-        <v>0.3047072360059246</v>
+        <v>0.310319921001792</v>
       </c>
       <c r="E100" s="2">
         <v>2042.369788350777</v>
@@ -2860,7 +2860,7 @@
         <v>10</v>
       </c>
       <c r="D101" s="2">
-        <v>0.3995406400063075</v>
+        <v>0.3362148120068014</v>
       </c>
       <c r="E101" s="2">
         <v>2716.566971935454</v>
@@ -2884,7 +2884,7 @@
         <v>11</v>
       </c>
       <c r="D102" s="2">
-        <v>0.3602861849940382</v>
+        <v>0.5843759020790458</v>
       </c>
       <c r="E102" s="2">
         <v>2085.687588938484</v>
@@ -2908,10 +2908,10 @@
         <v>12</v>
       </c>
       <c r="D103" s="2">
-        <v>0.3475445299991407</v>
+        <v>0.3103023279691115</v>
       </c>
       <c r="E103" s="2">
-        <v>2429.627918202867</v>
+        <v>2456.689901301213</v>
       </c>
       <c r="F103" s="2">
         <v>2456.689901301215</v>
@@ -2932,7 +2932,7 @@
         <v>13</v>
       </c>
       <c r="D104" s="2">
-        <v>0.3721591489738785</v>
+        <v>0.3175308209611103</v>
       </c>
       <c r="E104" s="2">
         <v>1992.452481926058</v>
@@ -2956,10 +2956,10 @@
         <v>14</v>
       </c>
       <c r="D105" s="2">
-        <v>0.2741278870380484</v>
+        <v>0.3362692180089653</v>
       </c>
       <c r="E105" s="2">
-        <v>1775.377912513383</v>
+        <v>1784.958332873223</v>
       </c>
       <c r="F105" s="2">
         <v>1784.958332873223</v>
@@ -2980,10 +2980,10 @@
         <v>15</v>
       </c>
       <c r="D106" s="2">
-        <v>0.3099565450102091</v>
+        <v>0.2974505659658462</v>
       </c>
       <c r="E106" s="2">
-        <v>2113.64998752209</v>
+        <v>2113.649987522091</v>
       </c>
       <c r="F106" s="2">
         <v>2113.649987522091</v>
@@ -3004,10 +3004,10 @@
         <v>16</v>
       </c>
       <c r="D107" s="2">
-        <v>0.285577426024247</v>
+        <v>0.3137226869584993</v>
       </c>
       <c r="E107" s="2">
-        <v>2834.04264805631</v>
+        <v>2834.042648056311</v>
       </c>
       <c r="F107" s="2">
         <v>2834.04264805631</v>
@@ -3028,7 +3028,7 @@
         <v>17</v>
       </c>
       <c r="D108" s="2">
-        <v>0.3719226969988085</v>
+        <v>0.2969134900486097</v>
       </c>
       <c r="E108" s="2">
         <v>2203.992252756309</v>
@@ -3052,10 +3052,10 @@
         <v>18</v>
       </c>
       <c r="D109" s="2">
-        <v>0.3509082400123589</v>
+        <v>0.343322537955828</v>
       </c>
       <c r="E109" s="2">
-        <v>2620.539885587585</v>
+        <v>2646.171754674238</v>
       </c>
       <c r="F109" s="2">
         <v>2646.171754674239</v>
@@ -3076,7 +3076,7 @@
         <v>19</v>
       </c>
       <c r="D110" s="2">
-        <v>0.3257922580232844</v>
+        <v>0.3793981629423797</v>
       </c>
       <c r="E110" s="2">
         <v>2461.999712234548</v>
@@ -3100,10 +3100,10 @@
         <v>20</v>
       </c>
       <c r="D111" s="2">
-        <v>0.3159277269733138</v>
+        <v>0.3663797810440883</v>
       </c>
       <c r="E111" s="2">
-        <v>1916.83243327673</v>
+        <v>1994.718661832442</v>
       </c>
       <c r="F111" s="2">
         <v>1994.718661832441</v>
@@ -3124,10 +3124,10 @@
         <v>21</v>
       </c>
       <c r="D112" s="2">
-        <v>0.3610993090551347</v>
+        <v>0.3072497209068388</v>
       </c>
       <c r="E112" s="2">
-        <v>2241.296260354189</v>
+        <v>2310.970542376888</v>
       </c>
       <c r="F112" s="2">
         <v>2310.970542376887</v>
@@ -3148,10 +3148,10 @@
         <v>22</v>
       </c>
       <c r="D113" s="2">
-        <v>0.4002143659745343</v>
+        <v>0.3462197670014575</v>
       </c>
       <c r="E113" s="2">
-        <v>2244.904959705802</v>
+        <v>2244.904959705801</v>
       </c>
       <c r="F113" s="2">
         <v>2244.904959705802</v>
@@ -3172,10 +3172,10 @@
         <v>23</v>
       </c>
       <c r="D114" s="2">
-        <v>0.2880810610367917</v>
+        <v>0.4293927019461989</v>
       </c>
       <c r="E114" s="2">
-        <v>2133.542564063142</v>
+        <v>2133.542564063141</v>
       </c>
       <c r="F114" s="2">
         <v>2133.542564063141</v>
@@ -3196,7 +3196,7 @@
         <v>24</v>
       </c>
       <c r="D115" s="2">
-        <v>0.3676324849948287</v>
+        <v>0.4924964199308306</v>
       </c>
       <c r="E115" s="2">
         <v>2257.42201103168</v>
@@ -3220,10 +3220,10 @@
         <v>25</v>
       </c>
       <c r="D116" s="2">
-        <v>0.2744974870001897</v>
+        <v>0.3313250149367377</v>
       </c>
       <c r="E116" s="2">
-        <v>2015.924923223921</v>
+        <v>2015.92492322392</v>
       </c>
       <c r="F116" s="2">
         <v>2015.924923223921</v>
@@ -3244,7 +3244,7 @@
         <v>26</v>
       </c>
       <c r="D117" s="2">
-        <v>0.3811821310082451</v>
+        <v>0.2954280630219728</v>
       </c>
       <c r="E117" s="2">
         <v>1996.43952347533</v>
@@ -3268,7 +3268,7 @@
         <v>27</v>
       </c>
       <c r="D118" s="2">
-        <v>0.2860900409868918</v>
+        <v>0.3752201079623774</v>
       </c>
       <c r="E118" s="2">
         <v>2444.065364822866</v>
@@ -3292,7 +3292,7 @@
         <v>28</v>
       </c>
       <c r="D119" s="2">
-        <v>0.3107573000015691</v>
+        <v>0.361503925989382</v>
       </c>
       <c r="E119" s="2">
         <v>2381.746515335734</v>
@@ -3316,10 +3316,10 @@
         <v>29</v>
       </c>
       <c r="D120" s="2">
-        <v>0.3240835290052928</v>
+        <v>0.2808626500191167</v>
       </c>
       <c r="E120" s="2">
-        <v>2123.649022426199</v>
+        <v>2123.649022426198</v>
       </c>
       <c r="F120" s="2">
         <v>2123.649022426198</v>
@@ -3340,10 +3340,10 @@
         <v>30</v>
       </c>
       <c r="D121" s="2">
-        <v>0.2836987699847668</v>
+        <v>0.3190236130030826</v>
       </c>
       <c r="E121" s="2">
-        <v>2314.478339520134</v>
+        <v>2318.198043567214</v>
       </c>
       <c r="F121" s="2">
         <v>2318.198043567214</v>
@@ -3364,10 +3364,10 @@
         <v>1</v>
       </c>
       <c r="D122" s="2">
-        <v>0.2679695709957741</v>
+        <v>0.3676476179389283</v>
       </c>
       <c r="E122" s="2">
-        <v>2075.800766680406</v>
+        <v>2076.316497045639</v>
       </c>
       <c r="F122" s="2">
         <v>2076.316497045639</v>
@@ -3388,7 +3388,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="2">
-        <v>0.2752547489944845</v>
+        <v>0.35407602309715</v>
       </c>
       <c r="E123" s="2">
         <v>2637.105224516816</v>
@@ -3412,7 +3412,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="2">
-        <v>0.3419693899923004</v>
+        <v>0.4864250291138887</v>
       </c>
       <c r="E124" s="2">
         <v>1932.816488470707</v>
@@ -3436,10 +3436,10 @@
         <v>4</v>
       </c>
       <c r="D125" s="2">
-        <v>0.2956724170362577</v>
+        <v>0.3781978709157556</v>
       </c>
       <c r="E125" s="2">
-        <v>2038.670599571131</v>
+        <v>2117.039238512003</v>
       </c>
       <c r="F125" s="2">
         <v>2117.039238512004</v>
@@ -3460,10 +3460,10 @@
         <v>5</v>
       </c>
       <c r="D126" s="2">
-        <v>0.3762431089999154</v>
+        <v>0.3594905759673566</v>
       </c>
       <c r="E126" s="2">
-        <v>1855.674250348549</v>
+        <v>1877.159737608009</v>
       </c>
       <c r="F126" s="2">
         <v>1877.159737608009</v>
@@ -3484,10 +3484,10 @@
         <v>6</v>
       </c>
       <c r="D127" s="2">
-        <v>0.2963626450509764</v>
+        <v>0.3522028980078176</v>
       </c>
       <c r="E127" s="2">
-        <v>1880.899116023982</v>
+        <v>1880.899116023981</v>
       </c>
       <c r="F127" s="2">
         <v>1880.899116023981</v>
@@ -3508,7 +3508,7 @@
         <v>7</v>
       </c>
       <c r="D128" s="2">
-        <v>0.3642317180056125</v>
+        <v>0.29245137097314</v>
       </c>
       <c r="E128" s="2">
         <v>2736.651241663402</v>
@@ -3532,10 +3532,10 @@
         <v>8</v>
       </c>
       <c r="D129" s="2">
-        <v>0.2726394810015336</v>
+        <v>0.3234069229802117</v>
       </c>
       <c r="E129" s="2">
-        <v>2554.67561455142</v>
+        <v>2554.675614551421</v>
       </c>
       <c r="F129" s="2">
         <v>2554.675614551421</v>
@@ -3556,7 +3556,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="2">
-        <v>0.3303597340127453</v>
+        <v>0.4573867119615898</v>
       </c>
       <c r="E130" s="2">
         <v>2105.092439492814</v>
@@ -3580,7 +3580,7 @@
         <v>10</v>
       </c>
       <c r="D131" s="2">
-        <v>0.3177534340065904</v>
+        <v>0.3199260840192437</v>
       </c>
       <c r="E131" s="2">
         <v>2570.365951124642</v>
@@ -3604,7 +3604,7 @@
         <v>11</v>
       </c>
       <c r="D132" s="2">
-        <v>0.3081763890222646</v>
+        <v>0.4127069250680506</v>
       </c>
       <c r="E132" s="2">
         <v>2409.85761794789</v>
@@ -3628,7 +3628,7 @@
         <v>12</v>
       </c>
       <c r="D133" s="2">
-        <v>0.2780181959969923</v>
+        <v>0.3036602280335501</v>
       </c>
       <c r="E133" s="2">
         <v>1934.38381936655</v>
@@ -3652,10 +3652,10 @@
         <v>13</v>
       </c>
       <c r="D134" s="2">
-        <v>0.3245418360456824</v>
+        <v>0.3840371660189703</v>
       </c>
       <c r="E134" s="2">
-        <v>1850.504623548576</v>
+        <v>1850.504623548575</v>
       </c>
       <c r="F134" s="2">
         <v>1850.504623548575</v>
@@ -3676,7 +3676,7 @@
         <v>14</v>
       </c>
       <c r="D135" s="2">
-        <v>0.2963319080299698</v>
+        <v>0.3464088679756969</v>
       </c>
       <c r="E135" s="2">
         <v>1722.693213533703</v>
@@ -3700,10 +3700,10 @@
         <v>15</v>
       </c>
       <c r="D136" s="2">
-        <v>0.3137755710049532</v>
+        <v>0.3198596009751782</v>
       </c>
       <c r="E136" s="2">
-        <v>1586.41210042568</v>
+        <v>1645.90901948052</v>
       </c>
       <c r="F136" s="2">
         <v>1645.909019480519</v>
@@ -3724,7 +3724,7 @@
         <v>16</v>
       </c>
       <c r="D137" s="2">
-        <v>0.2910759339574724</v>
+        <v>0.3663957879180089</v>
       </c>
       <c r="E137" s="2">
         <v>2377.936871718181</v>
@@ -3748,7 +3748,7 @@
         <v>17</v>
       </c>
       <c r="D138" s="2">
-        <v>0.3098454740247689</v>
+        <v>0.3101759880082682</v>
       </c>
       <c r="E138" s="2">
         <v>1987.889713887698</v>
@@ -3772,7 +3772,7 @@
         <v>18</v>
       </c>
       <c r="D139" s="2">
-        <v>0.2954110599821433</v>
+        <v>0.3411403559148312</v>
       </c>
       <c r="E139" s="2">
         <v>2174.201807454974</v>
@@ -3796,7 +3796,7 @@
         <v>19</v>
       </c>
       <c r="D140" s="2">
-        <v>0.3063577690045349</v>
+        <v>0.3504775270121172</v>
       </c>
       <c r="E140" s="2">
         <v>1792.325560238323</v>
@@ -3820,7 +3820,7 @@
         <v>20</v>
       </c>
       <c r="D141" s="2">
-        <v>0.3054191709961742</v>
+        <v>0.3714728950290009</v>
       </c>
       <c r="E141" s="2">
         <v>2137.947358172481</v>
@@ -3844,10 +3844,10 @@
         <v>21</v>
       </c>
       <c r="D142" s="2">
-        <v>0.3810175789985806</v>
+        <v>0.3879330690251663</v>
       </c>
       <c r="E142" s="2">
-        <v>2387.941141580944</v>
+        <v>2387.941141580945</v>
       </c>
       <c r="F142" s="2">
         <v>2387.941141580944</v>
@@ -3868,7 +3868,7 @@
         <v>22</v>
       </c>
       <c r="D143" s="2">
-        <v>0.3104291560011916</v>
+        <v>0.4123153060209006</v>
       </c>
       <c r="E143" s="2">
         <v>2425.501270226095</v>
@@ -3892,7 +3892,7 @@
         <v>23</v>
       </c>
       <c r="D144" s="2">
-        <v>0.367364575038664</v>
+        <v>0.3449990749359131</v>
       </c>
       <c r="E144" s="2">
         <v>2241.764530155728</v>
@@ -3916,7 +3916,7 @@
         <v>24</v>
       </c>
       <c r="D145" s="2">
-        <v>0.3626995619852096</v>
+        <v>0.3064854830736294</v>
       </c>
       <c r="E145" s="2">
         <v>2350.55363672152</v>
@@ -3940,10 +3940,10 @@
         <v>25</v>
       </c>
       <c r="D146" s="2">
-        <v>0.3013882579980418</v>
+        <v>0.345521752955392</v>
       </c>
       <c r="E146" s="2">
-        <v>2391.948266752825</v>
+        <v>2391.948266752824</v>
       </c>
       <c r="F146" s="2">
         <v>2391.948266752824</v>
@@ -3964,10 +3964,10 @@
         <v>26</v>
       </c>
       <c r="D147" s="2">
-        <v>0.3949102949700318</v>
+        <v>0.3402600779663771</v>
       </c>
       <c r="E147" s="2">
-        <v>1933.589051501662</v>
+        <v>1959.570186195937</v>
       </c>
       <c r="F147" s="2">
         <v>1959.570186195936</v>
@@ -3988,10 +3988,10 @@
         <v>27</v>
       </c>
       <c r="D148" s="2">
-        <v>0.4963620590278879</v>
+        <v>0.371815956896171</v>
       </c>
       <c r="E148" s="2">
-        <v>2135.565239146403</v>
+        <v>2144.407151098665</v>
       </c>
       <c r="F148" s="2">
         <v>2144.407151098664</v>
@@ -4012,7 +4012,7 @@
         <v>28</v>
       </c>
       <c r="D149" s="2">
-        <v>0.3550093690282665</v>
+        <v>0.3492397739319131</v>
       </c>
       <c r="E149" s="2">
         <v>2163.008743013525</v>
@@ -4036,7 +4036,7 @@
         <v>29</v>
       </c>
       <c r="D150" s="2">
-        <v>0.3269899829756469</v>
+        <v>0.3903748750453815</v>
       </c>
       <c r="E150" s="2">
         <v>2072.340714304084</v>
@@ -4060,7 +4060,7 @@
         <v>30</v>
       </c>
       <c r="D151" s="2">
-        <v>0.3288404479972087</v>
+        <v>0.3251114740269259</v>
       </c>
       <c r="E151" s="2">
         <v>1799.972058205954</v>
@@ -4084,7 +4084,7 @@
         <v>31</v>
       </c>
       <c r="D152" s="2">
-        <v>0.3094386250013486</v>
+        <v>0.3035884849959984</v>
       </c>
       <c r="E152" s="2">
         <v>2159.411837019392</v>
@@ -4108,10 +4108,10 @@
         <v>1</v>
       </c>
       <c r="D153" s="2">
-        <v>0.2863977370434441</v>
+        <v>0.3632471030578017</v>
       </c>
       <c r="E153" s="2">
-        <v>2138.319176076757</v>
+        <v>2196.282651656764</v>
       </c>
       <c r="F153" s="2">
         <v>2196.282651656764</v>
@@ -4132,10 +4132,10 @@
         <v>2</v>
       </c>
       <c r="D154" s="2">
-        <v>0.3314970430219546</v>
+        <v>0.3144518849439919</v>
       </c>
       <c r="E154" s="2">
-        <v>2376.84427476599</v>
+        <v>2385.074369636939</v>
       </c>
       <c r="F154" s="2">
         <v>2385.074369636939</v>
@@ -4156,7 +4156,7 @@
         <v>3</v>
       </c>
       <c r="D155" s="2">
-        <v>0.3238883219892159</v>
+        <v>0.4528642969671637</v>
       </c>
       <c r="E155" s="2">
         <v>2457.771117190254</v>
@@ -4180,7 +4180,7 @@
         <v>4</v>
       </c>
       <c r="D156" s="2">
-        <v>0.2827005379949696</v>
+        <v>0.348127278033644</v>
       </c>
       <c r="E156" s="2">
         <v>2206.876930859468</v>
@@ -4204,10 +4204,10 @@
         <v>5</v>
       </c>
       <c r="D157" s="2">
-        <v>0.3388537490391172</v>
+        <v>0.456166221993044</v>
       </c>
       <c r="E157" s="2">
-        <v>2436.457284345337</v>
+        <v>2436.457284345336</v>
       </c>
       <c r="F157" s="2">
         <v>2436.457284345336</v>
@@ -4228,7 +4228,7 @@
         <v>6</v>
       </c>
       <c r="D158" s="2">
-        <v>0.2804353520041332</v>
+        <v>0.3722429280169308</v>
       </c>
       <c r="E158" s="2">
         <v>2137.46344823318</v>
@@ -4252,10 +4252,10 @@
         <v>7</v>
       </c>
       <c r="D159" s="2">
-        <v>0.2691082929959521</v>
+        <v>0.2936470810091123</v>
       </c>
       <c r="E159" s="2">
-        <v>1919.79486473125</v>
+        <v>1972.499336598053</v>
       </c>
       <c r="F159" s="2">
         <v>1972.499336598052</v>
@@ -4276,7 +4276,7 @@
         <v>8</v>
       </c>
       <c r="D160" s="2">
-        <v>0.2827619959716685</v>
+        <v>0.3220171689754352</v>
       </c>
       <c r="E160" s="2">
         <v>1705.502565319909</v>
@@ -4300,7 +4300,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2">
-        <v>0.2753763730288483</v>
+        <v>0.3116868799552321</v>
       </c>
       <c r="E161" s="2">
         <v>1520.384695761918</v>
@@ -4324,7 +4324,7 @@
         <v>10</v>
       </c>
       <c r="D162" s="2">
-        <v>0.3182796620531008</v>
+        <v>0.3302472329232842</v>
       </c>
       <c r="E162" s="2">
         <v>2160.627030422103</v>
@@ -4348,7 +4348,7 @@
         <v>11</v>
       </c>
       <c r="D163" s="2">
-        <v>0.2847093259915709</v>
+        <v>0.2816376009723172</v>
       </c>
       <c r="E163" s="2">
         <v>1762.466503610988</v>
@@ -4372,10 +4372,10 @@
         <v>12</v>
       </c>
       <c r="D164" s="2">
-        <v>0.3287871280335821</v>
+        <v>0.3214000640437007</v>
       </c>
       <c r="E164" s="2">
-        <v>2095.111235755412</v>
+        <v>2095.111235755413</v>
       </c>
       <c r="F164" s="2">
         <v>2095.111235755412</v>
@@ -4396,10 +4396,10 @@
         <v>13</v>
       </c>
       <c r="D165" s="2">
-        <v>0.3179939119727351</v>
+        <v>0.3499462929321453</v>
       </c>
       <c r="E165" s="2">
-        <v>2324.254658553122</v>
+        <v>2324.254658553121</v>
       </c>
       <c r="F165" s="2">
         <v>2324.254658553122</v>
@@ -4420,10 +4420,10 @@
         <v>14</v>
       </c>
       <c r="D166" s="2">
-        <v>0.3068738870206289</v>
+        <v>0.3547592849936336</v>
       </c>
       <c r="E166" s="2">
-        <v>2032.404754212011</v>
+        <v>2057.685242986978</v>
       </c>
       <c r="F166" s="2">
         <v>2057.685242986978</v>
@@ -4444,7 +4444,7 @@
         <v>15</v>
       </c>
       <c r="D167" s="2">
-        <v>0.2832242649747059</v>
+        <v>0.3010223909514025</v>
       </c>
       <c r="E167" s="2">
         <v>2464.826064673589</v>
@@ -4468,7 +4468,7 @@
         <v>16</v>
       </c>
       <c r="D168" s="2">
-        <v>0.2785938890301622</v>
+        <v>0.3471438509877771</v>
       </c>
       <c r="E168" s="2">
         <v>2110.779571279063</v>
@@ -4492,10 +4492,10 @@
         <v>17</v>
       </c>
       <c r="D169" s="2">
-        <v>0.3432250040350482</v>
+        <v>0.322099301032722</v>
       </c>
       <c r="E169" s="2">
-        <v>2489.381128654545</v>
+        <v>2505.910600184307</v>
       </c>
       <c r="F169" s="2">
         <v>2505.910600184307</v>
@@ -4516,10 +4516,10 @@
         <v>18</v>
       </c>
       <c r="D170" s="2">
-        <v>0.3032391280285083</v>
+        <v>0.3504870930919424</v>
       </c>
       <c r="E170" s="2">
-        <v>1596.753946162265</v>
+        <v>1647.533158928937</v>
       </c>
       <c r="F170" s="2">
         <v>1647.533158928937</v>
@@ -4540,7 +4540,7 @@
         <v>19</v>
       </c>
       <c r="D171" s="2">
-        <v>0.2923197159543633</v>
+        <v>0.4290380909806117</v>
       </c>
       <c r="E171" s="2">
         <v>1974.428105712782</v>
@@ -4564,10 +4564,10 @@
         <v>20</v>
       </c>
       <c r="D172" s="2">
-        <v>0.2953613739809953</v>
+        <v>0.360538057051599</v>
       </c>
       <c r="E172" s="2">
-        <v>2503.538339939416</v>
+        <v>2513.991454597157</v>
       </c>
       <c r="F172" s="2">
         <v>2513.991454597158</v>
@@ -4588,7 +4588,7 @@
         <v>21</v>
       </c>
       <c r="D173" s="2">
-        <v>0.3642143059987575</v>
+        <v>0.3124505849555135</v>
       </c>
       <c r="E173" s="2">
         <v>1780.737717395451</v>
@@ -4612,7 +4612,7 @@
         <v>22</v>
       </c>
       <c r="D174" s="2">
-        <v>0.378117258020211</v>
+        <v>0.3680599459912628</v>
       </c>
       <c r="E174" s="2">
         <v>2255.587486466789</v>
@@ -4636,7 +4636,7 @@
         <v>23</v>
       </c>
       <c r="D175" s="2">
-        <v>0.4271835060208105</v>
+        <v>0.3933947479818016</v>
       </c>
       <c r="E175" s="2">
         <v>2538.307473397972</v>
@@ -4660,10 +4660,10 @@
         <v>24</v>
       </c>
       <c r="D176" s="2">
-        <v>0.4152391569805332</v>
+        <v>0.3034619919490069</v>
       </c>
       <c r="E176" s="2">
-        <v>1987.876164911103</v>
+        <v>2087.974854691427</v>
       </c>
       <c r="F176" s="2">
         <v>2087.974854691426</v>
@@ -4684,7 +4684,7 @@
         <v>25</v>
       </c>
       <c r="D177" s="2">
-        <v>0.2901818910031579</v>
+        <v>0.3183684370014817</v>
       </c>
       <c r="E177" s="2">
         <v>2127.990181402628</v>
@@ -4708,7 +4708,7 @@
         <v>26</v>
       </c>
       <c r="D178" s="2">
-        <v>0.295165546995122</v>
+        <v>0.3732295800000429</v>
       </c>
       <c r="E178" s="2">
         <v>2134.647587018294</v>
@@ -4732,7 +4732,7 @@
         <v>27</v>
       </c>
       <c r="D179" s="2">
-        <v>0.2647569369873963</v>
+        <v>0.3598644209560007</v>
       </c>
       <c r="E179" s="2">
         <v>2337.026321713145</v>
@@ -4756,7 +4756,7 @@
         <v>28</v>
       </c>
       <c r="D180" s="2">
-        <v>0.2806211650022306</v>
+        <v>0.4801078429445624</v>
       </c>
       <c r="E180" s="2">
         <v>2200.329760590347</v>
@@ -4780,7 +4780,7 @@
         <v>29</v>
       </c>
       <c r="D181" s="2">
-        <v>0.3192010589991696</v>
+        <v>0.4104262860491872</v>
       </c>
       <c r="E181" s="2">
         <v>2431.022020553432</v>
@@ -4804,7 +4804,7 @@
         <v>30</v>
       </c>
       <c r="D182" s="2">
-        <v>0.2696484460029751</v>
+        <v>0.395679667009972</v>
       </c>
       <c r="E182" s="2">
         <v>2294.756854658639</v>
@@ -4828,10 +4828,10 @@
         <v>1</v>
       </c>
       <c r="D183" s="2">
-        <v>0.2766264080419205</v>
+        <v>0.4467097430024296</v>
       </c>
       <c r="E183" s="2">
-        <v>1718.570281232002</v>
+        <v>1879.802659042441</v>
       </c>
       <c r="F183" s="2">
         <v>1879.802659042442</v>
@@ -4852,10 +4852,10 @@
         <v>2</v>
       </c>
       <c r="D184" s="2">
-        <v>0.3111776569858193</v>
+        <v>0.4138659710297361</v>
       </c>
       <c r="E184" s="2">
-        <v>2133.493504467813</v>
+        <v>2134.399461723991</v>
       </c>
       <c r="F184" s="2">
         <v>2134.39946172399</v>
@@ -4876,7 +4876,7 @@
         <v>3</v>
       </c>
       <c r="D185" s="2">
-        <v>0.3982718070037663</v>
+        <v>0.3577748879324645</v>
       </c>
       <c r="E185" s="2">
         <v>2369.15855112158</v>
@@ -4900,10 +4900,10 @@
         <v>4</v>
       </c>
       <c r="D186" s="2">
-        <v>0.3341113139758818</v>
+        <v>0.3589399529155344</v>
       </c>
       <c r="E186" s="2">
-        <v>2201.091230166294</v>
+        <v>2201.091230166295</v>
       </c>
       <c r="F186" s="2">
         <v>2201.091230166295</v>
@@ -4924,10 +4924,10 @@
         <v>5</v>
       </c>
       <c r="D187" s="2">
-        <v>0.3732549530104734</v>
+        <v>0.3797981759998947</v>
       </c>
       <c r="E187" s="2">
-        <v>2123.412352935886</v>
+        <v>2123.412352935887</v>
       </c>
       <c r="F187" s="2">
         <v>2123.412352935887</v>
@@ -4948,7 +4948,7 @@
         <v>6</v>
       </c>
       <c r="D188" s="2">
-        <v>0.3405669089988805</v>
+        <v>0.3598568689776585</v>
       </c>
       <c r="E188" s="2">
         <v>1862.349367521303</v>
@@ -4972,7 +4972,7 @@
         <v>7</v>
       </c>
       <c r="D189" s="2">
-        <v>0.3273928919807076</v>
+        <v>0.3596314078895375</v>
       </c>
       <c r="E189" s="2">
         <v>1903.874646814641</v>
@@ -4996,7 +4996,7 @@
         <v>8</v>
       </c>
       <c r="D190" s="2">
-        <v>0.3012206180137582</v>
+        <v>0.3680984699167311</v>
       </c>
       <c r="E190" s="2">
         <v>1550.682658295898</v>
@@ -5020,7 +5020,7 @@
         <v>9</v>
       </c>
       <c r="D191" s="2">
-        <v>0.3103814189671539</v>
+        <v>0.3771829480538145</v>
       </c>
       <c r="E191" s="2">
         <v>2314.796501523785</v>
@@ -5044,7 +5044,7 @@
         <v>10</v>
       </c>
       <c r="D192" s="2">
-        <v>0.3108763769851066</v>
+        <v>0.3271657230798155</v>
       </c>
       <c r="E192" s="2">
         <v>2147.28958296368</v>
@@ -5068,7 +5068,7 @@
         <v>11</v>
       </c>
       <c r="D193" s="2">
-        <v>0.2724682750413194</v>
+        <v>0.3305543459719047</v>
       </c>
       <c r="E193" s="2">
         <v>2346.301850815037</v>
@@ -5092,10 +5092,10 @@
         <v>12</v>
       </c>
       <c r="D194" s="2">
-        <v>0.3016128090093844</v>
+        <v>0.4697508619865403</v>
       </c>
       <c r="E194" s="2">
-        <v>2330.275608498885</v>
+        <v>2330.275608498884</v>
       </c>
       <c r="F194" s="2">
         <v>2330.275608498884</v>
@@ -5116,10 +5116,10 @@
         <v>13</v>
       </c>
       <c r="D195" s="2">
-        <v>0.3382515950361267</v>
+        <v>0.3347936250502244</v>
       </c>
       <c r="E195" s="2">
-        <v>2281.67401390062</v>
+        <v>2281.674013900621</v>
       </c>
       <c r="F195" s="2">
         <v>2281.67401390062</v>
@@ -5140,7 +5140,7 @@
         <v>14</v>
       </c>
       <c r="D196" s="2">
-        <v>0.2896721559809521</v>
+        <v>0.3327805020380765</v>
       </c>
       <c r="E196" s="2">
         <v>2142.059190417069</v>
@@ -5164,7 +5164,7 @@
         <v>15</v>
       </c>
       <c r="D197" s="2">
-        <v>0.2932781460112892</v>
+        <v>0.3976789070293307</v>
       </c>
       <c r="E197" s="2">
         <v>2154.851187413764</v>
@@ -5188,7 +5188,7 @@
         <v>16</v>
       </c>
       <c r="D198" s="2">
-        <v>0.3479077600059099</v>
+        <v>0.3782470689620823</v>
       </c>
       <c r="E198" s="2">
         <v>1827.555546047547</v>
@@ -5212,10 +5212,10 @@
         <v>17</v>
       </c>
       <c r="D199" s="2">
-        <v>0.2964944660197943</v>
+        <v>0.4861263571074232</v>
       </c>
       <c r="E199" s="2">
-        <v>2364.207375170693</v>
+        <v>2364.207375170695</v>
       </c>
       <c r="F199" s="2">
         <v>2364.207375170694</v>
@@ -5236,7 +5236,7 @@
         <v>18</v>
       </c>
       <c r="D200" s="2">
-        <v>0.3660276929731481</v>
+        <v>0.2914107899414375</v>
       </c>
       <c r="E200" s="2">
         <v>2656.026767061549</v>
@@ -5260,7 +5260,7 @@
         <v>19</v>
       </c>
       <c r="D201" s="2">
-        <v>0.3916133370366879</v>
+        <v>0.2730839559808373</v>
       </c>
       <c r="E201" s="2">
         <v>1871.5725112719</v>
@@ -5284,7 +5284,7 @@
         <v>20</v>
       </c>
       <c r="D202" s="2">
-        <v>0.2878650780185126</v>
+        <v>0.2723456530366093</v>
       </c>
       <c r="E202" s="2">
         <v>1949.670656151689</v>
@@ -5308,10 +5308,10 @@
         <v>21</v>
       </c>
       <c r="D203" s="2">
-        <v>0.343940430029761</v>
+        <v>0.3411212669452652</v>
       </c>
       <c r="E203" s="2">
-        <v>1790.536782384726</v>
+        <v>1846.004003310091</v>
       </c>
       <c r="F203" s="2">
         <v>1846.004003310091</v>
@@ -5332,7 +5332,7 @@
         <v>22</v>
       </c>
       <c r="D204" s="2">
-        <v>0.3279270500061102</v>
+        <v>0.279244115925394</v>
       </c>
       <c r="E204" s="2">
         <v>1700.471375710124</v>
@@ -5356,7 +5356,7 @@
         <v>23</v>
       </c>
       <c r="D205" s="2">
-        <v>0.3286045670392923</v>
+        <v>0.2725818899925798</v>
       </c>
       <c r="E205" s="2">
         <v>2429.157421160867</v>
@@ -5380,7 +5380,7 @@
         <v>24</v>
       </c>
       <c r="D206" s="2">
-        <v>0.3716873030061834</v>
+        <v>0.2956106730271131</v>
       </c>
       <c r="E206" s="2">
         <v>2124.84529359882</v>
@@ -5404,10 +5404,10 @@
         <v>25</v>
       </c>
       <c r="D207" s="2">
-        <v>0.3559154359973036</v>
+        <v>0.389611306018196</v>
       </c>
       <c r="E207" s="2">
-        <v>2004.519444757482</v>
+        <v>2012.261269172223</v>
       </c>
       <c r="F207" s="2">
         <v>2012.261269172222</v>
@@ -5428,10 +5428,10 @@
         <v>26</v>
       </c>
       <c r="D208" s="2">
-        <v>0.2794550459948368</v>
+        <v>0.2809338540537283</v>
       </c>
       <c r="E208" s="2">
-        <v>1774.494386696628</v>
+        <v>1790.895983535587</v>
       </c>
       <c r="F208" s="2">
         <v>1790.895983535587</v>
@@ -5452,7 +5452,7 @@
         <v>27</v>
       </c>
       <c r="D209" s="2">
-        <v>0.2848606220213696</v>
+        <v>0.2974572569364682</v>
       </c>
       <c r="E209" s="2">
         <v>1920.719001820786</v>
@@ -5476,10 +5476,10 @@
         <v>28</v>
       </c>
       <c r="D210" s="2">
-        <v>0.3540542990085669</v>
+        <v>0.3697886649752036</v>
       </c>
       <c r="E210" s="2">
-        <v>2608.829716344009</v>
+        <v>2608.829716344008</v>
       </c>
       <c r="F210" s="2">
         <v>2608.829716344008</v>
@@ -5500,7 +5500,7 @@
         <v>29</v>
       </c>
       <c r="D211" s="2">
-        <v>0.3243534810026176</v>
+        <v>0.3028429470723495</v>
       </c>
       <c r="E211" s="2">
         <v>2182.404121155074</v>
@@ -5524,10 +5524,10 @@
         <v>30</v>
       </c>
       <c r="D212" s="2">
-        <v>0.3057497700210661</v>
+        <v>0.3015910889953375</v>
       </c>
       <c r="E212" s="2">
-        <v>2386.18139303373</v>
+        <v>2386.181393033729</v>
       </c>
       <c r="F212" s="2">
         <v>2386.181393033729</v>
@@ -5548,7 +5548,7 @@
         <v>31</v>
       </c>
       <c r="D213" s="2">
-        <v>0.2707934040226974</v>
+        <v>0.3116102330386639</v>
       </c>
       <c r="E213" s="2">
         <v>2058.593491977226</v>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="D214" s="2">
-        <v>0.3380231719929725</v>
+        <v>0.3235281490487978</v>
       </c>
       <c r="E214" s="2">
         <v>2179.389073061388</v>
@@ -5596,7 +5596,7 @@
         <v>2</v>
       </c>
       <c r="D215" s="2">
-        <v>0.387264814984519</v>
+        <v>0.3782078790245578</v>
       </c>
       <c r="E215" s="2">
         <v>2282.683308507831</v>
@@ -5620,7 +5620,7 @@
         <v>3</v>
       </c>
       <c r="D216" s="2">
-        <v>0.4719852340058424</v>
+        <v>0.435023135971278</v>
       </c>
       <c r="E216" s="2">
         <v>2284.914482011153</v>
@@ -5644,10 +5644,10 @@
         <v>4</v>
       </c>
       <c r="D217" s="2">
-        <v>0.3888296019867994</v>
+        <v>0.3762584459036589</v>
       </c>
       <c r="E217" s="2">
-        <v>2225.114000818968</v>
+        <v>2316.092677750741</v>
       </c>
       <c r="F217" s="2">
         <v>2316.092677750741</v>
@@ -5668,10 +5668,10 @@
         <v>5</v>
       </c>
       <c r="D218" s="2">
-        <v>0.4016662299982272</v>
+        <v>0.3023651890689507</v>
       </c>
       <c r="E218" s="2">
-        <v>2411.26348618545</v>
+        <v>2443.696214528953</v>
       </c>
       <c r="F218" s="2">
         <v>2443.696214528952</v>
@@ -5692,10 +5692,10 @@
         <v>6</v>
       </c>
       <c r="D219" s="2">
-        <v>0.2687738569802605</v>
+        <v>0.4976677990052849</v>
       </c>
       <c r="E219" s="2">
-        <v>2214.382170322354</v>
+        <v>2214.382170322355</v>
       </c>
       <c r="F219" s="2">
         <v>2214.382170322355</v>
@@ -5716,10 +5716,10 @@
         <v>7</v>
       </c>
       <c r="D220" s="2">
-        <v>0.2878955859923735</v>
+        <v>0.3844781329389662</v>
       </c>
       <c r="E220" s="2">
-        <v>1945.942901061507</v>
+        <v>2032.18984196933</v>
       </c>
       <c r="F220" s="2">
         <v>2032.18984196933</v>
@@ -5740,7 +5740,7 @@
         <v>8</v>
       </c>
       <c r="D221" s="2">
-        <v>0.3265033939969726</v>
+        <v>0.4060183010296896</v>
       </c>
       <c r="E221" s="2">
         <v>1815.785994386207</v>
@@ -5764,10 +5764,10 @@
         <v>9</v>
       </c>
       <c r="D222" s="2">
-        <v>0.4008422130136751</v>
+        <v>0.475003425963223</v>
       </c>
       <c r="E222" s="2">
-        <v>1622.362157672732</v>
+        <v>1666.365689989193</v>
       </c>
       <c r="F222" s="2">
         <v>1666.365689989193</v>
@@ -5788,10 +5788,10 @@
         <v>10</v>
       </c>
       <c r="D223" s="2">
-        <v>0.3624981819884852</v>
+        <v>0.3017835399368778</v>
       </c>
       <c r="E223" s="2">
-        <v>2611.700374025417</v>
+        <v>2611.700374025418</v>
       </c>
       <c r="F223" s="2">
         <v>2611.700374025416</v>
@@ -5812,7 +5812,7 @@
         <v>11</v>
       </c>
       <c r="D224" s="2">
-        <v>0.3428828570176847</v>
+        <v>0.3359096250496805</v>
       </c>
       <c r="E224" s="2">
         <v>2519.408808503995</v>
@@ -5836,10 +5836,10 @@
         <v>12</v>
       </c>
       <c r="D225" s="2">
-        <v>0.2772707639960572</v>
+        <v>0.3288959589553997</v>
       </c>
       <c r="E225" s="2">
-        <v>2330.803973208133</v>
+        <v>2278.625222814863</v>
       </c>
       <c r="F225" s="2">
         <v>2330.803973208132</v>
@@ -5860,7 +5860,7 @@
         <v>13</v>
       </c>
       <c r="D226" s="2">
-        <v>0.3542145100072958</v>
+        <v>0.292987341992557</v>
       </c>
       <c r="E226" s="2">
         <v>2644.608815788594</v>
@@ -5884,7 +5884,7 @@
         <v>14</v>
       </c>
       <c r="D227" s="2">
-        <v>0.3065731829847209</v>
+        <v>0.3203138010576367</v>
       </c>
       <c r="E227" s="2">
         <v>1712.162199308163</v>
@@ -5908,7 +5908,7 @@
         <v>15</v>
       </c>
       <c r="D228" s="2">
-        <v>0.3048595410073176</v>
+        <v>0.4036024210508913</v>
       </c>
       <c r="E228" s="2">
         <v>1779.929572513537</v>
@@ -5932,10 +5932,10 @@
         <v>16</v>
       </c>
       <c r="D229" s="2">
-        <v>0.3028376700240187</v>
+        <v>0.3198989189695567</v>
       </c>
       <c r="E229" s="2">
-        <v>1798.549946528332</v>
+        <v>1819.632828518819</v>
       </c>
       <c r="F229" s="2">
         <v>1819.632828518818</v>
@@ -5956,7 +5956,7 @@
         <v>17</v>
       </c>
       <c r="D230" s="2">
-        <v>0.3675132000353187</v>
+        <v>0.2991774550173432</v>
       </c>
       <c r="E230" s="2">
         <v>2535.381656937598</v>
@@ -5980,7 +5980,7 @@
         <v>18</v>
       </c>
       <c r="D231" s="2">
-        <v>0.3881293560261838</v>
+        <v>0.2850352890091017</v>
       </c>
       <c r="E231" s="2">
         <v>2204.477399209422</v>
@@ -6004,7 +6004,7 @@
         <v>19</v>
       </c>
       <c r="D232" s="2">
-        <v>0.3137452140217647</v>
+        <v>0.2626897960435599</v>
       </c>
       <c r="E232" s="2">
         <v>1836.120126813968</v>
@@ -6028,7 +6028,7 @@
         <v>20</v>
       </c>
       <c r="D233" s="2">
-        <v>0.294321316992864</v>
+        <v>0.2661578940460458</v>
       </c>
       <c r="E233" s="2">
         <v>2293.287501067518</v>
@@ -6052,7 +6052,7 @@
         <v>21</v>
       </c>
       <c r="D234" s="2">
-        <v>0.3777687880210578</v>
+        <v>0.2858274830505252</v>
       </c>
       <c r="E234" s="2">
         <v>2310.80608107311</v>
@@ -6076,7 +6076,7 @@
         <v>22</v>
       </c>
       <c r="D235" s="2">
-        <v>0.2974117069970816</v>
+        <v>0.2732444520806894</v>
       </c>
       <c r="E235" s="2">
         <v>2546.014669910183</v>
@@ -6100,7 +6100,7 @@
         <v>23</v>
       </c>
       <c r="D236" s="2">
-        <v>0.3667740680393763</v>
+        <v>0.3031091350130737</v>
       </c>
       <c r="E236" s="2">
         <v>2470.904710041427</v>
@@ -6124,10 +6124,10 @@
         <v>24</v>
       </c>
       <c r="D237" s="2">
-        <v>0.2844069169950671</v>
+        <v>0.3488957299850881</v>
       </c>
       <c r="E237" s="2">
-        <v>2017.228708030254</v>
+        <v>2017.228708030255</v>
       </c>
       <c r="F237" s="2">
         <v>2017.228708030255</v>
@@ -6148,10 +6148,10 @@
         <v>25</v>
       </c>
       <c r="D238" s="2">
-        <v>0.3563060169690289</v>
+        <v>0.3166501780506223</v>
       </c>
       <c r="E238" s="2">
-        <v>1703.31074315255</v>
+        <v>1711.985564225212</v>
       </c>
       <c r="F238" s="2">
         <v>1711.985564225213</v>
@@ -6172,10 +6172,10 @@
         <v>26</v>
       </c>
       <c r="D239" s="2">
-        <v>0.4578526580007747</v>
+        <v>0.3543565589934587</v>
       </c>
       <c r="E239" s="2">
-        <v>2266.342076156299</v>
+        <v>2266.342076156298</v>
       </c>
       <c r="F239" s="2">
         <v>2266.342076156299</v>
@@ -6196,10 +6196,10 @@
         <v>27</v>
       </c>
       <c r="D240" s="2">
-        <v>0.3218538610381074</v>
+        <v>0.3318760379916057</v>
       </c>
       <c r="E240" s="2">
-        <v>2511.023189743128</v>
+        <v>2583.244586784071</v>
       </c>
       <c r="F240" s="2">
         <v>2583.244586784069</v>
@@ -6220,7 +6220,7 @@
         <v>28</v>
       </c>
       <c r="D241" s="2">
-        <v>0.3121779090142809</v>
+        <v>0.3098107170080766</v>
       </c>
       <c r="E241" s="2">
         <v>2313.875495316014</v>
@@ -6244,7 +6244,7 @@
         <v>29</v>
       </c>
       <c r="D242" s="2">
-        <v>0.3573831269750372</v>
+        <v>0.2888667460065335</v>
       </c>
       <c r="E242" s="2">
         <v>2360.045776833543</v>
@@ -6268,10 +6268,10 @@
         <v>30</v>
       </c>
       <c r="D243" s="2">
-        <v>0.3311568460194394</v>
+        <v>0.3064887389773503</v>
       </c>
       <c r="E243" s="2">
-        <v>2186.202086518579</v>
+        <v>2186.202086518578</v>
       </c>
       <c r="F243" s="2">
         <v>2186.202086518579</v>
@@ -6292,7 +6292,7 @@
         <v>31</v>
       </c>
       <c r="D244" s="2">
-        <v>0.390717661997769</v>
+        <v>0.2801549560390413</v>
       </c>
       <c r="E244" s="2">
         <v>2245.4597768131</v>
@@ -6316,10 +6316,10 @@
         <v>1</v>
       </c>
       <c r="D245" s="2">
-        <v>0.3720364129985683</v>
+        <v>0.2813079541083425</v>
       </c>
       <c r="E245" s="2">
-        <v>2887.107827908604</v>
+        <v>2887.107827908603</v>
       </c>
       <c r="F245" s="2">
         <v>2887.107827908604</v>
@@ -6340,7 +6340,7 @@
         <v>2</v>
       </c>
       <c r="D246" s="2">
-        <v>0.3256428049644455</v>
+        <v>0.573896563029848</v>
       </c>
       <c r="E246" s="2">
         <v>2013.835153074207</v>
@@ -6364,7 +6364,7 @@
         <v>3</v>
       </c>
       <c r="D247" s="2">
-        <v>0.2866030959994532</v>
+        <v>0.3582042490597814</v>
       </c>
       <c r="E247" s="2">
         <v>2406.895924405407</v>
@@ -6388,10 +6388,10 @@
         <v>4</v>
       </c>
       <c r="D248" s="2">
-        <v>0.3113512549898587</v>
+        <v>0.3152649799594656</v>
       </c>
       <c r="E248" s="2">
-        <v>2364.461307498643</v>
+        <v>2394.214099020252</v>
       </c>
       <c r="F248" s="2">
         <v>2394.214099020252</v>
@@ -6412,10 +6412,10 @@
         <v>5</v>
       </c>
       <c r="D249" s="2">
-        <v>0.3289594340021722</v>
+        <v>0.3245114529272541</v>
       </c>
       <c r="E249" s="2">
-        <v>2519.34717945573</v>
+        <v>2591.284879766415</v>
       </c>
       <c r="F249" s="2">
         <v>2591.284879766416</v>
@@ -6436,10 +6436,10 @@
         <v>6</v>
       </c>
       <c r="D250" s="2">
-        <v>0.335356518975459</v>
+        <v>0.3003505159867927</v>
       </c>
       <c r="E250" s="2">
-        <v>1785.192611763049</v>
+        <v>1786.793949664671</v>
       </c>
       <c r="F250" s="2">
         <v>1786.793949664671</v>
@@ -6460,7 +6460,7 @@
         <v>7</v>
       </c>
       <c r="D251" s="2">
-        <v>0.3112479220144451</v>
+        <v>0.2969922939082608</v>
       </c>
       <c r="E251" s="2">
         <v>2547.822082559145</v>
@@ -6484,10 +6484,10 @@
         <v>8</v>
       </c>
       <c r="D252" s="2">
-        <v>0.3028287179768085</v>
+        <v>0.2769101760350168</v>
       </c>
       <c r="E252" s="2">
-        <v>2334.630106037041</v>
+        <v>2334.63010603704</v>
       </c>
       <c r="F252" s="2">
         <v>2334.63010603704</v>
@@ -6508,10 +6508,10 @@
         <v>9</v>
       </c>
       <c r="D253" s="2">
-        <v>0.2805973020149395</v>
+        <v>0.3240581220015883</v>
       </c>
       <c r="E253" s="2">
-        <v>1773.970615814834</v>
+        <v>1800.364545545586</v>
       </c>
       <c r="F253" s="2">
         <v>1800.364545545586</v>
@@ -6532,7 +6532,7 @@
         <v>10</v>
       </c>
       <c r="D254" s="2">
-        <v>0.2790695590083487</v>
+        <v>0.3163867299444973</v>
       </c>
       <c r="E254" s="2">
         <v>1356.403336857777</v>
@@ -6556,7 +6556,7 @@
         <v>11</v>
       </c>
       <c r="D255" s="2">
-        <v>0.3557160759810358</v>
+        <v>0.2925295060267672</v>
       </c>
       <c r="E255" s="2">
         <v>2039.585725477654</v>
@@ -6580,10 +6580,10 @@
         <v>12</v>
       </c>
       <c r="D256" s="2">
-        <v>0.2683632079861127</v>
+        <v>0.2995397779159248</v>
       </c>
       <c r="E256" s="2">
-        <v>2340.709516232931</v>
+        <v>2340.70951623293</v>
       </c>
       <c r="F256" s="2">
         <v>2340.70951623293</v>
@@ -6604,7 +6604,7 @@
         <v>13</v>
       </c>
       <c r="D257" s="2">
-        <v>0.329809752991423</v>
+        <v>0.3052344149909914</v>
       </c>
       <c r="E257" s="2">
         <v>1916.751607545592</v>
@@ -6628,7 +6628,7 @@
         <v>14</v>
       </c>
       <c r="D258" s="2">
-        <v>0.3273218490066938</v>
+        <v>0.3543260119622573</v>
       </c>
       <c r="E258" s="2">
         <v>1905.224578206205</v>
@@ -6652,7 +6652,7 @@
         <v>15</v>
       </c>
       <c r="D259" s="2">
-        <v>0.3132719340501353</v>
+        <v>0.3443130250088871</v>
       </c>
       <c r="E259" s="2">
         <v>1756.007477462088</v>
@@ -6676,7 +6676,7 @@
         <v>16</v>
       </c>
       <c r="D260" s="2">
-        <v>0.3244858980178833</v>
+        <v>0.3155377679504454</v>
       </c>
       <c r="E260" s="2">
         <v>2271.327177602541</v>
@@ -6700,7 +6700,7 @@
         <v>17</v>
       </c>
       <c r="D261" s="2">
-        <v>0.3693941250094213</v>
+        <v>0.3595791090046987</v>
       </c>
       <c r="E261" s="2">
         <v>2137.867484809064</v>
@@ -6724,7 +6724,7 @@
         <v>18</v>
       </c>
       <c r="D262" s="2">
-        <v>0.3064926399965771</v>
+        <v>0.3534966610604897</v>
       </c>
       <c r="E262" s="2">
         <v>1874.000301052681</v>
@@ -6748,7 +6748,7 @@
         <v>19</v>
       </c>
       <c r="D263" s="2">
-        <v>0.3306904480559751</v>
+        <v>0.340973818092607</v>
       </c>
       <c r="E263" s="2">
         <v>1936.641943992453</v>
@@ -6772,7 +6772,7 @@
         <v>20</v>
       </c>
       <c r="D264" s="2">
-        <v>0.2794626930262893</v>
+        <v>0.3693783089984208</v>
       </c>
       <c r="E264" s="2">
         <v>1661.106237777533</v>
@@ -6796,7 +6796,7 @@
         <v>21</v>
       </c>
       <c r="D265" s="2">
-        <v>0.3341324499924667</v>
+        <v>0.3203277400461957</v>
       </c>
       <c r="E265" s="2">
         <v>2058.297166045912</v>
@@ -6820,10 +6820,10 @@
         <v>22</v>
       </c>
       <c r="D266" s="2">
-        <v>0.3085637540207244</v>
+        <v>0.3267484620446339</v>
       </c>
       <c r="E266" s="2">
-        <v>2517.582538207954</v>
+        <v>2517.582538207953</v>
       </c>
       <c r="F266" s="2">
         <v>2517.582538207954</v>
@@ -6844,7 +6844,7 @@
         <v>23</v>
       </c>
       <c r="D267" s="2">
-        <v>0.3282609959715046</v>
+        <v>0.3304462429368868</v>
       </c>
       <c r="E267" s="2">
         <v>1756.548310997544</v>
@@ -6868,7 +6868,7 @@
         <v>24</v>
       </c>
       <c r="D268" s="2">
-        <v>0.316415045002941</v>
+        <v>0.2785107139497995</v>
       </c>
       <c r="E268" s="2">
         <v>2504.314441513868</v>
@@ -6892,7 +6892,7 @@
         <v>25</v>
       </c>
       <c r="D269" s="2">
-        <v>0.3163825129740871</v>
+        <v>0.2874122459907085</v>
       </c>
       <c r="E269" s="2">
         <v>1913.677933301945</v>
@@ -6916,10 +6916,10 @@
         <v>26</v>
       </c>
       <c r="D270" s="2">
-        <v>0.3965676509542391</v>
+        <v>0.314694496919401</v>
       </c>
       <c r="E270" s="2">
-        <v>1849.163631989038</v>
+        <v>1849.163631989037</v>
       </c>
       <c r="F270" s="2">
         <v>1849.163631989038</v>
@@ -6940,7 +6940,7 @@
         <v>27</v>
       </c>
       <c r="D271" s="2">
-        <v>0.307259063993115</v>
+        <v>0.2719235429540277</v>
       </c>
       <c r="E271" s="2">
         <v>2148.065827749961</v>
@@ -6964,10 +6964,10 @@
         <v>28</v>
       </c>
       <c r="D272" s="2">
-        <v>0.3023663519998081</v>
+        <v>0.2817831260617822</v>
       </c>
       <c r="E272" s="2">
-        <v>2451.56938988846</v>
+        <v>2468.356661599367</v>
       </c>
       <c r="F272" s="2">
         <v>2468.356661599367</v>
@@ -6988,10 +6988,10 @@
         <v>29</v>
       </c>
       <c r="D273" s="2">
-        <v>0.4080490680062212</v>
+        <v>0.3623933140188456</v>
       </c>
       <c r="E273" s="2">
-        <v>2417.630198451922</v>
+        <v>2531.59524849935</v>
       </c>
       <c r="F273" s="2">
         <v>2531.59524849935</v>
@@ -7012,10 +7012,10 @@
         <v>30</v>
       </c>
       <c r="D274" s="2">
-        <v>0.2959447170142084</v>
+        <v>0.2888635840499774</v>
       </c>
       <c r="E274" s="2">
-        <v>2464.656098903341</v>
+        <v>2464.65609890334</v>
       </c>
       <c r="F274" s="2">
         <v>2464.656098903341</v>
@@ -7036,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="D275" s="2">
-        <v>0.2865063000353985</v>
+        <v>0.3184870099648833</v>
       </c>
       <c r="E275" s="2">
         <v>1745.773051017158</v>
@@ -7060,7 +7060,7 @@
         <v>2</v>
       </c>
       <c r="D276" s="2">
-        <v>0.336116322025191</v>
+        <v>0.2779286929871887</v>
       </c>
       <c r="E276" s="2">
         <v>2246.5846782403</v>
@@ -7084,10 +7084,10 @@
         <v>3</v>
       </c>
       <c r="D277" s="2">
-        <v>0.2976294019608758</v>
+        <v>0.3256981449667364</v>
       </c>
       <c r="E277" s="2">
-        <v>2249.253543116756</v>
+        <v>2325.84333953781</v>
       </c>
       <c r="F277" s="2">
         <v>2325.843339537811</v>
@@ -7108,7 +7108,7 @@
         <v>4</v>
       </c>
       <c r="D278" s="2">
-        <v>0.2895477780257352</v>
+        <v>0.2981735420180485</v>
       </c>
       <c r="E278" s="2">
         <v>1926.783785231637</v>
@@ -7132,10 +7132,10 @@
         <v>5</v>
       </c>
       <c r="D279" s="2">
-        <v>0.3008573569823056</v>
+        <v>0.2934224240016192</v>
       </c>
       <c r="E279" s="2">
-        <v>1937.615442270606</v>
+        <v>1937.615442270605</v>
       </c>
       <c r="F279" s="2">
         <v>1937.615442270605</v>
@@ -7156,7 +7156,7 @@
         <v>6</v>
       </c>
       <c r="D280" s="2">
-        <v>0.306561851000879</v>
+        <v>0.2864171960391104</v>
       </c>
       <c r="E280" s="2">
         <v>2610.80447379722</v>
@@ -7180,7 +7180,7 @@
         <v>7</v>
       </c>
       <c r="D281" s="2">
-        <v>0.3106121519813314</v>
+        <v>0.3712875839555636</v>
       </c>
       <c r="E281" s="2">
         <v>2355.186850688548</v>
@@ -7204,7 +7204,7 @@
         <v>8</v>
       </c>
       <c r="D282" s="2">
-        <v>0.3600340400007553</v>
+        <v>0.2979092199821025</v>
       </c>
       <c r="E282" s="2">
         <v>2298.833648777947</v>
@@ -7228,10 +7228,10 @@
         <v>9</v>
       </c>
       <c r="D283" s="2">
-        <v>0.2693856339901686</v>
+        <v>0.352121721021831</v>
       </c>
       <c r="E283" s="2">
-        <v>2169.154944538894</v>
+        <v>2169.154944538893</v>
       </c>
       <c r="F283" s="2">
         <v>2169.154944538893</v>
@@ -7252,10 +7252,10 @@
         <v>10</v>
       </c>
       <c r="D284" s="2">
-        <v>0.2915016320184804</v>
+        <v>0.3321503610350192</v>
       </c>
       <c r="E284" s="2">
-        <v>2301.377884614211</v>
+        <v>2301.377884614212</v>
       </c>
       <c r="F284" s="2">
         <v>2301.377884614212</v>
@@ -7276,7 +7276,7 @@
         <v>11</v>
       </c>
       <c r="D285" s="2">
-        <v>0.3169889000128023</v>
+        <v>0.3880936859641224</v>
       </c>
       <c r="E285" s="2">
         <v>2125.907481037008</v>
@@ -7300,7 +7300,7 @@
         <v>12</v>
       </c>
       <c r="D286" s="2">
-        <v>0.3011456240201369</v>
+        <v>0.2839248360833153</v>
       </c>
       <c r="E286" s="2">
         <v>2215.168984016766</v>
@@ -7324,7 +7324,7 @@
         <v>13</v>
       </c>
       <c r="D287" s="2">
-        <v>0.3470381849911064</v>
+        <v>0.3068118470255286</v>
       </c>
       <c r="E287" s="2">
         <v>2643.624993531228</v>
@@ -7348,7 +7348,7 @@
         <v>14</v>
       </c>
       <c r="D288" s="2">
-        <v>0.2989851820166223</v>
+        <v>0.2826838149921969</v>
       </c>
       <c r="E288" s="2">
         <v>2038.14769899266</v>
@@ -7372,10 +7372,10 @@
         <v>15</v>
       </c>
       <c r="D289" s="2">
-        <v>0.3075909309554845</v>
+        <v>0.3779472630703822</v>
       </c>
       <c r="E289" s="2">
-        <v>1994.871724011731</v>
+        <v>2072.168445922608</v>
       </c>
       <c r="F289" s="2">
         <v>2072.168445922607</v>
@@ -7396,10 +7396,10 @@
         <v>16</v>
       </c>
       <c r="D290" s="2">
-        <v>0.2980851199827157</v>
+        <v>0.336330333026126</v>
       </c>
       <c r="E290" s="2">
-        <v>2088.631535475274</v>
+        <v>2108.126807920569</v>
       </c>
       <c r="F290" s="2">
         <v>2108.126807920568</v>
@@ -7420,7 +7420,7 @@
         <v>17</v>
       </c>
       <c r="D291" s="2">
-        <v>0.3335775439627469</v>
+        <v>0.3088060250738636</v>
       </c>
       <c r="E291" s="2">
         <v>2348.204411172897</v>
@@ -7444,7 +7444,7 @@
         <v>18</v>
       </c>
       <c r="D292" s="2">
-        <v>0.3279428799869493</v>
+        <v>0.3056851560249925</v>
       </c>
       <c r="E292" s="2">
         <v>1954.88074961617</v>
@@ -7468,10 +7468,10 @@
         <v>19</v>
       </c>
       <c r="D293" s="2">
-        <v>0.3062836520257406</v>
+        <v>0.5283493238966912</v>
       </c>
       <c r="E293" s="2">
-        <v>2034.093970895243</v>
+        <v>2034.093970895244</v>
       </c>
       <c r="F293" s="2">
         <v>2034.093970895244</v>
@@ -7492,7 +7492,7 @@
         <v>20</v>
       </c>
       <c r="D294" s="2">
-        <v>0.3631833890103735</v>
+        <v>0.466442592907697</v>
       </c>
       <c r="E294" s="2">
         <v>2042.646494310696</v>
@@ -7516,10 +7516,10 @@
         <v>21</v>
       </c>
       <c r="D295" s="2">
-        <v>0.313871466962155</v>
+        <v>0.559973680996336</v>
       </c>
       <c r="E295" s="2">
-        <v>2788.593757216037</v>
+        <v>2846.442758210821</v>
       </c>
       <c r="F295" s="2">
         <v>2846.44275821082</v>
@@ -7540,10 +7540,10 @@
         <v>22</v>
       </c>
       <c r="D296" s="2">
-        <v>0.276842217950616</v>
+        <v>0.2944317309884354</v>
       </c>
       <c r="E296" s="2">
-        <v>2711.915654643821</v>
+        <v>2796.555371408181</v>
       </c>
       <c r="F296" s="2">
         <v>2796.555371408181</v>
@@ -7564,10 +7564,10 @@
         <v>23</v>
       </c>
       <c r="D297" s="2">
-        <v>0.315294731000904</v>
+        <v>0.3280940690310672</v>
       </c>
       <c r="E297" s="2">
-        <v>2008.15841961807</v>
+        <v>2095.085863011488</v>
       </c>
       <c r="F297" s="2">
         <v>2095.085863011488</v>
@@ -7588,10 +7588,10 @@
         <v>24</v>
       </c>
       <c r="D298" s="2">
-        <v>0.3486432950012386</v>
+        <v>0.3119040030287579</v>
       </c>
       <c r="E298" s="2">
-        <v>2539.530994316101</v>
+        <v>2539.5309943161</v>
       </c>
       <c r="F298" s="2">
         <v>2539.5309943161</v>
@@ -7612,10 +7612,10 @@
         <v>25</v>
       </c>
       <c r="D299" s="2">
-        <v>0.3286465260316618</v>
+        <v>0.3149935438996181</v>
       </c>
       <c r="E299" s="2">
-        <v>2334.072808296767</v>
+        <v>2344.009541115947</v>
       </c>
       <c r="F299" s="2">
         <v>2344.009541115947</v>
@@ -7636,10 +7636,10 @@
         <v>26</v>
       </c>
       <c r="D300" s="2">
-        <v>0.3249016830231994</v>
+        <v>0.2871816620463505</v>
       </c>
       <c r="E300" s="2">
-        <v>2868.548968321962</v>
+        <v>2886.528429249401</v>
       </c>
       <c r="F300" s="2">
         <v>2886.528429249401</v>
@@ -7660,10 +7660,10 @@
         <v>27</v>
       </c>
       <c r="D301" s="2">
-        <v>0.2833768659620546</v>
+        <v>0.3826576279243454</v>
       </c>
       <c r="E301" s="2">
-        <v>2026.035889570156</v>
+        <v>2093.176123176865</v>
       </c>
       <c r="F301" s="2">
         <v>2093.176123176865</v>
@@ -7684,10 +7684,10 @@
         <v>28</v>
       </c>
       <c r="D302" s="2">
-        <v>0.3539877430303022</v>
+        <v>0.3375079730758443</v>
       </c>
       <c r="E302" s="2">
-        <v>2380.143323163162</v>
+        <v>2397.866319733751</v>
       </c>
       <c r="F302" s="2">
         <v>2397.866319733751</v>
@@ -7708,7 +7708,7 @@
         <v>29</v>
       </c>
       <c r="D303" s="2">
-        <v>0.3585602079983801</v>
+        <v>0.351624527014792</v>
       </c>
       <c r="E303" s="2">
         <v>2697.802819118508</v>
@@ -7732,7 +7732,7 @@
         <v>30</v>
       </c>
       <c r="D304" s="2">
-        <v>0.4790155910304748</v>
+        <v>0.2913431479828432</v>
       </c>
       <c r="E304" s="2">
         <v>2394.455876793117</v>
@@ -7756,7 +7756,7 @@
         <v>31</v>
       </c>
       <c r="D305" s="2">
-        <v>0.3331911580171436</v>
+        <v>0.2917669150047004</v>
       </c>
       <c r="E305" s="2">
         <v>2413.544248832942</v>
@@ -7780,10 +7780,10 @@
         <v>1</v>
       </c>
       <c r="D306" s="2">
-        <v>0.3503740469459444</v>
+        <v>0.3482157589169219</v>
       </c>
       <c r="E306" s="2">
-        <v>2478.513246107261</v>
+        <v>2550.477392062239</v>
       </c>
       <c r="F306" s="2">
         <v>2550.477392062239</v>
@@ -7804,7 +7804,7 @@
         <v>2</v>
       </c>
       <c r="D307" s="2">
-        <v>0.3087544820155017</v>
+        <v>0.3397032539360225</v>
       </c>
       <c r="E307" s="2">
         <v>2803.568025817259</v>
@@ -7828,7 +7828,7 @@
         <v>3</v>
       </c>
       <c r="D308" s="2">
-        <v>0.2839208749937825</v>
+        <v>0.3553223590133712</v>
       </c>
       <c r="E308" s="2">
         <v>2073.297524583329</v>
@@ -7852,10 +7852,10 @@
         <v>4</v>
       </c>
       <c r="D309" s="2">
-        <v>0.2733514010324143</v>
+        <v>0.6284948450047523</v>
       </c>
       <c r="E309" s="2">
-        <v>2049.086423598724</v>
+        <v>2133.790139593566</v>
       </c>
       <c r="F309" s="2">
         <v>2133.790139593566</v>
@@ -7876,7 +7876,7 @@
         <v>5</v>
       </c>
       <c r="D310" s="2">
-        <v>0.2988061560317874</v>
+        <v>0.4598546460038051</v>
       </c>
       <c r="E310" s="2">
         <v>2148.287884216187</v>
@@ -7900,7 +7900,7 @@
         <v>6</v>
       </c>
       <c r="D311" s="2">
-        <v>0.3049927859683521</v>
+        <v>0.4072493449784815</v>
       </c>
       <c r="E311" s="2">
         <v>1420.527062325168</v>
@@ -7924,10 +7924,10 @@
         <v>7</v>
       </c>
       <c r="D312" s="2">
-        <v>0.2690096469596028</v>
+        <v>0.271401820005849</v>
       </c>
       <c r="E312" s="2">
-        <v>2103.994111258194</v>
+        <v>2103.994111258195</v>
       </c>
       <c r="F312" s="2">
         <v>2103.994111258194</v>
@@ -7948,7 +7948,7 @@
         <v>8</v>
       </c>
       <c r="D313" s="2">
-        <v>0.2912967260344885</v>
+        <v>0.2663463019998744</v>
       </c>
       <c r="E313" s="2">
         <v>2174.235817792049</v>
@@ -7972,7 +7972,7 @@
         <v>9</v>
       </c>
       <c r="D314" s="2">
-        <v>0.2800815380178392</v>
+        <v>0.2696892359526828</v>
       </c>
       <c r="E314" s="2">
         <v>2174.726369959499</v>
@@ -7996,10 +7996,10 @@
         <v>10</v>
       </c>
       <c r="D315" s="2">
-        <v>0.2672088500112295</v>
+        <v>0.2908156539779156</v>
       </c>
       <c r="E315" s="2">
-        <v>1824.587854972267</v>
+        <v>1866.454949582234</v>
       </c>
       <c r="F315" s="2">
         <v>1866.454949582234</v>
@@ -8020,10 +8020,10 @@
         <v>11</v>
       </c>
       <c r="D316" s="2">
-        <v>0.2730157789774239</v>
+        <v>0.2676192920189351</v>
       </c>
       <c r="E316" s="2">
-        <v>1939.510869190896</v>
+        <v>1974.800587649799</v>
       </c>
       <c r="F316" s="2">
         <v>1974.800587649799</v>
@@ -8044,7 +8044,7 @@
         <v>12</v>
       </c>
       <c r="D317" s="2">
-        <v>0.3166144450078718</v>
+        <v>0.2915763959754258</v>
       </c>
       <c r="E317" s="2">
         <v>1982.5924691358</v>
@@ -8068,10 +8068,10 @@
         <v>13</v>
       </c>
       <c r="D318" s="2">
-        <v>0.2945599569939077</v>
+        <v>0.3530211979523301</v>
       </c>
       <c r="E318" s="2">
-        <v>3116.188234106301</v>
+        <v>3116.188234106302</v>
       </c>
       <c r="F318" s="2">
         <v>3116.188234106301</v>
@@ -8092,7 +8092,7 @@
         <v>14</v>
       </c>
       <c r="D319" s="2">
-        <v>0.2828213259926997</v>
+        <v>0.3146859770640731</v>
       </c>
       <c r="E319" s="2">
         <v>2513.791558419536</v>
@@ -8116,10 +8116,10 @@
         <v>15</v>
       </c>
       <c r="D320" s="2">
-        <v>0.3093555839732289</v>
+        <v>0.2935133120045066</v>
       </c>
       <c r="E320" s="2">
-        <v>2440.988470388635</v>
+        <v>2487.31334316543</v>
       </c>
       <c r="F320" s="2">
         <v>2487.313343165431</v>
@@ -8140,7 +8140,7 @@
         <v>16</v>
       </c>
       <c r="D321" s="2">
-        <v>0.286466343968641</v>
+        <v>0.345947231980972</v>
       </c>
       <c r="E321" s="2">
         <v>2155.62492037158</v>
@@ -8164,7 +8164,7 @@
         <v>17</v>
       </c>
       <c r="D322" s="2">
-        <v>0.3107770819915459</v>
+        <v>0.2811723800841719</v>
       </c>
       <c r="E322" s="2">
         <v>1956.598980337665</v>
@@ -8188,7 +8188,7 @@
         <v>18</v>
       </c>
       <c r="D323" s="2">
-        <v>0.3554547419771552</v>
+        <v>0.3391170440008864</v>
       </c>
       <c r="E323" s="2">
         <v>2033.762385808418</v>
@@ -8212,7 +8212,7 @@
         <v>19</v>
       </c>
       <c r="D324" s="2">
-        <v>0.2805603360175155</v>
+        <v>0.2988859430188313</v>
       </c>
       <c r="E324" s="2">
         <v>1790.692173145077</v>
@@ -8236,10 +8236,10 @@
         <v>20</v>
       </c>
       <c r="D325" s="2">
-        <v>0.3558035410242155</v>
+        <v>0.3481050110422075</v>
       </c>
       <c r="E325" s="2">
-        <v>2528.124222885362</v>
+        <v>2528.124222885363</v>
       </c>
       <c r="F325" s="2">
         <v>2528.124222885363</v>
@@ -8260,10 +8260,10 @@
         <v>21</v>
       </c>
       <c r="D326" s="2">
-        <v>0.2826953679905273</v>
+        <v>0.3293859210098162</v>
       </c>
       <c r="E326" s="2">
-        <v>2195.835517280987</v>
+        <v>2288.211181279053</v>
       </c>
       <c r="F326" s="2">
         <v>2288.211181279053</v>
@@ -8284,7 +8284,7 @@
         <v>22</v>
       </c>
       <c r="D327" s="2">
-        <v>0.3087005480192602</v>
+        <v>0.3038777159526944</v>
       </c>
       <c r="E327" s="2">
         <v>2139.448375543241</v>
@@ -8308,10 +8308,10 @@
         <v>23</v>
       </c>
       <c r="D328" s="2">
-        <v>0.3348854980431497</v>
+        <v>0.2840726770227775</v>
       </c>
       <c r="E328" s="2">
-        <v>2102.99014299587</v>
+        <v>2143.470854204716</v>
       </c>
       <c r="F328" s="2">
         <v>2143.470854204716</v>
@@ -8332,7 +8332,7 @@
         <v>24</v>
       </c>
       <c r="D329" s="2">
-        <v>0.307377433986403</v>
+        <v>0.294438858050853</v>
       </c>
       <c r="E329" s="2">
         <v>2346.560229424262</v>
@@ -8356,7 +8356,7 @@
         <v>25</v>
       </c>
       <c r="D330" s="2">
-        <v>0.2765291029936634</v>
+        <v>0.3021170169813558</v>
       </c>
       <c r="E330" s="2">
         <v>2540.4801004565</v>
@@ -8380,7 +8380,7 @@
         <v>26</v>
       </c>
       <c r="D331" s="2">
-        <v>0.3070982360513881</v>
+        <v>0.2640367810381576</v>
       </c>
       <c r="E331" s="2">
         <v>2642.413305597452</v>
@@ -8404,10 +8404,10 @@
         <v>27</v>
       </c>
       <c r="D332" s="2">
-        <v>0.2790412519825622</v>
+        <v>0.2803542180918157</v>
       </c>
       <c r="E332" s="2">
-        <v>1658.302505119404</v>
+        <v>1874.46367239568</v>
       </c>
       <c r="F332" s="2">
         <v>1874.463672395679</v>
@@ -8428,7 +8428,7 @@
         <v>28</v>
       </c>
       <c r="D333" s="2">
-        <v>0.3403656539740041</v>
+        <v>0.3090390880824998</v>
       </c>
       <c r="E333" s="2">
         <v>2746.67888380407</v>
@@ -8452,10 +8452,10 @@
         <v>29</v>
       </c>
       <c r="D334" s="2">
-        <v>0.3274023850099184</v>
+        <v>0.2972230629529804</v>
       </c>
       <c r="E334" s="2">
-        <v>2520.968368639323</v>
+        <v>2520.968368639324</v>
       </c>
       <c r="F334" s="2">
         <v>2520.968368639324</v>
@@ -8476,10 +8476,10 @@
         <v>30</v>
       </c>
       <c r="D335" s="2">
-        <v>0.3411562540568411</v>
+        <v>0.2735401899553835</v>
       </c>
       <c r="E335" s="2">
-        <v>2764.156789100399</v>
+        <v>2821.031656368113</v>
       </c>
       <c r="F335" s="2">
         <v>2821.031656368112</v>
@@ -8500,7 +8500,7 @@
         <v>1</v>
       </c>
       <c r="D336" s="2">
-        <v>0.3458721239585429</v>
+        <v>0.3064385550096631</v>
       </c>
       <c r="E336" s="2">
         <v>2292.151148569029</v>
@@ -8524,7 +8524,7 @@
         <v>2</v>
       </c>
       <c r="D337" s="2">
-        <v>0.3046573030296713</v>
+        <v>0.3511768450262025</v>
       </c>
       <c r="E337" s="2">
         <v>2070.184153163144</v>
@@ -8548,7 +8548,7 @@
         <v>3</v>
       </c>
       <c r="D338" s="2">
-        <v>0.2986336770118214</v>
+        <v>0.2927234240341932</v>
       </c>
       <c r="E338" s="2">
         <v>2101.533017466671</v>
@@ -8572,10 +8572,10 @@
         <v>4</v>
       </c>
       <c r="D339" s="2">
-        <v>0.3208363180165179</v>
+        <v>0.3065317940199748</v>
       </c>
       <c r="E339" s="2">
-        <v>2775.48311906452</v>
+        <v>2775.483119064521</v>
       </c>
       <c r="F339" s="2">
         <v>2775.483119064521</v>
@@ -8596,7 +8596,7 @@
         <v>5</v>
       </c>
       <c r="D340" s="2">
-        <v>0.309020972053986</v>
+        <v>0.2912435139296576</v>
       </c>
       <c r="E340" s="2">
         <v>1567.818246447065</v>
@@ -8620,10 +8620,10 @@
         <v>6</v>
       </c>
       <c r="D341" s="2">
-        <v>0.2956760699744336</v>
+        <v>0.2785316149238497</v>
       </c>
       <c r="E341" s="2">
-        <v>2859.278216211675</v>
+        <v>2859.278216211676</v>
       </c>
       <c r="F341" s="2">
         <v>2859.278216211676</v>
@@ -8644,7 +8644,7 @@
         <v>7</v>
       </c>
       <c r="D342" s="2">
-        <v>0.3500592669588514</v>
+        <v>0.3266385769238696</v>
       </c>
       <c r="E342" s="2">
         <v>2120.579599003091</v>
@@ -8668,7 +8668,7 @@
         <v>8</v>
       </c>
       <c r="D343" s="2">
-        <v>0.3483056210097857</v>
+        <v>0.3065638819243759</v>
       </c>
       <c r="E343" s="2">
         <v>2046.001031995618</v>
@@ -8692,7 +8692,7 @@
         <v>9</v>
       </c>
       <c r="D344" s="2">
-        <v>0.4151044029858895</v>
+        <v>0.2889155249577016</v>
       </c>
       <c r="E344" s="2">
         <v>2478.759343790518</v>
@@ -8716,7 +8716,7 @@
         <v>10</v>
       </c>
       <c r="D345" s="2">
-        <v>0.3894695169874467</v>
+        <v>0.2876065889140591</v>
       </c>
       <c r="E345" s="2">
         <v>2022.565606640634</v>
@@ -8740,7 +8740,7 @@
         <v>11</v>
       </c>
       <c r="D346" s="2">
-        <v>0.3213619989692234</v>
+        <v>0.2982333679683506</v>
       </c>
       <c r="E346" s="2">
         <v>2594.355465694332</v>
@@ -8764,7 +8764,7 @@
         <v>12</v>
       </c>
       <c r="D347" s="2">
-        <v>0.3495855780201964</v>
+        <v>0.2921754820272326</v>
       </c>
       <c r="E347" s="2">
         <v>2492.088328115245</v>
@@ -8788,7 +8788,7 @@
         <v>13</v>
       </c>
       <c r="D348" s="2">
-        <v>0.3282589830341749</v>
+        <v>0.2782211500452831</v>
       </c>
       <c r="E348" s="2">
         <v>2768.855354466221</v>
@@ -8812,7 +8812,7 @@
         <v>14</v>
       </c>
       <c r="D349" s="2">
-        <v>0.3094288489664905</v>
+        <v>0.3015196170890704</v>
       </c>
       <c r="E349" s="2">
         <v>2457.131096596207</v>
@@ -8836,7 +8836,7 @@
         <v>15</v>
       </c>
       <c r="D350" s="2">
-        <v>0.3826358640217222</v>
+        <v>0.3082181829959154</v>
       </c>
       <c r="E350" s="2">
         <v>2917.600163431559</v>
@@ -8860,7 +8860,7 @@
         <v>16</v>
       </c>
       <c r="D351" s="2">
-        <v>0.304185553046409</v>
+        <v>0.3339781720424071</v>
       </c>
       <c r="E351" s="2">
         <v>2465.529689350901</v>
@@ -8884,10 +8884,10 @@
         <v>17</v>
       </c>
       <c r="D352" s="2">
-        <v>0.3582513930159621</v>
+        <v>0.2857809739653021</v>
       </c>
       <c r="E352" s="2">
-        <v>2036.974169322242</v>
+        <v>2036.974169322243</v>
       </c>
       <c r="F352" s="2">
         <v>2036.974169322242</v>
@@ -8908,10 +8908,10 @@
         <v>18</v>
       </c>
       <c r="D353" s="2">
-        <v>0.3781720240367576</v>
+        <v>0.354342581005767</v>
       </c>
       <c r="E353" s="2">
-        <v>2101.488835819664</v>
+        <v>2101.488835819665</v>
       </c>
       <c r="F353" s="2">
         <v>2101.488835819664</v>
@@ -8932,7 +8932,7 @@
         <v>19</v>
       </c>
       <c r="D354" s="2">
-        <v>0.3243621459696442</v>
+        <v>0.3619268250185996</v>
       </c>
       <c r="E354" s="2">
         <v>2233.961218290029</v>
@@ -8956,7 +8956,7 @@
         <v>20</v>
       </c>
       <c r="D355" s="2">
-        <v>0.366477488016244</v>
+        <v>0.2821975450497121</v>
       </c>
       <c r="E355" s="2">
         <v>2422.65477233582</v>
@@ -8980,7 +8980,7 @@
         <v>21</v>
       </c>
       <c r="D356" s="2">
-        <v>0.3894886540365405</v>
+        <v>0.3592581429984421</v>
       </c>
       <c r="E356" s="2">
         <v>2695.900780095736</v>
@@ -9004,7 +9004,7 @@
         <v>22</v>
       </c>
       <c r="D357" s="2">
-        <v>0.3456331359921023</v>
+        <v>0.343119204044342</v>
       </c>
       <c r="E357" s="2">
         <v>2120.598037190501</v>
@@ -9028,10 +9028,10 @@
         <v>23</v>
       </c>
       <c r="D358" s="2">
-        <v>0.3370399990235455</v>
+        <v>0.3252279669977725</v>
       </c>
       <c r="E358" s="2">
-        <v>1950.011238065563</v>
+        <v>1975.400320893315</v>
       </c>
       <c r="F358" s="2">
         <v>1975.400320893314</v>
@@ -9052,7 +9052,7 @@
         <v>24</v>
       </c>
       <c r="D359" s="2">
-        <v>0.3071930840378627</v>
+        <v>0.3349003519397229</v>
       </c>
       <c r="E359" s="2">
         <v>2196.411681006276</v>
@@ -9076,10 +9076,10 @@
         <v>25</v>
       </c>
       <c r="D360" s="2">
-        <v>0.3703713310533203</v>
+        <v>0.2962353290058672</v>
       </c>
       <c r="E360" s="2">
-        <v>1956.798884366392</v>
+        <v>1958.521513233835</v>
       </c>
       <c r="F360" s="2">
         <v>1958.521513233836</v>
@@ -9100,7 +9100,7 @@
         <v>26</v>
       </c>
       <c r="D361" s="2">
-        <v>0.3000293230288662</v>
+        <v>0.350660645053722</v>
       </c>
       <c r="E361" s="2">
         <v>2288.167940638722</v>
@@ -9124,7 +9124,7 @@
         <v>27</v>
       </c>
       <c r="D362" s="2">
-        <v>0.30835805402603</v>
+        <v>0.2915246339980513</v>
       </c>
       <c r="E362" s="2">
         <v>2278.652685951822</v>
@@ -9148,7 +9148,7 @@
         <v>28</v>
       </c>
       <c r="D363" s="2">
-        <v>0.3187055390444584</v>
+        <v>0.3331133739557117</v>
       </c>
       <c r="E363" s="2">
         <v>2218.712860994154</v>
@@ -9172,10 +9172,10 @@
         <v>29</v>
       </c>
       <c r="D364" s="2">
-        <v>0.330562196963001</v>
+        <v>0.3712663520127535</v>
       </c>
       <c r="E364" s="2">
-        <v>2049.503825583163</v>
+        <v>2099.477696045723</v>
       </c>
       <c r="F364" s="2">
         <v>2099.477696045723</v>
@@ -9196,10 +9196,10 @@
         <v>30</v>
       </c>
       <c r="D365" s="2">
-        <v>0.2684448750223964</v>
+        <v>0.2896840680623427</v>
       </c>
       <c r="E365" s="2">
-        <v>1825.298323391743</v>
+        <v>1825.298323391744</v>
       </c>
       <c r="F365" s="2">
         <v>1825.298323391744</v>
@@ -9220,7 +9220,7 @@
         <v>1</v>
       </c>
       <c r="D366" s="2">
-        <v>0.3284733109758236</v>
+        <v>0.3346703629940748</v>
       </c>
       <c r="E366" s="2">
         <v>2141.096714178388</v>
@@ -9244,10 +9244,10 @@
         <v>2</v>
       </c>
       <c r="D367" s="2">
-        <v>0.4746143000083975</v>
+        <v>0.3432915259618312</v>
       </c>
       <c r="E367" s="2">
-        <v>2084.623492333883</v>
+        <v>2129.845562978825</v>
       </c>
       <c r="F367" s="2">
         <v>2129.845562978824</v>
@@ -9268,7 +9268,7 @@
         <v>3</v>
       </c>
       <c r="D368" s="2">
-        <v>0.301450066966936</v>
+        <v>0.2942890400299802</v>
       </c>
       <c r="E368" s="2">
         <v>2604.148407168685</v>
@@ -9292,7 +9292,7 @@
         <v>4</v>
       </c>
       <c r="D369" s="2">
-        <v>0.374441915017087</v>
+        <v>0.2794358059763908</v>
       </c>
       <c r="E369" s="2">
         <v>1957.393301951262</v>
@@ -9316,7 +9316,7 @@
         <v>5</v>
       </c>
       <c r="D370" s="2">
-        <v>0.3102637509582564</v>
+        <v>0.3120729790534824</v>
       </c>
       <c r="E370" s="2">
         <v>1929.049679722269</v>
@@ -9340,7 +9340,7 @@
         <v>6</v>
       </c>
       <c r="D371" s="2">
-        <v>0.2846757899969816</v>
+        <v>0.2937137819826603</v>
       </c>
       <c r="E371" s="2">
         <v>1891.847522102674</v>
@@ -9364,10 +9364,10 @@
         <v>7</v>
       </c>
       <c r="D372" s="2">
-        <v>0.2815248559927568</v>
+        <v>0.2927223549922928</v>
       </c>
       <c r="E372" s="2">
-        <v>2794.33940233296</v>
+        <v>2794.339402332959</v>
       </c>
       <c r="F372" s="2">
         <v>2794.33940233296</v>
@@ -9388,7 +9388,7 @@
         <v>8</v>
       </c>
       <c r="D373" s="2">
-        <v>0.3728289020364173</v>
+        <v>0.2818490939680487</v>
       </c>
       <c r="E373" s="2">
         <v>2602.451760576937</v>
@@ -9412,7 +9412,7 @@
         <v>9</v>
       </c>
       <c r="D374" s="2">
-        <v>0.3136314669973217</v>
+        <v>0.287597879068926</v>
       </c>
       <c r="E374" s="2">
         <v>2052.879496798337</v>
@@ -9436,10 +9436,10 @@
         <v>10</v>
       </c>
       <c r="D375" s="2">
-        <v>0.3571155230165459</v>
+        <v>0.3580996879609302</v>
       </c>
       <c r="E375" s="2">
-        <v>1811.772602192692</v>
+        <v>1925.3277438084</v>
       </c>
       <c r="F375" s="2">
         <v>1925.327743808401</v>
@@ -9460,10 +9460,10 @@
         <v>11</v>
       </c>
       <c r="D376" s="2">
-        <v>0.3176542309811339</v>
+        <v>0.3227479719789699</v>
       </c>
       <c r="E376" s="2">
-        <v>2363.221894467341</v>
+        <v>2363.22189446734</v>
       </c>
       <c r="F376" s="2">
         <v>2363.221894467341</v>
@@ -9484,7 +9484,7 @@
         <v>12</v>
       </c>
       <c r="D377" s="2">
-        <v>0.2917447119834833</v>
+        <v>0.2848705290816724</v>
       </c>
       <c r="E377" s="2">
         <v>2447.535162410311</v>
@@ -9508,7 +9508,7 @@
         <v>13</v>
       </c>
       <c r="D378" s="2">
-        <v>0.3008875860250555</v>
+        <v>0.3396532280603424</v>
       </c>
       <c r="E378" s="2">
         <v>1974.532148995889</v>
@@ -9532,10 +9532,10 @@
         <v>14</v>
       </c>
       <c r="D379" s="2">
-        <v>0.2789397219894454</v>
+        <v>0.2989098819671199</v>
       </c>
       <c r="E379" s="2">
-        <v>2220.200507196993</v>
+        <v>2220.200507196992</v>
       </c>
       <c r="F379" s="2">
         <v>2220.200507196993</v>
@@ -9556,7 +9556,7 @@
         <v>15</v>
       </c>
       <c r="D380" s="2">
-        <v>0.3173177480348386</v>
+        <v>0.3181030090199783</v>
       </c>
       <c r="E380" s="2">
         <v>2208.057351411536</v>
@@ -9580,7 +9580,7 @@
         <v>16</v>
       </c>
       <c r="D381" s="2">
-        <v>0.2653015159885399</v>
+        <v>0.2848544369917363</v>
       </c>
       <c r="E381" s="2">
         <v>2861.241067203724</v>
@@ -9604,7 +9604,7 @@
         <v>17</v>
       </c>
       <c r="D382" s="2">
-        <v>0.2734955220366828</v>
+        <v>0.3318557889433578</v>
       </c>
       <c r="E382" s="2">
         <v>1958.120948796095</v>
@@ -9628,7 +9628,7 @@
         <v>18</v>
       </c>
       <c r="D383" s="2">
-        <v>0.3001504539861344</v>
+        <v>0.2871849160874262</v>
       </c>
       <c r="E383" s="2">
         <v>2064.014725784071</v>
@@ -9652,10 +9652,10 @@
         <v>19</v>
       </c>
       <c r="D384" s="2">
-        <v>0.2801488789846189</v>
+        <v>0.2823896300978959</v>
       </c>
       <c r="E384" s="2">
-        <v>2924.729042821604</v>
+        <v>2924.729042821605</v>
       </c>
       <c r="F384" s="2">
         <v>2924.729042821604</v>
@@ -9676,10 +9676,10 @@
         <v>20</v>
       </c>
       <c r="D385" s="2">
-        <v>0.3198012979701161</v>
+        <v>0.2907204749062657</v>
       </c>
       <c r="E385" s="2">
-        <v>2462.071835767863</v>
+        <v>2462.071835767862</v>
       </c>
       <c r="F385" s="2">
         <v>2462.071835767862</v>
@@ -9700,7 +9700,7 @@
         <v>21</v>
       </c>
       <c r="D386" s="2">
-        <v>0.398655133030843</v>
+        <v>0.3545987399993464</v>
       </c>
       <c r="E386" s="2">
         <v>2054.180701308586</v>
@@ -9724,7 +9724,7 @@
         <v>22</v>
       </c>
       <c r="D387" s="2">
-        <v>0.3514179660123773</v>
+        <v>0.3026019060052931</v>
       </c>
       <c r="E387" s="2">
         <v>2575.227727061364</v>
@@ -9748,10 +9748,10 @@
         <v>23</v>
       </c>
       <c r="D388" s="2">
-        <v>0.3617156079853885</v>
+        <v>0.2964358070166782</v>
       </c>
       <c r="E388" s="2">
-        <v>1646.05363054327</v>
+        <v>1646.053630543269</v>
       </c>
       <c r="F388" s="2">
         <v>1646.053630543269</v>
@@ -9772,7 +9772,7 @@
         <v>24</v>
       </c>
       <c r="D389" s="2">
-        <v>0.3377331459778361</v>
+        <v>0.2855023150332272</v>
       </c>
       <c r="E389" s="2">
         <v>2616.950332556245</v>
@@ -9796,7 +9796,7 @@
         <v>25</v>
       </c>
       <c r="D390" s="2">
-        <v>0.2894012460019439</v>
+        <v>0.3285085849929601</v>
       </c>
       <c r="E390" s="2">
         <v>2921.500693814433</v>
@@ -9820,7 +9820,7 @@
         <v>26</v>
       </c>
       <c r="D391" s="2">
-        <v>0.2649057999951765</v>
+        <v>0.3101030760444701</v>
       </c>
       <c r="E391" s="2">
         <v>2449.482774238275</v>
@@ -9844,10 +9844,10 @@
         <v>27</v>
       </c>
       <c r="D392" s="2">
-        <v>0.2965851170010865</v>
+        <v>0.3346717439126223</v>
       </c>
       <c r="E392" s="2">
-        <v>2513.635308570147</v>
+        <v>2513.635308570146</v>
       </c>
       <c r="F392" s="2">
         <v>2513.635308570147</v>
@@ -9868,10 +9868,10 @@
         <v>28</v>
       </c>
       <c r="D393" s="2">
-        <v>0.3175045449752361</v>
+        <v>0.3007885480765253</v>
       </c>
       <c r="E393" s="2">
-        <v>2540.640017250333</v>
+        <v>2628.465131147235</v>
       </c>
       <c r="F393" s="2">
         <v>2628.465131147234</v>
@@ -9892,10 +9892,10 @@
         <v>29</v>
       </c>
       <c r="D394" s="2">
-        <v>0.3441624859697185</v>
+        <v>0.3354782680980861</v>
       </c>
       <c r="E394" s="2">
-        <v>2045.427175164191</v>
+        <v>2045.42717516419</v>
       </c>
       <c r="F394" s="2">
         <v>2045.427175164191</v>
@@ -9916,7 +9916,7 @@
         <v>30</v>
       </c>
       <c r="D395" s="2">
-        <v>0.344737965031527</v>
+        <v>0.3248896680306643</v>
       </c>
       <c r="E395" s="2">
         <v>2484.717907188069</v>
@@ -9940,7 +9940,7 @@
         <v>31</v>
       </c>
       <c r="D396" s="2">
-        <v>0.3329418560024351</v>
+        <v>0.3632238060235977</v>
       </c>
       <c r="E396" s="2">
         <v>2386.756028005147</v>
@@ -9964,7 +9964,7 @@
         <v>1</v>
       </c>
       <c r="D397" s="2">
-        <v>0.3054567940416746</v>
+        <v>0.3530945669626817</v>
       </c>
       <c r="E397" s="2">
         <v>3105.278406368192</v>
@@ -9988,7 +9988,7 @@
         <v>2</v>
       </c>
       <c r="D398" s="2">
-        <v>0.3170007099979557</v>
+        <v>0.3532284720567986</v>
       </c>
       <c r="E398" s="2">
         <v>1911.607552698302</v>
@@ -10012,10 +10012,10 @@
         <v>3</v>
       </c>
       <c r="D399" s="2">
-        <v>0.3206995450309478</v>
+        <v>0.2978287999285385</v>
       </c>
       <c r="E399" s="2">
-        <v>1948.234701615115</v>
+        <v>2011.801926986374</v>
       </c>
       <c r="F399" s="2">
         <v>2011.801926986374</v>
@@ -10036,10 +10036,10 @@
         <v>4</v>
       </c>
       <c r="D400" s="2">
-        <v>0.312728579971008</v>
+        <v>0.3411696160910651</v>
       </c>
       <c r="E400" s="2">
-        <v>2666.885073440669</v>
+        <v>2666.88507344067</v>
       </c>
       <c r="F400" s="2">
         <v>2666.88507344067</v>
@@ -10060,10 +10060,10 @@
         <v>5</v>
       </c>
       <c r="D401" s="2">
-        <v>0.2858447300386615</v>
+        <v>0.3439946749713272</v>
       </c>
       <c r="E401" s="2">
-        <v>2070.455959243017</v>
+        <v>2166.229585204542</v>
       </c>
       <c r="F401" s="2">
         <v>2166.229585204542</v>
@@ -10084,10 +10084,10 @@
         <v>6</v>
       </c>
       <c r="D402" s="2">
-        <v>0.2782621429651044</v>
+        <v>0.3456096929730847</v>
       </c>
       <c r="E402" s="2">
-        <v>2092.148574489012</v>
+        <v>2092.148574489011</v>
       </c>
       <c r="F402" s="2">
         <v>2092.148574489011</v>
@@ -10108,10 +10108,10 @@
         <v>7</v>
       </c>
       <c r="D403" s="2">
-        <v>0.3954081769916229</v>
+        <v>0.3576868519885466</v>
       </c>
       <c r="E403" s="2">
-        <v>1989.355385964533</v>
+        <v>1989.355385964532</v>
       </c>
       <c r="F403" s="2">
         <v>1989.355385964533</v>
@@ -10132,10 +10132,10 @@
         <v>8</v>
       </c>
       <c r="D404" s="2">
-        <v>0.3473192129749805</v>
+        <v>0.3084739100886509</v>
       </c>
       <c r="E404" s="2">
-        <v>2163.614345411666</v>
+        <v>2163.614345411667</v>
       </c>
       <c r="F404" s="2">
         <v>2163.614345411667</v>
@@ -10156,7 +10156,7 @@
         <v>9</v>
       </c>
       <c r="D405" s="2">
-        <v>0.3185441140085459</v>
+        <v>0.3987958099460229</v>
       </c>
       <c r="E405" s="2">
         <v>2004.797372912014</v>
@@ -10180,10 +10180,10 @@
         <v>10</v>
       </c>
       <c r="D406" s="2">
-        <v>0.3063125979970209</v>
+        <v>0.3502758409595117</v>
       </c>
       <c r="E406" s="2">
-        <v>1988.570969542857</v>
+        <v>1988.570969542856</v>
       </c>
       <c r="F406" s="2">
         <v>1988.570969542856</v>
@@ -10204,10 +10204,10 @@
         <v>11</v>
       </c>
       <c r="D407" s="2">
-        <v>0.3443116809939966</v>
+        <v>0.3625477009918541</v>
       </c>
       <c r="E407" s="2">
-        <v>1674.515001150732</v>
+        <v>1687.391591314908</v>
       </c>
       <c r="F407" s="2">
         <v>1687.391591314908</v>
@@ -10228,7 +10228,7 @@
         <v>12</v>
       </c>
       <c r="D408" s="2">
-        <v>0.3877904069959186</v>
+        <v>0.4300980509724468</v>
       </c>
       <c r="E408" s="2">
         <v>1812.624549284745</v>
@@ -10252,7 +10252,7 @@
         <v>13</v>
       </c>
       <c r="D409" s="2">
-        <v>0.3468187840189785</v>
+        <v>0.4122786790831015</v>
       </c>
       <c r="E409" s="2">
         <v>1771.24881947355</v>
@@ -10276,10 +10276,10 @@
         <v>14</v>
       </c>
       <c r="D410" s="2">
-        <v>0.3106224969960749</v>
+        <v>0.3003423470072448</v>
       </c>
       <c r="E410" s="2">
-        <v>2507.328099342011</v>
+        <v>2507.32809934201</v>
       </c>
       <c r="F410" s="2">
         <v>2507.328099342011</v>
@@ -10300,10 +10300,10 @@
         <v>15</v>
       </c>
       <c r="D411" s="2">
-        <v>0.3024078640155494</v>
+        <v>0.3151348889805377</v>
       </c>
       <c r="E411" s="2">
-        <v>2467.079631139002</v>
+        <v>2467.079631139003</v>
       </c>
       <c r="F411" s="2">
         <v>2467.079631139003</v>
@@ -10324,10 +10324,10 @@
         <v>16</v>
       </c>
       <c r="D412" s="2">
-        <v>0.3930131570086814</v>
+        <v>0.2958457820350304</v>
       </c>
       <c r="E412" s="2">
-        <v>2454.943913213881</v>
+        <v>2454.94391321388</v>
       </c>
       <c r="F412" s="2">
         <v>2454.943913213881</v>
@@ -10348,7 +10348,7 @@
         <v>17</v>
       </c>
       <c r="D413" s="2">
-        <v>0.3316975579946302</v>
+        <v>0.2850918800104409</v>
       </c>
       <c r="E413" s="2">
         <v>2226.189000106105</v>
@@ -10372,7 +10372,7 @@
         <v>18</v>
       </c>
       <c r="D414" s="2">
-        <v>0.3175624500145204</v>
+        <v>2.438342883950099</v>
       </c>
       <c r="E414" s="2">
         <v>2139.271055985825</v>
@@ -10396,10 +10396,10 @@
         <v>19</v>
       </c>
       <c r="D415" s="2">
-        <v>0.3595482699456625</v>
+        <v>0.9943256370024756</v>
       </c>
       <c r="E415" s="2">
-        <v>1994.319927094142</v>
+        <v>1994.319927094141</v>
       </c>
       <c r="F415" s="2">
         <v>1994.319927094142</v>
@@ -10420,10 +10420,10 @@
         <v>20</v>
       </c>
       <c r="D416" s="2">
-        <v>0.328389099042397</v>
+        <v>1.006912578945048</v>
       </c>
       <c r="E416" s="2">
-        <v>2224.923101035528</v>
+        <v>2224.923101035529</v>
       </c>
       <c r="F416" s="2">
         <v>2224.923101035529</v>
@@ -10444,10 +10444,10 @@
         <v>21</v>
       </c>
       <c r="D417" s="2">
-        <v>0.4160595979774371</v>
+        <v>0.3397602110635489</v>
       </c>
       <c r="E417" s="2">
-        <v>1990.460749711334</v>
+        <v>2038.993921146112</v>
       </c>
       <c r="F417" s="2">
         <v>2038.993921146112</v>
@@ -10468,7 +10468,7 @@
         <v>22</v>
       </c>
       <c r="D418" s="2">
-        <v>0.4018165500019677</v>
+        <v>0.2911598109640181</v>
       </c>
       <c r="E418" s="2">
         <v>1792.255481862486</v>
@@ -10492,10 +10492,10 @@
         <v>23</v>
       </c>
       <c r="D419" s="2">
-        <v>0.2942579169757664</v>
+        <v>0.2894695790018886</v>
       </c>
       <c r="E419" s="2">
-        <v>2527.92633897339</v>
+        <v>2527.926338973391</v>
       </c>
       <c r="F419" s="2">
         <v>2527.926338973392</v>
@@ -10516,7 +10516,7 @@
         <v>24</v>
       </c>
       <c r="D420" s="2">
-        <v>0.2800194929586723</v>
+        <v>0.2959777419455349</v>
       </c>
       <c r="E420" s="2">
         <v>1893.856963774813</v>
@@ -10540,10 +10540,10 @@
         <v>25</v>
       </c>
       <c r="D421" s="2">
-        <v>0.3089478090405464</v>
+        <v>0.3392566490219906</v>
       </c>
       <c r="E421" s="2">
-        <v>1737.201649272559</v>
+        <v>1737.201649272558</v>
       </c>
       <c r="F421" s="2">
         <v>1737.201649272558</v>
@@ -10564,10 +10564,10 @@
         <v>26</v>
       </c>
       <c r="D422" s="2">
-        <v>0.3172116709756665</v>
+        <v>0.3012804859317839</v>
       </c>
       <c r="E422" s="2">
-        <v>2181.758990259251</v>
+        <v>2181.75899025925</v>
       </c>
       <c r="F422" s="2">
         <v>2181.75899025925</v>
@@ -10588,7 +10588,7 @@
         <v>27</v>
       </c>
       <c r="D423" s="2">
-        <v>0.3939503529691137</v>
+        <v>0.3458455039653927</v>
       </c>
       <c r="E423" s="2">
         <v>2211.941829674329</v>
@@ -10612,7 +10612,7 @@
         <v>28</v>
       </c>
       <c r="D424" s="2">
-        <v>0.3218237470136955</v>
+        <v>0.3578264788957313</v>
       </c>
       <c r="E424" s="2">
         <v>1682.626120111182</v>
@@ -10636,7 +10636,7 @@
         <v>1</v>
       </c>
       <c r="D425" s="2">
-        <v>0.3105458609643392</v>
+        <v>0.374784272047691</v>
       </c>
       <c r="E425" s="2">
         <v>1683.217770503193</v>
@@ -10660,7 +10660,7 @@
         <v>2</v>
       </c>
       <c r="D426" s="2">
-        <v>0.4317302720155567</v>
+        <v>0.4014424099586904</v>
       </c>
       <c r="E426" s="2">
         <v>2233.233197864206</v>
@@ -10684,7 +10684,7 @@
         <v>3</v>
       </c>
       <c r="D427" s="2">
-        <v>0.3682623640052043</v>
+        <v>0.2758749850327149</v>
       </c>
       <c r="E427" s="2">
         <v>1960.442864197815</v>
@@ -10708,7 +10708,7 @@
         <v>4</v>
       </c>
       <c r="D428" s="2">
-        <v>0.3346878800075501</v>
+        <v>0.315857665031217</v>
       </c>
       <c r="E428" s="2">
         <v>1936.512470660004</v>
@@ -10732,7 +10732,7 @@
         <v>5</v>
       </c>
       <c r="D429" s="2">
-        <v>0.4231203869567253</v>
+        <v>0.2846242310479283</v>
       </c>
       <c r="E429" s="2">
         <v>2496.493827221376</v>
@@ -10756,7 +10756,7 @@
         <v>6</v>
       </c>
       <c r="D430" s="2">
-        <v>0.3133709669928066</v>
+        <v>0.3042076519923285</v>
       </c>
       <c r="E430" s="2">
         <v>1897.539009068802</v>
@@ -10780,10 +10780,10 @@
         <v>7</v>
       </c>
       <c r="D431" s="2">
-        <v>0.3567317219567485</v>
+        <v>0.2619958670111373</v>
       </c>
       <c r="E431" s="2">
-        <v>1751.859819335068</v>
+        <v>1751.859819335069</v>
       </c>
       <c r="F431" s="2">
         <v>1751.859819335068</v>
@@ -10804,7 +10804,7 @@
         <v>8</v>
       </c>
       <c r="D432" s="2">
-        <v>0.315769107954111</v>
+        <v>0.2972859099972993</v>
       </c>
       <c r="E432" s="2">
         <v>2294.192651908067</v>
@@ -10828,10 +10828,10 @@
         <v>9</v>
       </c>
       <c r="D433" s="2">
-        <v>0.3864569719880819</v>
+        <v>0.3040339259896427</v>
       </c>
       <c r="E433" s="2">
-        <v>2452.406048667821</v>
+        <v>2452.40604866782</v>
       </c>
       <c r="F433" s="2">
         <v>2452.40604866782</v>
@@ -10852,10 +10852,10 @@
         <v>10</v>
       </c>
       <c r="D434" s="2">
-        <v>0.2977081410354003</v>
+        <v>0.3781804629834369</v>
       </c>
       <c r="E434" s="2">
-        <v>1998.463837148076</v>
+        <v>1998.463837148075</v>
       </c>
       <c r="F434" s="2">
         <v>1998.463837148076</v>
@@ -10876,7 +10876,7 @@
         <v>11</v>
       </c>
       <c r="D435" s="2">
-        <v>0.2887431250419468</v>
+        <v>0.2769971740199253</v>
       </c>
       <c r="E435" s="2">
         <v>2254.556799926816</v>
@@ -10900,10 +10900,10 @@
         <v>12</v>
       </c>
       <c r="D436" s="2">
-        <v>0.348530674003996</v>
+        <v>0.2859138230560347</v>
       </c>
       <c r="E436" s="2">
-        <v>2019.569406096414</v>
+        <v>2073.970884952444</v>
       </c>
       <c r="F436" s="2">
         <v>2073.970884952444</v>
@@ -10924,7 +10924,7 @@
         <v>13</v>
       </c>
       <c r="D437" s="2">
-        <v>0.3212561499676667</v>
+        <v>0.2799486550502479</v>
       </c>
       <c r="E437" s="2">
         <v>2562.582975121857</v>
@@ -10948,10 +10948,10 @@
         <v>14</v>
       </c>
       <c r="D438" s="2">
-        <v>0.3063012029742822</v>
+        <v>0.2707632600795478</v>
       </c>
       <c r="E438" s="2">
-        <v>2255.359284319739</v>
+        <v>2255.35928431974</v>
       </c>
       <c r="F438" s="2">
         <v>2255.35928431974</v>
@@ -10972,10 +10972,10 @@
         <v>15</v>
       </c>
       <c r="D439" s="2">
-        <v>0.3127821270027198</v>
+        <v>0.3049473860301077</v>
       </c>
       <c r="E439" s="2">
-        <v>2373.329966842847</v>
+        <v>2399.513718187654</v>
       </c>
       <c r="F439" s="2">
         <v>2399.513718187654</v>
@@ -10996,7 +10996,7 @@
         <v>16</v>
       </c>
       <c r="D440" s="2">
-        <v>0.3210781380184926</v>
+        <v>0.2728628700133413</v>
       </c>
       <c r="E440" s="2">
         <v>2278.338662123207</v>
@@ -11020,7 +11020,7 @@
         <v>17</v>
       </c>
       <c r="D441" s="2">
-        <v>0.3700282729696482</v>
+        <v>0.2667534908978269</v>
       </c>
       <c r="E441" s="2">
         <v>2621.839627268885</v>
@@ -11044,7 +11044,7 @@
         <v>18</v>
       </c>
       <c r="D442" s="2">
-        <v>0.3576723680016585</v>
+        <v>0.2956588000524789</v>
       </c>
       <c r="E442" s="2">
         <v>2420.639512634204</v>
@@ -11068,7 +11068,7 @@
         <v>19</v>
       </c>
       <c r="D443" s="2">
-        <v>0.3003326639882289</v>
+        <v>0.2919035139493644</v>
       </c>
       <c r="E443" s="2">
         <v>2193.358903931784</v>
@@ -11092,7 +11092,7 @@
         <v>20</v>
       </c>
       <c r="D444" s="2">
-        <v>0.3895880740019493</v>
+        <v>0.2565873899729922</v>
       </c>
       <c r="E444" s="2">
         <v>2129.343535096184</v>
@@ -11116,10 +11116,10 @@
         <v>21</v>
       </c>
       <c r="D445" s="2">
-        <v>0.4269387659733184</v>
+        <v>0.2645095150219277</v>
       </c>
       <c r="E445" s="2">
-        <v>2603.081626913806</v>
+        <v>2603.081626913807</v>
       </c>
       <c r="F445" s="2">
         <v>2603.081626913808</v>
@@ -11140,7 +11140,7 @@
         <v>22</v>
       </c>
       <c r="D446" s="2">
-        <v>0.3533754100208171</v>
+        <v>0.2651222019921988</v>
       </c>
       <c r="E446" s="2">
         <v>2878.031504565235</v>
@@ -11164,10 +11164,10 @@
         <v>23</v>
       </c>
       <c r="D447" s="2">
-        <v>0.3446948910132051</v>
+        <v>0.2926372729707509</v>
       </c>
       <c r="E447" s="2">
-        <v>2055.277264230926</v>
+        <v>2178.624570211023</v>
       </c>
       <c r="F447" s="2">
         <v>2178.624570211024</v>
@@ -11188,7 +11188,7 @@
         <v>24</v>
       </c>
       <c r="D448" s="2">
-        <v>0.4352685589692555</v>
+        <v>0.2911710600601509</v>
       </c>
       <c r="E448" s="2">
         <v>1767.608635181344</v>
@@ -11212,7 +11212,7 @@
         <v>25</v>
       </c>
       <c r="D449" s="2">
-        <v>0.5228974619531073</v>
+        <v>0.2859877060400322</v>
       </c>
       <c r="E449" s="2">
         <v>1964.77961112694</v>
@@ -11236,10 +11236,10 @@
         <v>26</v>
       </c>
       <c r="D450" s="2">
-        <v>0.5307285760063678</v>
+        <v>0.2852684549288824</v>
       </c>
       <c r="E450" s="2">
-        <v>2164.595197619156</v>
+        <v>2182.042962346913</v>
       </c>
       <c r="F450" s="2">
         <v>2182.042962346914</v>
@@ -11260,10 +11260,10 @@
         <v>27</v>
       </c>
       <c r="D451" s="2">
-        <v>0.4341365160071291</v>
+        <v>0.2971422430127859</v>
       </c>
       <c r="E451" s="2">
-        <v>2026.0595867637</v>
+        <v>2075.906016081974</v>
       </c>
       <c r="F451" s="2">
         <v>2075.906016081974</v>
@@ -11284,7 +11284,7 @@
         <v>28</v>
       </c>
       <c r="D452" s="2">
-        <v>0.470271242025774</v>
+        <v>0.3155117819551378</v>
       </c>
       <c r="E452" s="2">
         <v>2400.526589905439</v>
@@ -11308,10 +11308,10 @@
         <v>29</v>
       </c>
       <c r="D453" s="2">
-        <v>0.5180170690291561</v>
+        <v>0.2754003569716588</v>
       </c>
       <c r="E453" s="2">
-        <v>2208.330860552655</v>
+        <v>2237.169583108663</v>
       </c>
       <c r="F453" s="2">
         <v>2237.169583108663</v>
@@ -11332,10 +11332,10 @@
         <v>30</v>
       </c>
       <c r="D454" s="2">
-        <v>0.4483436979935504</v>
+        <v>0.2673727399669588</v>
       </c>
       <c r="E454" s="2">
-        <v>1910.151775106232</v>
+        <v>1945.755064011043</v>
       </c>
       <c r="F454" s="2">
         <v>1945.755064011043</v>
@@ -11356,7 +11356,7 @@
         <v>31</v>
       </c>
       <c r="D455" s="2">
-        <v>0.47246565396199</v>
+        <v>0.2864974590484053</v>
       </c>
       <c r="E455" s="2">
         <v>2473.611835262086</v>
@@ -11380,10 +11380,10 @@
         <v>1</v>
       </c>
       <c r="D456" s="2">
-        <v>0.4153953740024008</v>
+        <v>0.2718075000448152</v>
       </c>
       <c r="E456" s="2">
-        <v>2680.807814518192</v>
+        <v>2680.807814518193</v>
       </c>
       <c r="F456" s="2">
         <v>2680.807814518193</v>
@@ -11404,10 +11404,10 @@
         <v>2</v>
       </c>
       <c r="D457" s="2">
-        <v>0.3388146469951607</v>
+        <v>0.2806943979812786</v>
       </c>
       <c r="E457" s="2">
-        <v>2338.627864026719</v>
+        <v>2338.62786402672</v>
       </c>
       <c r="F457" s="2">
         <v>2338.627864026719</v>
@@ -11428,7 +11428,7 @@
         <v>3</v>
       </c>
       <c r="D458" s="2">
-        <v>0.3309824080206454</v>
+        <v>0.2686277899192646</v>
       </c>
       <c r="E458" s="2">
         <v>2001.199305827597</v>
@@ -11452,7 +11452,7 @@
         <v>4</v>
       </c>
       <c r="D459" s="2">
-        <v>0.3936269179685041</v>
+        <v>0.2968736320035532</v>
       </c>
       <c r="E459" s="2">
         <v>2533.179526462672</v>
@@ -11476,10 +11476,10 @@
         <v>5</v>
       </c>
       <c r="D460" s="2">
-        <v>0.3918682129587978</v>
+        <v>0.2866546590812504</v>
       </c>
       <c r="E460" s="2">
-        <v>1996.114417993619</v>
+        <v>2077.226579555136</v>
       </c>
       <c r="F460" s="2">
         <v>2077.226579555136</v>
@@ -11500,10 +11500,10 @@
         <v>6</v>
       </c>
       <c r="D461" s="2">
-        <v>0.4628935700166039</v>
+        <v>0.2941384989535436</v>
       </c>
       <c r="E461" s="2">
-        <v>2614.806090076451</v>
+        <v>2614.806090076452</v>
       </c>
       <c r="F461" s="2">
         <v>2614.806090076452</v>
@@ -11524,7 +11524,7 @@
         <v>7</v>
       </c>
       <c r="D462" s="2">
-        <v>0.3936822050018236</v>
+        <v>0.2775821280665696</v>
       </c>
       <c r="E462" s="2">
         <v>1788.941936812416</v>
@@ -11548,7 +11548,7 @@
         <v>8</v>
       </c>
       <c r="D463" s="2">
-        <v>0.3466096409829333</v>
+        <v>0.2809094020631164</v>
       </c>
       <c r="E463" s="2">
         <v>2177.280871673228</v>
@@ -11572,7 +11572,7 @@
         <v>9</v>
       </c>
       <c r="D464" s="2">
-        <v>0.3793505160138011</v>
+        <v>0.2951900369953364</v>
       </c>
       <c r="E464" s="2">
         <v>2091.413283591552</v>
@@ -11596,7 +11596,7 @@
         <v>10</v>
       </c>
       <c r="D465" s="2">
-        <v>0.5024347109720111</v>
+        <v>0.2841637850506231</v>
       </c>
       <c r="E465" s="2">
         <v>2158.425700044915</v>
@@ -11620,10 +11620,10 @@
         <v>11</v>
       </c>
       <c r="D466" s="2">
-        <v>0.3905290260445327</v>
+        <v>0.2696241459343582</v>
       </c>
       <c r="E466" s="2">
-        <v>1597.656225652491</v>
+        <v>1687.346990547036</v>
       </c>
       <c r="F466" s="2">
         <v>1687.346990547036</v>
@@ -11644,7 +11644,7 @@
         <v>12</v>
       </c>
       <c r="D467" s="2">
-        <v>0.3544501419528387</v>
+        <v>0.2793018829543144</v>
       </c>
       <c r="E467" s="2">
         <v>2740.871312682354</v>
@@ -11668,10 +11668,10 @@
         <v>13</v>
       </c>
       <c r="D468" s="2">
-        <v>0.3625546550028957</v>
+        <v>0.2748663270613179</v>
       </c>
       <c r="E468" s="2">
-        <v>1940.188274136187</v>
+        <v>2033.564021427132</v>
       </c>
       <c r="F468" s="2">
         <v>2033.564021427132</v>
@@ -11692,7 +11692,7 @@
         <v>14</v>
       </c>
       <c r="D469" s="2">
-        <v>0.3527701699640602</v>
+        <v>0.2672422420000657</v>
       </c>
       <c r="E469" s="2">
         <v>2151.244720333246</v>
@@ -11716,7 +11716,7 @@
         <v>15</v>
       </c>
       <c r="D470" s="2">
-        <v>0.3827091599814594</v>
+        <v>0.3174791800556704</v>
       </c>
       <c r="E470" s="2">
         <v>2126.75095442753</v>
@@ -11740,7 +11740,7 @@
         <v>16</v>
       </c>
       <c r="D471" s="2">
-        <v>0.4177673899685033</v>
+        <v>0.2756967480527237</v>
       </c>
       <c r="E471" s="2">
         <v>2252.405874893001</v>
@@ -11764,7 +11764,7 @@
         <v>17</v>
       </c>
       <c r="D472" s="2">
-        <v>0.4893520869663917</v>
+        <v>0.2817215390969068</v>
       </c>
       <c r="E472" s="2">
         <v>2252.424747154174</v>
@@ -11788,7 +11788,7 @@
         <v>18</v>
       </c>
       <c r="D473" s="2">
-        <v>0.3781587640405633</v>
+        <v>0.2658815059112385</v>
       </c>
       <c r="E473" s="2">
         <v>1924.025509475847</v>
@@ -11812,7 +11812,7 @@
         <v>19</v>
       </c>
       <c r="D474" s="2">
-        <v>0.3710162669885904</v>
+        <v>0.2825575560564175</v>
       </c>
       <c r="E474" s="2">
         <v>2371.913813685158</v>
@@ -11836,7 +11836,7 @@
         <v>20</v>
       </c>
       <c r="D475" s="2">
-        <v>0.3424890509922989</v>
+        <v>0.278042046003975</v>
       </c>
       <c r="E475" s="2">
         <v>1802.72925053143</v>
@@ -11860,7 +11860,7 @@
         <v>21</v>
       </c>
       <c r="D476" s="2">
-        <v>0.2864937899867073</v>
+        <v>0.3058931729756296</v>
       </c>
       <c r="E476" s="2">
         <v>2285.892241229538</v>
@@ -11884,10 +11884,10 @@
         <v>22</v>
       </c>
       <c r="D477" s="2">
-        <v>0.406751549046021</v>
+        <v>0.2798067920375615</v>
       </c>
       <c r="E477" s="2">
-        <v>2134.466618597628</v>
+        <v>2213.459156037147</v>
       </c>
       <c r="F477" s="2">
         <v>2213.459156037146</v>
@@ -11908,7 +11908,7 @@
         <v>23</v>
       </c>
       <c r="D478" s="2">
-        <v>0.3374762659659609</v>
+        <v>0.2735608449438587</v>
       </c>
       <c r="E478" s="2">
         <v>2326.766275704219</v>
@@ -11932,10 +11932,10 @@
         <v>24</v>
       </c>
       <c r="D479" s="2">
-        <v>0.3690747750224546</v>
+        <v>0.2750884089618921</v>
       </c>
       <c r="E479" s="2">
-        <v>2124.209472965376</v>
+        <v>2155.970088522078</v>
       </c>
       <c r="F479" s="2">
         <v>2155.970088522078</v>
@@ -11956,7 +11956,7 @@
         <v>25</v>
       </c>
       <c r="D480" s="2">
-        <v>0.3519221399910748</v>
+        <v>0.294952456955798</v>
       </c>
       <c r="E480" s="2">
         <v>1908.230490468129</v>
@@ -11980,7 +11980,7 @@
         <v>26</v>
       </c>
       <c r="D481" s="2">
-        <v>0.386075060989242</v>
+        <v>0.2847234969958663</v>
       </c>
       <c r="E481" s="2">
         <v>2303.597589152269</v>
@@ -12004,7 +12004,7 @@
         <v>27</v>
       </c>
       <c r="D482" s="2">
-        <v>0.3337656839867122</v>
+        <v>0.2938679279759526</v>
       </c>
       <c r="E482" s="2">
         <v>1772.943299203066</v>
@@ -12028,7 +12028,7 @@
         <v>28</v>
       </c>
       <c r="D483" s="2">
-        <v>0.3535831060144119</v>
+        <v>0.2763210579287261</v>
       </c>
       <c r="E483" s="2">
         <v>2450.471937773571</v>
@@ -12052,7 +12052,7 @@
         <v>29</v>
       </c>
       <c r="D484" s="2">
-        <v>0.2869707409990951</v>
+        <v>0.2826199359260499</v>
       </c>
       <c r="E484" s="2">
         <v>2492.355016418449</v>
@@ -12076,7 +12076,7 @@
         <v>30</v>
       </c>
       <c r="D485" s="2">
-        <v>0.2947449270286597</v>
+        <v>0.2857586410827935</v>
       </c>
       <c r="E485" s="2">
         <v>1940.209507773368</v>
@@ -12100,7 +12100,7 @@
         <v>1</v>
       </c>
       <c r="D486" s="2">
-        <v>0.3729090470005758</v>
+        <v>0.2719699579756707</v>
       </c>
       <c r="E486" s="2">
         <v>2005.220081528673</v>
@@ -12124,7 +12124,7 @@
         <v>2</v>
       </c>
       <c r="D487" s="2">
-        <v>0.3059275840059854</v>
+        <v>0.3023035730002448</v>
       </c>
       <c r="E487" s="2">
         <v>2086.203913064406</v>
@@ -12148,10 +12148,10 @@
         <v>3</v>
       </c>
       <c r="D488" s="2">
-        <v>0.3095531830331311</v>
+        <v>0.2906147049507126</v>
       </c>
       <c r="E488" s="2">
-        <v>2436.70982797981</v>
+        <v>2436.709827979811</v>
       </c>
       <c r="F488" s="2">
         <v>2436.709827979811</v>
@@ -12172,10 +12172,10 @@
         <v>4</v>
       </c>
       <c r="D489" s="2">
-        <v>0.2942290239734575</v>
+        <v>0.2774712000973523</v>
       </c>
       <c r="E489" s="2">
-        <v>1759.56529038474</v>
+        <v>1827.062700594338</v>
       </c>
       <c r="F489" s="2">
         <v>1827.062700594338</v>
@@ -12196,10 +12196,10 @@
         <v>5</v>
       </c>
       <c r="D490" s="2">
-        <v>0.3665606610011309</v>
+        <v>0.2907005531014875</v>
       </c>
       <c r="E490" s="2">
-        <v>2177.75782963047</v>
+        <v>2210.373910312376</v>
       </c>
       <c r="F490" s="2">
         <v>2210.373910312375</v>
@@ -12220,10 +12220,10 @@
         <v>6</v>
       </c>
       <c r="D491" s="2">
-        <v>0.3268088310142048</v>
+        <v>0.3010038289939985</v>
       </c>
       <c r="E491" s="2">
-        <v>2129.431748326385</v>
+        <v>2173.342650414028</v>
       </c>
       <c r="F491" s="2">
         <v>2173.342650414028</v>
@@ -12244,10 +12244,10 @@
         <v>7</v>
       </c>
       <c r="D492" s="2">
-        <v>0.3302274870220572</v>
+        <v>0.2902367119677365</v>
       </c>
       <c r="E492" s="2">
-        <v>2298.608432351939</v>
+        <v>2338.313195010187</v>
       </c>
       <c r="F492" s="2">
         <v>2338.313195010187</v>
@@ -12268,10 +12268,10 @@
         <v>8</v>
       </c>
       <c r="D493" s="2">
-        <v>0.2815976760466583</v>
+        <v>0.2739035149570554</v>
       </c>
       <c r="E493" s="2">
-        <v>2296.350020080604</v>
+        <v>2303.126058467849</v>
       </c>
       <c r="F493" s="2">
         <v>2303.12605846785</v>
@@ -12292,10 +12292,10 @@
         <v>9</v>
       </c>
       <c r="D494" s="2">
-        <v>0.3595306040369906</v>
+        <v>0.2838306310586631</v>
       </c>
       <c r="E494" s="2">
-        <v>2297.970077634458</v>
+        <v>2297.970077634457</v>
       </c>
       <c r="F494" s="2">
         <v>2297.970077634458</v>
@@ -12316,7 +12316,7 @@
         <v>10</v>
       </c>
       <c r="D495" s="2">
-        <v>0.3201536560081877</v>
+        <v>0.2968611540272832</v>
       </c>
       <c r="E495" s="2">
         <v>2072.251934614686</v>
@@ -12340,7 +12340,7 @@
         <v>11</v>
       </c>
       <c r="D496" s="2">
-        <v>0.38271121395519</v>
+        <v>0.2684233320178464</v>
       </c>
       <c r="E496" s="2">
         <v>2031.349119676611</v>
@@ -12364,10 +12364,10 @@
         <v>12</v>
       </c>
       <c r="D497" s="2">
-        <v>0.3387464510160498</v>
+        <v>0.2728933339240029</v>
       </c>
       <c r="E497" s="2">
-        <v>2180.215981158898</v>
+        <v>2181.737700367057</v>
       </c>
       <c r="F497" s="2">
         <v>2181.737700367056</v>
@@ -12388,10 +12388,10 @@
         <v>13</v>
       </c>
       <c r="D498" s="2">
-        <v>0.3188276599976234</v>
+        <v>0.2983482719864696</v>
       </c>
       <c r="E498" s="2">
-        <v>2030.597315723896</v>
+        <v>2128.782722806049</v>
       </c>
       <c r="F498" s="2">
         <v>2128.782722806049</v>
@@ -12412,7 +12412,7 @@
         <v>14</v>
       </c>
       <c r="D499" s="2">
-        <v>0.3102099830284715</v>
+        <v>0.2763379550306126</v>
       </c>
       <c r="E499" s="2">
         <v>1677.112754080203</v>
@@ -12436,7 +12436,7 @@
         <v>15</v>
       </c>
       <c r="D500" s="2">
-        <v>0.3943092750268988</v>
+        <v>0.2813081530621275</v>
       </c>
       <c r="E500" s="2">
         <v>2375.313524151718</v>
@@ -12460,7 +12460,7 @@
         <v>16</v>
       </c>
       <c r="D501" s="2">
-        <v>0.3050052159815095</v>
+        <v>0.2876014979556203</v>
       </c>
       <c r="E501" s="2">
         <v>1974.292343636168</v>
@@ -12484,7 +12484,7 @@
         <v>17</v>
       </c>
       <c r="D502" s="2">
-        <v>0.2896716299583204</v>
+        <v>0.292007063049823</v>
       </c>
       <c r="E502" s="2">
         <v>2202.712458943724</v>
@@ -12508,7 +12508,7 @@
         <v>18</v>
       </c>
       <c r="D503" s="2">
-        <v>0.3086944759706967</v>
+        <v>0.2708872309885919</v>
       </c>
       <c r="E503" s="2">
         <v>1695.200600415448</v>
@@ -12532,7 +12532,7 @@
         <v>19</v>
       </c>
       <c r="D504" s="2">
-        <v>0.3485128270112909</v>
+        <v>0.2702789389295503</v>
       </c>
       <c r="E504" s="2">
         <v>2451.927995287889</v>
@@ -12556,10 +12556,10 @@
         <v>20</v>
       </c>
       <c r="D505" s="2">
-        <v>0.4691877309815027</v>
+        <v>0.2840445779729635</v>
       </c>
       <c r="E505" s="2">
-        <v>2742.32728672341</v>
+        <v>2742.327286723411</v>
       </c>
       <c r="F505" s="2">
         <v>2742.32728672341</v>
@@ -12580,7 +12580,7 @@
         <v>21</v>
       </c>
       <c r="D506" s="2">
-        <v>0.6321137839695439</v>
+        <v>0.2805607410846278</v>
       </c>
       <c r="E506" s="2">
         <v>1834.68648411814</v>
@@ -12604,7 +12604,7 @@
         <v>22</v>
       </c>
       <c r="D507" s="2">
-        <v>0.4192145760171115</v>
+        <v>0.3143674599705264</v>
       </c>
       <c r="E507" s="2">
         <v>1982.050202010844</v>
@@ -12628,7 +12628,7 @@
         <v>23</v>
       </c>
       <c r="D508" s="2">
-        <v>0.3131920049781911</v>
+        <v>0.3070143819786608</v>
       </c>
       <c r="E508" s="2">
         <v>2154.38612365002</v>
@@ -12652,7 +12652,7 @@
         <v>24</v>
       </c>
       <c r="D509" s="2">
-        <v>0.3325240240083076</v>
+        <v>0.2801179869566113</v>
       </c>
       <c r="E509" s="2">
         <v>2074.942607263144</v>
@@ -12676,7 +12676,7 @@
         <v>25</v>
       </c>
       <c r="D510" s="2">
-        <v>0.3048922849702649</v>
+        <v>0.2737926780246198</v>
       </c>
       <c r="E510" s="2">
         <v>2018.877417867809</v>
@@ -12700,10 +12700,10 @@
         <v>26</v>
       </c>
       <c r="D511" s="2">
-        <v>0.3738499119644985</v>
+        <v>0.266816638992168</v>
       </c>
       <c r="E511" s="2">
-        <v>2112.080784534498</v>
+        <v>2176.689894957955</v>
       </c>
       <c r="F511" s="2">
         <v>2176.689894957955</v>
@@ -12724,7 +12724,7 @@
         <v>27</v>
       </c>
       <c r="D512" s="2">
-        <v>0.406738038000185</v>
+        <v>0.2841542690293863</v>
       </c>
       <c r="E512" s="2">
         <v>1840.198032304611</v>
@@ -12748,10 +12748,10 @@
         <v>28</v>
       </c>
       <c r="D513" s="2">
-        <v>0.342790667025838</v>
+        <v>0.2799617450218648</v>
       </c>
       <c r="E513" s="2">
-        <v>2101.852385760282</v>
+        <v>2173.758086818704</v>
       </c>
       <c r="F513" s="2">
         <v>2173.758086818704</v>
@@ -12772,7 +12772,7 @@
         <v>29</v>
       </c>
       <c r="D514" s="2">
-        <v>0.3505451920209453</v>
+        <v>0.2819680799730122</v>
       </c>
       <c r="E514" s="2">
         <v>2216.55834202456</v>
@@ -12796,10 +12796,10 @@
         <v>30</v>
       </c>
       <c r="D515" s="2">
-        <v>0.3700307400431484</v>
+        <v>0.3111482129897922</v>
       </c>
       <c r="E515" s="2">
-        <v>2153.715914009702</v>
+        <v>2222.727119393626</v>
       </c>
       <c r="F515" s="2">
         <v>2222.727119393626</v>
@@ -12820,10 +12820,10 @@
         <v>31</v>
       </c>
       <c r="D516" s="2">
-        <v>0.3290412129717879</v>
+        <v>0.3029980199644342</v>
       </c>
       <c r="E516" s="2">
-        <v>1590.573099008697</v>
+        <v>1624.681193749284</v>
       </c>
       <c r="F516" s="2">
         <v>1624.681193749284</v>
@@ -12844,7 +12844,7 @@
         <v>1</v>
       </c>
       <c r="D517" s="2">
-        <v>0.3174668269930407</v>
+        <v>0.2881773769622669</v>
       </c>
       <c r="E517" s="2">
         <v>2352.635328713841</v>
@@ -12868,7 +12868,7 @@
         <v>2</v>
       </c>
       <c r="D518" s="2">
-        <v>0.2903405189863406</v>
+        <v>0.2848628850188106</v>
       </c>
       <c r="E518" s="2">
         <v>1772.558504688921</v>
@@ -12892,7 +12892,7 @@
         <v>3</v>
       </c>
       <c r="D519" s="2">
-        <v>0.3050540650147013</v>
+        <v>0.2700235529337078</v>
       </c>
       <c r="E519" s="2">
         <v>1820.2916621496</v>
@@ -12916,10 +12916,10 @@
         <v>4</v>
       </c>
       <c r="D520" s="2">
-        <v>0.3467124619637616</v>
+        <v>0.2901057740673423</v>
       </c>
       <c r="E520" s="2">
-        <v>2346.860492750367</v>
+        <v>2355.103305700304</v>
       </c>
       <c r="F520" s="2">
         <v>2355.103305700304</v>
@@ -12940,7 +12940,7 @@
         <v>5</v>
       </c>
       <c r="D521" s="2">
-        <v>0.3367819549748674</v>
+        <v>0.3407601340441033</v>
       </c>
       <c r="E521" s="2">
         <v>2508.311108655002</v>
@@ -12964,7 +12964,7 @@
         <v>6</v>
       </c>
       <c r="D522" s="2">
-        <v>0.2792828110395931</v>
+        <v>0.2731674200622365</v>
       </c>
       <c r="E522" s="2">
         <v>1873.710800900977</v>
@@ -12988,7 +12988,7 @@
         <v>7</v>
       </c>
       <c r="D523" s="2">
-        <v>0.3417720590368845</v>
+        <v>0.2813057909952477</v>
       </c>
       <c r="E523" s="2">
         <v>2097.377808237355</v>
@@ -13012,10 +13012,10 @@
         <v>8</v>
       </c>
       <c r="D524" s="2">
-        <v>0.338484010018874</v>
+        <v>0.2816705999430269</v>
       </c>
       <c r="E524" s="2">
-        <v>1763.690155701324</v>
+        <v>1922.852687891714</v>
       </c>
       <c r="F524" s="2">
         <v>1922.852687891714</v>
@@ -13036,10 +13036,10 @@
         <v>9</v>
       </c>
       <c r="D525" s="2">
-        <v>0.3667823490104638</v>
+        <v>0.2796933259814978</v>
       </c>
       <c r="E525" s="2">
-        <v>2358.327551728115</v>
+        <v>2358.327551728116</v>
       </c>
       <c r="F525" s="2">
         <v>2358.327551728115</v>
@@ -13060,7 +13060,7 @@
         <v>10</v>
       </c>
       <c r="D526" s="2">
-        <v>0.3487360010039993</v>
+        <v>0.2857465010602027</v>
       </c>
       <c r="E526" s="2">
         <v>2763.824556972131</v>
@@ -13084,7 +13084,7 @@
         <v>11</v>
       </c>
       <c r="D527" s="2">
-        <v>0.2883329190080985</v>
+        <v>0.2742633500602096</v>
       </c>
       <c r="E527" s="2">
         <v>2515.784781042937</v>
@@ -13108,7 +13108,7 @@
         <v>12</v>
       </c>
       <c r="D528" s="2">
-        <v>0.3296204069629312</v>
+        <v>0.2679308969527483</v>
       </c>
       <c r="E528" s="2">
         <v>2330.883971012534</v>
@@ -13132,10 +13132,10 @@
         <v>13</v>
       </c>
       <c r="D529" s="2">
-        <v>0.2918307119980454</v>
+        <v>0.2920045920182019</v>
       </c>
       <c r="E529" s="2">
-        <v>1957.582185071064</v>
+        <v>2012.8900403809</v>
       </c>
       <c r="F529" s="2">
         <v>2012.8900403809</v>
@@ -13156,7 +13156,7 @@
         <v>14</v>
       </c>
       <c r="D530" s="2">
-        <v>0.2978457249701023</v>
+        <v>0.2835730549413711</v>
       </c>
       <c r="E530" s="2">
         <v>2214.722256504377</v>
@@ -13180,7 +13180,7 @@
         <v>15</v>
       </c>
       <c r="D531" s="2">
-        <v>0.3233838079613633</v>
+        <v>0.2730370149947703</v>
       </c>
       <c r="E531" s="2">
         <v>2761.621244380339</v>
@@ -13204,7 +13204,7 @@
         <v>16</v>
       </c>
       <c r="D532" s="2">
-        <v>0.3341619740240276</v>
+        <v>0.2948296179529279</v>
       </c>
       <c r="E532" s="2">
         <v>1662.79406743745</v>
@@ -13228,10 +13228,10 @@
         <v>17</v>
       </c>
       <c r="D533" s="2">
-        <v>0.2867776270140894</v>
+        <v>0.2796307890675962</v>
       </c>
       <c r="E533" s="2">
-        <v>2024.969824455653</v>
+        <v>2085.447517447846</v>
       </c>
       <c r="F533" s="2">
         <v>2085.447517447846</v>
@@ -13252,10 +13252,10 @@
         <v>18</v>
       </c>
       <c r="D534" s="2">
-        <v>0.3347556399530731</v>
+        <v>0.2710846730042249</v>
       </c>
       <c r="E534" s="2">
-        <v>2528.039085117663</v>
+        <v>2615.58332638977</v>
       </c>
       <c r="F534" s="2">
         <v>2615.58332638977</v>
@@ -13276,7 +13276,7 @@
         <v>19</v>
       </c>
       <c r="D535" s="2">
-        <v>0.3645227369852364</v>
+        <v>0.2992445239797235</v>
       </c>
       <c r="E535" s="2">
         <v>2133.456259208295</v>
@@ -13300,7 +13300,7 @@
         <v>20</v>
       </c>
       <c r="D536" s="2">
-        <v>0.3047345070517622</v>
+        <v>0.2581938169896603</v>
       </c>
       <c r="E536" s="2">
         <v>2196.360926231524</v>
@@ -13324,10 +13324,10 @@
         <v>21</v>
       </c>
       <c r="D537" s="2">
-        <v>0.3487342980224639</v>
+        <v>0.2710270310053602</v>
       </c>
       <c r="E537" s="2">
-        <v>2286.352332836395</v>
+        <v>2286.352332836394</v>
       </c>
       <c r="F537" s="2">
         <v>2286.352332836395</v>
@@ -13348,10 +13348,10 @@
         <v>22</v>
       </c>
       <c r="D538" s="2">
-        <v>0.3158686740207486</v>
+        <v>0.2845275849103928</v>
       </c>
       <c r="E538" s="2">
-        <v>2524.321713411052</v>
+        <v>2547.355627351468</v>
       </c>
       <c r="F538" s="2">
         <v>2547.355627351468</v>
@@ -13372,7 +13372,7 @@
         <v>23</v>
       </c>
       <c r="D539" s="2">
-        <v>0.3464301669737324</v>
+        <v>0.2707989551126957</v>
       </c>
       <c r="E539" s="2">
         <v>2254.841000764881</v>
@@ -13396,10 +13396,10 @@
         <v>24</v>
       </c>
       <c r="D540" s="2">
-        <v>0.3485984069993719</v>
+        <v>0.2772691049613059</v>
       </c>
       <c r="E540" s="2">
-        <v>2836.17440653855</v>
+        <v>2836.174406538551</v>
       </c>
       <c r="F540" s="2">
         <v>2836.17440653855</v>
@@ -13420,10 +13420,10 @@
         <v>25</v>
       </c>
       <c r="D541" s="2">
-        <v>0.3521767840138637</v>
+        <v>0.2773898709565401</v>
       </c>
       <c r="E541" s="2">
-        <v>1494.549115409004</v>
+        <v>1508.463386125732</v>
       </c>
       <c r="F541" s="2">
         <v>1508.463386125732</v>
@@ -13444,7 +13444,7 @@
         <v>26</v>
       </c>
       <c r="D542" s="2">
-        <v>0.2974178830045275</v>
+        <v>0.2782992810243741</v>
       </c>
       <c r="E542" s="2">
         <v>2108.067650522278</v>
@@ -13468,7 +13468,7 @@
         <v>27</v>
       </c>
       <c r="D543" s="2">
-        <v>0.2735232540289871</v>
+        <v>0.2733465329511091</v>
       </c>
       <c r="E543" s="2">
         <v>2419.177889822883</v>
@@ -13492,10 +13492,10 @@
         <v>28</v>
       </c>
       <c r="D544" s="2">
-        <v>0.3165120789781213</v>
+        <v>0.2886443469906226</v>
       </c>
       <c r="E544" s="2">
-        <v>2025.918559833409</v>
+        <v>2091.567187464033</v>
       </c>
       <c r="F544" s="2">
         <v>2091.567187464032</v>
@@ -13516,7 +13516,7 @@
         <v>29</v>
       </c>
       <c r="D545" s="2">
-        <v>0.3019909749855287</v>
+        <v>0.2702645119279623</v>
       </c>
       <c r="E545" s="2">
         <v>1626.437804311405</v>
@@ -13540,7 +13540,7 @@
         <v>30</v>
       </c>
       <c r="D546" s="2">
-        <v>0.3091331579489633</v>
+        <v>0.2977596980053931</v>
       </c>
       <c r="E546" s="2">
         <v>1977.748380989204</v>
@@ -13564,7 +13564,7 @@
         <v>1</v>
       </c>
       <c r="D547" s="2">
-        <v>0.3141715460224077</v>
+        <v>0.272701362031512</v>
       </c>
       <c r="E547" s="2">
         <v>2046.577425670003</v>
@@ -13588,7 +13588,7 @@
         <v>2</v>
       </c>
       <c r="D548" s="2">
-        <v>0.3026707399985753</v>
+        <v>0.2933695670217276</v>
       </c>
       <c r="E548" s="2">
         <v>2489.815935428408</v>
@@ -13612,7 +13612,7 @@
         <v>3</v>
       </c>
       <c r="D549" s="2">
-        <v>0.3123016349854879</v>
+        <v>0.2909223269671202</v>
       </c>
       <c r="E549" s="2">
         <v>1978.991100844814</v>
@@ -13636,7 +13636,7 @@
         <v>4</v>
       </c>
       <c r="D550" s="2">
-        <v>0.3455832120380364</v>
+        <v>0.2930768809746951</v>
       </c>
       <c r="E550" s="2">
         <v>1790.399229257609</v>
@@ -13660,7 +13660,7 @@
         <v>5</v>
       </c>
       <c r="D551" s="2">
-        <v>0.3027940659667365</v>
+        <v>0.2979389310348779</v>
       </c>
       <c r="E551" s="2">
         <v>1596.002870457472</v>
@@ -13684,10 +13684,10 @@
         <v>6</v>
       </c>
       <c r="D552" s="2">
-        <v>0.2900537980021909</v>
+        <v>0.2806049039354548</v>
       </c>
       <c r="E552" s="2">
-        <v>2242.312988230506</v>
+        <v>2327.270245252881</v>
       </c>
       <c r="F552" s="2">
         <v>2327.270245252882</v>
@@ -13708,7 +13708,7 @@
         <v>7</v>
       </c>
       <c r="D553" s="2">
-        <v>0.2906101770349778</v>
+        <v>0.2888589390786365</v>
       </c>
       <c r="E553" s="2">
         <v>2647.62307345825</v>
@@ -13732,7 +13732,7 @@
         <v>8</v>
       </c>
       <c r="D554" s="2">
-        <v>0.3280678250011988</v>
+        <v>0.2927804940845817</v>
       </c>
       <c r="E554" s="2">
         <v>1957.436792224215</v>
@@ -13756,7 +13756,7 @@
         <v>9</v>
       </c>
       <c r="D555" s="2">
-        <v>0.289844260958489</v>
+        <v>0.2946485879365355</v>
       </c>
       <c r="E555" s="2">
         <v>2404.126746163444</v>
@@ -13780,10 +13780,10 @@
         <v>10</v>
       </c>
       <c r="D556" s="2">
-        <v>0.3199812119710259</v>
+        <v>0.2836635030107573</v>
       </c>
       <c r="E556" s="2">
-        <v>2386.089539968864</v>
+        <v>2386.089539968863</v>
       </c>
       <c r="F556" s="2">
         <v>2386.089539968864</v>
@@ -13804,10 +13804,10 @@
         <v>11</v>
       </c>
       <c r="D557" s="2">
-        <v>0.3685277260374278</v>
+        <v>0.3010622640140355</v>
       </c>
       <c r="E557" s="2">
-        <v>2115.775053345948</v>
+        <v>2157.177990245329</v>
       </c>
       <c r="F557" s="2">
         <v>2157.177990245329</v>
@@ -13828,10 +13828,10 @@
         <v>12</v>
       </c>
       <c r="D558" s="2">
-        <v>0.3513057749951258</v>
+        <v>0.2787642660550773</v>
       </c>
       <c r="E558" s="2">
-        <v>2137.228904896951</v>
+        <v>2152.108668756035</v>
       </c>
       <c r="F558" s="2">
         <v>2152.108668756035</v>
@@ -13852,10 +13852,10 @@
         <v>13</v>
       </c>
       <c r="D559" s="2">
-        <v>0.2685953979962505</v>
+        <v>0.3310115319909528</v>
       </c>
       <c r="E559" s="2">
-        <v>2128.976555804646</v>
+        <v>2128.976555804647</v>
       </c>
       <c r="F559" s="2">
         <v>2128.976555804646</v>
@@ -13876,10 +13876,10 @@
         <v>14</v>
       </c>
       <c r="D560" s="2">
-        <v>0.2770997969782911</v>
+        <v>0.2792178329546005</v>
       </c>
       <c r="E560" s="2">
-        <v>1864.125737516048</v>
+        <v>1900.353956368338</v>
       </c>
       <c r="F560" s="2">
         <v>1900.353956368338</v>
@@ -13900,7 +13900,7 @@
         <v>15</v>
       </c>
       <c r="D561" s="2">
-        <v>0.3664258610224351</v>
+        <v>0.3168756560189649</v>
       </c>
       <c r="E561" s="2">
         <v>2613.432805816005</v>
@@ -13924,10 +13924,10 @@
         <v>16</v>
       </c>
       <c r="D562" s="2">
-        <v>0.2749645960284397</v>
+        <v>0.2956838830141351</v>
       </c>
       <c r="E562" s="2">
-        <v>2487.502702933234</v>
+        <v>2487.502702933235</v>
       </c>
       <c r="F562" s="2">
         <v>2487.502702933234</v>
@@ -13948,10 +13948,10 @@
         <v>17</v>
       </c>
       <c r="D563" s="2">
-        <v>0.327851063979324</v>
+        <v>0.2964286080095917</v>
       </c>
       <c r="E563" s="2">
-        <v>2489.833542444558</v>
+        <v>2489.833542444557</v>
       </c>
       <c r="F563" s="2">
         <v>2489.833542444557</v>
@@ -13972,10 +13972,10 @@
         <v>18</v>
       </c>
       <c r="D564" s="2">
-        <v>0.3027004689793102</v>
+        <v>0.2773396970005706</v>
       </c>
       <c r="E564" s="2">
-        <v>2225.029825179466</v>
+        <v>2287.395640825169</v>
       </c>
       <c r="F564" s="2">
         <v>2287.395640825169</v>
@@ -13996,7 +13996,7 @@
         <v>19</v>
       </c>
       <c r="D565" s="2">
-        <v>0.3063292310107499</v>
+        <v>0.2934177180286497</v>
       </c>
       <c r="E565" s="2">
         <v>2207.99519329207</v>
@@ -14020,10 +14020,10 @@
         <v>20</v>
       </c>
       <c r="D566" s="2">
-        <v>0.3675621980219148</v>
+        <v>0.3049445679644123</v>
       </c>
       <c r="E566" s="2">
-        <v>2287.839768785982</v>
+        <v>2394.813887481045</v>
       </c>
       <c r="F566" s="2">
         <v>2394.813887481045</v>
@@ -14044,7 +14044,7 @@
         <v>21</v>
       </c>
       <c r="D567" s="2">
-        <v>0.3411451479769312</v>
+        <v>0.2876182550098747</v>
       </c>
       <c r="E567" s="2">
         <v>2590.77446502592</v>
@@ -14068,7 +14068,7 @@
         <v>22</v>
       </c>
       <c r="D568" s="2">
-        <v>0.2893274630187079</v>
+        <v>0.2820957209914923</v>
       </c>
       <c r="E568" s="2">
         <v>2074.067202624127</v>
@@ -14092,7 +14092,7 @@
         <v>23</v>
       </c>
       <c r="D569" s="2">
-        <v>0.3227456719614565</v>
+        <v>0.28321779507678</v>
       </c>
       <c r="E569" s="2">
         <v>2493.48487271669</v>
@@ -14116,7 +14116,7 @@
         <v>24</v>
       </c>
       <c r="D570" s="2">
-        <v>0.3102904349798337</v>
+        <v>0.280463851056993</v>
       </c>
       <c r="E570" s="2">
         <v>2473.270658067451</v>
@@ -14140,7 +14140,7 @@
         <v>25</v>
       </c>
       <c r="D571" s="2">
-        <v>0.2921733109978959</v>
+        <v>0.267938990960829</v>
       </c>
       <c r="E571" s="2">
         <v>2342.798690523809</v>
@@ -14164,7 +14164,7 @@
         <v>26</v>
       </c>
       <c r="D572" s="2">
-        <v>0.2995119129773229</v>
+        <v>0.2687421520240605</v>
       </c>
       <c r="E572" s="2">
         <v>1991.072920330166</v>
@@ -14188,7 +14188,7 @@
         <v>27</v>
       </c>
       <c r="D573" s="2">
-        <v>0.3199987689731643</v>
+        <v>0.2867768980795518</v>
       </c>
       <c r="E573" s="2">
         <v>2687.229244491341</v>
@@ -14212,7 +14212,7 @@
         <v>28</v>
       </c>
       <c r="D574" s="2">
-        <v>0.3154648520285264</v>
+        <v>0.2948349890066311</v>
       </c>
       <c r="E574" s="2">
         <v>1859.092355265138</v>
@@ -14236,10 +14236,10 @@
         <v>29</v>
       </c>
       <c r="D575" s="2">
-        <v>0.2761552960146219</v>
+        <v>0.3004291310207918</v>
       </c>
       <c r="E575" s="2">
-        <v>2210.839073423142</v>
+        <v>2231.450577075297</v>
       </c>
       <c r="F575" s="2">
         <v>2231.450577075297</v>
@@ -14260,7 +14260,7 @@
         <v>30</v>
       </c>
       <c r="D576" s="2">
-        <v>0.3031007240060717</v>
+        <v>0.2694365399656817</v>
       </c>
       <c r="E576" s="2">
         <v>2490.747036568571</v>
@@ -14284,7 +14284,7 @@
         <v>31</v>
       </c>
       <c r="D577" s="2">
-        <v>0.2839101490098983</v>
+        <v>0.2530816209036857</v>
       </c>
       <c r="E577" s="2">
         <v>2474.473297782563</v>
@@ -14308,10 +14308,10 @@
         <v>1</v>
       </c>
       <c r="D578" s="2">
-        <v>0.2954588700085878</v>
+        <v>0.2703957479679957</v>
       </c>
       <c r="E578" s="2">
-        <v>2301.518643917839</v>
+        <v>2301.51864391784</v>
       </c>
       <c r="F578" s="2">
         <v>2301.518643917839</v>
@@ -14332,10 +14332,10 @@
         <v>2</v>
       </c>
       <c r="D579" s="2">
-        <v>0.3069855479989201</v>
+        <v>0.2722447999985889</v>
       </c>
       <c r="E579" s="2">
-        <v>2591.066825600689</v>
+        <v>2591.066825600688</v>
       </c>
       <c r="F579" s="2">
         <v>2591.066825600688</v>
@@ -14356,7 +14356,7 @@
         <v>3</v>
       </c>
       <c r="D580" s="2">
-        <v>0.3007206430193037</v>
+        <v>0.3246745839715004</v>
       </c>
       <c r="E580" s="2">
         <v>2151.984465630095</v>
@@ -14380,10 +14380,10 @@
         <v>4</v>
       </c>
       <c r="D581" s="2">
-        <v>0.3036504640476778</v>
+        <v>0.2931932429783046</v>
       </c>
       <c r="E581" s="2">
-        <v>2289.876019554796</v>
+        <v>2289.876019554797</v>
       </c>
       <c r="F581" s="2">
         <v>2289.876019554797</v>
@@ -14404,10 +14404,10 @@
         <v>5</v>
       </c>
       <c r="D582" s="2">
-        <v>0.309837692999281</v>
+        <v>0.2952006780542433</v>
       </c>
       <c r="E582" s="2">
-        <v>2908.241676124569</v>
+        <v>2908.24167612457</v>
       </c>
       <c r="F582" s="2">
         <v>2908.24167612457</v>
@@ -14428,7 +14428,7 @@
         <v>6</v>
       </c>
       <c r="D583" s="2">
-        <v>0.3237518629757687</v>
+        <v>0.2951857490697876</v>
       </c>
       <c r="E583" s="2">
         <v>1977.852055168919</v>
@@ -14452,10 +14452,10 @@
         <v>7</v>
       </c>
       <c r="D584" s="2">
-        <v>0.3327753630001098</v>
+        <v>0.295309217995964</v>
       </c>
       <c r="E584" s="2">
-        <v>3034.304251241752</v>
+        <v>3034.304251241751</v>
       </c>
       <c r="F584" s="2">
         <v>3034.304251241752</v>
@@ -14476,7 +14476,7 @@
         <v>8</v>
       </c>
       <c r="D585" s="2">
-        <v>0.3558636769885197</v>
+        <v>0.278619420947507</v>
       </c>
       <c r="E585" s="2">
         <v>2170.045239559242</v>
@@ -14500,7 +14500,7 @@
         <v>9</v>
       </c>
       <c r="D586" s="2">
-        <v>0.3601532499887981</v>
+        <v>0.2994240309344605</v>
       </c>
       <c r="E586" s="2">
         <v>2434.508099127636</v>
@@ -14524,7 +14524,7 @@
         <v>10</v>
       </c>
       <c r="D587" s="2">
-        <v>0.2807657920056954</v>
+        <v>0.284074010909535</v>
       </c>
       <c r="E587" s="2">
         <v>1742.125048717342</v>
@@ -14548,10 +14548,10 @@
         <v>11</v>
       </c>
       <c r="D588" s="2">
-        <v>0.3072805830161087</v>
+        <v>0.27462339901831</v>
       </c>
       <c r="E588" s="2">
-        <v>2262.978982226093</v>
+        <v>2262.978982226094</v>
       </c>
       <c r="F588" s="2">
         <v>2262.978982226093</v>
@@ -14572,7 +14572,7 @@
         <v>12</v>
       </c>
       <c r="D589" s="2">
-        <v>0.3379708590218797</v>
+        <v>0.2902488929685205</v>
       </c>
       <c r="E589" s="2">
         <v>1827.416755865211</v>
@@ -14596,7 +14596,7 @@
         <v>13</v>
       </c>
       <c r="D590" s="2">
-        <v>0.3508347449824214</v>
+        <v>0.3023469269974157</v>
       </c>
       <c r="E590" s="2">
         <v>2094.541392896308</v>
@@ -14620,7 +14620,7 @@
         <v>14</v>
       </c>
       <c r="D591" s="2">
-        <v>0.2747823150129989</v>
+        <v>0.2891842409735546</v>
       </c>
       <c r="E591" s="2">
         <v>2132.120880115576</v>
@@ -14644,7 +14644,7 @@
         <v>15</v>
       </c>
       <c r="D592" s="2">
-        <v>0.2671645330265164</v>
+        <v>0.7332479889737442</v>
       </c>
       <c r="E592" s="2">
         <v>1706.722863988275</v>
@@ -14668,10 +14668,10 @@
         <v>16</v>
       </c>
       <c r="D593" s="2">
-        <v>0.3141962179797702</v>
+        <v>3.002105467021465</v>
       </c>
       <c r="E593" s="2">
-        <v>1870.033004836691</v>
+        <v>1927.662266081701</v>
       </c>
       <c r="F593" s="2">
         <v>1927.6622660817</v>
@@ -14692,10 +14692,10 @@
         <v>17</v>
       </c>
       <c r="D594" s="2">
-        <v>0.2689533570082858</v>
+        <v>0.273893638048321</v>
       </c>
       <c r="E594" s="2">
-        <v>2079.197292777016</v>
+        <v>2136.437030087859</v>
       </c>
       <c r="F594" s="2">
         <v>2136.437030087859</v>
@@ -14716,7 +14716,7 @@
         <v>18</v>
       </c>
       <c r="D595" s="2">
-        <v>0.2801261369604617</v>
+        <v>0.2814671710366383</v>
       </c>
       <c r="E595" s="2">
         <v>2291.067374903104</v>
@@ -14740,7 +14740,7 @@
         <v>19</v>
       </c>
       <c r="D596" s="2">
-        <v>0.3850021119578741</v>
+        <v>0.2754461499862373</v>
       </c>
       <c r="E596" s="2">
         <v>1989.855084532628</v>
@@ -14764,10 +14764,10 @@
         <v>20</v>
       </c>
       <c r="D597" s="2">
-        <v>0.3119084649952129</v>
+        <v>0.3106876210076734</v>
       </c>
       <c r="E597" s="2">
-        <v>1800.42173863686</v>
+        <v>1828.895662138804</v>
       </c>
       <c r="F597" s="2">
         <v>1828.895662138804</v>
@@ -14788,10 +14788,10 @@
         <v>21</v>
       </c>
       <c r="D598" s="2">
-        <v>0.2970106940483674</v>
+        <v>0.2832346389768645</v>
       </c>
       <c r="E598" s="2">
-        <v>2925.231400437444</v>
+        <v>2925.231400437443</v>
       </c>
       <c r="F598" s="2">
         <v>2925.231400437443</v>
@@ -14812,10 +14812,10 @@
         <v>22</v>
       </c>
       <c r="D599" s="2">
-        <v>0.3715445849811658</v>
+        <v>0.2793697980232537</v>
       </c>
       <c r="E599" s="2">
-        <v>1470.406479418252</v>
+        <v>1470.406479418251</v>
       </c>
       <c r="F599" s="2">
         <v>1470.406479418252</v>
@@ -14836,10 +14836,10 @@
         <v>23</v>
       </c>
       <c r="D600" s="2">
-        <v>0.3782161679700948</v>
+        <v>0.2975212980527431</v>
       </c>
       <c r="E600" s="2">
-        <v>1957.473766123981</v>
+        <v>2026.962023220685</v>
       </c>
       <c r="F600" s="2">
         <v>2026.962023220685</v>
@@ -14860,7 +14860,7 @@
         <v>24</v>
       </c>
       <c r="D601" s="2">
-        <v>0.2585322679951787</v>
+        <v>0.2921657420229167</v>
       </c>
       <c r="E601" s="2">
         <v>2239.351199817958</v>
@@ -14884,7 +14884,7 @@
         <v>25</v>
       </c>
       <c r="D602" s="2">
-        <v>0.3009976880275644</v>
+        <v>0.2850575660122558</v>
       </c>
       <c r="E602" s="2">
         <v>2013.204892291386</v>
@@ -14908,7 +14908,7 @@
         <v>26</v>
       </c>
       <c r="D603" s="2">
-        <v>0.3107359949499369</v>
+        <v>0.3010635200189427</v>
       </c>
       <c r="E603" s="2">
         <v>1599.809383623278</v>
@@ -14932,7 +14932,7 @@
         <v>27</v>
       </c>
       <c r="D604" s="2">
-        <v>0.2716292180120945</v>
+        <v>0.3160726139321923</v>
       </c>
       <c r="E604" s="2">
         <v>2338.223375066059</v>
@@ -14956,7 +14956,7 @@
         <v>28</v>
       </c>
       <c r="D605" s="2">
-        <v>0.3307967279688455</v>
+        <v>0.2992294029099867</v>
       </c>
       <c r="E605" s="2">
         <v>1751.431239594558</v>
@@ -14980,7 +14980,7 @@
         <v>29</v>
       </c>
       <c r="D606" s="2">
-        <v>0.3193353330134414</v>
+        <v>0.3103611069964245</v>
       </c>
       <c r="E606" s="2">
         <v>2004.246526083771</v>
@@ -15004,10 +15004,10 @@
         <v>30</v>
       </c>
       <c r="D607" s="2">
-        <v>0.2596693530213088</v>
+        <v>0.2758473590947688</v>
       </c>
       <c r="E607" s="2">
-        <v>2179.412758766166</v>
+        <v>2231.74964328946</v>
       </c>
       <c r="F607" s="2">
         <v>2231.749643289461</v>
@@ -15028,10 +15028,10 @@
         <v>31</v>
       </c>
       <c r="D608" s="2">
-        <v>0.290522240975406</v>
+        <v>0.2996329059824347</v>
       </c>
       <c r="E608" s="2">
-        <v>2406.821086533568</v>
+        <v>2406.821086533567</v>
       </c>
       <c r="F608" s="2">
         <v>2406.821086533568</v>
@@ -15052,7 +15052,7 @@
         <v>1</v>
       </c>
       <c r="D609" s="2">
-        <v>0.3583812579745427</v>
+        <v>0.2689670460531488</v>
       </c>
       <c r="E609" s="2">
         <v>2327.957608823107</v>
@@ -15076,10 +15076,10 @@
         <v>2</v>
       </c>
       <c r="D610" s="2">
-        <v>0.3259001889964566</v>
+        <v>0.2665337729267776</v>
       </c>
       <c r="E610" s="2">
-        <v>2121.553268222679</v>
+        <v>2171.153844100806</v>
       </c>
       <c r="F610" s="2">
         <v>2171.153844100806</v>
@@ -15100,7 +15100,7 @@
         <v>3</v>
       </c>
       <c r="D611" s="2">
-        <v>0.3951217100257054</v>
+        <v>0.2917884620837867</v>
       </c>
       <c r="E611" s="2">
         <v>1906.662052394822</v>
@@ -15124,10 +15124,10 @@
         <v>4</v>
       </c>
       <c r="D612" s="2">
-        <v>0.3099808110273443</v>
+        <v>0.2917763779405504</v>
       </c>
       <c r="E612" s="2">
-        <v>2389.329696504104</v>
+        <v>2423.659351483436</v>
       </c>
       <c r="F612" s="2">
         <v>2423.659351483436</v>
@@ -15148,7 +15148,7 @@
         <v>5</v>
       </c>
       <c r="D613" s="2">
-        <v>0.2888363120146096</v>
+        <v>0.2905611810274422</v>
       </c>
       <c r="E613" s="2">
         <v>1804.152132028261</v>
@@ -15172,10 +15172,10 @@
         <v>6</v>
       </c>
       <c r="D614" s="2">
-        <v>0.38511892297538</v>
+        <v>0.2796486709266901</v>
       </c>
       <c r="E614" s="2">
-        <v>1613.41099121259</v>
+        <v>1613.410991212589</v>
       </c>
       <c r="F614" s="2">
         <v>1613.410991212589</v>
@@ -15196,7 +15196,7 @@
         <v>7</v>
       </c>
       <c r="D615" s="2">
-        <v>0.3494808879913762</v>
+        <v>0.2797453339444473</v>
       </c>
       <c r="E615" s="2">
         <v>2460.321962390806</v>
@@ -15220,10 +15220,10 @@
         <v>8</v>
       </c>
       <c r="D616" s="2">
-        <v>0.3124106529867277</v>
+        <v>0.2768028760328889</v>
       </c>
       <c r="E616" s="2">
-        <v>2099.104281430786</v>
+        <v>2099.104281430785</v>
       </c>
       <c r="F616" s="2">
         <v>2099.104281430785</v>
@@ -15244,10 +15244,10 @@
         <v>9</v>
       </c>
       <c r="D617" s="2">
-        <v>0.2889750489848666</v>
+        <v>0.2847188140731305</v>
       </c>
       <c r="E617" s="2">
-        <v>2292.592426568114</v>
+        <v>2292.592426568115</v>
       </c>
       <c r="F617" s="2">
         <v>2292.592426568114</v>
@@ -15268,7 +15268,7 @@
         <v>10</v>
       </c>
       <c r="D618" s="2">
-        <v>0.344328916980885</v>
+        <v>0.2890447729732841</v>
       </c>
       <c r="E618" s="2">
         <v>2379.813822934559</v>
@@ -15292,7 +15292,7 @@
         <v>11</v>
       </c>
       <c r="D619" s="2">
-        <v>0.2882935979869217</v>
+        <v>0.2802023069234565</v>
       </c>
       <c r="E619" s="2">
         <v>2192.39904122184</v>
@@ -15316,10 +15316,10 @@
         <v>12</v>
       </c>
       <c r="D620" s="2">
-        <v>0.2804140690132044</v>
+        <v>0.291334611014463</v>
       </c>
       <c r="E620" s="2">
-        <v>2336.315711300591</v>
+        <v>2336.315711300592</v>
       </c>
       <c r="F620" s="2">
         <v>2336.315711300592</v>
@@ -15340,10 +15340,10 @@
         <v>13</v>
       </c>
       <c r="D621" s="2">
-        <v>0.2956385890138336</v>
+        <v>0.287422674940899</v>
       </c>
       <c r="E621" s="2">
-        <v>2151.690368448603</v>
+        <v>2192.78378301397</v>
       </c>
       <c r="F621" s="2">
         <v>2192.783783013969</v>
@@ -15364,7 +15364,7 @@
         <v>14</v>
       </c>
       <c r="D622" s="2">
-        <v>0.3021486109937541</v>
+        <v>0.2732798770302907</v>
       </c>
       <c r="E622" s="2">
         <v>2540.929347956934</v>
@@ -15388,7 +15388,7 @@
         <v>15</v>
       </c>
       <c r="D623" s="2">
-        <v>0.3080487360130064</v>
+        <v>0.3434213229920715</v>
       </c>
       <c r="E623" s="2">
         <v>2440.225800559597</v>
@@ -15412,10 +15412,10 @@
         <v>16</v>
       </c>
       <c r="D624" s="2">
-        <v>0.3437587760272436</v>
+        <v>0.3009881220059469</v>
       </c>
       <c r="E624" s="2">
-        <v>2668.359089606315</v>
+        <v>2668.359089606316</v>
       </c>
       <c r="F624" s="2">
         <v>2668.359089606317</v>
@@ -15436,7 +15436,7 @@
         <v>17</v>
       </c>
       <c r="D625" s="2">
-        <v>0.3790116509771906</v>
+        <v>0.2876264329534024</v>
       </c>
       <c r="E625" s="2">
         <v>1838.257110859417</v>
@@ -15460,10 +15460,10 @@
         <v>18</v>
       </c>
       <c r="D626" s="2">
-        <v>0.3215135959908366</v>
+        <v>0.3505280080717057</v>
       </c>
       <c r="E626" s="2">
-        <v>2466.669878217763</v>
+        <v>2512.190926884557</v>
       </c>
       <c r="F626" s="2">
         <v>2512.190926884556</v>
@@ -15484,7 +15484,7 @@
         <v>19</v>
       </c>
       <c r="D627" s="2">
-        <v>0.2847153120092116</v>
+        <v>0.3263622150989249</v>
       </c>
       <c r="E627" s="2">
         <v>2107.773356067431</v>
@@ -15508,7 +15508,7 @@
         <v>20</v>
       </c>
       <c r="D628" s="2">
-        <v>0.3927046119933948</v>
+        <v>0.2760922079905868</v>
       </c>
       <c r="E628" s="2">
         <v>2511.577097266536</v>
@@ -15532,10 +15532,10 @@
         <v>21</v>
       </c>
       <c r="D629" s="2">
-        <v>0.2787084499723278</v>
+        <v>0.314219236955978</v>
       </c>
       <c r="E629" s="2">
-        <v>2413.887489673672</v>
+        <v>2477.663078582861</v>
       </c>
       <c r="F629" s="2">
         <v>2477.663078582861</v>
@@ -15556,7 +15556,7 @@
         <v>22</v>
       </c>
       <c r="D630" s="2">
-        <v>0.3119576659519225</v>
+        <v>0.3179790439317003</v>
       </c>
       <c r="E630" s="2">
         <v>2356.44793896376</v>
@@ -15580,7 +15580,7 @@
         <v>23</v>
       </c>
       <c r="D631" s="2">
-        <v>0.3362405799562111</v>
+        <v>0.278997611021623</v>
       </c>
       <c r="E631" s="2">
         <v>2355.119620079797</v>
@@ -15604,10 +15604,10 @@
         <v>24</v>
       </c>
       <c r="D632" s="2">
-        <v>0.2735319369821809</v>
+        <v>0.3004538079258054</v>
       </c>
       <c r="E632" s="2">
-        <v>2537.324775389103</v>
+        <v>2537.324775389101</v>
       </c>
       <c r="F632" s="2">
         <v>2537.324775389103</v>
@@ -15628,7 +15628,7 @@
         <v>25</v>
       </c>
       <c r="D633" s="2">
-        <v>0.3256188799859956</v>
+        <v>0.3194164619781077</v>
       </c>
       <c r="E633" s="2">
         <v>1931.908183783254</v>
@@ -15652,10 +15652,10 @@
         <v>26</v>
       </c>
       <c r="D634" s="2">
-        <v>0.2873244669754058</v>
+        <v>0.2657249039039016</v>
       </c>
       <c r="E634" s="2">
-        <v>2380.10626646524</v>
+        <v>2380.106266465241</v>
       </c>
       <c r="F634" s="2">
         <v>2380.106266465241</v>
@@ -15676,7 +15676,7 @@
         <v>27</v>
       </c>
       <c r="D635" s="2">
-        <v>0.3020468499744311</v>
+        <v>0.2840778379468247</v>
       </c>
       <c r="E635" s="2">
         <v>2073.741258315457</v>
@@ -15700,10 +15700,10 @@
         <v>28</v>
       </c>
       <c r="D636" s="2">
-        <v>0.2992609010543674</v>
+        <v>0.3435788620263338</v>
       </c>
       <c r="E636" s="2">
-        <v>2236.755144708267</v>
+        <v>2236.755144708268</v>
       </c>
       <c r="F636" s="2">
         <v>2236.755144708268</v>
@@ -15724,7 +15724,7 @@
         <v>29</v>
       </c>
       <c r="D637" s="2">
-        <v>0.2782387579791248</v>
+        <v>0.2868816509144381</v>
       </c>
       <c r="E637" s="2">
         <v>2340.636184569497</v>
@@ -15748,7 +15748,7 @@
         <v>30</v>
       </c>
       <c r="D638" s="2">
-        <v>0.3164304319652729</v>
+        <v>0.2933200360275805</v>
       </c>
       <c r="E638" s="2">
         <v>2044.586371035601</v>
@@ -15772,10 +15772,10 @@
         <v>1</v>
       </c>
       <c r="D639" s="2">
-        <v>0.3068116179783829</v>
+        <v>0.326239112066105</v>
       </c>
       <c r="E639" s="2">
-        <v>2415.899193643458</v>
+        <v>2415.899193643457</v>
       </c>
       <c r="F639" s="2">
         <v>2415.899193643458</v>
@@ -15796,10 +15796,10 @@
         <v>2</v>
       </c>
       <c r="D640" s="2">
-        <v>0.3438515770249069</v>
+        <v>0.3127856489736587</v>
       </c>
       <c r="E640" s="2">
-        <v>1984.226269238173</v>
+        <v>1984.226269238174</v>
       </c>
       <c r="F640" s="2">
         <v>1984.226269238173</v>
@@ -15820,7 +15820,7 @@
         <v>3</v>
       </c>
       <c r="D641" s="2">
-        <v>0.3371800010208972</v>
+        <v>0.3261024990351871</v>
       </c>
       <c r="E641" s="2">
         <v>1883.701960722468</v>
@@ -15844,10 +15844,10 @@
         <v>4</v>
       </c>
       <c r="D642" s="2">
-        <v>0.3656426849775016</v>
+        <v>0.2695622669998556</v>
       </c>
       <c r="E642" s="2">
-        <v>2072.330550243818</v>
+        <v>2079.253307977041</v>
       </c>
       <c r="F642" s="2">
         <v>2079.253307977041</v>
@@ -15868,7 +15868,7 @@
         <v>5</v>
       </c>
       <c r="D643" s="2">
-        <v>0.3162668599979952</v>
+        <v>0.3063430839683861</v>
       </c>
       <c r="E643" s="2">
         <v>2170.170506875115</v>
@@ -15892,7 +15892,7 @@
         <v>6</v>
       </c>
       <c r="D644" s="2">
-        <v>0.3913407090003602</v>
+        <v>0.2883144509978592</v>
       </c>
       <c r="E644" s="2">
         <v>2713.515501535468</v>
@@ -15916,7 +15916,7 @@
         <v>7</v>
       </c>
       <c r="D645" s="2">
-        <v>0.2848700220347382</v>
+        <v>0.2755161840468645</v>
       </c>
       <c r="E645" s="2">
         <v>1905.791591851349</v>
@@ -15940,7 +15940,7 @@
         <v>8</v>
       </c>
       <c r="D646" s="2">
-        <v>0.2771191209903918</v>
+        <v>0.2684382080333307</v>
       </c>
       <c r="E646" s="2">
         <v>1877.991116075696</v>
@@ -15964,7 +15964,7 @@
         <v>9</v>
       </c>
       <c r="D647" s="2">
-        <v>0.295130074955523</v>
+        <v>0.3135282050352544</v>
       </c>
       <c r="E647" s="2">
         <v>2003.903832297094</v>
@@ -15988,10 +15988,10 @@
         <v>10</v>
       </c>
       <c r="D648" s="2">
-        <v>0.2654951940057799</v>
+        <v>0.2712751999497414</v>
       </c>
       <c r="E648" s="2">
-        <v>2143.159097721894</v>
+        <v>2143.159097721893</v>
       </c>
       <c r="F648" s="2">
         <v>2143.159097721895</v>
@@ -16012,7 +16012,7 @@
         <v>11</v>
       </c>
       <c r="D649" s="2">
-        <v>0.2800975409918465</v>
+        <v>0.2916956730186939</v>
       </c>
       <c r="E649" s="2">
         <v>2045.998841138761</v>
@@ -16036,10 +16036,10 @@
         <v>12</v>
       </c>
       <c r="D650" s="2">
-        <v>0.3431909030186944</v>
+        <v>0.2829869870329276</v>
       </c>
       <c r="E650" s="2">
-        <v>2154.860408495772</v>
+        <v>2209.573678863542</v>
       </c>
       <c r="F650" s="2">
         <v>2209.573678863542</v>
@@ -16060,7 +16060,7 @@
         <v>13</v>
       </c>
       <c r="D651" s="2">
-        <v>0.3489848060416989</v>
+        <v>0.3082995529985055</v>
       </c>
       <c r="E651" s="2">
         <v>1864.038793126003</v>
@@ -16084,10 +16084,10 @@
         <v>14</v>
       </c>
       <c r="D652" s="2">
-        <v>0.3637949120020494</v>
+        <v>0.2617313140071929</v>
       </c>
       <c r="E652" s="2">
-        <v>2025.702662038627</v>
+        <v>2101.798313960515</v>
       </c>
       <c r="F652" s="2">
         <v>2101.798313960515</v>
@@ -16108,10 +16108,10 @@
         <v>15</v>
       </c>
       <c r="D653" s="2">
-        <v>0.2820712419925258</v>
+        <v>0.2694771210663021</v>
       </c>
       <c r="E653" s="2">
-        <v>2070.517908653831</v>
+        <v>2145.449732074659</v>
       </c>
       <c r="F653" s="2">
         <v>2145.449732074659</v>
@@ -16132,10 +16132,10 @@
         <v>16</v>
       </c>
       <c r="D654" s="2">
-        <v>0.2809611179982312</v>
+        <v>0.2848416710039601</v>
       </c>
       <c r="E654" s="2">
-        <v>1586.113986492692</v>
+        <v>1637.499617248647</v>
       </c>
       <c r="F654" s="2">
         <v>1637.499617248648</v>
@@ -16156,10 +16156,10 @@
         <v>17</v>
       </c>
       <c r="D655" s="2">
-        <v>0.3503333859844133</v>
+        <v>0.2766320419032127</v>
       </c>
       <c r="E655" s="2">
-        <v>2187.991284142877</v>
+        <v>2187.991284142878</v>
       </c>
       <c r="F655" s="2">
         <v>2187.991284142877</v>
@@ -16180,10 +16180,10 @@
         <v>18</v>
       </c>
       <c r="D656" s="2">
-        <v>0.3057062479783781</v>
+        <v>0.3058470010291785</v>
       </c>
       <c r="E656" s="2">
-        <v>2216.980195515964</v>
+        <v>2262.5436513441</v>
       </c>
       <c r="F656" s="2">
         <v>2262.543651344099</v>
@@ -16204,7 +16204,7 @@
         <v>19</v>
       </c>
       <c r="D657" s="2">
-        <v>0.3069405590067618</v>
+        <v>0.2771246809279546</v>
       </c>
       <c r="E657" s="2">
         <v>2670.842628405684</v>
@@ -16228,7 +16228,7 @@
         <v>20</v>
       </c>
       <c r="D658" s="2">
-        <v>0.3354560590232722</v>
+        <v>0.2939677099930122</v>
       </c>
       <c r="E658" s="2">
         <v>2300.57551628496</v>
@@ -16252,7 +16252,7 @@
         <v>21</v>
       </c>
       <c r="D659" s="2">
-        <v>0.2906522889970802</v>
+        <v>0.2857895520282909</v>
       </c>
       <c r="E659" s="2">
         <v>1614.671026771617</v>
@@ -16276,7 +16276,7 @@
         <v>22</v>
       </c>
       <c r="D660" s="2">
-        <v>0.3284955829731189</v>
+        <v>0.2809163220226765</v>
       </c>
       <c r="E660" s="2">
         <v>2198.599214065036</v>
@@ -16300,7 +16300,7 @@
         <v>23</v>
       </c>
       <c r="D661" s="2">
-        <v>0.2820172460051253</v>
+        <v>0.2934975420357659</v>
       </c>
       <c r="E661" s="2">
         <v>2119.865375415557</v>
@@ -16324,7 +16324,7 @@
         <v>24</v>
       </c>
       <c r="D662" s="2">
-        <v>0.31042015098501</v>
+        <v>0.3096834829775617</v>
       </c>
       <c r="E662" s="2">
         <v>2325.228787745462</v>
@@ -16348,10 +16348,10 @@
         <v>25</v>
       </c>
       <c r="D663" s="2">
-        <v>0.3105115849757567</v>
+        <v>0.2796819990035146</v>
       </c>
       <c r="E663" s="2">
-        <v>2214.048556601009</v>
+        <v>2214.048556601008</v>
       </c>
       <c r="F663" s="2">
         <v>2214.048556601008</v>
@@ -16372,7 +16372,7 @@
         <v>26</v>
       </c>
       <c r="D664" s="2">
-        <v>0.3761913449852727</v>
+        <v>0.3011097190901637</v>
       </c>
       <c r="E664" s="2">
         <v>2080.515674481825</v>
@@ -16396,10 +16396,10 @@
         <v>27</v>
       </c>
       <c r="D665" s="2">
-        <v>0.3221762009779923</v>
+        <v>0.2865958859911188</v>
       </c>
       <c r="E665" s="2">
-        <v>1952.913254404624</v>
+        <v>2056.562908057892</v>
       </c>
       <c r="F665" s="2">
         <v>2056.562908057892</v>
@@ -16420,10 +16420,10 @@
         <v>28</v>
       </c>
       <c r="D666" s="2">
-        <v>0.3932772429543547</v>
+        <v>0.3511663730023429</v>
       </c>
       <c r="E666" s="2">
-        <v>2308.777794348332</v>
+        <v>2319.894559457851</v>
       </c>
       <c r="F666" s="2">
         <v>2319.894559457852</v>
@@ -16444,7 +16444,7 @@
         <v>29</v>
       </c>
       <c r="D667" s="2">
-        <v>0.2772995480336249</v>
+        <v>0.2916798740625381</v>
       </c>
       <c r="E667" s="2">
         <v>1834.099021668695</v>
@@ -16468,10 +16468,10 @@
         <v>30</v>
       </c>
       <c r="D668" s="2">
-        <v>0.2881061040097848</v>
+        <v>0.32606794196181</v>
       </c>
       <c r="E668" s="2">
-        <v>2598.882684802517</v>
+        <v>2598.882684802518</v>
       </c>
       <c r="F668" s="2">
         <v>2598.882684802517</v>
@@ -16492,7 +16492,7 @@
         <v>31</v>
       </c>
       <c r="D669" s="2">
-        <v>0.2761441539623775</v>
+        <v>0.3922903269995004</v>
       </c>
       <c r="E669" s="2">
         <v>1956.44274580333</v>
@@ -16516,7 +16516,7 @@
         <v>1</v>
       </c>
       <c r="D670" s="2">
-        <v>0.2889046840136871</v>
+        <v>0.419706808985211</v>
       </c>
       <c r="E670" s="2">
         <v>1582.024710486505</v>
@@ -16540,10 +16540,10 @@
         <v>2</v>
       </c>
       <c r="D671" s="2">
-        <v>0.3830925060319714</v>
+        <v>0.3193411809625104</v>
       </c>
       <c r="E671" s="2">
-        <v>2812.885011710088</v>
+        <v>2812.885011710087</v>
       </c>
       <c r="F671" s="2">
         <v>2812.885011710087</v>
@@ -16564,10 +16564,10 @@
         <v>3</v>
       </c>
       <c r="D672" s="2">
-        <v>0.368293508014176</v>
+        <v>0.297704731929116</v>
       </c>
       <c r="E672" s="2">
-        <v>2010.552464843352</v>
+        <v>2118.263736992478</v>
       </c>
       <c r="F672" s="2">
         <v>2118.263736992478</v>
@@ -16588,7 +16588,7 @@
         <v>4</v>
       </c>
       <c r="D673" s="2">
-        <v>0.335974900983274</v>
+        <v>0.3753926180070266</v>
       </c>
       <c r="E673" s="2">
         <v>2132.693124401771</v>
@@ -16612,7 +16612,7 @@
         <v>5</v>
       </c>
       <c r="D674" s="2">
-        <v>0.3430594279780053</v>
+        <v>0.3137565669603646</v>
       </c>
       <c r="E674" s="2">
         <v>2027.730663656502</v>
@@ -16636,7 +16636,7 @@
         <v>6</v>
       </c>
       <c r="D675" s="2">
-        <v>0.3669509720057249</v>
+        <v>0.3160891509614885</v>
       </c>
       <c r="E675" s="2">
         <v>2168.662063859995</v>
@@ -16660,7 +16660,7 @@
         <v>7</v>
       </c>
       <c r="D676" s="2">
-        <v>0.3856897679506801</v>
+        <v>0.2765628370689228</v>
       </c>
       <c r="E676" s="2">
         <v>2497.4232548469</v>
@@ -16684,10 +16684,10 @@
         <v>8</v>
       </c>
       <c r="D677" s="2">
-        <v>0.2999921480077319</v>
+        <v>0.3108569999458268</v>
       </c>
       <c r="E677" s="2">
-        <v>2184.338792433525</v>
+        <v>2198.229991667836</v>
       </c>
       <c r="F677" s="2">
         <v>2198.229991667836</v>
@@ -16708,7 +16708,7 @@
         <v>9</v>
       </c>
       <c r="D678" s="2">
-        <v>0.2703763879835606</v>
+        <v>0.3493917380692437</v>
       </c>
       <c r="E678" s="2">
         <v>2812.714786904255</v>
@@ -16732,7 +16732,7 @@
         <v>10</v>
       </c>
       <c r="D679" s="2">
-        <v>0.2940163839957677</v>
+        <v>0.5527323510032147</v>
       </c>
       <c r="E679" s="2">
         <v>2212.068073485781</v>
@@ -16756,10 +16756,10 @@
         <v>11</v>
       </c>
       <c r="D680" s="2">
-        <v>0.4070195239619352</v>
+        <v>0.2777016969630495</v>
       </c>
       <c r="E680" s="2">
-        <v>2022.196653077407</v>
+        <v>2022.196653077408</v>
       </c>
       <c r="F680" s="2">
         <v>2022.196653077407</v>
@@ -16780,7 +16780,7 @@
         <v>12</v>
       </c>
       <c r="D681" s="2">
-        <v>0.3370722770341672</v>
+        <v>0.387550332932733</v>
       </c>
       <c r="E681" s="2">
         <v>2327.473274297517</v>
@@ -16804,7 +16804,7 @@
         <v>13</v>
       </c>
       <c r="D682" s="2">
-        <v>0.3353518610238098</v>
+        <v>0.2789628789760172</v>
       </c>
       <c r="E682" s="2">
         <v>2018.188565122456</v>
@@ -16828,10 +16828,10 @@
         <v>14</v>
       </c>
       <c r="D683" s="2">
-        <v>0.3195578870363533</v>
+        <v>0.2850221800617874</v>
       </c>
       <c r="E683" s="2">
-        <v>2145.839979771654</v>
+        <v>2163.289825849976</v>
       </c>
       <c r="F683" s="2">
         <v>2163.289825849975</v>
@@ -16852,10 +16852,10 @@
         <v>15</v>
       </c>
       <c r="D684" s="2">
-        <v>0.3285694479709491</v>
+        <v>0.2808918599039316</v>
       </c>
       <c r="E684" s="2">
-        <v>2307.072684477458</v>
+        <v>2379.640753035322</v>
       </c>
       <c r="F684" s="2">
         <v>2379.640753035322</v>
@@ -16876,7 +16876,7 @@
         <v>16</v>
       </c>
       <c r="D685" s="2">
-        <v>0.3469790699891746</v>
+        <v>0.3469224669970572</v>
       </c>
       <c r="E685" s="2">
         <v>2065.555943045044</v>
@@ -16900,7 +16900,7 @@
         <v>17</v>
       </c>
       <c r="D686" s="2">
-        <v>0.3428755510249175</v>
+        <v>0.2908043180359527</v>
       </c>
       <c r="E686" s="2">
         <v>2111.66450043257</v>
@@ -16924,7 +16924,7 @@
         <v>18</v>
       </c>
       <c r="D687" s="2">
-        <v>0.2699052600073628</v>
+        <v>0.3371794860577211</v>
       </c>
       <c r="E687" s="2">
         <v>2764.964965474363</v>
@@ -16948,10 +16948,10 @@
         <v>19</v>
       </c>
       <c r="D688" s="2">
-        <v>0.3210184079944156</v>
+        <v>0.2759199490537867</v>
       </c>
       <c r="E688" s="2">
-        <v>2456.751293400081</v>
+        <v>2456.751293400082</v>
       </c>
       <c r="F688" s="2">
         <v>2456.751293400082</v>
@@ -16972,7 +16972,7 @@
         <v>20</v>
       </c>
       <c r="D689" s="2">
-        <v>0.3422600899939425</v>
+        <v>0.3315924779744819</v>
       </c>
       <c r="E689" s="2">
         <v>2154.130336081528</v>
@@ -16996,7 +16996,7 @@
         <v>21</v>
       </c>
       <c r="D690" s="2">
-        <v>0.2834351339843124</v>
+        <v>0.4586420330451801</v>
       </c>
       <c r="E690" s="2">
         <v>1972.993351422253</v>
@@ -17020,7 +17020,7 @@
         <v>22</v>
       </c>
       <c r="D691" s="2">
-        <v>0.2866933040204458</v>
+        <v>0.4372484789928421</v>
       </c>
       <c r="E691" s="2">
         <v>2403.317186711863</v>
@@ -17044,7 +17044,7 @@
         <v>23</v>
       </c>
       <c r="D692" s="2">
-        <v>0.3347390440176241</v>
+        <v>0.3009463099297136</v>
       </c>
       <c r="E692" s="2">
         <v>2581.255010194272</v>
@@ -17068,7 +17068,7 @@
         <v>24</v>
       </c>
       <c r="D693" s="2">
-        <v>0.2955845469841734</v>
+        <v>0.3173710369737819</v>
       </c>
       <c r="E693" s="2">
         <v>2155.291143622383</v>
@@ -17092,7 +17092,7 @@
         <v>25</v>
       </c>
       <c r="D694" s="2">
-        <v>0.2902617660001852</v>
+        <v>0.2873945439932868</v>
       </c>
       <c r="E694" s="2">
         <v>1743.698134374437</v>
@@ -17116,7 +17116,7 @@
         <v>26</v>
       </c>
       <c r="D695" s="2">
-        <v>0.305902625026647</v>
+        <v>0.2808960909023881</v>
       </c>
       <c r="E695" s="2">
         <v>2089.244998889167</v>
@@ -17140,7 +17140,7 @@
         <v>27</v>
       </c>
       <c r="D696" s="2">
-        <v>0.3080948590068147</v>
+        <v>0.303177219000645</v>
       </c>
       <c r="E696" s="2">
         <v>2491.300557235433</v>
@@ -17164,7 +17164,7 @@
         <v>28</v>
       </c>
       <c r="D697" s="2">
-        <v>0.3037971199955791</v>
+        <v>0.331689624930732</v>
       </c>
       <c r="E697" s="2">
         <v>2480.77542974682</v>
@@ -17188,10 +17188,10 @@
         <v>29</v>
       </c>
       <c r="D698" s="2">
-        <v>0.3302036359673366</v>
+        <v>0.2898933499818668</v>
       </c>
       <c r="E698" s="2">
-        <v>1945.692170274769</v>
+        <v>1945.692170274768</v>
       </c>
       <c r="F698" s="2">
         <v>1945.692170274769</v>
@@ -17212,7 +17212,7 @@
         <v>30</v>
       </c>
       <c r="D699" s="2">
-        <v>0.3627275140024722</v>
+        <v>0.2976870470447466</v>
       </c>
       <c r="E699" s="2">
         <v>1754.746795973851</v>
@@ -17236,10 +17236,10 @@
         <v>1</v>
       </c>
       <c r="D700" s="2">
-        <v>0.3081265010405332</v>
+        <v>0.3880793619900942</v>
       </c>
       <c r="E700" s="2">
-        <v>2199.741667094658</v>
+        <v>2199.741667094659</v>
       </c>
       <c r="F700" s="2">
         <v>2199.741667094658</v>
@@ -17260,7 +17260,7 @@
         <v>2</v>
       </c>
       <c r="D701" s="2">
-        <v>0.3505726680159569</v>
+        <v>0.5565719819860533</v>
       </c>
       <c r="E701" s="2">
         <v>2080.169304587154</v>
@@ -17284,10 +17284,10 @@
         <v>3</v>
       </c>
       <c r="D702" s="2">
-        <v>0.348441933048889</v>
+        <v>0.2769291719887406</v>
       </c>
       <c r="E702" s="2">
-        <v>2050.441173510816</v>
+        <v>2139.946699132761</v>
       </c>
       <c r="F702" s="2">
         <v>2139.946699132761</v>
@@ -17308,10 +17308,10 @@
         <v>4</v>
       </c>
       <c r="D703" s="2">
-        <v>0.3039698969805613</v>
+        <v>0.3402611529454589</v>
       </c>
       <c r="E703" s="2">
-        <v>2564.031316512265</v>
+        <v>2589.430543398417</v>
       </c>
       <c r="F703" s="2">
         <v>2589.430543398417</v>
@@ -17332,7 +17332,7 @@
         <v>5</v>
       </c>
       <c r="D704" s="2">
-        <v>0.3104942470090464</v>
+        <v>0.2773165999678895</v>
       </c>
       <c r="E704" s="2">
         <v>2109.122946990046</v>
@@ -17356,10 +17356,10 @@
         <v>6</v>
       </c>
       <c r="D705" s="2">
-        <v>0.2907236350001767</v>
+        <v>0.2798505480168387</v>
       </c>
       <c r="E705" s="2">
-        <v>2590.979311558054</v>
+        <v>2590.979311558053</v>
       </c>
       <c r="F705" s="2">
         <v>2590.979311558053</v>
@@ -17380,7 +17380,7 @@
         <v>7</v>
       </c>
       <c r="D706" s="2">
-        <v>0.2869650530046783</v>
+        <v>0.319753736956045</v>
       </c>
       <c r="E706" s="2">
         <v>2119.769952723327</v>
@@ -17404,7 +17404,7 @@
         <v>8</v>
       </c>
       <c r="D707" s="2">
-        <v>0.3075655860011466</v>
+        <v>0.3142347090179101</v>
       </c>
       <c r="E707" s="2">
         <v>1694.668386658945</v>
@@ -17428,10 +17428,10 @@
         <v>9</v>
       </c>
       <c r="D708" s="2">
-        <v>0.2923917479929514</v>
+        <v>0.3228409109869972</v>
       </c>
       <c r="E708" s="2">
-        <v>2319.480444604332</v>
+        <v>2375.687641973687</v>
       </c>
       <c r="F708" s="2">
         <v>2375.687641973686</v>
@@ -17452,10 +17452,10 @@
         <v>10</v>
       </c>
       <c r="D709" s="2">
-        <v>0.3406852280022576</v>
+        <v>0.2829294999828562</v>
       </c>
       <c r="E709" s="2">
-        <v>2079.82420819166</v>
+        <v>2113.516609620399</v>
       </c>
       <c r="F709" s="2">
         <v>2113.516609620399</v>
@@ -17476,7 +17476,7 @@
         <v>11</v>
       </c>
       <c r="D710" s="2">
-        <v>0.2809005390154198</v>
+        <v>0.3025959979277104</v>
       </c>
       <c r="E710" s="2">
         <v>2090.700046596345</v>
@@ -17500,7 +17500,7 @@
         <v>12</v>
       </c>
       <c r="D711" s="2">
-        <v>0.3399011259898543</v>
+        <v>0.3062675029505044</v>
       </c>
       <c r="E711" s="2">
         <v>2098.694639352564</v>
@@ -17524,7 +17524,7 @@
         <v>13</v>
       </c>
       <c r="D712" s="2">
-        <v>0.3581426360178739</v>
+        <v>0.4352060409728438</v>
       </c>
       <c r="E712" s="2">
         <v>2162.012203625968</v>
@@ -17548,7 +17548,7 @@
         <v>14</v>
       </c>
       <c r="D713" s="2">
-        <v>0.2825641899835318</v>
+        <v>0.4229147389996797</v>
       </c>
       <c r="E713" s="2">
         <v>1855.99633284212</v>
@@ -17572,7 +17572,7 @@
         <v>15</v>
       </c>
       <c r="D714" s="2">
-        <v>0.2845489759929478</v>
+        <v>0.4226058790227398</v>
       </c>
       <c r="E714" s="2">
         <v>2152.977546274826</v>
@@ -17596,7 +17596,7 @@
         <v>16</v>
       </c>
       <c r="D715" s="2">
-        <v>0.3018991909921169</v>
+        <v>0.3294116869801655</v>
       </c>
       <c r="E715" s="2">
         <v>2239.217572283548</v>
@@ -17620,7 +17620,7 @@
         <v>17</v>
       </c>
       <c r="D716" s="2">
-        <v>0.3443815949722193</v>
+        <v>0.3193885799264535</v>
       </c>
       <c r="E716" s="2">
         <v>2654.925654383775</v>
@@ -17644,7 +17644,7 @@
         <v>18</v>
       </c>
       <c r="D717" s="2">
-        <v>0.3130237529985607</v>
+        <v>0.358557517058216</v>
       </c>
       <c r="E717" s="2">
         <v>1916.042287114699</v>
@@ -17668,7 +17668,7 @@
         <v>19</v>
       </c>
       <c r="D718" s="2">
-        <v>0.2726671840064228</v>
+        <v>0.3821811520028859</v>
       </c>
       <c r="E718" s="2">
         <v>2366.344453456522</v>
@@ -17692,7 +17692,7 @@
         <v>20</v>
       </c>
       <c r="D719" s="2">
-        <v>0.3523015000391752</v>
+        <v>0.2972179939970374</v>
       </c>
       <c r="E719" s="2">
         <v>1988.034409057532</v>
@@ -17716,7 +17716,7 @@
         <v>21</v>
       </c>
       <c r="D720" s="2">
-        <v>0.2735443530254997</v>
+        <v>0.3461227290099487</v>
       </c>
       <c r="E720" s="2">
         <v>2159.736195700308</v>
@@ -17740,10 +17740,10 @@
         <v>22</v>
       </c>
       <c r="D721" s="2">
-        <v>0.3088835040107369</v>
+        <v>0.2832573800114915</v>
       </c>
       <c r="E721" s="2">
-        <v>1957.364604811929</v>
+        <v>2013.972667357302</v>
       </c>
       <c r="F721" s="2">
         <v>2013.972667357302</v>
@@ -17764,10 +17764,10 @@
         <v>23</v>
       </c>
       <c r="D722" s="2">
-        <v>0.3016665580216795</v>
+        <v>0.2893576989881694</v>
       </c>
       <c r="E722" s="2">
-        <v>1984.19566232956</v>
+        <v>1999.500988823738</v>
       </c>
       <c r="F722" s="2">
         <v>1999.500988823737</v>
@@ -17788,7 +17788,7 @@
         <v>24</v>
       </c>
       <c r="D723" s="2">
-        <v>0.2812869169865735</v>
+        <v>0.3226467180065811</v>
       </c>
       <c r="E723" s="2">
         <v>1860.216024852007</v>
@@ -17812,7 +17812,7 @@
         <v>25</v>
       </c>
       <c r="D724" s="2">
-        <v>0.3215708190109581</v>
+        <v>0.362264591967687</v>
       </c>
       <c r="E724" s="2">
         <v>2119.819988570566</v>
@@ -17836,10 +17836,10 @@
         <v>26</v>
       </c>
       <c r="D725" s="2">
-        <v>0.313695253978949</v>
+        <v>0.2853792469250038</v>
       </c>
       <c r="E725" s="2">
-        <v>2797.265655451061</v>
+        <v>2846.595611672283</v>
       </c>
       <c r="F725" s="2">
         <v>2846.595611672282</v>
@@ -17860,7 +17860,7 @@
         <v>27</v>
       </c>
       <c r="D726" s="2">
-        <v>0.2840407029725611</v>
+        <v>0.3223181520588696</v>
       </c>
       <c r="E726" s="2">
         <v>2229.860544574427</v>
@@ -17884,7 +17884,7 @@
         <v>28</v>
       </c>
       <c r="D727" s="2">
-        <v>0.3162018040311523</v>
+        <v>0.2766962699824944</v>
       </c>
       <c r="E727" s="2">
         <v>2351.606247694505</v>
@@ -17908,7 +17908,7 @@
         <v>29</v>
       </c>
       <c r="D728" s="2">
-        <v>0.328996864031069</v>
+        <v>0.3103027109755203</v>
       </c>
       <c r="E728" s="2">
         <v>1671.37185218673</v>
@@ -17932,10 +17932,10 @@
         <v>30</v>
       </c>
       <c r="D729" s="2">
-        <v>0.3890423579723574</v>
+        <v>0.3190991949522868</v>
       </c>
       <c r="E729" s="2">
-        <v>2298.909163551838</v>
+        <v>2374.205047790112</v>
       </c>
       <c r="F729" s="2">
         <v>2374.205047790111</v>

--- a/evaluator/report.xlsx
+++ b/evaluator/report.xlsx
@@ -442,7 +442,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>0.3871700030285865</v>
+        <v>0.2918373109932872</v>
       </c>
       <c r="E2" s="2">
         <v>1880.435550857422</v>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>0.3227284320164472</v>
+        <v>0.3048978750011884</v>
       </c>
       <c r="E3" s="2">
         <v>2218.500638371392</v>
@@ -504,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>0.2874018989969045</v>
+        <v>0.2759650419975515</v>
       </c>
       <c r="E4" s="2">
         <v>2215.856901222009</v>
@@ -535,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>0.2924714230466634</v>
+        <v>0.3029378659994109</v>
       </c>
       <c r="E5" s="2">
         <v>2384.317398222061</v>
@@ -559,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>0.2894823449896649</v>
+        <v>0.3072597959981067</v>
       </c>
       <c r="E6" s="2">
         <v>2482.994690262762</v>
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="2">
-        <v>0.3238718759967014</v>
+        <v>0.3215682920053951</v>
       </c>
       <c r="E7" s="2">
         <v>1854.185027252189</v>
@@ -621,7 +621,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="2">
-        <v>0.3087131100473925</v>
+        <v>0.3167976260010619</v>
       </c>
       <c r="E8" s="2">
         <v>1654.772496609385</v>
@@ -652,7 +652,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="2">
-        <v>0.2967052089516073</v>
+        <v>0.3488755209982628</v>
       </c>
       <c r="E9" s="2">
         <v>2566.452713978309</v>
@@ -676,7 +676,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>0.3267970370361581</v>
+        <v>0.3234667229990009</v>
       </c>
       <c r="E10" s="2">
         <v>1824.123270611746</v>
@@ -700,7 +700,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="2">
-        <v>0.3087914690840989</v>
+        <v>0.3279744760002359</v>
       </c>
       <c r="E11" s="2">
         <v>2461.819799417578</v>
@@ -724,7 +724,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="2">
-        <v>0.3052310380153358</v>
+        <v>0.2808527989982395</v>
       </c>
       <c r="E12" s="2">
         <v>1679.463243794904</v>
@@ -748,7 +748,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="2">
-        <v>0.2828474279958755</v>
+        <v>0.3091003610024927</v>
       </c>
       <c r="E13" s="2">
         <v>2288.763946670267</v>
@@ -772,7 +772,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="2">
-        <v>0.2658650079974905</v>
+        <v>0.3266707759976271</v>
       </c>
       <c r="E14" s="2">
         <v>1862.346206733525</v>
@@ -796,7 +796,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="2">
-        <v>0.286002179956995</v>
+        <v>0.3069255180016626</v>
       </c>
       <c r="E15" s="2">
         <v>2216.287921935182</v>
@@ -820,7 +820,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="2">
-        <v>0.3594909940147772</v>
+        <v>0.2904642110006534</v>
       </c>
       <c r="E16" s="2">
         <v>2136.604240860625</v>
@@ -844,7 +844,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="2">
-        <v>0.3549337439471856</v>
+        <v>0.3086960090004141</v>
       </c>
       <c r="E17" s="2">
         <v>2254.897660776275</v>
@@ -868,7 +868,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="2">
-        <v>0.2933063929667696</v>
+        <v>0.3615019959979691</v>
       </c>
       <c r="E18" s="2">
         <v>1917.131395886052</v>
@@ -892,7 +892,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="2">
-        <v>0.305344901047647</v>
+        <v>0.3723545690008905</v>
       </c>
       <c r="E19" s="2">
         <v>1616.769684899359</v>
@@ -916,7 +916,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="2">
-        <v>0.3075080399867147</v>
+        <v>0.3107131389988353</v>
       </c>
       <c r="E20" s="2">
         <v>2121.347531146519</v>
@@ -940,7 +940,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="2">
-        <v>0.3269201170187443</v>
+        <v>0.3127161329975934</v>
       </c>
       <c r="E21" s="2">
         <v>2146.2195250027</v>
@@ -964,7 +964,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="2">
-        <v>0.296690201968886</v>
+        <v>0.298518232004426</v>
       </c>
       <c r="E22" s="2">
         <v>2291.843329263005</v>
@@ -988,7 +988,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="2">
-        <v>0.2839818990323693</v>
+        <v>0.3024759449981502</v>
       </c>
       <c r="E23" s="2">
         <v>2332.901090260365</v>
@@ -1012,7 +1012,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="2">
-        <v>0.3186628120020032</v>
+        <v>0.2749761580053018</v>
       </c>
       <c r="E24" s="2">
         <v>1847.758802812501</v>
@@ -1036,7 +1036,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="2">
-        <v>0.2977968760533258</v>
+        <v>0.3518137790015317</v>
       </c>
       <c r="E25" s="2">
         <v>2171.401305366864</v>
@@ -1060,7 +1060,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="2">
-        <v>0.3238413450308144</v>
+        <v>0.2864473770023324</v>
       </c>
       <c r="E26" s="2">
         <v>1882.822391520744</v>
@@ -1084,7 +1084,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="2">
-        <v>0.2844164239941165</v>
+        <v>0.3209517020004569</v>
       </c>
       <c r="E27" s="2">
         <v>1648.979333412594</v>
@@ -1108,7 +1108,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="2">
-        <v>0.2969122530193999</v>
+        <v>0.2959959709987743</v>
       </c>
       <c r="E28" s="2">
         <v>2370.965285848897</v>
@@ -1132,7 +1132,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="2">
-        <v>0.3251819149591029</v>
+        <v>0.3166195779995178</v>
       </c>
       <c r="E29" s="2">
         <v>2423.001308698957</v>
@@ -1156,7 +1156,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="2">
-        <v>0.2737511349841952</v>
+        <v>0.2831586350002908</v>
       </c>
       <c r="E30" s="2">
         <v>1881.938471915356</v>
@@ -1180,7 +1180,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="2">
-        <v>0.3596879839897156</v>
+        <v>0.2992018660006579</v>
       </c>
       <c r="E31" s="2">
         <v>2065.167075666091</v>
@@ -1204,7 +1204,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="2">
-        <v>0.3415632229298353</v>
+        <v>0.3047946219958249</v>
       </c>
       <c r="E32" s="2">
         <v>2483.174297421038</v>
@@ -1228,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="2">
-        <v>0.3604932039743289</v>
+        <v>0.341163853998296</v>
       </c>
       <c r="E33" s="2">
         <v>1711.470662080814</v>
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="2">
-        <v>0.4181681959889829</v>
+        <v>0.3297999290007283</v>
       </c>
       <c r="E34" s="2">
         <v>2136.193681454619</v>
@@ -1276,7 +1276,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.3571614939719439</v>
+        <v>0.3178584100023727</v>
       </c>
       <c r="E35" s="2">
         <v>2102.189835901266</v>
@@ -1300,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="2">
-        <v>0.3964706909609959</v>
+        <v>0.3202187389979372</v>
       </c>
       <c r="E36" s="2">
         <v>2203.501973267502</v>
@@ -1324,7 +1324,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="2">
-        <v>0.3045557899167761</v>
+        <v>0.4116952780022984</v>
       </c>
       <c r="E37" s="2">
         <v>2714.150611497831</v>
@@ -1348,7 +1348,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="2">
-        <v>0.2881161980330944</v>
+        <v>0.3238691649967222</v>
       </c>
       <c r="E38" s="2">
         <v>2133.933967373171</v>
@@ -1372,7 +1372,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="2">
-        <v>0.3747258529765531</v>
+        <v>0.2832017760010785</v>
       </c>
       <c r="E39" s="2">
         <v>2489.33801808722</v>
@@ -1396,7 +1396,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="2">
-        <v>0.3000095430761576</v>
+        <v>0.4151736419953522</v>
       </c>
       <c r="E40" s="2">
         <v>2474.073909637842</v>
@@ -1420,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2">
-        <v>0.3365621820557863</v>
+        <v>0.3514923449984053</v>
       </c>
       <c r="E41" s="2">
         <v>2297.538032944231</v>
@@ -1444,7 +1444,7 @@
         <v>10</v>
       </c>
       <c r="D42" s="2">
-        <v>0.3775725850136951</v>
+        <v>0.3155719739952474</v>
       </c>
       <c r="E42" s="2">
         <v>2058.897258688759</v>
@@ -1468,7 +1468,7 @@
         <v>11</v>
       </c>
       <c r="D43" s="2">
-        <v>0.3106993810506538</v>
+        <v>0.3700620569943567</v>
       </c>
       <c r="E43" s="2">
         <v>2188.519720405295</v>
@@ -1492,7 +1492,7 @@
         <v>12</v>
       </c>
       <c r="D44" s="2">
-        <v>0.3490398100111634</v>
+        <v>0.3117590170004405</v>
       </c>
       <c r="E44" s="2">
         <v>3050.04982739275</v>
@@ -1516,7 +1516,7 @@
         <v>13</v>
       </c>
       <c r="D45" s="2">
-        <v>0.3965213020564988</v>
+        <v>0.3538865709997481</v>
       </c>
       <c r="E45" s="2">
         <v>2443.454107267583</v>
@@ -1540,7 +1540,7 @@
         <v>14</v>
       </c>
       <c r="D46" s="2">
-        <v>0.3511771680787206</v>
+        <v>0.4409993139997823</v>
       </c>
       <c r="E46" s="2">
         <v>2103.347035641125</v>
@@ -1564,7 +1564,7 @@
         <v>15</v>
       </c>
       <c r="D47" s="2">
-        <v>0.5161669419612736</v>
+        <v>0.3651162379974267</v>
       </c>
       <c r="E47" s="2">
         <v>3050.793778149115</v>
@@ -1588,7 +1588,7 @@
         <v>16</v>
       </c>
       <c r="D48" s="2">
-        <v>0.3289577070390806</v>
+        <v>0.3849879010012955</v>
       </c>
       <c r="E48" s="2">
         <v>2444.094014359898</v>
@@ -1612,7 +1612,7 @@
         <v>17</v>
       </c>
       <c r="D49" s="2">
-        <v>0.3852878430625424</v>
+        <v>0.3220332769997185</v>
       </c>
       <c r="E49" s="2">
         <v>2021.316244151838</v>
@@ -1636,7 +1636,7 @@
         <v>18</v>
       </c>
       <c r="D50" s="2">
-        <v>0.3985864369897172</v>
+        <v>0.2842590309955995</v>
       </c>
       <c r="E50" s="2">
         <v>2412.633415006096</v>
@@ -1660,7 +1660,7 @@
         <v>19</v>
       </c>
       <c r="D51" s="2">
-        <v>0.4421636780025437</v>
+        <v>0.3080352399992989</v>
       </c>
       <c r="E51" s="2">
         <v>2101.961259957808</v>
@@ -1684,7 +1684,7 @@
         <v>20</v>
       </c>
       <c r="D52" s="2">
-        <v>0.2967675790423527</v>
+        <v>0.2966299609979615</v>
       </c>
       <c r="E52" s="2">
         <v>2390.705024767527</v>
@@ -1708,7 +1708,7 @@
         <v>21</v>
       </c>
       <c r="D53" s="2">
-        <v>0.3091114140115678</v>
+        <v>0.2838296810004977</v>
       </c>
       <c r="E53" s="2">
         <v>2384.477517002012</v>
@@ -1732,7 +1732,7 @@
         <v>22</v>
       </c>
       <c r="D54" s="2">
-        <v>0.3291909210383892</v>
+        <v>0.3167306090035709</v>
       </c>
       <c r="E54" s="2">
         <v>2024.522265184489</v>
@@ -1756,7 +1756,7 @@
         <v>23</v>
       </c>
       <c r="D55" s="2">
-        <v>0.322307977010496</v>
+        <v>0.3323206109998864</v>
       </c>
       <c r="E55" s="2">
         <v>2099.786323386943</v>
@@ -1780,7 +1780,7 @@
         <v>24</v>
       </c>
       <c r="D56" s="2">
-        <v>0.3425603810464963</v>
+        <v>0.3186140719990362</v>
       </c>
       <c r="E56" s="2">
         <v>2428.836695640345</v>
@@ -1804,7 +1804,7 @@
         <v>25</v>
       </c>
       <c r="D57" s="2">
-        <v>0.3333612920250744</v>
+        <v>0.2816488430034951</v>
       </c>
       <c r="E57" s="2">
         <v>1936.958929914982</v>
@@ -1828,7 +1828,7 @@
         <v>26</v>
       </c>
       <c r="D58" s="2">
-        <v>0.354248384013772</v>
+        <v>0.2877133309957571</v>
       </c>
       <c r="E58" s="2">
         <v>2807.576551111727</v>
@@ -1852,7 +1852,7 @@
         <v>27</v>
       </c>
       <c r="D59" s="2">
-        <v>0.3655604630475864</v>
+        <v>0.2929851279986906</v>
       </c>
       <c r="E59" s="2">
         <v>2173.794976383858</v>
@@ -1876,7 +1876,7 @@
         <v>28</v>
       </c>
       <c r="D60" s="2">
-        <v>0.3648923890432343</v>
+        <v>0.2854938319942448</v>
       </c>
       <c r="E60" s="2">
         <v>2218.270608169488</v>
@@ -1900,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="2">
-        <v>0.4071388699812815</v>
+        <v>0.318523344998539</v>
       </c>
       <c r="E61" s="2">
         <v>2012.97839170426</v>
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="2">
-        <v>0.3002203399082646</v>
+        <v>0.3017546080009197</v>
       </c>
       <c r="E62" s="2">
         <v>2051.283450228911</v>
@@ -1948,7 +1948,7 @@
         <v>3</v>
       </c>
       <c r="D63" s="2">
-        <v>0.3145470450399444</v>
+        <v>0.3562297390017193</v>
       </c>
       <c r="E63" s="2">
         <v>2177.07886467898</v>
@@ -1972,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="D64" s="2">
-        <v>0.2743825399084017</v>
+        <v>0.3557262410031399</v>
       </c>
       <c r="E64" s="2">
         <v>2665.347329348984</v>
@@ -1996,7 +1996,7 @@
         <v>5</v>
       </c>
       <c r="D65" s="2">
-        <v>0.3464169129729271</v>
+        <v>0.2834313999992446</v>
       </c>
       <c r="E65" s="2">
         <v>1792.582924883986</v>
@@ -2020,7 +2020,7 @@
         <v>6</v>
       </c>
       <c r="D66" s="2">
-        <v>0.2837212079903111</v>
+        <v>0.2865249669994228</v>
       </c>
       <c r="E66" s="2">
         <v>2558.155264972005</v>
@@ -2044,7 +2044,7 @@
         <v>7</v>
       </c>
       <c r="D67" s="2">
-        <v>0.3914859960786998</v>
+        <v>0.3088648640041356</v>
       </c>
       <c r="E67" s="2">
         <v>2279.502128405958</v>
@@ -2068,7 +2068,7 @@
         <v>8</v>
       </c>
       <c r="D68" s="2">
-        <v>0.4281948789721355</v>
+        <v>0.3119297469966114</v>
       </c>
       <c r="E68" s="2">
         <v>1998.080267334325</v>
@@ -2092,7 +2092,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2">
-        <v>0.2969673499464989</v>
+        <v>0.3324624829983804</v>
       </c>
       <c r="E69" s="2">
         <v>1877.620855618634</v>
@@ -2116,7 +2116,7 @@
         <v>10</v>
       </c>
       <c r="D70" s="2">
-        <v>0.2917983969673514</v>
+        <v>0.3333213459991384</v>
       </c>
       <c r="E70" s="2">
         <v>2098.222583572444</v>
@@ -2140,7 +2140,7 @@
         <v>11</v>
       </c>
       <c r="D71" s="2">
-        <v>0.3225750830024481</v>
+        <v>0.3087166029945365</v>
       </c>
       <c r="E71" s="2">
         <v>2106.175016203057</v>
@@ -2164,7 +2164,7 @@
         <v>12</v>
       </c>
       <c r="D72" s="2">
-        <v>0.2813948799157515</v>
+        <v>0.3349858479996328</v>
       </c>
       <c r="E72" s="2">
         <v>2031.893076927213</v>
@@ -2188,7 +2188,7 @@
         <v>13</v>
       </c>
       <c r="D73" s="2">
-        <v>0.3116446459898725</v>
+        <v>0.3227530819931417</v>
       </c>
       <c r="E73" s="2">
         <v>1887.246353673753</v>
@@ -2212,7 +2212,7 @@
         <v>14</v>
       </c>
       <c r="D74" s="2">
-        <v>0.3013033459428698</v>
+        <v>0.3115883770005894</v>
       </c>
       <c r="E74" s="2">
         <v>2349.957321814068</v>
@@ -2236,7 +2236,7 @@
         <v>15</v>
       </c>
       <c r="D75" s="2">
-        <v>0.3529373989440501</v>
+        <v>0.3052343240051414</v>
       </c>
       <c r="E75" s="2">
         <v>1973.582378564819</v>
@@ -2260,7 +2260,7 @@
         <v>16</v>
       </c>
       <c r="D76" s="2">
-        <v>0.3696355350548401</v>
+        <v>0.2779517279996071</v>
       </c>
       <c r="E76" s="2">
         <v>2264.133558128131</v>
@@ -2284,7 +2284,7 @@
         <v>17</v>
       </c>
       <c r="D77" s="2">
-        <v>0.3258620159467682</v>
+        <v>0.3350530500028981</v>
       </c>
       <c r="E77" s="2">
         <v>2266.682273977592</v>
@@ -2308,7 +2308,7 @@
         <v>18</v>
       </c>
       <c r="D78" s="2">
-        <v>0.3388261119835079</v>
+        <v>0.3069572180029354</v>
       </c>
       <c r="E78" s="2">
         <v>2071.209564129969</v>
@@ -2332,7 +2332,7 @@
         <v>19</v>
       </c>
       <c r="D79" s="2">
-        <v>0.4014118299819529</v>
+        <v>0.3227906090032775</v>
       </c>
       <c r="E79" s="2">
         <v>2272.493067013165</v>
@@ -2356,7 +2356,7 @@
         <v>20</v>
       </c>
       <c r="D80" s="2">
-        <v>0.352004932006821</v>
+        <v>0.2873165980054182</v>
       </c>
       <c r="E80" s="2">
         <v>2141.589678787966</v>
@@ -2380,7 +2380,7 @@
         <v>21</v>
       </c>
       <c r="D81" s="2">
-        <v>0.3094593220157549</v>
+        <v>0.3215648250043159</v>
       </c>
       <c r="E81" s="2">
         <v>1716.756435372441</v>
@@ -2404,7 +2404,7 @@
         <v>22</v>
       </c>
       <c r="D82" s="2">
-        <v>0.3526541769970208</v>
+        <v>0.2823814809962641</v>
       </c>
       <c r="E82" s="2">
         <v>2496.082027805238</v>
@@ -2428,7 +2428,7 @@
         <v>23</v>
       </c>
       <c r="D83" s="2">
-        <v>0.3146880409913138</v>
+        <v>0.3391414330035332</v>
       </c>
       <c r="E83" s="2">
         <v>1884.280234180581</v>
@@ -2452,7 +2452,7 @@
         <v>24</v>
       </c>
       <c r="D84" s="2">
-        <v>0.38500855199527</v>
+        <v>0.2810028970052372</v>
       </c>
       <c r="E84" s="2">
         <v>2388.319351679737</v>
@@ -2476,7 +2476,7 @@
         <v>25</v>
       </c>
       <c r="D85" s="2">
-        <v>0.3858257199171931</v>
+        <v>0.3506046059992514</v>
       </c>
       <c r="E85" s="2">
         <v>1948.509152029312</v>
@@ -2500,7 +2500,7 @@
         <v>26</v>
       </c>
       <c r="D86" s="2">
-        <v>0.4274311769986525</v>
+        <v>0.282638994998706</v>
       </c>
       <c r="E86" s="2">
         <v>2414.001948554051</v>
@@ -2524,7 +2524,7 @@
         <v>27</v>
       </c>
       <c r="D87" s="2">
-        <v>0.4428363060578704</v>
+        <v>0.2904577730005258</v>
       </c>
       <c r="E87" s="2">
         <v>1734.229765413779</v>
@@ -2548,7 +2548,7 @@
         <v>28</v>
       </c>
       <c r="D88" s="2">
-        <v>0.4103653259808198</v>
+        <v>0.2979848310060333</v>
       </c>
       <c r="E88" s="2">
         <v>2071.664874776551</v>
@@ -2572,7 +2572,7 @@
         <v>29</v>
       </c>
       <c r="D89" s="2">
-        <v>0.3245966939721256</v>
+        <v>0.3228745059968787</v>
       </c>
       <c r="E89" s="2">
         <v>1920.681444017423</v>
@@ -2596,7 +2596,7 @@
         <v>30</v>
       </c>
       <c r="D90" s="2">
-        <v>0.3027098850579932</v>
+        <v>0.2871854820041335</v>
       </c>
       <c r="E90" s="2">
         <v>2533.411179993873</v>
@@ -2620,7 +2620,7 @@
         <v>31</v>
       </c>
       <c r="D91" s="2">
-        <v>0.3829999930458143</v>
+        <v>0.274812756004394</v>
       </c>
       <c r="E91" s="2">
         <v>2147.713192533203</v>
@@ -2644,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="2">
-        <v>0.420752831036225</v>
+        <v>0.3073354939988349</v>
       </c>
       <c r="E92" s="2">
         <v>2433.830881494296</v>
@@ -2668,7 +2668,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="2">
-        <v>0.4703766870079562</v>
+        <v>0.3332440470039728</v>
       </c>
       <c r="E93" s="2">
         <v>2407.312547262955</v>
@@ -2692,7 +2692,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="2">
-        <v>0.4237692909082398</v>
+        <v>0.3089969450011267</v>
       </c>
       <c r="E94" s="2">
         <v>2161.049146836328</v>
@@ -2716,7 +2716,7 @@
         <v>4</v>
       </c>
       <c r="D95" s="2">
-        <v>0.4287210939219221</v>
+        <v>0.3040830489990185</v>
       </c>
       <c r="E95" s="2">
         <v>2274.810720700573</v>
@@ -2740,7 +2740,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="2">
-        <v>0.3372850299347192</v>
+        <v>0.3142661439997028</v>
       </c>
       <c r="E96" s="2">
         <v>2607.343398394959</v>
@@ -2764,7 +2764,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="2">
-        <v>0.366325129987672</v>
+        <v>0.2927335710046464</v>
       </c>
       <c r="E97" s="2">
         <v>2672.076539446277</v>
@@ -2788,7 +2788,7 @@
         <v>7</v>
       </c>
       <c r="D98" s="2">
-        <v>0.318239371990785</v>
+        <v>0.2942315399996005</v>
       </c>
       <c r="E98" s="2">
         <v>2311.581861488191</v>
@@ -2812,7 +2812,7 @@
         <v>8</v>
       </c>
       <c r="D99" s="2">
-        <v>0.467446374008432</v>
+        <v>0.3451303120018565</v>
       </c>
       <c r="E99" s="2">
         <v>2052.676109092337</v>
@@ -2836,7 +2836,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2">
-        <v>0.310319921001792</v>
+        <v>0.2947854610029026</v>
       </c>
       <c r="E100" s="2">
         <v>2042.369788350777</v>
@@ -2860,7 +2860,7 @@
         <v>10</v>
       </c>
       <c r="D101" s="2">
-        <v>0.3362148120068014</v>
+        <v>0.2751797919991077</v>
       </c>
       <c r="E101" s="2">
         <v>2716.566971935454</v>
@@ -2884,7 +2884,7 @@
         <v>11</v>
       </c>
       <c r="D102" s="2">
-        <v>0.5843759020790458</v>
+        <v>0.4032783450020361</v>
       </c>
       <c r="E102" s="2">
         <v>2085.687588938484</v>
@@ -2908,7 +2908,7 @@
         <v>12</v>
       </c>
       <c r="D103" s="2">
-        <v>0.3103023279691115</v>
+        <v>0.3158783340040827</v>
       </c>
       <c r="E103" s="2">
         <v>2456.689901301213</v>
@@ -2932,7 +2932,7 @@
         <v>13</v>
       </c>
       <c r="D104" s="2">
-        <v>0.3175308209611103</v>
+        <v>0.3201676210010191</v>
       </c>
       <c r="E104" s="2">
         <v>1992.452481926058</v>
@@ -2956,7 +2956,7 @@
         <v>14</v>
       </c>
       <c r="D105" s="2">
-        <v>0.3362692180089653</v>
+        <v>0.3536078380057006</v>
       </c>
       <c r="E105" s="2">
         <v>1784.958332873223</v>
@@ -2980,7 +2980,7 @@
         <v>15</v>
       </c>
       <c r="D106" s="2">
-        <v>0.2974505659658462</v>
+        <v>0.289165177004179</v>
       </c>
       <c r="E106" s="2">
         <v>2113.649987522091</v>
@@ -3004,7 +3004,7 @@
         <v>16</v>
       </c>
       <c r="D107" s="2">
-        <v>0.3137226869584993</v>
+        <v>0.2893650339974556</v>
       </c>
       <c r="E107" s="2">
         <v>2834.042648056311</v>
@@ -3028,7 +3028,7 @@
         <v>17</v>
       </c>
       <c r="D108" s="2">
-        <v>0.2969134900486097</v>
+        <v>0.320359543999075</v>
       </c>
       <c r="E108" s="2">
         <v>2203.992252756309</v>
@@ -3052,7 +3052,7 @@
         <v>18</v>
       </c>
       <c r="D109" s="2">
-        <v>0.343322537955828</v>
+        <v>0.2853001929979655</v>
       </c>
       <c r="E109" s="2">
         <v>2646.171754674238</v>
@@ -3076,7 +3076,7 @@
         <v>19</v>
       </c>
       <c r="D110" s="2">
-        <v>0.3793981629423797</v>
+        <v>0.2896144620026462</v>
       </c>
       <c r="E110" s="2">
         <v>2461.999712234548</v>
@@ -3100,7 +3100,7 @@
         <v>20</v>
       </c>
       <c r="D111" s="2">
-        <v>0.3663797810440883</v>
+        <v>0.2963688180025201</v>
       </c>
       <c r="E111" s="2">
         <v>1994.718661832442</v>
@@ -3124,7 +3124,7 @@
         <v>21</v>
       </c>
       <c r="D112" s="2">
-        <v>0.3072497209068388</v>
+        <v>0.2791840520003461</v>
       </c>
       <c r="E112" s="2">
         <v>2310.970542376888</v>
@@ -3148,7 +3148,7 @@
         <v>22</v>
       </c>
       <c r="D113" s="2">
-        <v>0.3462197670014575</v>
+        <v>0.3104115710011683</v>
       </c>
       <c r="E113" s="2">
         <v>2244.904959705801</v>
@@ -3172,7 +3172,7 @@
         <v>23</v>
       </c>
       <c r="D114" s="2">
-        <v>0.4293927019461989</v>
+        <v>0.3167066720052389</v>
       </c>
       <c r="E114" s="2">
         <v>2133.542564063141</v>
@@ -3196,7 +3196,7 @@
         <v>24</v>
       </c>
       <c r="D115" s="2">
-        <v>0.4924964199308306</v>
+        <v>0.3013826599999447</v>
       </c>
       <c r="E115" s="2">
         <v>2257.42201103168</v>
@@ -3220,7 +3220,7 @@
         <v>25</v>
       </c>
       <c r="D116" s="2">
-        <v>0.3313250149367377</v>
+        <v>0.2939940569995088</v>
       </c>
       <c r="E116" s="2">
         <v>2015.92492322392</v>
@@ -3244,7 +3244,7 @@
         <v>26</v>
       </c>
       <c r="D117" s="2">
-        <v>0.2954280630219728</v>
+        <v>0.2846203799999785</v>
       </c>
       <c r="E117" s="2">
         <v>1996.43952347533</v>
@@ -3268,7 +3268,7 @@
         <v>27</v>
       </c>
       <c r="D118" s="2">
-        <v>0.3752201079623774</v>
+        <v>0.296730841997487</v>
       </c>
       <c r="E118" s="2">
         <v>2444.065364822866</v>
@@ -3292,7 +3292,7 @@
         <v>28</v>
       </c>
       <c r="D119" s="2">
-        <v>0.361503925989382</v>
+        <v>0.3089868449969799</v>
       </c>
       <c r="E119" s="2">
         <v>2381.746515335734</v>
@@ -3316,7 +3316,7 @@
         <v>29</v>
       </c>
       <c r="D120" s="2">
-        <v>0.2808626500191167</v>
+        <v>0.3122267260041554</v>
       </c>
       <c r="E120" s="2">
         <v>2123.649022426198</v>
@@ -3340,7 +3340,7 @@
         <v>30</v>
       </c>
       <c r="D121" s="2">
-        <v>0.3190236130030826</v>
+        <v>0.3214514719948056</v>
       </c>
       <c r="E121" s="2">
         <v>2318.198043567214</v>
@@ -3364,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="2">
-        <v>0.3676476179389283</v>
+        <v>0.3157752569968579</v>
       </c>
       <c r="E122" s="2">
         <v>2076.316497045639</v>
@@ -3388,7 +3388,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="2">
-        <v>0.35407602309715</v>
+        <v>0.2819546489990898</v>
       </c>
       <c r="E123" s="2">
         <v>2637.105224516816</v>
@@ -3412,7 +3412,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="2">
-        <v>0.4864250291138887</v>
+        <v>0.2956812420015922</v>
       </c>
       <c r="E124" s="2">
         <v>1932.816488470707</v>
@@ -3436,7 +3436,7 @@
         <v>4</v>
       </c>
       <c r="D125" s="2">
-        <v>0.3781978709157556</v>
+        <v>0.3033182979997946</v>
       </c>
       <c r="E125" s="2">
         <v>2117.039238512003</v>
@@ -3460,7 +3460,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="2">
-        <v>0.3594905759673566</v>
+        <v>0.2826668850029819</v>
       </c>
       <c r="E126" s="2">
         <v>1877.159737608009</v>
@@ -3484,7 +3484,7 @@
         <v>6</v>
       </c>
       <c r="D127" s="2">
-        <v>0.3522028980078176</v>
+        <v>0.3074563520058291</v>
       </c>
       <c r="E127" s="2">
         <v>1880.899116023981</v>
@@ -3508,7 +3508,7 @@
         <v>7</v>
       </c>
       <c r="D128" s="2">
-        <v>0.29245137097314</v>
+        <v>0.2864263350056717</v>
       </c>
       <c r="E128" s="2">
         <v>2736.651241663402</v>
@@ -3532,7 +3532,7 @@
         <v>8</v>
       </c>
       <c r="D129" s="2">
-        <v>0.3234069229802117</v>
+        <v>0.2830588249998982</v>
       </c>
       <c r="E129" s="2">
         <v>2554.675614551421</v>
@@ -3556,7 +3556,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="2">
-        <v>0.4573867119615898</v>
+        <v>0.2897074119973695</v>
       </c>
       <c r="E130" s="2">
         <v>2105.092439492814</v>
@@ -3580,7 +3580,7 @@
         <v>10</v>
       </c>
       <c r="D131" s="2">
-        <v>0.3199260840192437</v>
+        <v>0.3131711780006299</v>
       </c>
       <c r="E131" s="2">
         <v>2570.365951124642</v>
@@ -3604,7 +3604,7 @@
         <v>11</v>
       </c>
       <c r="D132" s="2">
-        <v>0.4127069250680506</v>
+        <v>0.284245324000949</v>
       </c>
       <c r="E132" s="2">
         <v>2409.85761794789</v>
@@ -3628,7 +3628,7 @@
         <v>12</v>
       </c>
       <c r="D133" s="2">
-        <v>0.3036602280335501</v>
+        <v>0.3847336040053051</v>
       </c>
       <c r="E133" s="2">
         <v>1934.38381936655</v>
@@ -3652,7 +3652,7 @@
         <v>13</v>
       </c>
       <c r="D134" s="2">
-        <v>0.3840371660189703</v>
+        <v>0.30397260600148</v>
       </c>
       <c r="E134" s="2">
         <v>1850.504623548575</v>
@@ -3676,7 +3676,7 @@
         <v>14</v>
       </c>
       <c r="D135" s="2">
-        <v>0.3464088679756969</v>
+        <v>0.2979823099958594</v>
       </c>
       <c r="E135" s="2">
         <v>1722.693213533703</v>
@@ -3700,7 +3700,7 @@
         <v>15</v>
       </c>
       <c r="D136" s="2">
-        <v>0.3198596009751782</v>
+        <v>0.4769213969993871</v>
       </c>
       <c r="E136" s="2">
         <v>1645.90901948052</v>
@@ -3724,7 +3724,7 @@
         <v>16</v>
       </c>
       <c r="D137" s="2">
-        <v>0.3663957879180089</v>
+        <v>0.3689392570013297</v>
       </c>
       <c r="E137" s="2">
         <v>2377.936871718181</v>
@@ -3748,7 +3748,7 @@
         <v>17</v>
       </c>
       <c r="D138" s="2">
-        <v>0.3101759880082682</v>
+        <v>0.3925160439976025</v>
       </c>
       <c r="E138" s="2">
         <v>1987.889713887698</v>
@@ -3772,7 +3772,7 @@
         <v>18</v>
       </c>
       <c r="D139" s="2">
-        <v>0.3411403559148312</v>
+        <v>0.3027349979965948</v>
       </c>
       <c r="E139" s="2">
         <v>2174.201807454974</v>
@@ -3796,7 +3796,7 @@
         <v>19</v>
       </c>
       <c r="D140" s="2">
-        <v>0.3504775270121172</v>
+        <v>0.3133086529996945</v>
       </c>
       <c r="E140" s="2">
         <v>1792.325560238323</v>
@@ -3820,7 +3820,7 @@
         <v>20</v>
       </c>
       <c r="D141" s="2">
-        <v>0.3714728950290009</v>
+        <v>0.3505925170029514</v>
       </c>
       <c r="E141" s="2">
         <v>2137.947358172481</v>
@@ -3844,7 +3844,7 @@
         <v>21</v>
       </c>
       <c r="D142" s="2">
-        <v>0.3879330690251663</v>
+        <v>0.2732695090016932</v>
       </c>
       <c r="E142" s="2">
         <v>2387.941141580945</v>
@@ -3868,7 +3868,7 @@
         <v>22</v>
       </c>
       <c r="D143" s="2">
-        <v>0.4123153060209006</v>
+        <v>0.324643856001785</v>
       </c>
       <c r="E143" s="2">
         <v>2425.501270226095</v>
@@ -3892,7 +3892,7 @@
         <v>23</v>
       </c>
       <c r="D144" s="2">
-        <v>0.3449990749359131</v>
+        <v>0.360365438995359</v>
       </c>
       <c r="E144" s="2">
         <v>2241.764530155728</v>
@@ -3916,7 +3916,7 @@
         <v>24</v>
       </c>
       <c r="D145" s="2">
-        <v>0.3064854830736294</v>
+        <v>0.310837682998681</v>
       </c>
       <c r="E145" s="2">
         <v>2350.55363672152</v>
@@ -3940,7 +3940,7 @@
         <v>25</v>
       </c>
       <c r="D146" s="2">
-        <v>0.345521752955392</v>
+        <v>0.2777344440037268</v>
       </c>
       <c r="E146" s="2">
         <v>2391.948266752824</v>
@@ -3964,7 +3964,7 @@
         <v>26</v>
       </c>
       <c r="D147" s="2">
-        <v>0.3402600779663771</v>
+        <v>0.3168380619972595</v>
       </c>
       <c r="E147" s="2">
         <v>1959.570186195937</v>
@@ -3988,7 +3988,7 @@
         <v>27</v>
       </c>
       <c r="D148" s="2">
-        <v>0.371815956896171</v>
+        <v>0.3352138879999984</v>
       </c>
       <c r="E148" s="2">
         <v>2144.407151098665</v>
@@ -4012,7 +4012,7 @@
         <v>28</v>
       </c>
       <c r="D149" s="2">
-        <v>0.3492397739319131</v>
+        <v>0.2844296740004211</v>
       </c>
       <c r="E149" s="2">
         <v>2163.008743013525</v>
@@ -4036,7 +4036,7 @@
         <v>29</v>
       </c>
       <c r="D150" s="2">
-        <v>0.3903748750453815</v>
+        <v>0.3078185729973484</v>
       </c>
       <c r="E150" s="2">
         <v>2072.340714304084</v>
@@ -4060,7 +4060,7 @@
         <v>30</v>
       </c>
       <c r="D151" s="2">
-        <v>0.3251114740269259</v>
+        <v>0.3646885679991101</v>
       </c>
       <c r="E151" s="2">
         <v>1799.972058205954</v>
@@ -4084,7 +4084,7 @@
         <v>31</v>
       </c>
       <c r="D152" s="2">
-        <v>0.3035884849959984</v>
+        <v>0.2754759410017869</v>
       </c>
       <c r="E152" s="2">
         <v>2159.411837019392</v>
@@ -4108,7 +4108,7 @@
         <v>1</v>
       </c>
       <c r="D153" s="2">
-        <v>0.3632471030578017</v>
+        <v>0.2829402890056372</v>
       </c>
       <c r="E153" s="2">
         <v>2196.282651656764</v>
@@ -4132,7 +4132,7 @@
         <v>2</v>
       </c>
       <c r="D154" s="2">
-        <v>0.3144518849439919</v>
+        <v>0.338787904001947</v>
       </c>
       <c r="E154" s="2">
         <v>2385.074369636939</v>
@@ -4156,7 +4156,7 @@
         <v>3</v>
       </c>
       <c r="D155" s="2">
-        <v>0.4528642969671637</v>
+        <v>0.3137886170006823</v>
       </c>
       <c r="E155" s="2">
         <v>2457.771117190254</v>
@@ -4180,7 +4180,7 @@
         <v>4</v>
       </c>
       <c r="D156" s="2">
-        <v>0.348127278033644</v>
+        <v>0.2852011529976153</v>
       </c>
       <c r="E156" s="2">
         <v>2206.876930859468</v>
@@ -4204,7 +4204,7 @@
         <v>5</v>
       </c>
       <c r="D157" s="2">
-        <v>0.456166221993044</v>
+        <v>0.322118338997825</v>
       </c>
       <c r="E157" s="2">
         <v>2436.457284345336</v>
@@ -4228,7 +4228,7 @@
         <v>6</v>
       </c>
       <c r="D158" s="2">
-        <v>0.3722429280169308</v>
+        <v>0.3280509799951687</v>
       </c>
       <c r="E158" s="2">
         <v>2137.46344823318</v>
@@ -4252,7 +4252,7 @@
         <v>7</v>
       </c>
       <c r="D159" s="2">
-        <v>0.2936470810091123</v>
+        <v>0.3579347229970153</v>
       </c>
       <c r="E159" s="2">
         <v>1972.499336598053</v>
@@ -4276,7 +4276,7 @@
         <v>8</v>
       </c>
       <c r="D160" s="2">
-        <v>0.3220171689754352</v>
+        <v>0.3148984880026546</v>
       </c>
       <c r="E160" s="2">
         <v>1705.502565319909</v>
@@ -4300,7 +4300,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2">
-        <v>0.3116868799552321</v>
+        <v>0.3293808669986902</v>
       </c>
       <c r="E161" s="2">
         <v>1520.384695761918</v>
@@ -4324,7 +4324,7 @@
         <v>10</v>
       </c>
       <c r="D162" s="2">
-        <v>0.3302472329232842</v>
+        <v>0.2978330069963704</v>
       </c>
       <c r="E162" s="2">
         <v>2160.627030422103</v>
@@ -4348,7 +4348,7 @@
         <v>11</v>
       </c>
       <c r="D163" s="2">
-        <v>0.2816376009723172</v>
+        <v>0.3446912159997737</v>
       </c>
       <c r="E163" s="2">
         <v>1762.466503610988</v>
@@ -4372,7 +4372,7 @@
         <v>12</v>
       </c>
       <c r="D164" s="2">
-        <v>0.3214000640437007</v>
+        <v>0.3116004199982854</v>
       </c>
       <c r="E164" s="2">
         <v>2095.111235755413</v>
@@ -4396,7 +4396,7 @@
         <v>13</v>
       </c>
       <c r="D165" s="2">
-        <v>0.3499462929321453</v>
+        <v>0.2914514119984233</v>
       </c>
       <c r="E165" s="2">
         <v>2324.254658553121</v>
@@ -4420,7 +4420,7 @@
         <v>14</v>
       </c>
       <c r="D166" s="2">
-        <v>0.3547592849936336</v>
+        <v>0.269542731999536</v>
       </c>
       <c r="E166" s="2">
         <v>2057.685242986978</v>
@@ -4444,7 +4444,7 @@
         <v>15</v>
       </c>
       <c r="D167" s="2">
-        <v>0.3010223909514025</v>
+        <v>0.3101795659968047</v>
       </c>
       <c r="E167" s="2">
         <v>2464.826064673589</v>
@@ -4468,7 +4468,7 @@
         <v>16</v>
       </c>
       <c r="D168" s="2">
-        <v>0.3471438509877771</v>
+        <v>0.331717701999878</v>
       </c>
       <c r="E168" s="2">
         <v>2110.779571279063</v>
@@ -4492,7 +4492,7 @@
         <v>17</v>
       </c>
       <c r="D169" s="2">
-        <v>0.322099301032722</v>
+        <v>0.2743810259999009</v>
       </c>
       <c r="E169" s="2">
         <v>2505.910600184307</v>
@@ -4516,7 +4516,7 @@
         <v>18</v>
       </c>
       <c r="D170" s="2">
-        <v>0.3504870930919424</v>
+        <v>0.3227332730020862</v>
       </c>
       <c r="E170" s="2">
         <v>1647.533158928937</v>
@@ -4540,7 +4540,7 @@
         <v>19</v>
       </c>
       <c r="D171" s="2">
-        <v>0.4290380909806117</v>
+        <v>0.2787419849992148</v>
       </c>
       <c r="E171" s="2">
         <v>1974.428105712782</v>
@@ -4564,7 +4564,7 @@
         <v>20</v>
       </c>
       <c r="D172" s="2">
-        <v>0.360538057051599</v>
+        <v>0.2917976969984011</v>
       </c>
       <c r="E172" s="2">
         <v>2513.991454597157</v>
@@ -4588,7 +4588,7 @@
         <v>21</v>
       </c>
       <c r="D173" s="2">
-        <v>0.3124505849555135</v>
+        <v>0.2748867640038952</v>
       </c>
       <c r="E173" s="2">
         <v>1780.737717395451</v>
@@ -4612,7 +4612,7 @@
         <v>22</v>
       </c>
       <c r="D174" s="2">
-        <v>0.3680599459912628</v>
+        <v>0.3127247750016977</v>
       </c>
       <c r="E174" s="2">
         <v>2255.587486466789</v>
@@ -4636,7 +4636,7 @@
         <v>23</v>
       </c>
       <c r="D175" s="2">
-        <v>0.3933947479818016</v>
+        <v>0.3120786029976443</v>
       </c>
       <c r="E175" s="2">
         <v>2538.307473397972</v>
@@ -4660,7 +4660,7 @@
         <v>24</v>
       </c>
       <c r="D176" s="2">
-        <v>0.3034619919490069</v>
+        <v>0.2864621789994999</v>
       </c>
       <c r="E176" s="2">
         <v>2087.974854691427</v>
@@ -4684,7 +4684,7 @@
         <v>25</v>
       </c>
       <c r="D177" s="2">
-        <v>0.3183684370014817</v>
+        <v>0.278741574002197</v>
       </c>
       <c r="E177" s="2">
         <v>2127.990181402628</v>
@@ -4708,7 +4708,7 @@
         <v>26</v>
       </c>
       <c r="D178" s="2">
-        <v>0.3732295800000429</v>
+        <v>0.3612353520002216</v>
       </c>
       <c r="E178" s="2">
         <v>2134.647587018294</v>
@@ -4732,7 +4732,7 @@
         <v>27</v>
       </c>
       <c r="D179" s="2">
-        <v>0.3598644209560007</v>
+        <v>0.2939484949965845</v>
       </c>
       <c r="E179" s="2">
         <v>2337.026321713145</v>
@@ -4756,7 +4756,7 @@
         <v>28</v>
       </c>
       <c r="D180" s="2">
-        <v>0.4801078429445624</v>
+        <v>0.3079634929963504</v>
       </c>
       <c r="E180" s="2">
         <v>2200.329760590347</v>
@@ -4780,7 +4780,7 @@
         <v>29</v>
       </c>
       <c r="D181" s="2">
-        <v>0.4104262860491872</v>
+        <v>0.3658250500011491</v>
       </c>
       <c r="E181" s="2">
         <v>2431.022020553432</v>
@@ -4804,7 +4804,7 @@
         <v>30</v>
       </c>
       <c r="D182" s="2">
-        <v>0.395679667009972</v>
+        <v>0.2979910249996465</v>
       </c>
       <c r="E182" s="2">
         <v>2294.756854658639</v>
@@ -4828,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="D183" s="2">
-        <v>0.4467097430024296</v>
+        <v>0.3184827610020875</v>
       </c>
       <c r="E183" s="2">
         <v>1879.802659042441</v>
@@ -4852,7 +4852,7 @@
         <v>2</v>
       </c>
       <c r="D184" s="2">
-        <v>0.4138659710297361</v>
+        <v>0.3161983089958085</v>
       </c>
       <c r="E184" s="2">
         <v>2134.399461723991</v>
@@ -4876,7 +4876,7 @@
         <v>3</v>
       </c>
       <c r="D185" s="2">
-        <v>0.3577748879324645</v>
+        <v>0.3225468059972627</v>
       </c>
       <c r="E185" s="2">
         <v>2369.15855112158</v>
@@ -4900,7 +4900,7 @@
         <v>4</v>
       </c>
       <c r="D186" s="2">
-        <v>0.3589399529155344</v>
+        <v>0.3536038460006239</v>
       </c>
       <c r="E186" s="2">
         <v>2201.091230166295</v>
@@ -4924,7 +4924,7 @@
         <v>5</v>
       </c>
       <c r="D187" s="2">
-        <v>0.3797981759998947</v>
+        <v>0.3467688699965947</v>
       </c>
       <c r="E187" s="2">
         <v>2123.412352935887</v>
@@ -4948,7 +4948,7 @@
         <v>6</v>
       </c>
       <c r="D188" s="2">
-        <v>0.3598568689776585</v>
+        <v>0.3080743269965751</v>
       </c>
       <c r="E188" s="2">
         <v>1862.349367521303</v>
@@ -4972,7 +4972,7 @@
         <v>7</v>
       </c>
       <c r="D189" s="2">
-        <v>0.3596314078895375</v>
+        <v>0.3232102250040043</v>
       </c>
       <c r="E189" s="2">
         <v>1903.874646814641</v>
@@ -4996,7 +4996,7 @@
         <v>8</v>
       </c>
       <c r="D190" s="2">
-        <v>0.3680984699167311</v>
+        <v>0.2819183660030831</v>
       </c>
       <c r="E190" s="2">
         <v>1550.682658295898</v>
@@ -5020,7 +5020,7 @@
         <v>9</v>
       </c>
       <c r="D191" s="2">
-        <v>0.3771829480538145</v>
+        <v>0.3249833160007256</v>
       </c>
       <c r="E191" s="2">
         <v>2314.796501523785</v>
@@ -5044,7 +5044,7 @@
         <v>10</v>
       </c>
       <c r="D192" s="2">
-        <v>0.3271657230798155</v>
+        <v>0.2749783670005854</v>
       </c>
       <c r="E192" s="2">
         <v>2147.28958296368</v>
@@ -5068,7 +5068,7 @@
         <v>11</v>
       </c>
       <c r="D193" s="2">
-        <v>0.3305543459719047</v>
+        <v>0.3270289490028517</v>
       </c>
       <c r="E193" s="2">
         <v>2346.301850815037</v>
@@ -5092,7 +5092,7 @@
         <v>12</v>
       </c>
       <c r="D194" s="2">
-        <v>0.4697508619865403</v>
+        <v>0.2887399800019921</v>
       </c>
       <c r="E194" s="2">
         <v>2330.275608498884</v>
@@ -5116,7 +5116,7 @@
         <v>13</v>
       </c>
       <c r="D195" s="2">
-        <v>0.3347936250502244</v>
+        <v>0.3419379020051565</v>
       </c>
       <c r="E195" s="2">
         <v>2281.674013900621</v>
@@ -5140,7 +5140,7 @@
         <v>14</v>
       </c>
       <c r="D196" s="2">
-        <v>0.3327805020380765</v>
+        <v>0.303190156002529</v>
       </c>
       <c r="E196" s="2">
         <v>2142.059190417069</v>
@@ -5164,7 +5164,7 @@
         <v>15</v>
       </c>
       <c r="D197" s="2">
-        <v>0.3976789070293307</v>
+        <v>0.3178711319997092</v>
       </c>
       <c r="E197" s="2">
         <v>2154.851187413764</v>
@@ -5188,7 +5188,7 @@
         <v>16</v>
       </c>
       <c r="D198" s="2">
-        <v>0.3782470689620823</v>
+        <v>0.2883135369993397</v>
       </c>
       <c r="E198" s="2">
         <v>1827.555546047547</v>
@@ -5212,7 +5212,7 @@
         <v>17</v>
       </c>
       <c r="D199" s="2">
-        <v>0.4861263571074232</v>
+        <v>0.3095125730033033</v>
       </c>
       <c r="E199" s="2">
         <v>2364.207375170695</v>
@@ -5236,7 +5236,7 @@
         <v>18</v>
       </c>
       <c r="D200" s="2">
-        <v>0.2914107899414375</v>
+        <v>0.3902205929989577</v>
       </c>
       <c r="E200" s="2">
         <v>2656.026767061549</v>
@@ -5260,7 +5260,7 @@
         <v>19</v>
       </c>
       <c r="D201" s="2">
-        <v>0.2730839559808373</v>
+        <v>0.2985232580031152</v>
       </c>
       <c r="E201" s="2">
         <v>1871.5725112719</v>
@@ -5284,7 +5284,7 @@
         <v>20</v>
       </c>
       <c r="D202" s="2">
-        <v>0.2723456530366093</v>
+        <v>0.2788958649980486</v>
       </c>
       <c r="E202" s="2">
         <v>1949.670656151689</v>
@@ -5308,7 +5308,7 @@
         <v>21</v>
       </c>
       <c r="D203" s="2">
-        <v>0.3411212669452652</v>
+        <v>0.2867196790029993</v>
       </c>
       <c r="E203" s="2">
         <v>1846.004003310091</v>
@@ -5332,7 +5332,7 @@
         <v>22</v>
       </c>
       <c r="D204" s="2">
-        <v>0.279244115925394</v>
+        <v>0.3109955850013648</v>
       </c>
       <c r="E204" s="2">
         <v>1700.471375710124</v>
@@ -5356,7 +5356,7 @@
         <v>23</v>
       </c>
       <c r="D205" s="2">
-        <v>0.2725818899925798</v>
+        <v>0.2833843429980334</v>
       </c>
       <c r="E205" s="2">
         <v>2429.157421160867</v>
@@ -5380,7 +5380,7 @@
         <v>24</v>
       </c>
       <c r="D206" s="2">
-        <v>0.2956106730271131</v>
+        <v>0.4266828870022437</v>
       </c>
       <c r="E206" s="2">
         <v>2124.84529359882</v>
@@ -5404,7 +5404,7 @@
         <v>25</v>
       </c>
       <c r="D207" s="2">
-        <v>0.389611306018196</v>
+        <v>0.2910901869981899</v>
       </c>
       <c r="E207" s="2">
         <v>2012.261269172223</v>
@@ -5428,7 +5428,7 @@
         <v>26</v>
       </c>
       <c r="D208" s="2">
-        <v>0.2809338540537283</v>
+        <v>0.2947878710037912</v>
       </c>
       <c r="E208" s="2">
         <v>1790.895983535587</v>
@@ -5452,7 +5452,7 @@
         <v>27</v>
       </c>
       <c r="D209" s="2">
-        <v>0.2974572569364682</v>
+        <v>0.2949831430014456</v>
       </c>
       <c r="E209" s="2">
         <v>1920.719001820786</v>
@@ -5476,7 +5476,7 @@
         <v>28</v>
       </c>
       <c r="D210" s="2">
-        <v>0.3697886649752036</v>
+        <v>0.3051725389959756</v>
       </c>
       <c r="E210" s="2">
         <v>2608.829716344008</v>
@@ -5500,7 +5500,7 @@
         <v>29</v>
       </c>
       <c r="D211" s="2">
-        <v>0.3028429470723495</v>
+        <v>0.2798694509983761</v>
       </c>
       <c r="E211" s="2">
         <v>2182.404121155074</v>
@@ -5524,7 +5524,7 @@
         <v>30</v>
       </c>
       <c r="D212" s="2">
-        <v>0.3015910889953375</v>
+        <v>0.2826750539970817</v>
       </c>
       <c r="E212" s="2">
         <v>2386.181393033729</v>
@@ -5548,7 +5548,7 @@
         <v>31</v>
       </c>
       <c r="D213" s="2">
-        <v>0.3116102330386639</v>
+        <v>0.3374899760019616</v>
       </c>
       <c r="E213" s="2">
         <v>2058.593491977226</v>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="D214" s="2">
-        <v>0.3235281490487978</v>
+        <v>0.33108642300067</v>
       </c>
       <c r="E214" s="2">
         <v>2179.389073061388</v>
@@ -5596,7 +5596,7 @@
         <v>2</v>
       </c>
       <c r="D215" s="2">
-        <v>0.3782078790245578</v>
+        <v>0.2844413220009301</v>
       </c>
       <c r="E215" s="2">
         <v>2282.683308507831</v>
@@ -5620,7 +5620,7 @@
         <v>3</v>
       </c>
       <c r="D216" s="2">
-        <v>0.435023135971278</v>
+        <v>0.3165872370009311</v>
       </c>
       <c r="E216" s="2">
         <v>2284.914482011153</v>
@@ -5644,7 +5644,7 @@
         <v>4</v>
       </c>
       <c r="D217" s="2">
-        <v>0.3762584459036589</v>
+        <v>0.2757858740005759</v>
       </c>
       <c r="E217" s="2">
         <v>2316.092677750741</v>
@@ -5668,7 +5668,7 @@
         <v>5</v>
       </c>
       <c r="D218" s="2">
-        <v>0.3023651890689507</v>
+        <v>0.3290874040030758</v>
       </c>
       <c r="E218" s="2">
         <v>2443.696214528953</v>
@@ -5692,7 +5692,7 @@
         <v>6</v>
       </c>
       <c r="D219" s="2">
-        <v>0.4976677990052849</v>
+        <v>0.2983382599995821</v>
       </c>
       <c r="E219" s="2">
         <v>2214.382170322355</v>
@@ -5716,7 +5716,7 @@
         <v>7</v>
       </c>
       <c r="D220" s="2">
-        <v>0.3844781329389662</v>
+        <v>0.3233865220026928</v>
       </c>
       <c r="E220" s="2">
         <v>2032.18984196933</v>
@@ -5740,7 +5740,7 @@
         <v>8</v>
       </c>
       <c r="D221" s="2">
-        <v>0.4060183010296896</v>
+        <v>0.3194368309996207</v>
       </c>
       <c r="E221" s="2">
         <v>1815.785994386207</v>
@@ -5764,7 +5764,7 @@
         <v>9</v>
       </c>
       <c r="D222" s="2">
-        <v>0.475003425963223</v>
+        <v>0.3029503879952244</v>
       </c>
       <c r="E222" s="2">
         <v>1666.365689989193</v>
@@ -5788,7 +5788,7 @@
         <v>10</v>
       </c>
       <c r="D223" s="2">
-        <v>0.3017835399368778</v>
+        <v>0.332365744994604</v>
       </c>
       <c r="E223" s="2">
         <v>2611.700374025418</v>
@@ -5812,7 +5812,7 @@
         <v>11</v>
       </c>
       <c r="D224" s="2">
-        <v>0.3359096250496805</v>
+        <v>0.2782514969949261</v>
       </c>
       <c r="E224" s="2">
         <v>2519.408808503995</v>
@@ -5836,7 +5836,7 @@
         <v>12</v>
       </c>
       <c r="D225" s="2">
-        <v>0.3288959589553997</v>
+        <v>0.2862649599992437</v>
       </c>
       <c r="E225" s="2">
         <v>2278.625222814863</v>
@@ -5860,7 +5860,7 @@
         <v>13</v>
       </c>
       <c r="D226" s="2">
-        <v>0.292987341992557</v>
+        <v>0.2825447590003023</v>
       </c>
       <c r="E226" s="2">
         <v>2644.608815788594</v>
@@ -5884,7 +5884,7 @@
         <v>14</v>
       </c>
       <c r="D227" s="2">
-        <v>0.3203138010576367</v>
+        <v>0.3274500240004272</v>
       </c>
       <c r="E227" s="2">
         <v>1712.162199308163</v>
@@ -5908,7 +5908,7 @@
         <v>15</v>
       </c>
       <c r="D228" s="2">
-        <v>0.4036024210508913</v>
+        <v>0.3356988480009022</v>
       </c>
       <c r="E228" s="2">
         <v>1779.929572513537</v>
@@ -5932,7 +5932,7 @@
         <v>16</v>
       </c>
       <c r="D229" s="2">
-        <v>0.3198989189695567</v>
+        <v>0.3242786699993303</v>
       </c>
       <c r="E229" s="2">
         <v>1819.632828518819</v>
@@ -5956,7 +5956,7 @@
         <v>17</v>
       </c>
       <c r="D230" s="2">
-        <v>0.2991774550173432</v>
+        <v>0.2802769570043893</v>
       </c>
       <c r="E230" s="2">
         <v>2535.381656937598</v>
@@ -5980,7 +5980,7 @@
         <v>18</v>
       </c>
       <c r="D231" s="2">
-        <v>0.2850352890091017</v>
+        <v>0.3210624419953092</v>
       </c>
       <c r="E231" s="2">
         <v>2204.477399209422</v>
@@ -6004,7 +6004,7 @@
         <v>19</v>
       </c>
       <c r="D232" s="2">
-        <v>0.2626897960435599</v>
+        <v>0.2829829339971184</v>
       </c>
       <c r="E232" s="2">
         <v>1836.120126813968</v>
@@ -6028,7 +6028,7 @@
         <v>20</v>
       </c>
       <c r="D233" s="2">
-        <v>0.2661578940460458</v>
+        <v>0.3301897609999287</v>
       </c>
       <c r="E233" s="2">
         <v>2293.287501067518</v>
@@ -6052,7 +6052,7 @@
         <v>21</v>
       </c>
       <c r="D234" s="2">
-        <v>0.2858274830505252</v>
+        <v>0.3332591270009289</v>
       </c>
       <c r="E234" s="2">
         <v>2310.80608107311</v>
@@ -6076,7 +6076,7 @@
         <v>22</v>
       </c>
       <c r="D235" s="2">
-        <v>0.2732444520806894</v>
+        <v>0.2824469490005868</v>
       </c>
       <c r="E235" s="2">
         <v>2546.014669910183</v>
@@ -6100,7 +6100,7 @@
         <v>23</v>
       </c>
       <c r="D236" s="2">
-        <v>0.3031091350130737</v>
+        <v>0.2765672040040954</v>
       </c>
       <c r="E236" s="2">
         <v>2470.904710041427</v>
@@ -6124,7 +6124,7 @@
         <v>24</v>
       </c>
       <c r="D237" s="2">
-        <v>0.3488957299850881</v>
+        <v>0.2827207869995618</v>
       </c>
       <c r="E237" s="2">
         <v>2017.228708030255</v>
@@ -6148,7 +6148,7 @@
         <v>25</v>
       </c>
       <c r="D238" s="2">
-        <v>0.3166501780506223</v>
+        <v>0.3130821290033055</v>
       </c>
       <c r="E238" s="2">
         <v>1711.985564225212</v>
@@ -6172,7 +6172,7 @@
         <v>26</v>
       </c>
       <c r="D239" s="2">
-        <v>0.3543565589934587</v>
+        <v>0.3120698420025292</v>
       </c>
       <c r="E239" s="2">
         <v>2266.342076156298</v>
@@ -6196,7 +6196,7 @@
         <v>27</v>
       </c>
       <c r="D240" s="2">
-        <v>0.3318760379916057</v>
+        <v>0.3479965380029171</v>
       </c>
       <c r="E240" s="2">
         <v>2583.244586784071</v>
@@ -6220,7 +6220,7 @@
         <v>28</v>
       </c>
       <c r="D241" s="2">
-        <v>0.3098107170080766</v>
+        <v>0.3303165639954386</v>
       </c>
       <c r="E241" s="2">
         <v>2313.875495316014</v>
@@ -6244,7 +6244,7 @@
         <v>29</v>
       </c>
       <c r="D242" s="2">
-        <v>0.2888667460065335</v>
+        <v>0.2959058790002018</v>
       </c>
       <c r="E242" s="2">
         <v>2360.045776833543</v>
@@ -6268,7 +6268,7 @@
         <v>30</v>
       </c>
       <c r="D243" s="2">
-        <v>0.3064887389773503</v>
+        <v>0.3173617220018059</v>
       </c>
       <c r="E243" s="2">
         <v>2186.202086518578</v>
@@ -6292,7 +6292,7 @@
         <v>31</v>
       </c>
       <c r="D244" s="2">
-        <v>0.2801549560390413</v>
+        <v>0.2793318210024154</v>
       </c>
       <c r="E244" s="2">
         <v>2245.4597768131</v>
@@ -6316,7 +6316,7 @@
         <v>1</v>
       </c>
       <c r="D245" s="2">
-        <v>0.2813079541083425</v>
+        <v>0.2748245429975213</v>
       </c>
       <c r="E245" s="2">
         <v>2887.107827908603</v>
@@ -6340,7 +6340,7 @@
         <v>2</v>
       </c>
       <c r="D246" s="2">
-        <v>0.573896563029848</v>
+        <v>0.3284390190019622</v>
       </c>
       <c r="E246" s="2">
         <v>2013.835153074207</v>
@@ -6364,7 +6364,7 @@
         <v>3</v>
       </c>
       <c r="D247" s="2">
-        <v>0.3582042490597814</v>
+        <v>0.3114159929973539</v>
       </c>
       <c r="E247" s="2">
         <v>2406.895924405407</v>
@@ -6388,7 +6388,7 @@
         <v>4</v>
       </c>
       <c r="D248" s="2">
-        <v>0.3152649799594656</v>
+        <v>0.313715054995555</v>
       </c>
       <c r="E248" s="2">
         <v>2394.214099020252</v>
@@ -6412,7 +6412,7 @@
         <v>5</v>
       </c>
       <c r="D249" s="2">
-        <v>0.3245114529272541</v>
+        <v>0.2994149529986316</v>
       </c>
       <c r="E249" s="2">
         <v>2591.284879766415</v>
@@ -6436,7 +6436,7 @@
         <v>6</v>
       </c>
       <c r="D250" s="2">
-        <v>0.3003505159867927</v>
+        <v>0.3327821799975936</v>
       </c>
       <c r="E250" s="2">
         <v>1786.793949664671</v>
@@ -6460,7 +6460,7 @@
         <v>7</v>
       </c>
       <c r="D251" s="2">
-        <v>0.2969922939082608</v>
+        <v>0.3222081560015795</v>
       </c>
       <c r="E251" s="2">
         <v>2547.822082559145</v>
@@ -6484,7 +6484,7 @@
         <v>8</v>
       </c>
       <c r="D252" s="2">
-        <v>0.2769101760350168</v>
+        <v>0.3008228100006818</v>
       </c>
       <c r="E252" s="2">
         <v>2334.63010603704</v>
@@ -6508,7 +6508,7 @@
         <v>9</v>
       </c>
       <c r="D253" s="2">
-        <v>0.3240581220015883</v>
+        <v>0.3064646669954527</v>
       </c>
       <c r="E253" s="2">
         <v>1800.364545545586</v>
@@ -6532,7 +6532,7 @@
         <v>10</v>
       </c>
       <c r="D254" s="2">
-        <v>0.3163867299444973</v>
+        <v>0.3098624859994743</v>
       </c>
       <c r="E254" s="2">
         <v>1356.403336857777</v>
@@ -6556,7 +6556,7 @@
         <v>11</v>
       </c>
       <c r="D255" s="2">
-        <v>0.2925295060267672</v>
+        <v>0.618554103995848</v>
       </c>
       <c r="E255" s="2">
         <v>2039.585725477654</v>
@@ -6580,7 +6580,7 @@
         <v>12</v>
       </c>
       <c r="D256" s="2">
-        <v>0.2995397779159248</v>
+        <v>0.3032255270009045</v>
       </c>
       <c r="E256" s="2">
         <v>2340.70951623293</v>
@@ -6604,7 +6604,7 @@
         <v>13</v>
       </c>
       <c r="D257" s="2">
-        <v>0.3052344149909914</v>
+        <v>0.2905729459962458</v>
       </c>
       <c r="E257" s="2">
         <v>1916.751607545592</v>
@@ -6628,7 +6628,7 @@
         <v>14</v>
       </c>
       <c r="D258" s="2">
-        <v>0.3543260119622573</v>
+        <v>0.2782409460050985</v>
       </c>
       <c r="E258" s="2">
         <v>1905.224578206205</v>
@@ -6652,7 +6652,7 @@
         <v>15</v>
       </c>
       <c r="D259" s="2">
-        <v>0.3443130250088871</v>
+        <v>0.3181027000027825</v>
       </c>
       <c r="E259" s="2">
         <v>1756.007477462088</v>
@@ -6676,7 +6676,7 @@
         <v>16</v>
       </c>
       <c r="D260" s="2">
-        <v>0.3155377679504454</v>
+        <v>0.299110384999949</v>
       </c>
       <c r="E260" s="2">
         <v>2271.327177602541</v>
@@ -6700,7 +6700,7 @@
         <v>17</v>
       </c>
       <c r="D261" s="2">
-        <v>0.3595791090046987</v>
+        <v>0.3452279620032641</v>
       </c>
       <c r="E261" s="2">
         <v>2137.867484809064</v>
@@ -6724,7 +6724,7 @@
         <v>18</v>
       </c>
       <c r="D262" s="2">
-        <v>0.3534966610604897</v>
+        <v>0.3398146929976065</v>
       </c>
       <c r="E262" s="2">
         <v>1874.000301052681</v>
@@ -6748,7 +6748,7 @@
         <v>19</v>
       </c>
       <c r="D263" s="2">
-        <v>0.340973818092607</v>
+        <v>0.3273742530000163</v>
       </c>
       <c r="E263" s="2">
         <v>1936.641943992453</v>
@@ -6772,7 +6772,7 @@
         <v>20</v>
       </c>
       <c r="D264" s="2">
-        <v>0.3693783089984208</v>
+        <v>0.3185493210039567</v>
       </c>
       <c r="E264" s="2">
         <v>1661.106237777533</v>
@@ -6796,7 +6796,7 @@
         <v>21</v>
       </c>
       <c r="D265" s="2">
-        <v>0.3203277400461957</v>
+        <v>0.3124374809995061</v>
       </c>
       <c r="E265" s="2">
         <v>2058.297166045912</v>
@@ -6820,7 +6820,7 @@
         <v>22</v>
       </c>
       <c r="D266" s="2">
-        <v>0.3267484620446339</v>
+        <v>0.2848902689947863</v>
       </c>
       <c r="E266" s="2">
         <v>2517.582538207953</v>
@@ -6844,7 +6844,7 @@
         <v>23</v>
       </c>
       <c r="D267" s="2">
-        <v>0.3304462429368868</v>
+        <v>0.3038679490055074</v>
       </c>
       <c r="E267" s="2">
         <v>1756.548310997544</v>
@@ -6868,7 +6868,7 @@
         <v>24</v>
       </c>
       <c r="D268" s="2">
-        <v>0.2785107139497995</v>
+        <v>0.2740944799952558</v>
       </c>
       <c r="E268" s="2">
         <v>2504.314441513868</v>
@@ -6892,7 +6892,7 @@
         <v>25</v>
       </c>
       <c r="D269" s="2">
-        <v>0.2874122459907085</v>
+        <v>0.2857629459977034</v>
       </c>
       <c r="E269" s="2">
         <v>1913.677933301945</v>
@@ -6916,7 +6916,7 @@
         <v>26</v>
       </c>
       <c r="D270" s="2">
-        <v>0.314694496919401</v>
+        <v>0.3227858989994274</v>
       </c>
       <c r="E270" s="2">
         <v>1849.163631989037</v>
@@ -6940,7 +6940,7 @@
         <v>27</v>
       </c>
       <c r="D271" s="2">
-        <v>0.2719235429540277</v>
+        <v>0.2983894089993555</v>
       </c>
       <c r="E271" s="2">
         <v>2148.065827749961</v>
@@ -6964,7 +6964,7 @@
         <v>28</v>
       </c>
       <c r="D272" s="2">
-        <v>0.2817831260617822</v>
+        <v>0.3275366389934788</v>
       </c>
       <c r="E272" s="2">
         <v>2468.356661599367</v>
@@ -6988,7 +6988,7 @@
         <v>29</v>
       </c>
       <c r="D273" s="2">
-        <v>0.3623933140188456</v>
+        <v>0.3126376450018142</v>
       </c>
       <c r="E273" s="2">
         <v>2531.59524849935</v>
@@ -7012,7 +7012,7 @@
         <v>30</v>
       </c>
       <c r="D274" s="2">
-        <v>0.2888635840499774</v>
+        <v>0.3103239019983448</v>
       </c>
       <c r="E274" s="2">
         <v>2464.65609890334</v>
@@ -7036,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="D275" s="2">
-        <v>0.3184870099648833</v>
+        <v>0.2918246780027403</v>
       </c>
       <c r="E275" s="2">
         <v>1745.773051017158</v>
@@ -7060,7 +7060,7 @@
         <v>2</v>
       </c>
       <c r="D276" s="2">
-        <v>0.2779286929871887</v>
+        <v>0.2831774419973954</v>
       </c>
       <c r="E276" s="2">
         <v>2246.5846782403</v>
@@ -7084,7 +7084,7 @@
         <v>3</v>
       </c>
       <c r="D277" s="2">
-        <v>0.3256981449667364</v>
+        <v>0.2778482430003351</v>
       </c>
       <c r="E277" s="2">
         <v>2325.84333953781</v>
@@ -7108,7 +7108,7 @@
         <v>4</v>
       </c>
       <c r="D278" s="2">
-        <v>0.2981735420180485</v>
+        <v>0.3289718500018353</v>
       </c>
       <c r="E278" s="2">
         <v>1926.783785231637</v>
@@ -7132,7 +7132,7 @@
         <v>5</v>
       </c>
       <c r="D279" s="2">
-        <v>0.2934224240016192</v>
+        <v>0.3402762529949541</v>
       </c>
       <c r="E279" s="2">
         <v>1937.615442270605</v>
@@ -7156,7 +7156,7 @@
         <v>6</v>
       </c>
       <c r="D280" s="2">
-        <v>0.2864171960391104</v>
+        <v>0.3268895090004662</v>
       </c>
       <c r="E280" s="2">
         <v>2610.80447379722</v>
@@ -7180,7 +7180,7 @@
         <v>7</v>
       </c>
       <c r="D281" s="2">
-        <v>0.3712875839555636</v>
+        <v>0.3131041360029485</v>
       </c>
       <c r="E281" s="2">
         <v>2355.186850688548</v>
@@ -7204,7 +7204,7 @@
         <v>8</v>
       </c>
       <c r="D282" s="2">
-        <v>0.2979092199821025</v>
+        <v>0.3261030889989343</v>
       </c>
       <c r="E282" s="2">
         <v>2298.833648777947</v>
@@ -7228,7 +7228,7 @@
         <v>9</v>
       </c>
       <c r="D283" s="2">
-        <v>0.352121721021831</v>
+        <v>0.328623235996929</v>
       </c>
       <c r="E283" s="2">
         <v>2169.154944538893</v>
@@ -7252,7 +7252,7 @@
         <v>10</v>
       </c>
       <c r="D284" s="2">
-        <v>0.3321503610350192</v>
+        <v>0.3340543160011293</v>
       </c>
       <c r="E284" s="2">
         <v>2301.377884614212</v>
@@ -7276,7 +7276,7 @@
         <v>11</v>
       </c>
       <c r="D285" s="2">
-        <v>0.3880936859641224</v>
+        <v>0.317469613000867</v>
       </c>
       <c r="E285" s="2">
         <v>2125.907481037008</v>
@@ -7300,7 +7300,7 @@
         <v>12</v>
       </c>
       <c r="D286" s="2">
-        <v>0.2839248360833153</v>
+        <v>0.3191985239973292</v>
       </c>
       <c r="E286" s="2">
         <v>2215.168984016766</v>
@@ -7324,7 +7324,7 @@
         <v>13</v>
       </c>
       <c r="D287" s="2">
-        <v>0.3068118470255286</v>
+        <v>0.3393148460017983</v>
       </c>
       <c r="E287" s="2">
         <v>2643.624993531228</v>
@@ -7348,7 +7348,7 @@
         <v>14</v>
       </c>
       <c r="D288" s="2">
-        <v>0.2826838149921969</v>
+        <v>0.3176669800013769</v>
       </c>
       <c r="E288" s="2">
         <v>2038.14769899266</v>
@@ -7372,7 +7372,7 @@
         <v>15</v>
       </c>
       <c r="D289" s="2">
-        <v>0.3779472630703822</v>
+        <v>0.2965984159964137</v>
       </c>
       <c r="E289" s="2">
         <v>2072.168445922608</v>
@@ -7396,7 +7396,7 @@
         <v>16</v>
       </c>
       <c r="D290" s="2">
-        <v>0.336330333026126</v>
+        <v>0.3175435099983588</v>
       </c>
       <c r="E290" s="2">
         <v>2108.126807920569</v>
@@ -7420,7 +7420,7 @@
         <v>17</v>
       </c>
       <c r="D291" s="2">
-        <v>0.3088060250738636</v>
+        <v>0.2889674099933472</v>
       </c>
       <c r="E291" s="2">
         <v>2348.204411172897</v>
@@ -7444,7 +7444,7 @@
         <v>18</v>
       </c>
       <c r="D292" s="2">
-        <v>0.3056851560249925</v>
+        <v>0.3009470909964875</v>
       </c>
       <c r="E292" s="2">
         <v>1954.88074961617</v>
@@ -7468,7 +7468,7 @@
         <v>19</v>
       </c>
       <c r="D293" s="2">
-        <v>0.5283493238966912</v>
+        <v>0.3506509159997222</v>
       </c>
       <c r="E293" s="2">
         <v>2034.093970895244</v>
@@ -7492,7 +7492,7 @@
         <v>20</v>
       </c>
       <c r="D294" s="2">
-        <v>0.466442592907697</v>
+        <v>0.3428594090000843</v>
       </c>
       <c r="E294" s="2">
         <v>2042.646494310696</v>
@@ -7516,7 +7516,7 @@
         <v>21</v>
       </c>
       <c r="D295" s="2">
-        <v>0.559973680996336</v>
+        <v>0.2812836149969371</v>
       </c>
       <c r="E295" s="2">
         <v>2846.442758210821</v>
@@ -7540,7 +7540,7 @@
         <v>22</v>
       </c>
       <c r="D296" s="2">
-        <v>0.2944317309884354</v>
+        <v>0.2893502669976442</v>
       </c>
       <c r="E296" s="2">
         <v>2796.555371408181</v>
@@ -7564,7 +7564,7 @@
         <v>23</v>
       </c>
       <c r="D297" s="2">
-        <v>0.3280940690310672</v>
+        <v>0.3189727229982964</v>
       </c>
       <c r="E297" s="2">
         <v>2095.085863011488</v>
@@ -7588,7 +7588,7 @@
         <v>24</v>
       </c>
       <c r="D298" s="2">
-        <v>0.3119040030287579</v>
+        <v>0.3311350680014584</v>
       </c>
       <c r="E298" s="2">
         <v>2539.5309943161</v>
@@ -7612,7 +7612,7 @@
         <v>25</v>
       </c>
       <c r="D299" s="2">
-        <v>0.3149935438996181</v>
+        <v>0.3012354969978333</v>
       </c>
       <c r="E299" s="2">
         <v>2344.009541115947</v>
@@ -7636,7 +7636,7 @@
         <v>26</v>
       </c>
       <c r="D300" s="2">
-        <v>0.2871816620463505</v>
+        <v>0.3368834550055908</v>
       </c>
       <c r="E300" s="2">
         <v>2886.528429249401</v>
@@ -7660,7 +7660,7 @@
         <v>27</v>
       </c>
       <c r="D301" s="2">
-        <v>0.3826576279243454</v>
+        <v>0.2873599689992261</v>
       </c>
       <c r="E301" s="2">
         <v>2093.176123176865</v>
@@ -7684,7 +7684,7 @@
         <v>28</v>
       </c>
       <c r="D302" s="2">
-        <v>0.3375079730758443</v>
+        <v>0.2727237110011629</v>
       </c>
       <c r="E302" s="2">
         <v>2397.866319733751</v>
@@ -7708,7 +7708,7 @@
         <v>29</v>
       </c>
       <c r="D303" s="2">
-        <v>0.351624527014792</v>
+        <v>0.3169119919984951</v>
       </c>
       <c r="E303" s="2">
         <v>2697.802819118508</v>
@@ -7732,7 +7732,7 @@
         <v>30</v>
       </c>
       <c r="D304" s="2">
-        <v>0.2913431479828432</v>
+        <v>0.3722768480001832</v>
       </c>
       <c r="E304" s="2">
         <v>2394.455876793117</v>
@@ -7756,7 +7756,7 @@
         <v>31</v>
       </c>
       <c r="D305" s="2">
-        <v>0.2917669150047004</v>
+        <v>0.3143565290010883</v>
       </c>
       <c r="E305" s="2">
         <v>2413.544248832942</v>
@@ -7780,7 +7780,7 @@
         <v>1</v>
       </c>
       <c r="D306" s="2">
-        <v>0.3482157589169219</v>
+        <v>0.2798529119972955</v>
       </c>
       <c r="E306" s="2">
         <v>2550.477392062239</v>
@@ -7804,7 +7804,7 @@
         <v>2</v>
       </c>
       <c r="D307" s="2">
-        <v>0.3397032539360225</v>
+        <v>0.2874969949989463</v>
       </c>
       <c r="E307" s="2">
         <v>2803.568025817259</v>
@@ -7828,7 +7828,7 @@
         <v>3</v>
       </c>
       <c r="D308" s="2">
-        <v>0.3553223590133712</v>
+        <v>0.2814367969986051</v>
       </c>
       <c r="E308" s="2">
         <v>2073.297524583329</v>
@@ -7852,7 +7852,7 @@
         <v>4</v>
       </c>
       <c r="D309" s="2">
-        <v>0.6284948450047523</v>
+        <v>0.3174770420009736</v>
       </c>
       <c r="E309" s="2">
         <v>2133.790139593566</v>
@@ -7876,7 +7876,7 @@
         <v>5</v>
       </c>
       <c r="D310" s="2">
-        <v>0.4598546460038051</v>
+        <v>0.3038255319988821</v>
       </c>
       <c r="E310" s="2">
         <v>2148.287884216187</v>
@@ -7900,7 +7900,7 @@
         <v>6</v>
       </c>
       <c r="D311" s="2">
-        <v>0.4072493449784815</v>
+        <v>0.2828058390005026</v>
       </c>
       <c r="E311" s="2">
         <v>1420.527062325168</v>
@@ -7924,7 +7924,7 @@
         <v>7</v>
       </c>
       <c r="D312" s="2">
-        <v>0.271401820005849</v>
+        <v>0.3541272190050222</v>
       </c>
       <c r="E312" s="2">
         <v>2103.994111258195</v>
@@ -7948,7 +7948,7 @@
         <v>8</v>
       </c>
       <c r="D313" s="2">
-        <v>0.2663463019998744</v>
+        <v>0.2900495040012174</v>
       </c>
       <c r="E313" s="2">
         <v>2174.235817792049</v>
@@ -7972,7 +7972,7 @@
         <v>9</v>
       </c>
       <c r="D314" s="2">
-        <v>0.2696892359526828</v>
+        <v>0.336864566001168</v>
       </c>
       <c r="E314" s="2">
         <v>2174.726369959499</v>
@@ -7996,7 +7996,7 @@
         <v>10</v>
       </c>
       <c r="D315" s="2">
-        <v>0.2908156539779156</v>
+        <v>0.3288215029970161</v>
       </c>
       <c r="E315" s="2">
         <v>1866.454949582234</v>
@@ -8020,7 +8020,7 @@
         <v>11</v>
       </c>
       <c r="D316" s="2">
-        <v>0.2676192920189351</v>
+        <v>0.2911460930044996</v>
       </c>
       <c r="E316" s="2">
         <v>1974.800587649799</v>
@@ -8044,7 +8044,7 @@
         <v>12</v>
       </c>
       <c r="D317" s="2">
-        <v>0.2915763959754258</v>
+        <v>0.2711562399999821</v>
       </c>
       <c r="E317" s="2">
         <v>1982.5924691358</v>
@@ -8068,7 +8068,7 @@
         <v>13</v>
       </c>
       <c r="D318" s="2">
-        <v>0.3530211979523301</v>
+        <v>0.282457583998621</v>
       </c>
       <c r="E318" s="2">
         <v>3116.188234106302</v>
@@ -8092,7 +8092,7 @@
         <v>14</v>
       </c>
       <c r="D319" s="2">
-        <v>0.3146859770640731</v>
+        <v>0.3612079090016778</v>
       </c>
       <c r="E319" s="2">
         <v>2513.791558419536</v>
@@ -8116,7 +8116,7 @@
         <v>15</v>
       </c>
       <c r="D320" s="2">
-        <v>0.2935133120045066</v>
+        <v>0.2923826199985342</v>
       </c>
       <c r="E320" s="2">
         <v>2487.31334316543</v>
@@ -8140,7 +8140,7 @@
         <v>16</v>
       </c>
       <c r="D321" s="2">
-        <v>0.345947231980972</v>
+        <v>0.2875230249992455</v>
       </c>
       <c r="E321" s="2">
         <v>2155.62492037158</v>
@@ -8164,7 +8164,7 @@
         <v>17</v>
       </c>
       <c r="D322" s="2">
-        <v>0.2811723800841719</v>
+        <v>0.2956656180031132</v>
       </c>
       <c r="E322" s="2">
         <v>1956.598980337665</v>
@@ -8188,7 +8188,7 @@
         <v>18</v>
       </c>
       <c r="D323" s="2">
-        <v>0.3391170440008864</v>
+        <v>0.3116537009991589</v>
       </c>
       <c r="E323" s="2">
         <v>2033.762385808418</v>
@@ -8212,7 +8212,7 @@
         <v>19</v>
       </c>
       <c r="D324" s="2">
-        <v>0.2988859430188313</v>
+        <v>0.3190044389994</v>
       </c>
       <c r="E324" s="2">
         <v>1790.692173145077</v>
@@ -8236,7 +8236,7 @@
         <v>20</v>
       </c>
       <c r="D325" s="2">
-        <v>0.3481050110422075</v>
+        <v>0.2860505499993451</v>
       </c>
       <c r="E325" s="2">
         <v>2528.124222885363</v>
@@ -8260,7 +8260,7 @@
         <v>21</v>
       </c>
       <c r="D326" s="2">
-        <v>0.3293859210098162</v>
+        <v>0.3256139360019006</v>
       </c>
       <c r="E326" s="2">
         <v>2288.211181279053</v>
@@ -8284,7 +8284,7 @@
         <v>22</v>
       </c>
       <c r="D327" s="2">
-        <v>0.3038777159526944</v>
+        <v>0.2816825650006649</v>
       </c>
       <c r="E327" s="2">
         <v>2139.448375543241</v>
@@ -8308,7 +8308,7 @@
         <v>23</v>
       </c>
       <c r="D328" s="2">
-        <v>0.2840726770227775</v>
+        <v>0.2774417809996521</v>
       </c>
       <c r="E328" s="2">
         <v>2143.470854204716</v>
@@ -8332,7 +8332,7 @@
         <v>24</v>
       </c>
       <c r="D329" s="2">
-        <v>0.294438858050853</v>
+        <v>0.3090333710060804</v>
       </c>
       <c r="E329" s="2">
         <v>2346.560229424262</v>
@@ -8356,7 +8356,7 @@
         <v>25</v>
       </c>
       <c r="D330" s="2">
-        <v>0.3021170169813558</v>
+        <v>0.2946775680029532</v>
       </c>
       <c r="E330" s="2">
         <v>2540.4801004565</v>
@@ -8380,7 +8380,7 @@
         <v>26</v>
       </c>
       <c r="D331" s="2">
-        <v>0.2640367810381576</v>
+        <v>0.2742557579986169</v>
       </c>
       <c r="E331" s="2">
         <v>2642.413305597452</v>
@@ -8404,7 +8404,7 @@
         <v>27</v>
       </c>
       <c r="D332" s="2">
-        <v>0.2803542180918157</v>
+        <v>0.3153372559972922</v>
       </c>
       <c r="E332" s="2">
         <v>1874.46367239568</v>
@@ -8428,7 +8428,7 @@
         <v>28</v>
       </c>
       <c r="D333" s="2">
-        <v>0.3090390880824998</v>
+        <v>0.3335128039980191</v>
       </c>
       <c r="E333" s="2">
         <v>2746.67888380407</v>
@@ -8452,7 +8452,7 @@
         <v>29</v>
       </c>
       <c r="D334" s="2">
-        <v>0.2972230629529804</v>
+        <v>0.2791031189990463</v>
       </c>
       <c r="E334" s="2">
         <v>2520.968368639324</v>
@@ -8476,7 +8476,7 @@
         <v>30</v>
       </c>
       <c r="D335" s="2">
-        <v>0.2735401899553835</v>
+        <v>0.2803595229997882</v>
       </c>
       <c r="E335" s="2">
         <v>2821.031656368113</v>
@@ -8500,7 +8500,7 @@
         <v>1</v>
       </c>
       <c r="D336" s="2">
-        <v>0.3064385550096631</v>
+        <v>0.3158644310024101</v>
       </c>
       <c r="E336" s="2">
         <v>2292.151148569029</v>
@@ -8524,7 +8524,7 @@
         <v>2</v>
       </c>
       <c r="D337" s="2">
-        <v>0.3511768450262025</v>
+        <v>0.3212504090042785</v>
       </c>
       <c r="E337" s="2">
         <v>2070.184153163144</v>
@@ -8548,7 +8548,7 @@
         <v>3</v>
       </c>
       <c r="D338" s="2">
-        <v>0.2927234240341932</v>
+        <v>0.305027530004736</v>
       </c>
       <c r="E338" s="2">
         <v>2101.533017466671</v>
@@ -8572,7 +8572,7 @@
         <v>4</v>
       </c>
       <c r="D339" s="2">
-        <v>0.3065317940199748</v>
+        <v>0.308290382999985</v>
       </c>
       <c r="E339" s="2">
         <v>2775.483119064521</v>
@@ -8596,7 +8596,7 @@
         <v>5</v>
       </c>
       <c r="D340" s="2">
-        <v>0.2912435139296576</v>
+        <v>0.4254237780041876</v>
       </c>
       <c r="E340" s="2">
         <v>1567.818246447065</v>
@@ -8620,7 +8620,7 @@
         <v>6</v>
       </c>
       <c r="D341" s="2">
-        <v>0.2785316149238497</v>
+        <v>0.3412252260022797</v>
       </c>
       <c r="E341" s="2">
         <v>2859.278216211676</v>
@@ -8644,7 +8644,7 @@
         <v>7</v>
       </c>
       <c r="D342" s="2">
-        <v>0.3266385769238696</v>
+        <v>0.3567179460005718</v>
       </c>
       <c r="E342" s="2">
         <v>2120.579599003091</v>
@@ -8668,7 +8668,7 @@
         <v>8</v>
       </c>
       <c r="D343" s="2">
-        <v>0.3065638819243759</v>
+        <v>0.2901181499983068</v>
       </c>
       <c r="E343" s="2">
         <v>2046.001031995618</v>
@@ -8692,7 +8692,7 @@
         <v>9</v>
       </c>
       <c r="D344" s="2">
-        <v>0.2889155249577016</v>
+        <v>0.3041625549958553</v>
       </c>
       <c r="E344" s="2">
         <v>2478.759343790518</v>
@@ -8716,7 +8716,7 @@
         <v>10</v>
       </c>
       <c r="D345" s="2">
-        <v>0.2876065889140591</v>
+        <v>0.3131346169975586</v>
       </c>
       <c r="E345" s="2">
         <v>2022.565606640634</v>
@@ -8740,7 +8740,7 @@
         <v>11</v>
       </c>
       <c r="D346" s="2">
-        <v>0.2982333679683506</v>
+        <v>0.29181264500221</v>
       </c>
       <c r="E346" s="2">
         <v>2594.355465694332</v>
@@ -8764,7 +8764,7 @@
         <v>12</v>
       </c>
       <c r="D347" s="2">
-        <v>0.2921754820272326</v>
+        <v>0.2811798340044334</v>
       </c>
       <c r="E347" s="2">
         <v>2492.088328115245</v>
@@ -8788,7 +8788,7 @@
         <v>13</v>
       </c>
       <c r="D348" s="2">
-        <v>0.2782211500452831</v>
+        <v>0.4019204779979191</v>
       </c>
       <c r="E348" s="2">
         <v>2768.855354466221</v>
@@ -8812,7 +8812,7 @@
         <v>14</v>
       </c>
       <c r="D349" s="2">
-        <v>0.3015196170890704</v>
+        <v>0.3163115669958643</v>
       </c>
       <c r="E349" s="2">
         <v>2457.131096596207</v>
@@ -8836,7 +8836,7 @@
         <v>15</v>
       </c>
       <c r="D350" s="2">
-        <v>0.3082181829959154</v>
+        <v>0.2797112870030105</v>
       </c>
       <c r="E350" s="2">
         <v>2917.600163431559</v>
@@ -8860,7 +8860,7 @@
         <v>16</v>
       </c>
       <c r="D351" s="2">
-        <v>0.3339781720424071</v>
+        <v>0.2760972789983498</v>
       </c>
       <c r="E351" s="2">
         <v>2465.529689350901</v>
@@ -8884,7 +8884,7 @@
         <v>17</v>
       </c>
       <c r="D352" s="2">
-        <v>0.2857809739653021</v>
+        <v>0.4488446019968251</v>
       </c>
       <c r="E352" s="2">
         <v>2036.974169322243</v>
@@ -8908,7 +8908,7 @@
         <v>18</v>
       </c>
       <c r="D353" s="2">
-        <v>0.354342581005767</v>
+        <v>0.330146775006142</v>
       </c>
       <c r="E353" s="2">
         <v>2101.488835819665</v>
@@ -8932,7 +8932,7 @@
         <v>19</v>
       </c>
       <c r="D354" s="2">
-        <v>0.3619268250185996</v>
+        <v>0.3202414970000973</v>
       </c>
       <c r="E354" s="2">
         <v>2233.961218290029</v>
@@ -8956,7 +8956,7 @@
         <v>20</v>
       </c>
       <c r="D355" s="2">
-        <v>0.2821975450497121</v>
+        <v>0.3284945559935295</v>
       </c>
       <c r="E355" s="2">
         <v>2422.65477233582</v>
@@ -8980,7 +8980,7 @@
         <v>21</v>
       </c>
       <c r="D356" s="2">
-        <v>0.3592581429984421</v>
+        <v>0.352116677997401</v>
       </c>
       <c r="E356" s="2">
         <v>2695.900780095736</v>
@@ -9004,7 +9004,7 @@
         <v>22</v>
       </c>
       <c r="D357" s="2">
-        <v>0.343119204044342</v>
+        <v>0.2862029469979461</v>
       </c>
       <c r="E357" s="2">
         <v>2120.598037190501</v>
@@ -9028,7 +9028,7 @@
         <v>23</v>
       </c>
       <c r="D358" s="2">
-        <v>0.3252279669977725</v>
+        <v>0.3127551659999881</v>
       </c>
       <c r="E358" s="2">
         <v>1975.400320893315</v>
@@ -9052,7 +9052,7 @@
         <v>24</v>
       </c>
       <c r="D359" s="2">
-        <v>0.3349003519397229</v>
+        <v>0.282733243999246</v>
       </c>
       <c r="E359" s="2">
         <v>2196.411681006276</v>
@@ -9076,7 +9076,7 @@
         <v>25</v>
       </c>
       <c r="D360" s="2">
-        <v>0.2962353290058672</v>
+        <v>0.3301954169946839</v>
       </c>
       <c r="E360" s="2">
         <v>1958.521513233835</v>
@@ -9100,7 +9100,7 @@
         <v>26</v>
       </c>
       <c r="D361" s="2">
-        <v>0.350660645053722</v>
+        <v>0.3349233299959451</v>
       </c>
       <c r="E361" s="2">
         <v>2288.167940638722</v>
@@ -9124,7 +9124,7 @@
         <v>27</v>
       </c>
       <c r="D362" s="2">
-        <v>0.2915246339980513</v>
+        <v>0.2998503540002275</v>
       </c>
       <c r="E362" s="2">
         <v>2278.652685951822</v>
@@ -9148,7 +9148,7 @@
         <v>28</v>
       </c>
       <c r="D363" s="2">
-        <v>0.3331133739557117</v>
+        <v>0.3231453070038697</v>
       </c>
       <c r="E363" s="2">
         <v>2218.712860994154</v>
@@ -9172,7 +9172,7 @@
         <v>29</v>
       </c>
       <c r="D364" s="2">
-        <v>0.3712663520127535</v>
+        <v>0.2807988659988041</v>
       </c>
       <c r="E364" s="2">
         <v>2099.477696045723</v>
@@ -9196,7 +9196,7 @@
         <v>30</v>
       </c>
       <c r="D365" s="2">
-        <v>0.2896840680623427</v>
+        <v>0.3159838179999497</v>
       </c>
       <c r="E365" s="2">
         <v>1825.298323391744</v>
@@ -9220,7 +9220,7 @@
         <v>1</v>
       </c>
       <c r="D366" s="2">
-        <v>0.3346703629940748</v>
+        <v>0.3507084939992637</v>
       </c>
       <c r="E366" s="2">
         <v>2141.096714178388</v>
@@ -9244,7 +9244,7 @@
         <v>2</v>
       </c>
       <c r="D367" s="2">
-        <v>0.3432915259618312</v>
+        <v>0.3274760920030531</v>
       </c>
       <c r="E367" s="2">
         <v>2129.845562978825</v>
@@ -9268,7 +9268,7 @@
         <v>3</v>
       </c>
       <c r="D368" s="2">
-        <v>0.2942890400299802</v>
+        <v>0.3109653219944448</v>
       </c>
       <c r="E368" s="2">
         <v>2604.148407168685</v>
@@ -9292,7 +9292,7 @@
         <v>4</v>
       </c>
       <c r="D369" s="2">
-        <v>0.2794358059763908</v>
+        <v>0.3255725229973905</v>
       </c>
       <c r="E369" s="2">
         <v>1957.393301951262</v>
@@ -9316,7 +9316,7 @@
         <v>5</v>
       </c>
       <c r="D370" s="2">
-        <v>0.3120729790534824</v>
+        <v>0.2959819649986457</v>
       </c>
       <c r="E370" s="2">
         <v>1929.049679722269</v>
@@ -9340,7 +9340,7 @@
         <v>6</v>
       </c>
       <c r="D371" s="2">
-        <v>0.2937137819826603</v>
+        <v>0.2824896780002746</v>
       </c>
       <c r="E371" s="2">
         <v>1891.847522102674</v>
@@ -9364,7 +9364,7 @@
         <v>7</v>
       </c>
       <c r="D372" s="2">
-        <v>0.2927223549922928</v>
+        <v>0.2868526349993772</v>
       </c>
       <c r="E372" s="2">
         <v>2794.339402332959</v>
@@ -9388,7 +9388,7 @@
         <v>8</v>
       </c>
       <c r="D373" s="2">
-        <v>0.2818490939680487</v>
+        <v>0.3300059899993357</v>
       </c>
       <c r="E373" s="2">
         <v>2602.451760576937</v>
@@ -9412,7 +9412,7 @@
         <v>9</v>
       </c>
       <c r="D374" s="2">
-        <v>0.287597879068926</v>
+        <v>0.379135162998864</v>
       </c>
       <c r="E374" s="2">
         <v>2052.879496798337</v>
@@ -9436,7 +9436,7 @@
         <v>10</v>
       </c>
       <c r="D375" s="2">
-        <v>0.3580996879609302</v>
+        <v>0.4178089109991561</v>
       </c>
       <c r="E375" s="2">
         <v>1925.3277438084</v>
@@ -9460,7 +9460,7 @@
         <v>11</v>
       </c>
       <c r="D376" s="2">
-        <v>0.3227479719789699</v>
+        <v>0.340855020993331</v>
       </c>
       <c r="E376" s="2">
         <v>2363.22189446734</v>
@@ -9484,7 +9484,7 @@
         <v>12</v>
       </c>
       <c r="D377" s="2">
-        <v>0.2848705290816724</v>
+        <v>0.3309572509970167</v>
       </c>
       <c r="E377" s="2">
         <v>2447.535162410311</v>
@@ -9508,7 +9508,7 @@
         <v>13</v>
       </c>
       <c r="D378" s="2">
-        <v>0.3396532280603424</v>
+        <v>0.2938845870012301</v>
       </c>
       <c r="E378" s="2">
         <v>1974.532148995889</v>
@@ -9532,7 +9532,7 @@
         <v>14</v>
       </c>
       <c r="D379" s="2">
-        <v>0.2989098819671199</v>
+        <v>0.2737154580026981</v>
       </c>
       <c r="E379" s="2">
         <v>2220.200507196992</v>
@@ -9556,7 +9556,7 @@
         <v>15</v>
       </c>
       <c r="D380" s="2">
-        <v>0.3181030090199783</v>
+        <v>0.2828221739982837</v>
       </c>
       <c r="E380" s="2">
         <v>2208.057351411536</v>
@@ -9580,7 +9580,7 @@
         <v>16</v>
       </c>
       <c r="D381" s="2">
-        <v>0.2848544369917363</v>
+        <v>0.3028081969969207</v>
       </c>
       <c r="E381" s="2">
         <v>2861.241067203724</v>
@@ -9604,7 +9604,7 @@
         <v>17</v>
       </c>
       <c r="D382" s="2">
-        <v>0.3318557889433578</v>
+        <v>0.3004539839967038</v>
       </c>
       <c r="E382" s="2">
         <v>1958.120948796095</v>
@@ -9628,7 +9628,7 @@
         <v>18</v>
       </c>
       <c r="D383" s="2">
-        <v>0.2871849160874262</v>
+        <v>0.3424665569982608</v>
       </c>
       <c r="E383" s="2">
         <v>2064.014725784071</v>
@@ -9652,7 +9652,7 @@
         <v>19</v>
       </c>
       <c r="D384" s="2">
-        <v>0.2823896300978959</v>
+        <v>0.3043431750047603</v>
       </c>
       <c r="E384" s="2">
         <v>2924.729042821605</v>
@@ -9676,7 +9676,7 @@
         <v>20</v>
       </c>
       <c r="D385" s="2">
-        <v>0.2907204749062657</v>
+        <v>0.3181246699969051</v>
       </c>
       <c r="E385" s="2">
         <v>2462.071835767862</v>
@@ -9700,7 +9700,7 @@
         <v>21</v>
       </c>
       <c r="D386" s="2">
-        <v>0.3545987399993464</v>
+        <v>0.3001374849991407</v>
       </c>
       <c r="E386" s="2">
         <v>2054.180701308586</v>
@@ -9724,7 +9724,7 @@
         <v>22</v>
       </c>
       <c r="D387" s="2">
-        <v>0.3026019060052931</v>
+        <v>0.2844206169975223</v>
       </c>
       <c r="E387" s="2">
         <v>2575.227727061364</v>
@@ -9748,7 +9748,7 @@
         <v>23</v>
       </c>
       <c r="D388" s="2">
-        <v>0.2964358070166782</v>
+        <v>0.2947256929983268</v>
       </c>
       <c r="E388" s="2">
         <v>1646.053630543269</v>
@@ -9772,7 +9772,7 @@
         <v>24</v>
       </c>
       <c r="D389" s="2">
-        <v>0.2855023150332272</v>
+        <v>0.2848700339964125</v>
       </c>
       <c r="E389" s="2">
         <v>2616.950332556245</v>
@@ -9796,7 +9796,7 @@
         <v>25</v>
       </c>
       <c r="D390" s="2">
-        <v>0.3285085849929601</v>
+        <v>0.3403513349985587</v>
       </c>
       <c r="E390" s="2">
         <v>2921.500693814433</v>
@@ -9820,7 +9820,7 @@
         <v>26</v>
       </c>
       <c r="D391" s="2">
-        <v>0.3101030760444701</v>
+        <v>0.284730325001874</v>
       </c>
       <c r="E391" s="2">
         <v>2449.482774238275</v>
@@ -9844,7 +9844,7 @@
         <v>27</v>
       </c>
       <c r="D392" s="2">
-        <v>0.3346717439126223</v>
+        <v>0.2858764390039141</v>
       </c>
       <c r="E392" s="2">
         <v>2513.635308570146</v>
@@ -9868,7 +9868,7 @@
         <v>28</v>
       </c>
       <c r="D393" s="2">
-        <v>0.3007885480765253</v>
+        <v>0.3068758950030315</v>
       </c>
       <c r="E393" s="2">
         <v>2628.465131147235</v>
@@ -9892,7 +9892,7 @@
         <v>29</v>
       </c>
       <c r="D394" s="2">
-        <v>0.3354782680980861</v>
+        <v>0.2775113360039541</v>
       </c>
       <c r="E394" s="2">
         <v>2045.42717516419</v>
@@ -9916,7 +9916,7 @@
         <v>30</v>
       </c>
       <c r="D395" s="2">
-        <v>0.3248896680306643</v>
+        <v>0.2810095680033555</v>
       </c>
       <c r="E395" s="2">
         <v>2484.717907188069</v>
@@ -9940,7 +9940,7 @@
         <v>31</v>
       </c>
       <c r="D396" s="2">
-        <v>0.3632238060235977</v>
+        <v>0.2830676110024797</v>
       </c>
       <c r="E396" s="2">
         <v>2386.756028005147</v>
@@ -9964,7 +9964,7 @@
         <v>1</v>
       </c>
       <c r="D397" s="2">
-        <v>0.3530945669626817</v>
+        <v>0.2815391650001402</v>
       </c>
       <c r="E397" s="2">
         <v>3105.278406368192</v>
@@ -9988,7 +9988,7 @@
         <v>2</v>
       </c>
       <c r="D398" s="2">
-        <v>0.3532284720567986</v>
+        <v>0.3165374739983235</v>
       </c>
       <c r="E398" s="2">
         <v>1911.607552698302</v>
@@ -10012,7 +10012,7 @@
         <v>3</v>
       </c>
       <c r="D399" s="2">
-        <v>0.2978287999285385</v>
+        <v>0.342384529998526</v>
       </c>
       <c r="E399" s="2">
         <v>2011.801926986374</v>
@@ -10036,7 +10036,7 @@
         <v>4</v>
       </c>
       <c r="D400" s="2">
-        <v>0.3411696160910651</v>
+        <v>0.2723131960010505</v>
       </c>
       <c r="E400" s="2">
         <v>2666.88507344067</v>
@@ -10060,7 +10060,7 @@
         <v>5</v>
       </c>
       <c r="D401" s="2">
-        <v>0.3439946749713272</v>
+        <v>0.2780587680026656</v>
       </c>
       <c r="E401" s="2">
         <v>2166.229585204542</v>
@@ -10084,7 +10084,7 @@
         <v>6</v>
       </c>
       <c r="D402" s="2">
-        <v>0.3456096929730847</v>
+        <v>0.3494162779970793</v>
       </c>
       <c r="E402" s="2">
         <v>2092.148574489011</v>
@@ -10108,7 +10108,7 @@
         <v>7</v>
       </c>
       <c r="D403" s="2">
-        <v>0.3576868519885466</v>
+        <v>0.3327126750009484</v>
       </c>
       <c r="E403" s="2">
         <v>1989.355385964532</v>
@@ -10132,7 +10132,7 @@
         <v>8</v>
       </c>
       <c r="D404" s="2">
-        <v>0.3084739100886509</v>
+        <v>0.3057651729977806</v>
       </c>
       <c r="E404" s="2">
         <v>2163.614345411667</v>
@@ -10156,7 +10156,7 @@
         <v>9</v>
       </c>
       <c r="D405" s="2">
-        <v>0.3987958099460229</v>
+        <v>0.3270499770005699</v>
       </c>
       <c r="E405" s="2">
         <v>2004.797372912014</v>
@@ -10180,7 +10180,7 @@
         <v>10</v>
       </c>
       <c r="D406" s="2">
-        <v>0.3502758409595117</v>
+        <v>0.356015605997527</v>
       </c>
       <c r="E406" s="2">
         <v>1988.570969542856</v>
@@ -10204,7 +10204,7 @@
         <v>11</v>
       </c>
       <c r="D407" s="2">
-        <v>0.3625477009918541</v>
+        <v>0.295144526004151</v>
       </c>
       <c r="E407" s="2">
         <v>1687.391591314908</v>
@@ -10228,7 +10228,7 @@
         <v>12</v>
       </c>
       <c r="D408" s="2">
-        <v>0.4300980509724468</v>
+        <v>0.3021858890060685</v>
       </c>
       <c r="E408" s="2">
         <v>1812.624549284745</v>
@@ -10252,7 +10252,7 @@
         <v>13</v>
       </c>
       <c r="D409" s="2">
-        <v>0.4122786790831015</v>
+        <v>0.3224069439966115</v>
       </c>
       <c r="E409" s="2">
         <v>1771.24881947355</v>
@@ -10276,7 +10276,7 @@
         <v>14</v>
       </c>
       <c r="D410" s="2">
-        <v>0.3003423470072448</v>
+        <v>0.3242477840030915</v>
       </c>
       <c r="E410" s="2">
         <v>2507.32809934201</v>
@@ -10300,7 +10300,7 @@
         <v>15</v>
       </c>
       <c r="D411" s="2">
-        <v>0.3151348889805377</v>
+        <v>0.3277306419986417</v>
       </c>
       <c r="E411" s="2">
         <v>2467.079631139003</v>
@@ -10324,7 +10324,7 @@
         <v>16</v>
       </c>
       <c r="D412" s="2">
-        <v>0.2958457820350304</v>
+        <v>0.3337351700029103</v>
       </c>
       <c r="E412" s="2">
         <v>2454.94391321388</v>
@@ -10348,7 +10348,7 @@
         <v>17</v>
       </c>
       <c r="D413" s="2">
-        <v>0.2850918800104409</v>
+        <v>0.2737069180002436</v>
       </c>
       <c r="E413" s="2">
         <v>2226.189000106105</v>
@@ -10372,7 +10372,7 @@
         <v>18</v>
       </c>
       <c r="D414" s="2">
-        <v>2.438342883950099</v>
+        <v>0.292045414003951</v>
       </c>
       <c r="E414" s="2">
         <v>2139.271055985825</v>
@@ -10396,7 +10396,7 @@
         <v>19</v>
       </c>
       <c r="D415" s="2">
-        <v>0.9943256370024756</v>
+        <v>0.2911678720047348</v>
       </c>
       <c r="E415" s="2">
         <v>1994.319927094141</v>
@@ -10420,7 +10420,7 @@
         <v>20</v>
       </c>
       <c r="D416" s="2">
-        <v>1.006912578945048</v>
+        <v>0.2777448389970232</v>
       </c>
       <c r="E416" s="2">
         <v>2224.923101035529</v>
@@ -10444,7 +10444,7 @@
         <v>21</v>
       </c>
       <c r="D417" s="2">
-        <v>0.3397602110635489</v>
+        <v>0.3227440900009242</v>
       </c>
       <c r="E417" s="2">
         <v>2038.993921146112</v>
@@ -10468,7 +10468,7 @@
         <v>22</v>
       </c>
       <c r="D418" s="2">
-        <v>0.2911598109640181</v>
+        <v>0.3207165019994136</v>
       </c>
       <c r="E418" s="2">
         <v>1792.255481862486</v>
@@ -10492,7 +10492,7 @@
         <v>23</v>
       </c>
       <c r="D419" s="2">
-        <v>0.2894695790018886</v>
+        <v>0.3119037999931606</v>
       </c>
       <c r="E419" s="2">
         <v>2527.926338973391</v>
@@ -10516,7 +10516,7 @@
         <v>24</v>
       </c>
       <c r="D420" s="2">
-        <v>0.2959777419455349</v>
+        <v>0.277862005001225</v>
       </c>
       <c r="E420" s="2">
         <v>1893.856963774813</v>
@@ -10540,7 +10540,7 @@
         <v>25</v>
       </c>
       <c r="D421" s="2">
-        <v>0.3392566490219906</v>
+        <v>0.3034453799991752</v>
       </c>
       <c r="E421" s="2">
         <v>1737.201649272558</v>
@@ -10564,7 +10564,7 @@
         <v>26</v>
       </c>
       <c r="D422" s="2">
-        <v>0.3012804859317839</v>
+        <v>0.3701345450026565</v>
       </c>
       <c r="E422" s="2">
         <v>2181.75899025925</v>
@@ -10588,7 +10588,7 @@
         <v>27</v>
       </c>
       <c r="D423" s="2">
-        <v>0.3458455039653927</v>
+        <v>0.371557133999886</v>
       </c>
       <c r="E423" s="2">
         <v>2211.941829674329</v>
@@ -10612,7 +10612,7 @@
         <v>28</v>
       </c>
       <c r="D424" s="2">
-        <v>0.3578264788957313</v>
+        <v>0.312799539999105</v>
       </c>
       <c r="E424" s="2">
         <v>1682.626120111182</v>
@@ -10636,7 +10636,7 @@
         <v>1</v>
       </c>
       <c r="D425" s="2">
-        <v>0.374784272047691</v>
+        <v>0.328640854000696</v>
       </c>
       <c r="E425" s="2">
         <v>1683.217770503193</v>
@@ -10660,7 +10660,7 @@
         <v>2</v>
       </c>
       <c r="D426" s="2">
-        <v>0.4014424099586904</v>
+        <v>0.3130468149975059</v>
       </c>
       <c r="E426" s="2">
         <v>2233.233197864206</v>
@@ -10684,7 +10684,7 @@
         <v>3</v>
       </c>
       <c r="D427" s="2">
-        <v>0.2758749850327149</v>
+        <v>0.3085820029955357</v>
       </c>
       <c r="E427" s="2">
         <v>1960.442864197815</v>
@@ -10708,7 +10708,7 @@
         <v>4</v>
       </c>
       <c r="D428" s="2">
-        <v>0.315857665031217</v>
+        <v>0.2994961590011371</v>
       </c>
       <c r="E428" s="2">
         <v>1936.512470660004</v>
@@ -10732,7 +10732,7 @@
         <v>5</v>
       </c>
       <c r="D429" s="2">
-        <v>0.2846242310479283</v>
+        <v>0.2787742840009741</v>
       </c>
       <c r="E429" s="2">
         <v>2496.493827221376</v>
@@ -10756,7 +10756,7 @@
         <v>6</v>
       </c>
       <c r="D430" s="2">
-        <v>0.3042076519923285</v>
+        <v>0.2841163620032603</v>
       </c>
       <c r="E430" s="2">
         <v>1897.539009068802</v>
@@ -10780,7 +10780,7 @@
         <v>7</v>
       </c>
       <c r="D431" s="2">
-        <v>0.2619958670111373</v>
+        <v>0.2844937429981655</v>
       </c>
       <c r="E431" s="2">
         <v>1751.859819335069</v>
@@ -10804,7 +10804,7 @@
         <v>8</v>
       </c>
       <c r="D432" s="2">
-        <v>0.2972859099972993</v>
+        <v>0.2885240830000839</v>
       </c>
       <c r="E432" s="2">
         <v>2294.192651908067</v>
@@ -10828,7 +10828,7 @@
         <v>9</v>
       </c>
       <c r="D433" s="2">
-        <v>0.3040339259896427</v>
+        <v>0.3545890359964687</v>
       </c>
       <c r="E433" s="2">
         <v>2452.40604866782</v>
@@ -10852,7 +10852,7 @@
         <v>10</v>
       </c>
       <c r="D434" s="2">
-        <v>0.3781804629834369</v>
+        <v>0.2834907040014514</v>
       </c>
       <c r="E434" s="2">
         <v>1998.463837148075</v>
@@ -10876,7 +10876,7 @@
         <v>11</v>
       </c>
       <c r="D435" s="2">
-        <v>0.2769971740199253</v>
+        <v>0.331357052004023</v>
       </c>
       <c r="E435" s="2">
         <v>2254.556799926816</v>
@@ -10900,7 +10900,7 @@
         <v>12</v>
       </c>
       <c r="D436" s="2">
-        <v>0.2859138230560347</v>
+        <v>0.3391909810015932</v>
       </c>
       <c r="E436" s="2">
         <v>2073.970884952444</v>
@@ -10924,7 +10924,7 @@
         <v>13</v>
       </c>
       <c r="D437" s="2">
-        <v>0.2799486550502479</v>
+        <v>0.3324000169959618</v>
       </c>
       <c r="E437" s="2">
         <v>2562.582975121857</v>
@@ -10948,7 +10948,7 @@
         <v>14</v>
       </c>
       <c r="D438" s="2">
-        <v>0.2707632600795478</v>
+        <v>0.2949730910040671</v>
       </c>
       <c r="E438" s="2">
         <v>2255.35928431974</v>
@@ -10972,7 +10972,7 @@
         <v>15</v>
       </c>
       <c r="D439" s="2">
-        <v>0.3049473860301077</v>
+        <v>0.3415266999945743</v>
       </c>
       <c r="E439" s="2">
         <v>2399.513718187654</v>
@@ -10996,7 +10996,7 @@
         <v>16</v>
       </c>
       <c r="D440" s="2">
-        <v>0.2728628700133413</v>
+        <v>0.3198611199986772</v>
       </c>
       <c r="E440" s="2">
         <v>2278.338662123207</v>
@@ -11020,7 +11020,7 @@
         <v>17</v>
       </c>
       <c r="D441" s="2">
-        <v>0.2667534908978269</v>
+        <v>0.2910988020012155</v>
       </c>
       <c r="E441" s="2">
         <v>2621.839627268885</v>
@@ -11044,7 +11044,7 @@
         <v>18</v>
       </c>
       <c r="D442" s="2">
-        <v>0.2956588000524789</v>
+        <v>0.2755336730042472</v>
       </c>
       <c r="E442" s="2">
         <v>2420.639512634204</v>
@@ -11068,7 +11068,7 @@
         <v>19</v>
       </c>
       <c r="D443" s="2">
-        <v>0.2919035139493644</v>
+        <v>0.3259836340002948</v>
       </c>
       <c r="E443" s="2">
         <v>2193.358903931784</v>
@@ -11092,7 +11092,7 @@
         <v>20</v>
       </c>
       <c r="D444" s="2">
-        <v>0.2565873899729922</v>
+        <v>0.2997096690014587</v>
       </c>
       <c r="E444" s="2">
         <v>2129.343535096184</v>
@@ -11116,7 +11116,7 @@
         <v>21</v>
       </c>
       <c r="D445" s="2">
-        <v>0.2645095150219277</v>
+        <v>0.289086214004783</v>
       </c>
       <c r="E445" s="2">
         <v>2603.081626913807</v>
@@ -11140,7 +11140,7 @@
         <v>22</v>
       </c>
       <c r="D446" s="2">
-        <v>0.2651222019921988</v>
+        <v>0.3032498780012247</v>
       </c>
       <c r="E446" s="2">
         <v>2878.031504565235</v>
@@ -11164,7 +11164,7 @@
         <v>23</v>
       </c>
       <c r="D447" s="2">
-        <v>0.2926372729707509</v>
+        <v>0.290106870001182</v>
       </c>
       <c r="E447" s="2">
         <v>2178.624570211023</v>
@@ -11188,7 +11188,7 @@
         <v>24</v>
       </c>
       <c r="D448" s="2">
-        <v>0.2911710600601509</v>
+        <v>0.2786240259956685</v>
       </c>
       <c r="E448" s="2">
         <v>1767.608635181344</v>
@@ -11212,7 +11212,7 @@
         <v>25</v>
       </c>
       <c r="D449" s="2">
-        <v>0.2859877060400322</v>
+        <v>0.3347552869963693</v>
       </c>
       <c r="E449" s="2">
         <v>1964.77961112694</v>
@@ -11236,7 +11236,7 @@
         <v>26</v>
       </c>
       <c r="D450" s="2">
-        <v>0.2852684549288824</v>
+        <v>0.3274652599939145</v>
       </c>
       <c r="E450" s="2">
         <v>2182.042962346913</v>
@@ -11260,7 +11260,7 @@
         <v>27</v>
       </c>
       <c r="D451" s="2">
-        <v>0.2971422430127859</v>
+        <v>0.333905441002571</v>
       </c>
       <c r="E451" s="2">
         <v>2075.906016081974</v>
@@ -11284,7 +11284,7 @@
         <v>28</v>
       </c>
       <c r="D452" s="2">
-        <v>0.3155117819551378</v>
+        <v>0.2963925520016346</v>
       </c>
       <c r="E452" s="2">
         <v>2400.526589905439</v>
@@ -11308,7 +11308,7 @@
         <v>29</v>
       </c>
       <c r="D453" s="2">
-        <v>0.2754003569716588</v>
+        <v>0.3064271559996996</v>
       </c>
       <c r="E453" s="2">
         <v>2237.169583108663</v>
@@ -11332,7 +11332,7 @@
         <v>30</v>
       </c>
       <c r="D454" s="2">
-        <v>0.2673727399669588</v>
+        <v>0.2867213220015401</v>
       </c>
       <c r="E454" s="2">
         <v>1945.755064011043</v>
@@ -11356,7 +11356,7 @@
         <v>31</v>
       </c>
       <c r="D455" s="2">
-        <v>0.2864974590484053</v>
+        <v>0.2925508420012193</v>
       </c>
       <c r="E455" s="2">
         <v>2473.611835262086</v>
@@ -11380,7 +11380,7 @@
         <v>1</v>
       </c>
       <c r="D456" s="2">
-        <v>0.2718075000448152</v>
+        <v>0.2893135900012567</v>
       </c>
       <c r="E456" s="2">
         <v>2680.807814518193</v>
@@ -11404,7 +11404,7 @@
         <v>2</v>
       </c>
       <c r="D457" s="2">
-        <v>0.2806943979812786</v>
+        <v>0.3281122590051382</v>
       </c>
       <c r="E457" s="2">
         <v>2338.62786402672</v>
@@ -11428,7 +11428,7 @@
         <v>3</v>
       </c>
       <c r="D458" s="2">
-        <v>0.2686277899192646</v>
+        <v>0.2990664209937677</v>
       </c>
       <c r="E458" s="2">
         <v>2001.199305827597</v>
@@ -11452,7 +11452,7 @@
         <v>4</v>
       </c>
       <c r="D459" s="2">
-        <v>0.2968736320035532</v>
+        <v>0.3284242689987877</v>
       </c>
       <c r="E459" s="2">
         <v>2533.179526462672</v>
@@ -11476,7 +11476,7 @@
         <v>5</v>
       </c>
       <c r="D460" s="2">
-        <v>0.2866546590812504</v>
+        <v>0.2853486800013343</v>
       </c>
       <c r="E460" s="2">
         <v>2077.226579555136</v>
@@ -11500,7 +11500,7 @@
         <v>6</v>
       </c>
       <c r="D461" s="2">
-        <v>0.2941384989535436</v>
+        <v>0.282945937004115</v>
       </c>
       <c r="E461" s="2">
         <v>2614.806090076452</v>
@@ -11524,7 +11524,7 @@
         <v>7</v>
       </c>
       <c r="D462" s="2">
-        <v>0.2775821280665696</v>
+        <v>0.3178712040025857</v>
       </c>
       <c r="E462" s="2">
         <v>1788.941936812416</v>
@@ -11548,7 +11548,7 @@
         <v>8</v>
       </c>
       <c r="D463" s="2">
-        <v>0.2809094020631164</v>
+        <v>0.3352368799969554</v>
       </c>
       <c r="E463" s="2">
         <v>2177.280871673228</v>
@@ -11572,7 +11572,7 @@
         <v>9</v>
       </c>
       <c r="D464" s="2">
-        <v>0.2951900369953364</v>
+        <v>0.3289459150037146</v>
       </c>
       <c r="E464" s="2">
         <v>2091.413283591552</v>
@@ -11596,7 +11596,7 @@
         <v>10</v>
       </c>
       <c r="D465" s="2">
-        <v>0.2841637850506231</v>
+        <v>0.2840982299967436</v>
       </c>
       <c r="E465" s="2">
         <v>2158.425700044915</v>
@@ -11620,7 +11620,7 @@
         <v>11</v>
       </c>
       <c r="D466" s="2">
-        <v>0.2696241459343582</v>
+        <v>0.3001500600003055</v>
       </c>
       <c r="E466" s="2">
         <v>1687.346990547036</v>
@@ -11644,7 +11644,7 @@
         <v>12</v>
       </c>
       <c r="D467" s="2">
-        <v>0.2793018829543144</v>
+        <v>0.3401051649998408</v>
       </c>
       <c r="E467" s="2">
         <v>2740.871312682354</v>
@@ -11668,7 +11668,7 @@
         <v>13</v>
       </c>
       <c r="D468" s="2">
-        <v>0.2748663270613179</v>
+        <v>0.3302737940030056</v>
       </c>
       <c r="E468" s="2">
         <v>2033.564021427132</v>
@@ -11692,7 +11692,7 @@
         <v>14</v>
       </c>
       <c r="D469" s="2">
-        <v>0.2672422420000657</v>
+        <v>0.326917598998989</v>
       </c>
       <c r="E469" s="2">
         <v>2151.244720333246</v>
@@ -11716,7 +11716,7 @@
         <v>15</v>
       </c>
       <c r="D470" s="2">
-        <v>0.3174791800556704</v>
+        <v>0.317977170998347</v>
       </c>
       <c r="E470" s="2">
         <v>2126.75095442753</v>
@@ -11740,7 +11740,7 @@
         <v>16</v>
       </c>
       <c r="D471" s="2">
-        <v>0.2756967480527237</v>
+        <v>0.2773120299971197</v>
       </c>
       <c r="E471" s="2">
         <v>2252.405874893001</v>
@@ -11764,7 +11764,7 @@
         <v>17</v>
       </c>
       <c r="D472" s="2">
-        <v>0.2817215390969068</v>
+        <v>0.3577331380001851</v>
       </c>
       <c r="E472" s="2">
         <v>2252.424747154174</v>
@@ -11788,7 +11788,7 @@
         <v>18</v>
       </c>
       <c r="D473" s="2">
-        <v>0.2658815059112385</v>
+        <v>0.3243371489952551</v>
       </c>
       <c r="E473" s="2">
         <v>1924.025509475847</v>
@@ -11812,7 +11812,7 @@
         <v>19</v>
       </c>
       <c r="D474" s="2">
-        <v>0.2825575560564175</v>
+        <v>0.356472744999337</v>
       </c>
       <c r="E474" s="2">
         <v>2371.913813685158</v>
@@ -11836,7 +11836,7 @@
         <v>20</v>
       </c>
       <c r="D475" s="2">
-        <v>0.278042046003975</v>
+        <v>0.3338879780058051</v>
       </c>
       <c r="E475" s="2">
         <v>1802.72925053143</v>
@@ -11860,7 +11860,7 @@
         <v>21</v>
       </c>
       <c r="D476" s="2">
-        <v>0.3058931729756296</v>
+        <v>0.3137551539984997</v>
       </c>
       <c r="E476" s="2">
         <v>2285.892241229538</v>
@@ -11884,7 +11884,7 @@
         <v>22</v>
       </c>
       <c r="D477" s="2">
-        <v>0.2798067920375615</v>
+        <v>0.2815946629998507</v>
       </c>
       <c r="E477" s="2">
         <v>2213.459156037147</v>
@@ -11908,7 +11908,7 @@
         <v>23</v>
       </c>
       <c r="D478" s="2">
-        <v>0.2735608449438587</v>
+        <v>0.2803984159982065</v>
       </c>
       <c r="E478" s="2">
         <v>2326.766275704219</v>
@@ -11932,7 +11932,7 @@
         <v>24</v>
       </c>
       <c r="D479" s="2">
-        <v>0.2750884089618921</v>
+        <v>0.3304287700011628</v>
       </c>
       <c r="E479" s="2">
         <v>2155.970088522078</v>
@@ -11956,7 +11956,7 @@
         <v>25</v>
       </c>
       <c r="D480" s="2">
-        <v>0.294952456955798</v>
+        <v>0.3184446320010466</v>
       </c>
       <c r="E480" s="2">
         <v>1908.230490468129</v>
@@ -11980,7 +11980,7 @@
         <v>26</v>
       </c>
       <c r="D481" s="2">
-        <v>0.2847234969958663</v>
+        <v>0.343718848998833</v>
       </c>
       <c r="E481" s="2">
         <v>2303.597589152269</v>
@@ -12004,7 +12004,7 @@
         <v>27</v>
       </c>
       <c r="D482" s="2">
-        <v>0.2938679279759526</v>
+        <v>0.2798988270005793</v>
       </c>
       <c r="E482" s="2">
         <v>1772.943299203066</v>
@@ -12028,7 +12028,7 @@
         <v>28</v>
       </c>
       <c r="D483" s="2">
-        <v>0.2763210579287261</v>
+        <v>0.3199059909966309</v>
       </c>
       <c r="E483" s="2">
         <v>2450.471937773571</v>
@@ -12052,7 +12052,7 @@
         <v>29</v>
       </c>
       <c r="D484" s="2">
-        <v>0.2826199359260499</v>
+        <v>0.2954454899954726</v>
       </c>
       <c r="E484" s="2">
         <v>2492.355016418449</v>
@@ -12076,7 +12076,7 @@
         <v>30</v>
       </c>
       <c r="D485" s="2">
-        <v>0.2857586410827935</v>
+        <v>0.3325506629989832</v>
       </c>
       <c r="E485" s="2">
         <v>1940.209507773368</v>
@@ -12100,7 +12100,7 @@
         <v>1</v>
       </c>
       <c r="D486" s="2">
-        <v>0.2719699579756707</v>
+        <v>0.2786421620039619</v>
       </c>
       <c r="E486" s="2">
         <v>2005.220081528673</v>
@@ -12124,7 +12124,7 @@
         <v>2</v>
       </c>
       <c r="D487" s="2">
-        <v>0.3023035730002448</v>
+        <v>0.2836707549940911</v>
       </c>
       <c r="E487" s="2">
         <v>2086.203913064406</v>
@@ -12148,7 +12148,7 @@
         <v>3</v>
       </c>
       <c r="D488" s="2">
-        <v>0.2906147049507126</v>
+        <v>0.3066408610029612</v>
       </c>
       <c r="E488" s="2">
         <v>2436.709827979811</v>
@@ -12172,7 +12172,7 @@
         <v>4</v>
       </c>
       <c r="D489" s="2">
-        <v>0.2774712000973523</v>
+        <v>0.2935011669978849</v>
       </c>
       <c r="E489" s="2">
         <v>1827.062700594338</v>
@@ -12196,7 +12196,7 @@
         <v>5</v>
       </c>
       <c r="D490" s="2">
-        <v>0.2907005531014875</v>
+        <v>0.2928454680004506</v>
       </c>
       <c r="E490" s="2">
         <v>2210.373910312376</v>
@@ -12220,7 +12220,7 @@
         <v>6</v>
       </c>
       <c r="D491" s="2">
-        <v>0.3010038289939985</v>
+        <v>0.3137570760009112</v>
       </c>
       <c r="E491" s="2">
         <v>2173.342650414028</v>
@@ -12244,7 +12244,7 @@
         <v>7</v>
       </c>
       <c r="D492" s="2">
-        <v>0.2902367119677365</v>
+        <v>0.2808456130005652</v>
       </c>
       <c r="E492" s="2">
         <v>2338.313195010187</v>
@@ -12268,7 +12268,7 @@
         <v>8</v>
       </c>
       <c r="D493" s="2">
-        <v>0.2739035149570554</v>
+        <v>0.3186773440029356</v>
       </c>
       <c r="E493" s="2">
         <v>2303.126058467849</v>
@@ -12292,7 +12292,7 @@
         <v>9</v>
       </c>
       <c r="D494" s="2">
-        <v>0.2838306310586631</v>
+        <v>0.2887698669946985</v>
       </c>
       <c r="E494" s="2">
         <v>2297.970077634457</v>
@@ -12316,7 +12316,7 @@
         <v>10</v>
       </c>
       <c r="D495" s="2">
-        <v>0.2968611540272832</v>
+        <v>0.3441353429952869</v>
       </c>
       <c r="E495" s="2">
         <v>2072.251934614686</v>
@@ -12340,7 +12340,7 @@
         <v>11</v>
       </c>
       <c r="D496" s="2">
-        <v>0.2684233320178464</v>
+        <v>0.2738889770043897</v>
       </c>
       <c r="E496" s="2">
         <v>2031.349119676611</v>
@@ -12364,7 +12364,7 @@
         <v>12</v>
       </c>
       <c r="D497" s="2">
-        <v>0.2728933339240029</v>
+        <v>0.281880735004961</v>
       </c>
       <c r="E497" s="2">
         <v>2181.737700367057</v>
@@ -12388,7 +12388,7 @@
         <v>13</v>
       </c>
       <c r="D498" s="2">
-        <v>0.2983482719864696</v>
+        <v>0.3451518529982422</v>
       </c>
       <c r="E498" s="2">
         <v>2128.782722806049</v>
@@ -12412,7 +12412,7 @@
         <v>14</v>
       </c>
       <c r="D499" s="2">
-        <v>0.2763379550306126</v>
+        <v>0.2733707380029955</v>
       </c>
       <c r="E499" s="2">
         <v>1677.112754080203</v>
@@ -12436,7 +12436,7 @@
         <v>15</v>
       </c>
       <c r="D500" s="2">
-        <v>0.2813081530621275</v>
+        <v>0.2926193399980548</v>
       </c>
       <c r="E500" s="2">
         <v>2375.313524151718</v>
@@ -12460,7 +12460,7 @@
         <v>16</v>
       </c>
       <c r="D501" s="2">
-        <v>0.2876014979556203</v>
+        <v>0.280595659998653</v>
       </c>
       <c r="E501" s="2">
         <v>1974.292343636168</v>
@@ -12484,7 +12484,7 @@
         <v>17</v>
       </c>
       <c r="D502" s="2">
-        <v>0.292007063049823</v>
+        <v>0.3789150459997472</v>
       </c>
       <c r="E502" s="2">
         <v>2202.712458943724</v>
@@ -12508,7 +12508,7 @@
         <v>18</v>
       </c>
       <c r="D503" s="2">
-        <v>0.2708872309885919</v>
+        <v>0.2913063089945354</v>
       </c>
       <c r="E503" s="2">
         <v>1695.200600415448</v>
@@ -12532,7 +12532,7 @@
         <v>19</v>
       </c>
       <c r="D504" s="2">
-        <v>0.2702789389295503</v>
+        <v>0.297322067002824</v>
       </c>
       <c r="E504" s="2">
         <v>2451.927995287889</v>
@@ -12556,7 +12556,7 @@
         <v>20</v>
       </c>
       <c r="D505" s="2">
-        <v>0.2840445779729635</v>
+        <v>0.3036216879991116</v>
       </c>
       <c r="E505" s="2">
         <v>2742.327286723411</v>
@@ -12580,7 +12580,7 @@
         <v>21</v>
       </c>
       <c r="D506" s="2">
-        <v>0.2805607410846278</v>
+        <v>0.3129117670032429</v>
       </c>
       <c r="E506" s="2">
         <v>1834.68648411814</v>
@@ -12604,7 +12604,7 @@
         <v>22</v>
       </c>
       <c r="D507" s="2">
-        <v>0.3143674599705264</v>
+        <v>0.289686961004918</v>
       </c>
       <c r="E507" s="2">
         <v>1982.050202010844</v>
@@ -12628,7 +12628,7 @@
         <v>23</v>
       </c>
       <c r="D508" s="2">
-        <v>0.3070143819786608</v>
+        <v>0.2991056250029942</v>
       </c>
       <c r="E508" s="2">
         <v>2154.38612365002</v>
@@ -12652,7 +12652,7 @@
         <v>24</v>
       </c>
       <c r="D509" s="2">
-        <v>0.2801179869566113</v>
+        <v>0.3066559049984789</v>
       </c>
       <c r="E509" s="2">
         <v>2074.942607263144</v>
@@ -12676,7 +12676,7 @@
         <v>25</v>
       </c>
       <c r="D510" s="2">
-        <v>0.2737926780246198</v>
+        <v>0.3047872400056804</v>
       </c>
       <c r="E510" s="2">
         <v>2018.877417867809</v>
@@ -12700,7 +12700,7 @@
         <v>26</v>
       </c>
       <c r="D511" s="2">
-        <v>0.266816638992168</v>
+        <v>0.3003215510034352</v>
       </c>
       <c r="E511" s="2">
         <v>2176.689894957955</v>
@@ -12724,7 +12724,7 @@
         <v>27</v>
       </c>
       <c r="D512" s="2">
-        <v>0.2841542690293863</v>
+        <v>0.3262282290015719</v>
       </c>
       <c r="E512" s="2">
         <v>1840.198032304611</v>
@@ -12748,7 +12748,7 @@
         <v>28</v>
       </c>
       <c r="D513" s="2">
-        <v>0.2799617450218648</v>
+        <v>0.2828347649992793</v>
       </c>
       <c r="E513" s="2">
         <v>2173.758086818704</v>
@@ -12772,7 +12772,7 @@
         <v>29</v>
       </c>
       <c r="D514" s="2">
-        <v>0.2819680799730122</v>
+        <v>0.3168194440004299</v>
       </c>
       <c r="E514" s="2">
         <v>2216.55834202456</v>
@@ -12796,7 +12796,7 @@
         <v>30</v>
       </c>
       <c r="D515" s="2">
-        <v>0.3111482129897922</v>
+        <v>0.3173839800001588</v>
       </c>
       <c r="E515" s="2">
         <v>2222.727119393626</v>
@@ -12820,7 +12820,7 @@
         <v>31</v>
       </c>
       <c r="D516" s="2">
-        <v>0.3029980199644342</v>
+        <v>0.2922698649999802</v>
       </c>
       <c r="E516" s="2">
         <v>1624.681193749284</v>
@@ -12844,7 +12844,7 @@
         <v>1</v>
       </c>
       <c r="D517" s="2">
-        <v>0.2881773769622669</v>
+        <v>0.2760112780015334</v>
       </c>
       <c r="E517" s="2">
         <v>2352.635328713841</v>
@@ -12868,7 +12868,7 @@
         <v>2</v>
       </c>
       <c r="D518" s="2">
-        <v>0.2848628850188106</v>
+        <v>0.2889785090010264</v>
       </c>
       <c r="E518" s="2">
         <v>1772.558504688921</v>
@@ -12892,7 +12892,7 @@
         <v>3</v>
       </c>
       <c r="D519" s="2">
-        <v>0.2700235529337078</v>
+        <v>0.3271813000028487</v>
       </c>
       <c r="E519" s="2">
         <v>1820.2916621496</v>
@@ -12916,7 +12916,7 @@
         <v>4</v>
       </c>
       <c r="D520" s="2">
-        <v>0.2901057740673423</v>
+        <v>0.3394887499962351</v>
       </c>
       <c r="E520" s="2">
         <v>2355.103305700304</v>
@@ -12940,7 +12940,7 @@
         <v>5</v>
       </c>
       <c r="D521" s="2">
-        <v>0.3407601340441033</v>
+        <v>0.3313110460003372</v>
       </c>
       <c r="E521" s="2">
         <v>2508.311108655002</v>
@@ -12964,7 +12964,7 @@
         <v>6</v>
       </c>
       <c r="D522" s="2">
-        <v>0.2731674200622365</v>
+        <v>0.3218557519940077</v>
       </c>
       <c r="E522" s="2">
         <v>1873.710800900977</v>
@@ -12988,7 +12988,7 @@
         <v>7</v>
       </c>
       <c r="D523" s="2">
-        <v>0.2813057909952477</v>
+        <v>0.2857274630005122</v>
       </c>
       <c r="E523" s="2">
         <v>2097.377808237355</v>
@@ -13012,7 +13012,7 @@
         <v>8</v>
       </c>
       <c r="D524" s="2">
-        <v>0.2816705999430269</v>
+        <v>0.2911266709998017</v>
       </c>
       <c r="E524" s="2">
         <v>1922.852687891714</v>
@@ -13036,7 +13036,7 @@
         <v>9</v>
       </c>
       <c r="D525" s="2">
-        <v>0.2796933259814978</v>
+        <v>0.2945882120038732</v>
       </c>
       <c r="E525" s="2">
         <v>2358.327551728116</v>
@@ -13060,7 +13060,7 @@
         <v>10</v>
       </c>
       <c r="D526" s="2">
-        <v>0.2857465010602027</v>
+        <v>0.3234284070058493</v>
       </c>
       <c r="E526" s="2">
         <v>2763.824556972131</v>
@@ -13084,7 +13084,7 @@
         <v>11</v>
       </c>
       <c r="D527" s="2">
-        <v>0.2742633500602096</v>
+        <v>0.3212529800002812</v>
       </c>
       <c r="E527" s="2">
         <v>2515.784781042937</v>
@@ -13108,7 +13108,7 @@
         <v>12</v>
       </c>
       <c r="D528" s="2">
-        <v>0.2679308969527483</v>
+        <v>0.3435114019957837</v>
       </c>
       <c r="E528" s="2">
         <v>2330.883971012534</v>
@@ -13132,7 +13132,7 @@
         <v>13</v>
       </c>
       <c r="D529" s="2">
-        <v>0.2920045920182019</v>
+        <v>0.281751210000948</v>
       </c>
       <c r="E529" s="2">
         <v>2012.8900403809</v>
@@ -13156,7 +13156,7 @@
         <v>14</v>
       </c>
       <c r="D530" s="2">
-        <v>0.2835730549413711</v>
+        <v>0.3106761969975196</v>
       </c>
       <c r="E530" s="2">
         <v>2214.722256504377</v>
@@ -13180,7 +13180,7 @@
         <v>15</v>
       </c>
       <c r="D531" s="2">
-        <v>0.2730370149947703</v>
+        <v>0.2987601220011129</v>
       </c>
       <c r="E531" s="2">
         <v>2761.621244380339</v>
@@ -13204,7 +13204,7 @@
         <v>16</v>
       </c>
       <c r="D532" s="2">
-        <v>0.2948296179529279</v>
+        <v>0.5098425969990785</v>
       </c>
       <c r="E532" s="2">
         <v>1662.79406743745</v>
@@ -13228,7 +13228,7 @@
         <v>17</v>
       </c>
       <c r="D533" s="2">
-        <v>0.2796307890675962</v>
+        <v>0.3997755329983192</v>
       </c>
       <c r="E533" s="2">
         <v>2085.447517447846</v>
@@ -13252,7 +13252,7 @@
         <v>18</v>
       </c>
       <c r="D534" s="2">
-        <v>0.2710846730042249</v>
+        <v>0.3742393139982596</v>
       </c>
       <c r="E534" s="2">
         <v>2615.58332638977</v>
@@ -13276,7 +13276,7 @@
         <v>19</v>
       </c>
       <c r="D535" s="2">
-        <v>0.2992445239797235</v>
+        <v>0.446150455994939</v>
       </c>
       <c r="E535" s="2">
         <v>2133.456259208295</v>
@@ -13300,7 +13300,7 @@
         <v>20</v>
       </c>
       <c r="D536" s="2">
-        <v>0.2581938169896603</v>
+        <v>0.2976234789966838</v>
       </c>
       <c r="E536" s="2">
         <v>2196.360926231524</v>
@@ -13324,7 +13324,7 @@
         <v>21</v>
       </c>
       <c r="D537" s="2">
-        <v>0.2710270310053602</v>
+        <v>0.3332196859992109</v>
       </c>
       <c r="E537" s="2">
         <v>2286.352332836394</v>
@@ -13348,7 +13348,7 @@
         <v>22</v>
       </c>
       <c r="D538" s="2">
-        <v>0.2845275849103928</v>
+        <v>0.2911222080001608</v>
       </c>
       <c r="E538" s="2">
         <v>2547.355627351468</v>
@@ -13372,7 +13372,7 @@
         <v>23</v>
       </c>
       <c r="D539" s="2">
-        <v>0.2707989551126957</v>
+        <v>0.3211804999955348</v>
       </c>
       <c r="E539" s="2">
         <v>2254.841000764881</v>
@@ -13396,7 +13396,7 @@
         <v>24</v>
       </c>
       <c r="D540" s="2">
-        <v>0.2772691049613059</v>
+        <v>0.3271394609982963</v>
       </c>
       <c r="E540" s="2">
         <v>2836.174406538551</v>
@@ -13420,7 +13420,7 @@
         <v>25</v>
       </c>
       <c r="D541" s="2">
-        <v>0.2773898709565401</v>
+        <v>0.2902509979976458</v>
       </c>
       <c r="E541" s="2">
         <v>1508.463386125732</v>
@@ -13444,7 +13444,7 @@
         <v>26</v>
       </c>
       <c r="D542" s="2">
-        <v>0.2782992810243741</v>
+        <v>0.2959127510039252</v>
       </c>
       <c r="E542" s="2">
         <v>2108.067650522278</v>
@@ -13468,7 +13468,7 @@
         <v>27</v>
       </c>
       <c r="D543" s="2">
-        <v>0.2733465329511091</v>
+        <v>0.2776915339927655</v>
       </c>
       <c r="E543" s="2">
         <v>2419.177889822883</v>
@@ -13492,7 +13492,7 @@
         <v>28</v>
       </c>
       <c r="D544" s="2">
-        <v>0.2886443469906226</v>
+        <v>0.2787997989944415</v>
       </c>
       <c r="E544" s="2">
         <v>2091.567187464033</v>
@@ -13516,7 +13516,7 @@
         <v>29</v>
       </c>
       <c r="D545" s="2">
-        <v>0.2702645119279623</v>
+        <v>0.2772530980000738</v>
       </c>
       <c r="E545" s="2">
         <v>1626.437804311405</v>
@@ -13540,7 +13540,7 @@
         <v>30</v>
       </c>
       <c r="D546" s="2">
-        <v>0.2977596980053931</v>
+        <v>0.3218136279974715</v>
       </c>
       <c r="E546" s="2">
         <v>1977.748380989204</v>
@@ -13564,7 +13564,7 @@
         <v>1</v>
       </c>
       <c r="D547" s="2">
-        <v>0.272701362031512</v>
+        <v>0.3468247189957765</v>
       </c>
       <c r="E547" s="2">
         <v>2046.577425670003</v>
@@ -13588,7 +13588,7 @@
         <v>2</v>
       </c>
       <c r="D548" s="2">
-        <v>0.2933695670217276</v>
+        <v>0.3326613240060396</v>
       </c>
       <c r="E548" s="2">
         <v>2489.815935428408</v>
@@ -13612,7 +13612,7 @@
         <v>3</v>
       </c>
       <c r="D549" s="2">
-        <v>0.2909223269671202</v>
+        <v>0.3006279289984377</v>
       </c>
       <c r="E549" s="2">
         <v>1978.991100844814</v>
@@ -13636,7 +13636,7 @@
         <v>4</v>
       </c>
       <c r="D550" s="2">
-        <v>0.2930768809746951</v>
+        <v>0.2745631339930696</v>
       </c>
       <c r="E550" s="2">
         <v>1790.399229257609</v>
@@ -13660,7 +13660,7 @@
         <v>5</v>
       </c>
       <c r="D551" s="2">
-        <v>0.2979389310348779</v>
+        <v>0.324296159997175</v>
       </c>
       <c r="E551" s="2">
         <v>1596.002870457472</v>
@@ -13684,7 +13684,7 @@
         <v>6</v>
       </c>
       <c r="D552" s="2">
-        <v>0.2806049039354548</v>
+        <v>0.2741142429949832</v>
       </c>
       <c r="E552" s="2">
         <v>2327.270245252881</v>
@@ -13708,7 +13708,7 @@
         <v>7</v>
       </c>
       <c r="D553" s="2">
-        <v>0.2888589390786365</v>
+        <v>0.3349810169966077</v>
       </c>
       <c r="E553" s="2">
         <v>2647.62307345825</v>
@@ -13732,7 +13732,7 @@
         <v>8</v>
       </c>
       <c r="D554" s="2">
-        <v>0.2927804940845817</v>
+        <v>0.2871303749998333</v>
       </c>
       <c r="E554" s="2">
         <v>1957.436792224215</v>
@@ -13756,7 +13756,7 @@
         <v>9</v>
       </c>
       <c r="D555" s="2">
-        <v>0.2946485879365355</v>
+        <v>0.2739312300036545</v>
       </c>
       <c r="E555" s="2">
         <v>2404.126746163444</v>
@@ -13780,7 +13780,7 @@
         <v>10</v>
       </c>
       <c r="D556" s="2">
-        <v>0.2836635030107573</v>
+        <v>0.2839666290019522</v>
       </c>
       <c r="E556" s="2">
         <v>2386.089539968863</v>
@@ -13804,7 +13804,7 @@
         <v>11</v>
       </c>
       <c r="D557" s="2">
-        <v>0.3010622640140355</v>
+        <v>0.2864255940003204</v>
       </c>
       <c r="E557" s="2">
         <v>2157.177990245329</v>
@@ -13828,7 +13828,7 @@
         <v>12</v>
       </c>
       <c r="D558" s="2">
-        <v>0.2787642660550773</v>
+        <v>0.294318159998511</v>
       </c>
       <c r="E558" s="2">
         <v>2152.108668756035</v>
@@ -13852,7 +13852,7 @@
         <v>13</v>
       </c>
       <c r="D559" s="2">
-        <v>0.3310115319909528</v>
+        <v>0.3237147060062853</v>
       </c>
       <c r="E559" s="2">
         <v>2128.976555804647</v>
@@ -13876,7 +13876,7 @@
         <v>14</v>
       </c>
       <c r="D560" s="2">
-        <v>0.2792178329546005</v>
+        <v>0.3060892439971212</v>
       </c>
       <c r="E560" s="2">
         <v>1900.353956368338</v>
@@ -13900,7 +13900,7 @@
         <v>15</v>
       </c>
       <c r="D561" s="2">
-        <v>0.3168756560189649</v>
+        <v>0.3355564570010756</v>
       </c>
       <c r="E561" s="2">
         <v>2613.432805816005</v>
@@ -13924,7 +13924,7 @@
         <v>16</v>
       </c>
       <c r="D562" s="2">
-        <v>0.2956838830141351</v>
+        <v>0.3176762930015684</v>
       </c>
       <c r="E562" s="2">
         <v>2487.502702933235</v>
@@ -13948,7 +13948,7 @@
         <v>17</v>
       </c>
       <c r="D563" s="2">
-        <v>0.2964286080095917</v>
+        <v>0.2814931019966025</v>
       </c>
       <c r="E563" s="2">
         <v>2489.833542444557</v>
@@ -13972,7 +13972,7 @@
         <v>18</v>
       </c>
       <c r="D564" s="2">
-        <v>0.2773396970005706</v>
+        <v>0.2735217329973239</v>
       </c>
       <c r="E564" s="2">
         <v>2287.395640825169</v>
@@ -13996,7 +13996,7 @@
         <v>19</v>
       </c>
       <c r="D565" s="2">
-        <v>0.2934177180286497</v>
+        <v>0.2749198199962848</v>
       </c>
       <c r="E565" s="2">
         <v>2207.99519329207</v>
@@ -14020,7 +14020,7 @@
         <v>20</v>
       </c>
       <c r="D566" s="2">
-        <v>0.3049445679644123</v>
+        <v>0.3030241039959947</v>
       </c>
       <c r="E566" s="2">
         <v>2394.813887481045</v>
@@ -14044,7 +14044,7 @@
         <v>21</v>
       </c>
       <c r="D567" s="2">
-        <v>0.2876182550098747</v>
+        <v>0.3123434570006793</v>
       </c>
       <c r="E567" s="2">
         <v>2590.77446502592</v>
@@ -14068,7 +14068,7 @@
         <v>22</v>
       </c>
       <c r="D568" s="2">
-        <v>0.2820957209914923</v>
+        <v>0.2736305860016728</v>
       </c>
       <c r="E568" s="2">
         <v>2074.067202624127</v>
@@ -14092,7 +14092,7 @@
         <v>23</v>
       </c>
       <c r="D569" s="2">
-        <v>0.28321779507678</v>
+        <v>0.2812831400005962</v>
       </c>
       <c r="E569" s="2">
         <v>2493.48487271669</v>
@@ -14116,7 +14116,7 @@
         <v>24</v>
       </c>
       <c r="D570" s="2">
-        <v>0.280463851056993</v>
+        <v>0.291498448998027</v>
       </c>
       <c r="E570" s="2">
         <v>2473.270658067451</v>
@@ -14140,7 +14140,7 @@
         <v>25</v>
       </c>
       <c r="D571" s="2">
-        <v>0.267938990960829</v>
+        <v>0.2937289379988215</v>
       </c>
       <c r="E571" s="2">
         <v>2342.798690523809</v>
@@ -14164,7 +14164,7 @@
         <v>26</v>
       </c>
       <c r="D572" s="2">
-        <v>0.2687421520240605</v>
+        <v>0.290374026997597</v>
       </c>
       <c r="E572" s="2">
         <v>1991.072920330166</v>
@@ -14188,7 +14188,7 @@
         <v>27</v>
       </c>
       <c r="D573" s="2">
-        <v>0.2867768980795518</v>
+        <v>0.3347593199941912</v>
       </c>
       <c r="E573" s="2">
         <v>2687.229244491341</v>
@@ -14212,7 +14212,7 @@
         <v>28</v>
       </c>
       <c r="D574" s="2">
-        <v>0.2948349890066311</v>
+        <v>0.2819472099945415</v>
       </c>
       <c r="E574" s="2">
         <v>1859.092355265138</v>
@@ -14236,7 +14236,7 @@
         <v>29</v>
       </c>
       <c r="D575" s="2">
-        <v>0.3004291310207918</v>
+        <v>0.2949569660049747</v>
       </c>
       <c r="E575" s="2">
         <v>2231.450577075297</v>
@@ -14260,7 +14260,7 @@
         <v>30</v>
       </c>
       <c r="D576" s="2">
-        <v>0.2694365399656817</v>
+        <v>0.2776093100037542</v>
       </c>
       <c r="E576" s="2">
         <v>2490.747036568571</v>
@@ -14284,7 +14284,7 @@
         <v>31</v>
       </c>
       <c r="D577" s="2">
-        <v>0.2530816209036857</v>
+        <v>0.2767380020013661</v>
       </c>
       <c r="E577" s="2">
         <v>2474.473297782563</v>
@@ -14308,7 +14308,7 @@
         <v>1</v>
       </c>
       <c r="D578" s="2">
-        <v>0.2703957479679957</v>
+        <v>0.2871237299987115</v>
       </c>
       <c r="E578" s="2">
         <v>2301.51864391784</v>
@@ -14332,7 +14332,7 @@
         <v>2</v>
       </c>
       <c r="D579" s="2">
-        <v>0.2722447999985889</v>
+        <v>0.2961551400003373</v>
       </c>
       <c r="E579" s="2">
         <v>2591.066825600688</v>
@@ -14356,7 +14356,7 @@
         <v>3</v>
       </c>
       <c r="D580" s="2">
-        <v>0.3246745839715004</v>
+        <v>0.3056265340055688</v>
       </c>
       <c r="E580" s="2">
         <v>2151.984465630095</v>
@@ -14380,7 +14380,7 @@
         <v>4</v>
       </c>
       <c r="D581" s="2">
-        <v>0.2931932429783046</v>
+        <v>0.2919366790010827</v>
       </c>
       <c r="E581" s="2">
         <v>2289.876019554797</v>
@@ -14404,7 +14404,7 @@
         <v>5</v>
       </c>
       <c r="D582" s="2">
-        <v>0.2952006780542433</v>
+        <v>0.3115285919993767</v>
       </c>
       <c r="E582" s="2">
         <v>2908.24167612457</v>
@@ -14428,7 +14428,7 @@
         <v>6</v>
       </c>
       <c r="D583" s="2">
-        <v>0.2951857490697876</v>
+        <v>0.3243226790000335</v>
       </c>
       <c r="E583" s="2">
         <v>1977.852055168919</v>
@@ -14452,7 +14452,7 @@
         <v>7</v>
       </c>
       <c r="D584" s="2">
-        <v>0.295309217995964</v>
+        <v>0.2897147629992105</v>
       </c>
       <c r="E584" s="2">
         <v>3034.304251241751</v>
@@ -14476,7 +14476,7 @@
         <v>8</v>
       </c>
       <c r="D585" s="2">
-        <v>0.278619420947507</v>
+        <v>0.2857597550028004</v>
       </c>
       <c r="E585" s="2">
         <v>2170.045239559242</v>
@@ -14500,7 +14500,7 @@
         <v>9</v>
       </c>
       <c r="D586" s="2">
-        <v>0.2994240309344605</v>
+        <v>0.3337902470011613</v>
       </c>
       <c r="E586" s="2">
         <v>2434.508099127636</v>
@@ -14524,7 +14524,7 @@
         <v>10</v>
       </c>
       <c r="D587" s="2">
-        <v>0.284074010909535</v>
+        <v>0.3522517919991515</v>
       </c>
       <c r="E587" s="2">
         <v>1742.125048717342</v>
@@ -14548,7 +14548,7 @@
         <v>11</v>
       </c>
       <c r="D588" s="2">
-        <v>0.27462339901831</v>
+        <v>0.2978356050007278</v>
       </c>
       <c r="E588" s="2">
         <v>2262.978982226094</v>
@@ -14572,7 +14572,7 @@
         <v>12</v>
       </c>
       <c r="D589" s="2">
-        <v>0.2902488929685205</v>
+        <v>0.2988985129995854</v>
       </c>
       <c r="E589" s="2">
         <v>1827.416755865211</v>
@@ -14596,7 +14596,7 @@
         <v>13</v>
       </c>
       <c r="D590" s="2">
-        <v>0.3023469269974157</v>
+        <v>0.2924251380027272</v>
       </c>
       <c r="E590" s="2">
         <v>2094.541392896308</v>
@@ -14620,7 +14620,7 @@
         <v>14</v>
       </c>
       <c r="D591" s="2">
-        <v>0.2891842409735546</v>
+        <v>0.3878287089974037</v>
       </c>
       <c r="E591" s="2">
         <v>2132.120880115576</v>
@@ -14644,7 +14644,7 @@
         <v>15</v>
       </c>
       <c r="D592" s="2">
-        <v>0.7332479889737442</v>
+        <v>0.3295064579942846</v>
       </c>
       <c r="E592" s="2">
         <v>1706.722863988275</v>
@@ -14668,7 +14668,7 @@
         <v>16</v>
       </c>
       <c r="D593" s="2">
-        <v>3.002105467021465</v>
+        <v>0.2798346080016927</v>
       </c>
       <c r="E593" s="2">
         <v>1927.662266081701</v>
@@ -14692,7 +14692,7 @@
         <v>17</v>
       </c>
       <c r="D594" s="2">
-        <v>0.273893638048321</v>
+        <v>0.2902487870014738</v>
       </c>
       <c r="E594" s="2">
         <v>2136.437030087859</v>
@@ -14716,7 +14716,7 @@
         <v>18</v>
       </c>
       <c r="D595" s="2">
-        <v>0.2814671710366383</v>
+        <v>0.6333318180040806</v>
       </c>
       <c r="E595" s="2">
         <v>2291.067374903104</v>
@@ -14740,7 +14740,7 @@
         <v>19</v>
       </c>
       <c r="D596" s="2">
-        <v>0.2754461499862373</v>
+        <v>0.3582794609974371</v>
       </c>
       <c r="E596" s="2">
         <v>1989.855084532628</v>
@@ -14764,7 +14764,7 @@
         <v>20</v>
       </c>
       <c r="D597" s="2">
-        <v>0.3106876210076734</v>
+        <v>0.3190617440050119</v>
       </c>
       <c r="E597" s="2">
         <v>1828.895662138804</v>
@@ -14788,7 +14788,7 @@
         <v>21</v>
       </c>
       <c r="D598" s="2">
-        <v>0.2832346389768645</v>
+        <v>0.3013271769959829</v>
       </c>
       <c r="E598" s="2">
         <v>2925.231400437443</v>
@@ -14812,7 +14812,7 @@
         <v>22</v>
       </c>
       <c r="D599" s="2">
-        <v>0.2793697980232537</v>
+        <v>0.2875496240012581</v>
       </c>
       <c r="E599" s="2">
         <v>1470.406479418251</v>
@@ -14836,7 +14836,7 @@
         <v>23</v>
       </c>
       <c r="D600" s="2">
-        <v>0.2975212980527431</v>
+        <v>0.2969022530014627</v>
       </c>
       <c r="E600" s="2">
         <v>2026.962023220685</v>
@@ -14860,7 +14860,7 @@
         <v>24</v>
       </c>
       <c r="D601" s="2">
-        <v>0.2921657420229167</v>
+        <v>0.3610666300010053</v>
       </c>
       <c r="E601" s="2">
         <v>2239.351199817958</v>
@@ -14884,7 +14884,7 @@
         <v>25</v>
       </c>
       <c r="D602" s="2">
-        <v>0.2850575660122558</v>
+        <v>0.2752947289991425</v>
       </c>
       <c r="E602" s="2">
         <v>2013.204892291386</v>
@@ -14908,7 +14908,7 @@
         <v>26</v>
       </c>
       <c r="D603" s="2">
-        <v>0.3010635200189427</v>
+        <v>0.3032264419962303</v>
       </c>
       <c r="E603" s="2">
         <v>1599.809383623278</v>
@@ -14932,7 +14932,7 @@
         <v>27</v>
       </c>
       <c r="D604" s="2">
-        <v>0.3160726139321923</v>
+        <v>0.2797781420013052</v>
       </c>
       <c r="E604" s="2">
         <v>2338.223375066059</v>
@@ -14956,7 +14956,7 @@
         <v>28</v>
       </c>
       <c r="D605" s="2">
-        <v>0.2992294029099867</v>
+        <v>0.2927685099930386</v>
       </c>
       <c r="E605" s="2">
         <v>1751.431239594558</v>
@@ -14980,7 +14980,7 @@
         <v>29</v>
       </c>
       <c r="D606" s="2">
-        <v>0.3103611069964245</v>
+        <v>0.281953669997165</v>
       </c>
       <c r="E606" s="2">
         <v>2004.246526083771</v>
@@ -15004,7 +15004,7 @@
         <v>30</v>
       </c>
       <c r="D607" s="2">
-        <v>0.2758473590947688</v>
+        <v>0.2860175340028945</v>
       </c>
       <c r="E607" s="2">
         <v>2231.74964328946</v>
@@ -15028,7 +15028,7 @@
         <v>31</v>
       </c>
       <c r="D608" s="2">
-        <v>0.2996329059824347</v>
+        <v>0.3172631999987061</v>
       </c>
       <c r="E608" s="2">
         <v>2406.821086533567</v>
@@ -15052,7 +15052,7 @@
         <v>1</v>
       </c>
       <c r="D609" s="2">
-        <v>0.2689670460531488</v>
+        <v>0.2848814319950179</v>
       </c>
       <c r="E609" s="2">
         <v>2327.957608823107</v>
@@ -15076,7 +15076,7 @@
         <v>2</v>
       </c>
       <c r="D610" s="2">
-        <v>0.2665337729267776</v>
+        <v>0.2871835410041967</v>
       </c>
       <c r="E610" s="2">
         <v>2171.153844100806</v>
@@ -15100,7 +15100,7 @@
         <v>3</v>
       </c>
       <c r="D611" s="2">
-        <v>0.2917884620837867</v>
+        <v>0.3178826709990972</v>
       </c>
       <c r="E611" s="2">
         <v>1906.662052394822</v>
@@ -15124,7 +15124,7 @@
         <v>4</v>
       </c>
       <c r="D612" s="2">
-        <v>0.2917763779405504</v>
+        <v>0.3321319840033539</v>
       </c>
       <c r="E612" s="2">
         <v>2423.659351483436</v>
@@ -15148,7 +15148,7 @@
         <v>5</v>
       </c>
       <c r="D613" s="2">
-        <v>0.2905611810274422</v>
+        <v>0.2867426040029386</v>
       </c>
       <c r="E613" s="2">
         <v>1804.152132028261</v>
@@ -15172,7 +15172,7 @@
         <v>6</v>
       </c>
       <c r="D614" s="2">
-        <v>0.2796486709266901</v>
+        <v>0.2809148089945666</v>
       </c>
       <c r="E614" s="2">
         <v>1613.410991212589</v>
@@ -15196,7 +15196,7 @@
         <v>7</v>
       </c>
       <c r="D615" s="2">
-        <v>0.2797453339444473</v>
+        <v>0.3055237079970539</v>
       </c>
       <c r="E615" s="2">
         <v>2460.321962390806</v>
@@ -15220,7 +15220,7 @@
         <v>8</v>
       </c>
       <c r="D616" s="2">
-        <v>0.2768028760328889</v>
+        <v>0.2809971749957185</v>
       </c>
       <c r="E616" s="2">
         <v>2099.104281430785</v>
@@ -15244,7 +15244,7 @@
         <v>9</v>
       </c>
       <c r="D617" s="2">
-        <v>0.2847188140731305</v>
+        <v>0.3149581260004197</v>
       </c>
       <c r="E617" s="2">
         <v>2292.592426568115</v>
@@ -15268,7 +15268,7 @@
         <v>10</v>
       </c>
       <c r="D618" s="2">
-        <v>0.2890447729732841</v>
+        <v>0.2874526800005697</v>
       </c>
       <c r="E618" s="2">
         <v>2379.813822934559</v>
@@ -15292,7 +15292,7 @@
         <v>11</v>
       </c>
       <c r="D619" s="2">
-        <v>0.2802023069234565</v>
+        <v>0.282425172998046</v>
       </c>
       <c r="E619" s="2">
         <v>2192.39904122184</v>
@@ -15316,7 +15316,7 @@
         <v>12</v>
       </c>
       <c r="D620" s="2">
-        <v>0.291334611014463</v>
+        <v>0.3150257579982281</v>
       </c>
       <c r="E620" s="2">
         <v>2336.315711300592</v>
@@ -15340,7 +15340,7 @@
         <v>13</v>
       </c>
       <c r="D621" s="2">
-        <v>0.287422674940899</v>
+        <v>0.3337266629969236</v>
       </c>
       <c r="E621" s="2">
         <v>2192.78378301397</v>
@@ -15364,7 +15364,7 @@
         <v>14</v>
       </c>
       <c r="D622" s="2">
-        <v>0.2732798770302907</v>
+        <v>0.3769791950035142</v>
       </c>
       <c r="E622" s="2">
         <v>2540.929347956934</v>
@@ -15388,7 +15388,7 @@
         <v>15</v>
       </c>
       <c r="D623" s="2">
-        <v>0.3434213229920715</v>
+        <v>0.2734569480016944</v>
       </c>
       <c r="E623" s="2">
         <v>2440.225800559597</v>
@@ -15412,7 +15412,7 @@
         <v>16</v>
       </c>
       <c r="D624" s="2">
-        <v>0.3009881220059469</v>
+        <v>0.3214208150020568</v>
       </c>
       <c r="E624" s="2">
         <v>2668.359089606316</v>
@@ -15436,7 +15436,7 @@
         <v>17</v>
       </c>
       <c r="D625" s="2">
-        <v>0.2876264329534024</v>
+        <v>0.3024981359994854</v>
       </c>
       <c r="E625" s="2">
         <v>1838.257110859417</v>
@@ -15460,7 +15460,7 @@
         <v>18</v>
       </c>
       <c r="D626" s="2">
-        <v>0.3505280080717057</v>
+        <v>0.3069723329972476</v>
       </c>
       <c r="E626" s="2">
         <v>2512.190926884557</v>
@@ -15484,7 +15484,7 @@
         <v>19</v>
       </c>
       <c r="D627" s="2">
-        <v>0.3263622150989249</v>
+        <v>0.2893433100034599</v>
       </c>
       <c r="E627" s="2">
         <v>2107.773356067431</v>
@@ -15508,7 +15508,7 @@
         <v>20</v>
       </c>
       <c r="D628" s="2">
-        <v>0.2760922079905868</v>
+        <v>0.3267242220026674</v>
       </c>
       <c r="E628" s="2">
         <v>2511.577097266536</v>
@@ -15532,7 +15532,7 @@
         <v>21</v>
       </c>
       <c r="D629" s="2">
-        <v>0.314219236955978</v>
+        <v>0.3449105519976001</v>
       </c>
       <c r="E629" s="2">
         <v>2477.663078582861</v>
@@ -15556,7 +15556,7 @@
         <v>22</v>
       </c>
       <c r="D630" s="2">
-        <v>0.3179790439317003</v>
+        <v>0.2978923980044783</v>
       </c>
       <c r="E630" s="2">
         <v>2356.44793896376</v>
@@ -15580,7 +15580,7 @@
         <v>23</v>
       </c>
       <c r="D631" s="2">
-        <v>0.278997611021623</v>
+        <v>0.3294305559975328</v>
       </c>
       <c r="E631" s="2">
         <v>2355.119620079797</v>
@@ -15604,7 +15604,7 @@
         <v>24</v>
       </c>
       <c r="D632" s="2">
-        <v>0.3004538079258054</v>
+        <v>0.2869045339975855</v>
       </c>
       <c r="E632" s="2">
         <v>2537.324775389101</v>
@@ -15628,7 +15628,7 @@
         <v>25</v>
       </c>
       <c r="D633" s="2">
-        <v>0.3194164619781077</v>
+        <v>0.3218533890030812</v>
       </c>
       <c r="E633" s="2">
         <v>1931.908183783254</v>
@@ -15652,7 +15652,7 @@
         <v>26</v>
       </c>
       <c r="D634" s="2">
-        <v>0.2657249039039016</v>
+        <v>0.3274395830012509</v>
       </c>
       <c r="E634" s="2">
         <v>2380.106266465241</v>
@@ -15676,7 +15676,7 @@
         <v>27</v>
       </c>
       <c r="D635" s="2">
-        <v>0.2840778379468247</v>
+        <v>0.310396982000384</v>
       </c>
       <c r="E635" s="2">
         <v>2073.741258315457</v>
@@ -15700,7 +15700,7 @@
         <v>28</v>
       </c>
       <c r="D636" s="2">
-        <v>0.3435788620263338</v>
+        <v>0.2779359039996052</v>
       </c>
       <c r="E636" s="2">
         <v>2236.755144708268</v>
@@ -15724,7 +15724,7 @@
         <v>29</v>
       </c>
       <c r="D637" s="2">
-        <v>0.2868816509144381</v>
+        <v>0.3002824880022672</v>
       </c>
       <c r="E637" s="2">
         <v>2340.636184569497</v>
@@ -15748,7 +15748,7 @@
         <v>30</v>
       </c>
       <c r="D638" s="2">
-        <v>0.2933200360275805</v>
+        <v>0.2927823970021564</v>
       </c>
       <c r="E638" s="2">
         <v>2044.586371035601</v>
@@ -15772,7 +15772,7 @@
         <v>1</v>
       </c>
       <c r="D639" s="2">
-        <v>0.326239112066105</v>
+        <v>0.2845884159978596</v>
       </c>
       <c r="E639" s="2">
         <v>2415.899193643457</v>
@@ -15796,7 +15796,7 @@
         <v>2</v>
       </c>
       <c r="D640" s="2">
-        <v>0.3127856489736587</v>
+        <v>0.35869824099791</v>
       </c>
       <c r="E640" s="2">
         <v>1984.226269238174</v>
@@ -15820,7 +15820,7 @@
         <v>3</v>
       </c>
       <c r="D641" s="2">
-        <v>0.3261024990351871</v>
+        <v>0.2992713560015545</v>
       </c>
       <c r="E641" s="2">
         <v>1883.701960722468</v>
@@ -15844,7 +15844,7 @@
         <v>4</v>
       </c>
       <c r="D642" s="2">
-        <v>0.2695622669998556</v>
+        <v>0.2710359820048325</v>
       </c>
       <c r="E642" s="2">
         <v>2079.253307977041</v>
@@ -15868,7 +15868,7 @@
         <v>5</v>
       </c>
       <c r="D643" s="2">
-        <v>0.3063430839683861</v>
+        <v>0.304962094000075</v>
       </c>
       <c r="E643" s="2">
         <v>2170.170506875115</v>
@@ -15892,7 +15892,7 @@
         <v>6</v>
       </c>
       <c r="D644" s="2">
-        <v>0.2883144509978592</v>
+        <v>0.311089754999557</v>
       </c>
       <c r="E644" s="2">
         <v>2713.515501535468</v>
@@ -15916,7 +15916,7 @@
         <v>7</v>
       </c>
       <c r="D645" s="2">
-        <v>0.2755161840468645</v>
+        <v>0.2959626049996587</v>
       </c>
       <c r="E645" s="2">
         <v>1905.791591851349</v>
@@ -15940,7 +15940,7 @@
         <v>8</v>
       </c>
       <c r="D646" s="2">
-        <v>0.2684382080333307</v>
+        <v>0.2909725950012216</v>
       </c>
       <c r="E646" s="2">
         <v>1877.991116075696</v>
@@ -15964,7 +15964,7 @@
         <v>9</v>
       </c>
       <c r="D647" s="2">
-        <v>0.3135282050352544</v>
+        <v>0.4707510820007883</v>
       </c>
       <c r="E647" s="2">
         <v>2003.903832297094</v>
@@ -15988,7 +15988,7 @@
         <v>10</v>
       </c>
       <c r="D648" s="2">
-        <v>0.2712751999497414</v>
+        <v>0.2855878059999668</v>
       </c>
       <c r="E648" s="2">
         <v>2143.159097721893</v>
@@ -16012,7 +16012,7 @@
         <v>11</v>
       </c>
       <c r="D649" s="2">
-        <v>0.2916956730186939</v>
+        <v>0.2884858289980912</v>
       </c>
       <c r="E649" s="2">
         <v>2045.998841138761</v>
@@ -16036,7 +16036,7 @@
         <v>12</v>
       </c>
       <c r="D650" s="2">
-        <v>0.2829869870329276</v>
+        <v>0.2943180599977495</v>
       </c>
       <c r="E650" s="2">
         <v>2209.573678863542</v>
@@ -16060,7 +16060,7 @@
         <v>13</v>
       </c>
       <c r="D651" s="2">
-        <v>0.3082995529985055</v>
+        <v>0.3426757199995336</v>
       </c>
       <c r="E651" s="2">
         <v>1864.038793126003</v>
@@ -16084,7 +16084,7 @@
         <v>14</v>
       </c>
       <c r="D652" s="2">
-        <v>0.2617313140071929</v>
+        <v>0.2866936380014522</v>
       </c>
       <c r="E652" s="2">
         <v>2101.798313960515</v>
@@ -16108,7 +16108,7 @@
         <v>15</v>
       </c>
       <c r="D653" s="2">
-        <v>0.2694771210663021</v>
+        <v>0.3121037449964206</v>
       </c>
       <c r="E653" s="2">
         <v>2145.449732074659</v>
@@ -16132,7 +16132,7 @@
         <v>16</v>
       </c>
       <c r="D654" s="2">
-        <v>0.2848416710039601</v>
+        <v>0.3222732700014603</v>
       </c>
       <c r="E654" s="2">
         <v>1637.499617248647</v>
@@ -16156,7 +16156,7 @@
         <v>17</v>
       </c>
       <c r="D655" s="2">
-        <v>0.2766320419032127</v>
+        <v>0.3184471509957802</v>
       </c>
       <c r="E655" s="2">
         <v>2187.991284142878</v>
@@ -16180,7 +16180,7 @@
         <v>18</v>
       </c>
       <c r="D656" s="2">
-        <v>0.3058470010291785</v>
+        <v>0.3162140580025152</v>
       </c>
       <c r="E656" s="2">
         <v>2262.5436513441</v>
@@ -16204,7 +16204,7 @@
         <v>19</v>
       </c>
       <c r="D657" s="2">
-        <v>0.2771246809279546</v>
+        <v>0.2953867350006476</v>
       </c>
       <c r="E657" s="2">
         <v>2670.842628405684</v>
@@ -16228,7 +16228,7 @@
         <v>20</v>
       </c>
       <c r="D658" s="2">
-        <v>0.2939677099930122</v>
+        <v>0.3201258190019871</v>
       </c>
       <c r="E658" s="2">
         <v>2300.57551628496</v>
@@ -16252,7 +16252,7 @@
         <v>21</v>
       </c>
       <c r="D659" s="2">
-        <v>0.2857895520282909</v>
+        <v>0.2866554970023572</v>
       </c>
       <c r="E659" s="2">
         <v>1614.671026771617</v>
@@ -16276,7 +16276,7 @@
         <v>22</v>
       </c>
       <c r="D660" s="2">
-        <v>0.2809163220226765</v>
+        <v>0.2914659899979597</v>
       </c>
       <c r="E660" s="2">
         <v>2198.599214065036</v>
@@ -16300,7 +16300,7 @@
         <v>23</v>
       </c>
       <c r="D661" s="2">
-        <v>0.2934975420357659</v>
+        <v>0.3468094039999414</v>
       </c>
       <c r="E661" s="2">
         <v>2119.865375415557</v>
@@ -16324,7 +16324,7 @@
         <v>24</v>
       </c>
       <c r="D662" s="2">
-        <v>0.3096834829775617</v>
+        <v>0.3214652659953572</v>
       </c>
       <c r="E662" s="2">
         <v>2325.228787745462</v>
@@ -16348,7 +16348,7 @@
         <v>25</v>
       </c>
       <c r="D663" s="2">
-        <v>0.2796819990035146</v>
+        <v>0.3043391280007199</v>
       </c>
       <c r="E663" s="2">
         <v>2214.048556601008</v>
@@ -16372,7 +16372,7 @@
         <v>26</v>
       </c>
       <c r="D664" s="2">
-        <v>0.3011097190901637</v>
+        <v>0.3178518670029007</v>
       </c>
       <c r="E664" s="2">
         <v>2080.515674481825</v>
@@ -16396,7 +16396,7 @@
         <v>27</v>
       </c>
       <c r="D665" s="2">
-        <v>0.2865958859911188</v>
+        <v>0.2746887470057118</v>
       </c>
       <c r="E665" s="2">
         <v>2056.562908057892</v>
@@ -16420,7 +16420,7 @@
         <v>28</v>
       </c>
       <c r="D666" s="2">
-        <v>0.3511663730023429</v>
+        <v>0.2785193500021705</v>
       </c>
       <c r="E666" s="2">
         <v>2319.894559457851</v>
@@ -16444,7 +16444,7 @@
         <v>29</v>
       </c>
       <c r="D667" s="2">
-        <v>0.2916798740625381</v>
+        <v>0.3282173199986573</v>
       </c>
       <c r="E667" s="2">
         <v>1834.099021668695</v>
@@ -16468,7 +16468,7 @@
         <v>30</v>
       </c>
       <c r="D668" s="2">
-        <v>0.32606794196181</v>
+        <v>0.3266193459930946</v>
       </c>
       <c r="E668" s="2">
         <v>2598.882684802518</v>
@@ -16492,7 +16492,7 @@
         <v>31</v>
       </c>
       <c r="D669" s="2">
-        <v>0.3922903269995004</v>
+        <v>0.2792158860029303</v>
       </c>
       <c r="E669" s="2">
         <v>1956.44274580333</v>
@@ -16516,7 +16516,7 @@
         <v>1</v>
       </c>
       <c r="D670" s="2">
-        <v>0.419706808985211</v>
+        <v>0.3042872730002273</v>
       </c>
       <c r="E670" s="2">
         <v>1582.024710486505</v>
@@ -16540,7 +16540,7 @@
         <v>2</v>
       </c>
       <c r="D671" s="2">
-        <v>0.3193411809625104</v>
+        <v>0.3231410070002312</v>
       </c>
       <c r="E671" s="2">
         <v>2812.885011710087</v>
@@ -16564,7 +16564,7 @@
         <v>3</v>
       </c>
       <c r="D672" s="2">
-        <v>0.297704731929116</v>
+        <v>0.3198029970008065</v>
       </c>
       <c r="E672" s="2">
         <v>2118.263736992478</v>
@@ -16588,7 +16588,7 @@
         <v>4</v>
       </c>
       <c r="D673" s="2">
-        <v>0.3753926180070266</v>
+        <v>0.3342825139989145</v>
       </c>
       <c r="E673" s="2">
         <v>2132.693124401771</v>
@@ -16612,7 +16612,7 @@
         <v>5</v>
       </c>
       <c r="D674" s="2">
-        <v>0.3137565669603646</v>
+        <v>0.3164045000012266</v>
       </c>
       <c r="E674" s="2">
         <v>2027.730663656502</v>
@@ -16636,7 +16636,7 @@
         <v>6</v>
       </c>
       <c r="D675" s="2">
-        <v>0.3160891509614885</v>
+        <v>0.3546470619985485</v>
       </c>
       <c r="E675" s="2">
         <v>2168.662063859995</v>
@@ -16660,7 +16660,7 @@
         <v>7</v>
       </c>
       <c r="D676" s="2">
-        <v>0.2765628370689228</v>
+        <v>0.3529255199973704</v>
       </c>
       <c r="E676" s="2">
         <v>2497.4232548469</v>
@@ -16684,7 +16684,7 @@
         <v>8</v>
       </c>
       <c r="D677" s="2">
-        <v>0.3108569999458268</v>
+        <v>0.314817051999853</v>
       </c>
       <c r="E677" s="2">
         <v>2198.229991667836</v>
@@ -16708,7 +16708,7 @@
         <v>9</v>
       </c>
       <c r="D678" s="2">
-        <v>0.3493917380692437</v>
+        <v>0.3324227439952665</v>
       </c>
       <c r="E678" s="2">
         <v>2812.714786904255</v>
@@ -16732,7 +16732,7 @@
         <v>10</v>
       </c>
       <c r="D679" s="2">
-        <v>0.5527323510032147</v>
+        <v>0.2756498960006866</v>
       </c>
       <c r="E679" s="2">
         <v>2212.068073485781</v>
@@ -16756,7 +16756,7 @@
         <v>11</v>
       </c>
       <c r="D680" s="2">
-        <v>0.2777016969630495</v>
+        <v>0.3053659180004615</v>
       </c>
       <c r="E680" s="2">
         <v>2022.196653077408</v>
@@ -16780,7 +16780,7 @@
         <v>12</v>
       </c>
       <c r="D681" s="2">
-        <v>0.387550332932733</v>
+        <v>0.3042800490002264</v>
       </c>
       <c r="E681" s="2">
         <v>2327.473274297517</v>
@@ -16804,7 +16804,7 @@
         <v>13</v>
       </c>
       <c r="D682" s="2">
-        <v>0.2789628789760172</v>
+        <v>0.2822669590022997</v>
       </c>
       <c r="E682" s="2">
         <v>2018.188565122456</v>
@@ -16828,7 +16828,7 @@
         <v>14</v>
       </c>
       <c r="D683" s="2">
-        <v>0.2850221800617874</v>
+        <v>0.3228834420006024</v>
       </c>
       <c r="E683" s="2">
         <v>2163.289825849976</v>
@@ -16852,7 +16852,7 @@
         <v>15</v>
       </c>
       <c r="D684" s="2">
-        <v>0.2808918599039316</v>
+        <v>0.3251545029997942</v>
       </c>
       <c r="E684" s="2">
         <v>2379.640753035322</v>
@@ -16876,7 +16876,7 @@
         <v>16</v>
       </c>
       <c r="D685" s="2">
-        <v>0.3469224669970572</v>
+        <v>0.4041533900017384</v>
       </c>
       <c r="E685" s="2">
         <v>2065.555943045044</v>
@@ -16900,7 +16900,7 @@
         <v>17</v>
       </c>
       <c r="D686" s="2">
-        <v>0.2908043180359527</v>
+        <v>0.3351820390016655</v>
       </c>
       <c r="E686" s="2">
         <v>2111.66450043257</v>
@@ -16924,7 +16924,7 @@
         <v>18</v>
       </c>
       <c r="D687" s="2">
-        <v>0.3371794860577211</v>
+        <v>0.3120817419985542</v>
       </c>
       <c r="E687" s="2">
         <v>2764.964965474363</v>
@@ -16948,7 +16948,7 @@
         <v>19</v>
       </c>
       <c r="D688" s="2">
-        <v>0.2759199490537867</v>
+        <v>0.2980519999982789</v>
       </c>
       <c r="E688" s="2">
         <v>2456.751293400082</v>
@@ -16972,7 +16972,7 @@
         <v>20</v>
       </c>
       <c r="D689" s="2">
-        <v>0.3315924779744819</v>
+        <v>0.2805351549977786</v>
       </c>
       <c r="E689" s="2">
         <v>2154.130336081528</v>
@@ -16996,7 +16996,7 @@
         <v>21</v>
       </c>
       <c r="D690" s="2">
-        <v>0.4586420330451801</v>
+        <v>0.3268704910005908</v>
       </c>
       <c r="E690" s="2">
         <v>1972.993351422253</v>
@@ -17020,7 +17020,7 @@
         <v>22</v>
       </c>
       <c r="D691" s="2">
-        <v>0.4372484789928421</v>
+        <v>0.32839436300128</v>
       </c>
       <c r="E691" s="2">
         <v>2403.317186711863</v>
@@ -17044,7 +17044,7 @@
         <v>23</v>
       </c>
       <c r="D692" s="2">
-        <v>0.3009463099297136</v>
+        <v>0.2814231849988573</v>
       </c>
       <c r="E692" s="2">
         <v>2581.255010194272</v>
@@ -17068,7 +17068,7 @@
         <v>24</v>
       </c>
       <c r="D693" s="2">
-        <v>0.3173710369737819</v>
+        <v>0.3119419180002296</v>
       </c>
       <c r="E693" s="2">
         <v>2155.291143622383</v>
@@ -17092,7 +17092,7 @@
         <v>25</v>
       </c>
       <c r="D694" s="2">
-        <v>0.2873945439932868</v>
+        <v>0.3542345380046754</v>
       </c>
       <c r="E694" s="2">
         <v>1743.698134374437</v>
@@ -17116,7 +17116,7 @@
         <v>26</v>
       </c>
       <c r="D695" s="2">
-        <v>0.2808960909023881</v>
+        <v>0.2761301869977615</v>
       </c>
       <c r="E695" s="2">
         <v>2089.244998889167</v>
@@ -17140,7 +17140,7 @@
         <v>27</v>
       </c>
       <c r="D696" s="2">
-        <v>0.303177219000645</v>
+        <v>0.2862264849973144</v>
       </c>
       <c r="E696" s="2">
         <v>2491.300557235433</v>
@@ -17164,7 +17164,7 @@
         <v>28</v>
       </c>
       <c r="D697" s="2">
-        <v>0.331689624930732</v>
+        <v>0.2999702460001572</v>
       </c>
       <c r="E697" s="2">
         <v>2480.77542974682</v>
@@ -17188,7 +17188,7 @@
         <v>29</v>
       </c>
       <c r="D698" s="2">
-        <v>0.2898933499818668</v>
+        <v>0.2860255140039953</v>
       </c>
       <c r="E698" s="2">
         <v>1945.692170274768</v>
@@ -17212,7 +17212,7 @@
         <v>30</v>
       </c>
       <c r="D699" s="2">
-        <v>0.2976870470447466</v>
+        <v>0.2985465570018278</v>
       </c>
       <c r="E699" s="2">
         <v>1754.746795973851</v>
@@ -17236,7 +17236,7 @@
         <v>1</v>
       </c>
       <c r="D700" s="2">
-        <v>0.3880793619900942</v>
+        <v>0.3763187950025895</v>
       </c>
       <c r="E700" s="2">
         <v>2199.741667094659</v>
@@ -17260,7 +17260,7 @@
         <v>2</v>
       </c>
       <c r="D701" s="2">
-        <v>0.5565719819860533</v>
+        <v>0.3162751299969386</v>
       </c>
       <c r="E701" s="2">
         <v>2080.169304587154</v>
@@ -17284,7 +17284,7 @@
         <v>3</v>
       </c>
       <c r="D702" s="2">
-        <v>0.2769291719887406</v>
+        <v>0.273399937999784</v>
       </c>
       <c r="E702" s="2">
         <v>2139.946699132761</v>
@@ -17308,7 +17308,7 @@
         <v>4</v>
       </c>
       <c r="D703" s="2">
-        <v>0.3402611529454589</v>
+        <v>0.2732560389995342</v>
       </c>
       <c r="E703" s="2">
         <v>2589.430543398417</v>
@@ -17332,7 +17332,7 @@
         <v>5</v>
       </c>
       <c r="D704" s="2">
-        <v>0.2773165999678895</v>
+        <v>0.3065330660028849</v>
       </c>
       <c r="E704" s="2">
         <v>2109.122946990046</v>
@@ -17356,7 +17356,7 @@
         <v>6</v>
       </c>
       <c r="D705" s="2">
-        <v>0.2798505480168387</v>
+        <v>0.3385798509989399</v>
       </c>
       <c r="E705" s="2">
         <v>2590.979311558053</v>
@@ -17380,7 +17380,7 @@
         <v>7</v>
       </c>
       <c r="D706" s="2">
-        <v>0.319753736956045</v>
+        <v>0.304375526997319</v>
       </c>
       <c r="E706" s="2">
         <v>2119.769952723327</v>
@@ -17404,7 +17404,7 @@
         <v>8</v>
       </c>
       <c r="D707" s="2">
-        <v>0.3142347090179101</v>
+        <v>0.286916046999977</v>
       </c>
       <c r="E707" s="2">
         <v>1694.668386658945</v>
@@ -17428,7 +17428,7 @@
         <v>9</v>
       </c>
       <c r="D708" s="2">
-        <v>0.3228409109869972</v>
+        <v>0.3426218050008174</v>
       </c>
       <c r="E708" s="2">
         <v>2375.687641973687</v>
@@ -17452,7 +17452,7 @@
         <v>10</v>
       </c>
       <c r="D709" s="2">
-        <v>0.2829294999828562</v>
+        <v>0.2923262319964124</v>
       </c>
       <c r="E709" s="2">
         <v>2113.516609620399</v>
@@ -17476,7 +17476,7 @@
         <v>11</v>
       </c>
       <c r="D710" s="2">
-        <v>0.3025959979277104</v>
+        <v>0.2893247840038384</v>
       </c>
       <c r="E710" s="2">
         <v>2090.700046596345</v>
@@ -17500,7 +17500,7 @@
         <v>12</v>
       </c>
       <c r="D711" s="2">
-        <v>0.3062675029505044</v>
+        <v>0.2805854819962406</v>
       </c>
       <c r="E711" s="2">
         <v>2098.694639352564</v>
@@ -17524,7 +17524,7 @@
         <v>13</v>
       </c>
       <c r="D712" s="2">
-        <v>0.4352060409728438</v>
+        <v>0.2938957620062865</v>
       </c>
       <c r="E712" s="2">
         <v>2162.012203625968</v>
@@ -17548,7 +17548,7 @@
         <v>14</v>
       </c>
       <c r="D713" s="2">
-        <v>0.4229147389996797</v>
+        <v>0.3298169010013225</v>
       </c>
       <c r="E713" s="2">
         <v>1855.99633284212</v>
@@ -17572,7 +17572,7 @@
         <v>15</v>
       </c>
       <c r="D714" s="2">
-        <v>0.4226058790227398</v>
+        <v>0.3089213109997218</v>
       </c>
       <c r="E714" s="2">
         <v>2152.977546274826</v>
@@ -17596,7 +17596,7 @@
         <v>16</v>
       </c>
       <c r="D715" s="2">
-        <v>0.3294116869801655</v>
+        <v>0.2777070449956227</v>
       </c>
       <c r="E715" s="2">
         <v>2239.217572283548</v>
@@ -17620,7 +17620,7 @@
         <v>17</v>
       </c>
       <c r="D716" s="2">
-        <v>0.3193885799264535</v>
+        <v>0.2888655890055816</v>
       </c>
       <c r="E716" s="2">
         <v>2654.925654383775</v>
@@ -17644,7 +17644,7 @@
         <v>18</v>
       </c>
       <c r="D717" s="2">
-        <v>0.358557517058216</v>
+        <v>0.2905793550016824</v>
       </c>
       <c r="E717" s="2">
         <v>1916.042287114699</v>
@@ -17668,7 +17668,7 @@
         <v>19</v>
       </c>
       <c r="D718" s="2">
-        <v>0.3821811520028859</v>
+        <v>0.2937982630028273</v>
       </c>
       <c r="E718" s="2">
         <v>2366.344453456522</v>
@@ -17692,7 +17692,7 @@
         <v>20</v>
       </c>
       <c r="D719" s="2">
-        <v>0.2972179939970374</v>
+        <v>0.3059418349948828</v>
       </c>
       <c r="E719" s="2">
         <v>1988.034409057532</v>
@@ -17716,7 +17716,7 @@
         <v>21</v>
       </c>
       <c r="D720" s="2">
-        <v>0.3461227290099487</v>
+        <v>0.2813724989973707</v>
       </c>
       <c r="E720" s="2">
         <v>2159.736195700308</v>
@@ -17740,7 +17740,7 @@
         <v>22</v>
       </c>
       <c r="D721" s="2">
-        <v>0.2832573800114915</v>
+        <v>0.2988041509961477</v>
       </c>
       <c r="E721" s="2">
         <v>2013.972667357302</v>
@@ -17764,7 +17764,7 @@
         <v>23</v>
       </c>
       <c r="D722" s="2">
-        <v>0.2893576989881694</v>
+        <v>0.3018400390064926</v>
       </c>
       <c r="E722" s="2">
         <v>1999.500988823738</v>
@@ -17788,7 +17788,7 @@
         <v>24</v>
       </c>
       <c r="D723" s="2">
-        <v>0.3226467180065811</v>
+        <v>0.3527243589996942</v>
       </c>
       <c r="E723" s="2">
         <v>1860.216024852007</v>
@@ -17812,7 +17812,7 @@
         <v>25</v>
       </c>
       <c r="D724" s="2">
-        <v>0.362264591967687</v>
+        <v>0.2822200130030978</v>
       </c>
       <c r="E724" s="2">
         <v>2119.819988570566</v>
@@ -17836,7 +17836,7 @@
         <v>26</v>
       </c>
       <c r="D725" s="2">
-        <v>0.2853792469250038</v>
+        <v>0.3336333800034481</v>
       </c>
       <c r="E725" s="2">
         <v>2846.595611672283</v>
@@ -17860,7 +17860,7 @@
         <v>27</v>
       </c>
       <c r="D726" s="2">
-        <v>0.3223181520588696</v>
+        <v>0.2818512669982738</v>
       </c>
       <c r="E726" s="2">
         <v>2229.860544574427</v>
@@ -17884,7 +17884,7 @@
         <v>28</v>
       </c>
       <c r="D727" s="2">
-        <v>0.2766962699824944</v>
+        <v>0.291361791001691</v>
       </c>
       <c r="E727" s="2">
         <v>2351.606247694505</v>
@@ -17908,7 +17908,7 @@
         <v>29</v>
       </c>
       <c r="D728" s="2">
-        <v>0.3103027109755203</v>
+        <v>0.3614249780002865</v>
       </c>
       <c r="E728" s="2">
         <v>1671.37185218673</v>
@@ -17932,7 +17932,7 @@
         <v>30</v>
       </c>
       <c r="D729" s="2">
-        <v>0.3190991949522868</v>
+        <v>0.2861049040002399</v>
       </c>
       <c r="E729" s="2">
         <v>2374.205047790112</v>
